--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2286,7 +2286,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -4242,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>611</v>
@@ -4581,7 +4581,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>619</v>
@@ -7442,7 +7442,7 @@
         <v>498</v>
       </c>
       <c r="B90" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>670</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="853">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2722,9 +2722,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4146,7 +4143,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4155,7 +4152,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4164,7 +4161,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4181,7 +4178,7 @@
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4192,7 +4189,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4201,7 +4198,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4220,7 +4217,7 @@
         <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4245,7 +4242,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4258,7 +4255,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4267,7 +4264,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4284,7 +4281,7 @@
         <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4295,7 +4292,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4304,7 +4301,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4323,7 +4320,7 @@
         <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4334,7 +4331,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4343,7 +4340,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4352,7 +4349,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4369,7 +4366,7 @@
         <v>590</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4380,7 +4377,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4389,7 +4386,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4398,7 +4395,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4415,7 +4412,7 @@
         <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4426,21 +4423,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4452,10 +4449,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4466,7 +4463,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4475,7 +4472,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4484,7 +4481,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4498,10 +4495,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4512,7 +4509,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4521,7 +4518,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4530,7 +4527,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4547,7 +4544,7 @@
         <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4565,7 +4562,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4584,7 +4581,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4595,7 +4592,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4604,7 +4601,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4613,7 +4610,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4627,10 +4624,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4666,14 +4663,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4682,7 +4679,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4691,7 +4688,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4705,10 +4702,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4719,7 +4716,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4728,7 +4725,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4737,7 +4734,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4758,7 +4755,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4767,7 +4764,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4776,7 +4773,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4790,14 +4787,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4806,7 +4803,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4815,7 +4812,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4832,7 +4829,7 @@
         <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4843,7 +4840,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4852,7 +4849,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4861,7 +4858,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4882,7 +4879,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4891,7 +4888,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4900,7 +4897,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4921,7 +4918,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -4930,7 +4927,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4939,7 +4936,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4953,10 +4950,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -4981,7 +4978,7 @@
         <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -4992,7 +4989,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5001,7 +4998,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5010,7 +5007,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5031,7 +5028,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5059,7 +5056,7 @@
         <v>590</v>
       </c>
       <c r="C26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5072,7 +5069,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5081,7 +5078,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5102,7 +5099,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5111,7 +5108,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5120,7 +5117,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5134,10 +5131,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5148,7 +5145,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5157,7 +5154,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5166,7 +5163,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5180,10 +5177,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5194,7 +5191,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5203,7 +5200,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5212,7 +5209,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5226,10 +5223,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5240,7 +5237,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5249,7 +5246,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5258,7 +5255,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5272,10 +5269,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C31" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5286,7 +5283,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5295,7 +5292,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5304,7 +5301,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5321,7 +5318,7 @@
         <v>590</v>
       </c>
       <c r="C32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5352,7 +5349,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5361,7 +5358,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5382,7 +5379,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5391,7 +5388,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5400,7 +5397,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5419,7 +5416,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5428,7 +5425,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5437,7 +5434,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5446,7 +5443,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5460,10 +5457,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5472,7 +5469,7 @@
         <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G36" t="s">
         <v>231</v>
@@ -5481,7 +5478,7 @@
         <v>232</v>
       </c>
       <c r="I36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J36" t="s">
         <v>222</v>
@@ -5490,7 +5487,7 @@
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M36" t="s">
         <v>224</v>
@@ -5499,7 +5496,7 @@
         <v>225</v>
       </c>
       <c r="O36" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P36" t="s">
         <v>226</v>
@@ -5516,7 +5513,7 @@
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D37" t="s">
         <v>234</v>
@@ -5556,10 +5553,10 @@
         <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D39" t="s">
         <v>238</v>
@@ -5570,7 +5567,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J39" t="s">
         <v>240</v>
@@ -5579,7 +5576,7 @@
         <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M39" t="s">
         <v>242</v>
@@ -5588,7 +5585,7 @@
         <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P39" t="s">
         <v>244</v>
@@ -5605,7 +5602,7 @@
         <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D40" t="s">
         <v>247</v>
@@ -5616,7 +5613,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J40" t="s">
         <v>249</v>
@@ -5625,7 +5622,7 @@
         <v>250</v>
       </c>
       <c r="L40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M40" t="s">
         <v>251</v>
@@ -5634,7 +5631,7 @@
         <v>252</v>
       </c>
       <c r="O40" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P40" t="s">
         <v>253</v>
@@ -5655,7 +5652,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J41" t="s">
         <v>256</v>
@@ -5664,7 +5661,7 @@
         <v>257</v>
       </c>
       <c r="L41" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M41" t="s">
         <v>258</v>
@@ -5673,7 +5670,7 @@
         <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
@@ -5685,14 +5682,14 @@
         <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J42" t="s">
         <v>262</v>
@@ -5701,7 +5698,7 @@
         <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M42" t="s">
         <v>264</v>
@@ -5710,7 +5707,7 @@
         <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P42" t="s">
         <v>266</v>
@@ -5733,7 +5730,7 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M43" t="s">
         <v>269</v>
@@ -5742,7 +5739,7 @@
         <v>270</v>
       </c>
       <c r="O43" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -5756,7 +5753,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C44" t="s">
         <v>275</v>
@@ -5772,7 +5769,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M44" t="s">
         <v>276</v>
@@ -5781,7 +5778,7 @@
         <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P44" t="s">
         <v>278</v>
@@ -5795,10 +5792,10 @@
         <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D45" t="s">
         <v>281</v>
@@ -5809,7 +5806,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -5818,7 +5815,7 @@
         <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M45" t="s">
         <v>285</v>
@@ -5827,7 +5824,7 @@
         <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P45" t="s">
         <v>278</v>
@@ -5844,7 +5841,7 @@
         <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D46" t="s">
         <v>288</v>
@@ -5855,7 +5852,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J46" t="s">
         <v>290</v>
@@ -5864,7 +5861,7 @@
         <v>291</v>
       </c>
       <c r="L46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M46" t="s">
         <v>292</v>
@@ -5873,7 +5870,7 @@
         <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P46" t="s">
         <v>294</v>
@@ -5887,10 +5884,10 @@
         <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D47" t="s">
         <v>297</v>
@@ -5901,7 +5898,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J47" t="s">
         <v>299</v>
@@ -5910,7 +5907,7 @@
         <v>300</v>
       </c>
       <c r="L47" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M47" t="s">
         <v>301</v>
@@ -5919,7 +5916,7 @@
         <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P47" t="s">
         <v>301</v>
@@ -5940,7 +5937,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J48" t="s">
         <v>304</v>
@@ -5949,7 +5946,7 @@
         <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M48" t="s">
         <v>306</v>
@@ -5958,7 +5955,7 @@
         <v>307</v>
       </c>
       <c r="O48" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P48" t="s">
         <v>308</v>
@@ -5975,7 +5972,7 @@
         <v>590</v>
       </c>
       <c r="C49" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D49" t="s">
         <v>311</v>
@@ -6000,7 +5997,7 @@
         <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P49" t="s">
         <v>308</v>
@@ -6017,7 +6014,7 @@
         <v>590</v>
       </c>
       <c r="C50" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6042,7 +6039,7 @@
         <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P50" t="s">
         <v>308</v>
@@ -6059,7 +6056,7 @@
         <v>592</v>
       </c>
       <c r="C51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D51" t="s">
         <v>318</v>
@@ -6070,7 +6067,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6079,7 +6076,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6088,7 +6085,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6109,7 +6106,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J52" t="s">
         <v>327</v>
@@ -6118,7 +6115,7 @@
         <v>328</v>
       </c>
       <c r="L52" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M52" t="s">
         <v>329</v>
@@ -6127,7 +6124,7 @@
         <v>330</v>
       </c>
       <c r="O52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P52" t="s">
         <v>331</v>
@@ -6144,7 +6141,7 @@
         <v>590</v>
       </c>
       <c r="C53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D53" t="s">
         <v>334</v>
@@ -6190,7 +6187,7 @@
         <v>590</v>
       </c>
       <c r="C54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D54" t="s">
         <v>337</v>
@@ -6199,7 +6196,7 @@
         <v>338</v>
       </c>
       <c r="F54" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G54" t="s">
         <v>339</v>
@@ -6240,10 +6237,10 @@
         <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C55" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D55" t="s">
         <v>342</v>
@@ -6285,7 +6282,7 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G56" t="s">
         <v>345</v>
@@ -6326,10 +6323,10 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C57" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D57" t="s">
         <v>349</v>
@@ -6338,7 +6335,7 @@
         <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G57" t="s">
         <v>351</v>
@@ -6384,7 +6381,7 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G58" t="s">
         <v>355</v>
@@ -6425,10 +6422,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -6439,7 +6436,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J59" t="s">
         <v>361</v>
@@ -6448,7 +6445,7 @@
         <v>362</v>
       </c>
       <c r="L59" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M59" t="s">
         <v>363</v>
@@ -6457,7 +6454,7 @@
         <v>364</v>
       </c>
       <c r="O59" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P59" t="s">
         <v>365</v>
@@ -6471,10 +6468,10 @@
         <v>367</v>
       </c>
       <c r="B60" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D60" t="s">
         <v>368</v>
@@ -6485,7 +6482,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J60" t="s">
         <v>370</v>
@@ -6494,7 +6491,7 @@
         <v>371</v>
       </c>
       <c r="L60" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M60" t="s">
         <v>372</v>
@@ -6503,7 +6500,7 @@
         <v>373</v>
       </c>
       <c r="O60" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P60" t="s">
         <v>374</v>
@@ -6517,10 +6514,10 @@
         <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C61" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D61" t="s">
         <v>377</v>
@@ -6531,7 +6528,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J61" t="s">
         <v>379</v>
@@ -6540,7 +6537,7 @@
         <v>380</v>
       </c>
       <c r="L61" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M61" t="s">
         <v>381</v>
@@ -6549,7 +6546,7 @@
         <v>382</v>
       </c>
       <c r="O61" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P61" t="s">
         <v>383</v>
@@ -6568,7 +6565,7 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G62" t="s">
         <v>386</v>
@@ -6593,7 +6590,7 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G63" t="s">
         <v>389</v>
@@ -6634,10 +6631,10 @@
         <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D64" t="s">
         <v>392</v>
@@ -6648,7 +6645,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J64" t="s">
         <v>394</v>
@@ -6657,7 +6654,7 @@
         <v>395</v>
       </c>
       <c r="L64" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M64" t="s">
         <v>396</v>
@@ -6666,7 +6663,7 @@
         <v>397</v>
       </c>
       <c r="O64" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P64" t="s">
         <v>398</v>
@@ -6683,7 +6680,7 @@
         <v>590</v>
       </c>
       <c r="C65" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D65" t="s">
         <v>401</v>
@@ -6705,10 +6702,10 @@
         <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D66" t="s">
         <v>404</v>
@@ -6733,7 +6730,7 @@
         <v>590</v>
       </c>
       <c r="C67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -6758,7 +6755,7 @@
         <v>590</v>
       </c>
       <c r="C68" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6783,7 +6780,7 @@
         <v>590</v>
       </c>
       <c r="C69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -6792,7 +6789,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -6811,7 +6808,7 @@
         <v>590</v>
       </c>
       <c r="C70" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
@@ -6820,7 +6817,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -6839,7 +6836,7 @@
         <v>590</v>
       </c>
       <c r="C71" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -6848,21 +6845,21 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
         <v>420</v>
       </c>
       <c r="L71" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
         <v>421</v>
       </c>
       <c r="O71" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6876,10 +6873,10 @@
         <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C72" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D72" t="s">
         <v>425</v>
@@ -6890,21 +6887,21 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
         <v>420</v>
       </c>
       <c r="L72" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="s">
         <v>427</v>
       </c>
       <c r="O72" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P72" t="s">
         <v>422</v>
@@ -6927,7 +6924,7 @@
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M73" t="s">
         <v>430</v>
@@ -6946,7 +6943,7 @@
         <v>590</v>
       </c>
       <c r="C74" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D74" t="s">
         <v>433</v>
@@ -6971,7 +6968,7 @@
         <v>590</v>
       </c>
       <c r="C75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D75" t="s">
         <v>436</v>
@@ -6993,10 +6990,10 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C76" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D76" t="s">
         <v>439</v>
@@ -7009,7 +7006,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M76" t="s">
         <v>441</v>
@@ -7025,10 +7022,10 @@
         <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C77" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D77" t="s">
         <v>444</v>
@@ -7041,7 +7038,7 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M77" t="s">
         <v>446</v>
@@ -7060,7 +7057,7 @@
         <v>590</v>
       </c>
       <c r="C78" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -7083,7 +7080,7 @@
         <v>590</v>
       </c>
       <c r="C79" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D79" t="s">
         <v>451</v>
@@ -7094,14 +7091,14 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
         <v>453</v>
       </c>
       <c r="L79" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="s">
@@ -7118,7 +7115,7 @@
         <v>590</v>
       </c>
       <c r="C80" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D80" t="s">
         <v>455</v>
@@ -7129,7 +7126,7 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -7138,7 +7135,7 @@
         <v>458</v>
       </c>
       <c r="L80" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M80" t="s">
         <v>459</v>
@@ -7147,7 +7144,7 @@
         <v>460</v>
       </c>
       <c r="O80" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P80" t="s">
         <v>461</v>
@@ -7161,10 +7158,10 @@
         <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C81" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D81" t="s">
         <v>464</v>
@@ -7195,7 +7192,7 @@
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7204,7 +7201,7 @@
         <v>270</v>
       </c>
       <c r="O82" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P82" t="s">
         <v>468</v>
@@ -7223,7 +7220,7 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G83" t="s">
         <v>471</v>
@@ -7267,7 +7264,7 @@
         <v>590</v>
       </c>
       <c r="C84" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D84" t="s">
         <v>474</v>
@@ -7276,7 +7273,7 @@
         <v>475</v>
       </c>
       <c r="F84" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G84" t="s">
         <v>476</v>
@@ -7299,7 +7296,7 @@
         <v>590</v>
       </c>
       <c r="C85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D85" t="s">
         <v>479</v>
@@ -7308,7 +7305,7 @@
         <v>475</v>
       </c>
       <c r="F85" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G85" t="s">
         <v>480</v>
@@ -7331,7 +7328,7 @@
         <v>590</v>
       </c>
       <c r="C86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D86" t="s">
         <v>483</v>
@@ -7340,7 +7337,7 @@
         <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G86" t="s">
         <v>485</v>
@@ -7363,7 +7360,7 @@
         <v>590</v>
       </c>
       <c r="C87" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D87" t="s">
         <v>488</v>
@@ -7388,7 +7385,7 @@
         <v>590</v>
       </c>
       <c r="C88" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -7413,7 +7410,7 @@
         <v>590</v>
       </c>
       <c r="C89" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -7422,7 +7419,7 @@
         <v>495</v>
       </c>
       <c r="F89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G89" t="s">
         <v>496</v>
@@ -7445,7 +7442,7 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D90" t="s">
         <v>499</v>
@@ -7456,7 +7453,7 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J90" t="s">
         <v>501</v>
@@ -7465,7 +7462,7 @@
         <v>502</v>
       </c>
       <c r="L90" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M90" t="s">
         <v>503</v>
@@ -7474,7 +7471,7 @@
         <v>504</v>
       </c>
       <c r="O90" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P90" t="s">
         <v>505</v>
@@ -7491,7 +7488,7 @@
         <v>590</v>
       </c>
       <c r="C91" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D91" t="s">
         <v>508</v>
@@ -7513,10 +7510,10 @@
         <v>510</v>
       </c>
       <c r="B92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C92" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D92" t="s">
         <v>511</v>
@@ -7538,7 +7535,7 @@
         <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -7556,7 +7553,7 @@
         <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -7565,7 +7562,7 @@
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M94" t="s">
         <v>515</v>
@@ -7581,10 +7578,10 @@
         <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D95" t="s">
         <v>518</v>
@@ -7595,7 +7592,7 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J95" t="s">
         <v>520</v>
@@ -7604,7 +7601,7 @@
         <v>521</v>
       </c>
       <c r="L95" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M95" t="s">
         <v>522</v>
@@ -7613,7 +7610,7 @@
         <v>523</v>
       </c>
       <c r="O95" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P95" t="s">
         <v>524</v>
@@ -7627,10 +7624,10 @@
         <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C96" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -7641,7 +7638,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -7650,7 +7647,7 @@
         <v>530</v>
       </c>
       <c r="L96" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M96" t="s">
         <v>531</v>
@@ -7659,7 +7656,7 @@
         <v>532</v>
       </c>
       <c r="O96" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P96" t="s">
         <v>533</v>
@@ -7676,7 +7673,7 @@
         <v>592</v>
       </c>
       <c r="C97" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D97" t="s">
         <v>536</v>
@@ -7687,7 +7684,7 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J97" t="s">
         <v>538</v>
@@ -7696,7 +7693,7 @@
         <v>539</v>
       </c>
       <c r="L97" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M97" t="s">
         <v>467</v>
@@ -7705,7 +7702,7 @@
         <v>270</v>
       </c>
       <c r="O97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P97" t="s">
         <v>540</v>
@@ -7719,10 +7716,10 @@
         <v>542</v>
       </c>
       <c r="B98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C98" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D98" t="s">
         <v>543</v>
@@ -7733,7 +7730,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J98" t="s">
         <v>545</v>
@@ -7742,7 +7739,7 @@
         <v>546</v>
       </c>
       <c r="L98" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M98" t="s">
         <v>547</v>
@@ -7751,7 +7748,7 @@
         <v>548</v>
       </c>
       <c r="O98" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="P98" t="s">
         <v>549</v>
@@ -7768,7 +7765,7 @@
         <v>592</v>
       </c>
       <c r="C99" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D99" t="s">
         <v>552</v>
@@ -7781,7 +7778,7 @@
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M99" t="s">
         <v>554</v>
@@ -7790,7 +7787,7 @@
         <v>555</v>
       </c>
       <c r="O99" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="P99" t="s">
         <v>556</v>
@@ -7807,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="C100" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D100" t="s">
         <v>559</v>
@@ -7820,7 +7817,7 @@
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M100" t="s">
         <v>561</v>
@@ -7836,10 +7833,10 @@
         <v>563</v>
       </c>
       <c r="B101" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C101" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D101" t="s">
         <v>564</v>
@@ -7850,7 +7847,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J101" t="s">
         <v>566</v>
@@ -7859,7 +7856,7 @@
         <v>567</v>
       </c>
       <c r="L101" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M101" t="s">
         <v>568</v>
@@ -7868,7 +7865,7 @@
         <v>569</v>
       </c>
       <c r="O101" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="P101" t="s">
         <v>570</v>
@@ -7885,7 +7882,7 @@
         <v>592</v>
       </c>
       <c r="C102" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D102" t="s">
         <v>573</v>
@@ -7896,7 +7893,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J102" t="s">
         <v>575</v>
@@ -7905,7 +7902,7 @@
         <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M102" t="s">
         <v>577</v>
@@ -7914,7 +7911,7 @@
         <v>578</v>
       </c>
       <c r="O102" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P102" t="s">
         <v>579</v>
@@ -7928,10 +7925,10 @@
         <v>581</v>
       </c>
       <c r="B103" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C103" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D103" t="s">
         <v>582</v>
@@ -7942,7 +7939,7 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J103" t="s">
         <v>584</v>
@@ -7951,7 +7948,7 @@
         <v>585</v>
       </c>
       <c r="L103" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M103" t="s">
         <v>586</v>
@@ -7960,7 +7957,7 @@
         <v>587</v>
       </c>
       <c r="O103" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="P103" t="s">
         <v>588</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
+*ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2286,7 +2286,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -2722,6 +2722,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4143,7 +4146,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4152,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4161,7 +4164,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4178,7 +4181,7 @@
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4189,7 +4192,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4198,7 +4201,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4217,7 +4220,7 @@
         <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4242,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4255,7 +4258,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4264,7 +4267,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4281,7 +4284,7 @@
         <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4292,7 +4295,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4301,7 +4304,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4320,7 +4323,7 @@
         <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4331,7 +4334,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4340,7 +4343,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4349,7 +4352,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4366,7 +4369,7 @@
         <v>590</v>
       </c>
       <c r="C9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4377,7 +4380,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4386,7 +4389,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4395,7 +4398,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4412,7 +4415,7 @@
         <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4423,21 +4426,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4449,10 +4452,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4463,7 +4466,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4472,7 +4475,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4481,7 +4484,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4495,10 +4498,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4509,7 +4512,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4518,7 +4521,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4527,7 +4530,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4544,7 +4547,7 @@
         <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4562,7 +4565,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4581,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4592,7 +4595,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4601,7 +4604,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4610,7 +4613,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4624,10 +4627,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C15" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4663,14 +4666,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4679,7 +4682,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4688,7 +4691,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4702,10 +4705,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4716,7 +4719,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4725,7 +4728,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4734,7 +4737,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4755,7 +4758,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4764,7 +4767,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4773,7 +4776,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4787,14 +4790,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4803,7 +4806,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4812,7 +4815,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4829,7 +4832,7 @@
         <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4840,7 +4843,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4849,7 +4852,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4858,7 +4861,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4879,7 +4882,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4888,7 +4891,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4897,7 +4900,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4918,7 +4921,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -4927,7 +4930,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4936,7 +4939,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4950,10 +4953,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C23" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -4978,7 +4981,7 @@
         <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -4989,7 +4992,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -4998,7 +5001,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5007,7 +5010,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5028,7 +5031,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5056,7 +5059,7 @@
         <v>590</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5069,7 +5072,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5078,7 +5081,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5099,7 +5102,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5108,7 +5111,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5117,7 +5120,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5131,10 +5134,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5145,7 +5148,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5154,7 +5157,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5163,7 +5166,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5177,10 +5180,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C29" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5191,7 +5194,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5200,7 +5203,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5209,7 +5212,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5223,10 +5226,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C30" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5237,7 +5240,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5246,7 +5249,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5255,7 +5258,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5269,10 +5272,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C31" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5283,7 +5286,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5292,7 +5295,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5301,7 +5304,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5318,7 +5321,7 @@
         <v>590</v>
       </c>
       <c r="C32" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5349,7 +5352,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5358,7 +5361,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5379,7 +5382,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5388,7 +5391,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5397,7 +5400,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5416,7 +5419,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5425,7 +5428,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5434,7 +5437,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5443,7 +5446,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5457,10 +5460,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5469,7 +5472,7 @@
         <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G36" t="s">
         <v>231</v>
@@ -5478,7 +5481,7 @@
         <v>232</v>
       </c>
       <c r="I36" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J36" t="s">
         <v>222</v>
@@ -5487,7 +5490,7 @@
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M36" t="s">
         <v>224</v>
@@ -5496,7 +5499,7 @@
         <v>225</v>
       </c>
       <c r="O36" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P36" t="s">
         <v>226</v>
@@ -5513,7 +5516,7 @@
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D37" t="s">
         <v>234</v>
@@ -5553,10 +5556,10 @@
         <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C39" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D39" t="s">
         <v>238</v>
@@ -5567,7 +5570,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J39" t="s">
         <v>240</v>
@@ -5576,7 +5579,7 @@
         <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M39" t="s">
         <v>242</v>
@@ -5585,7 +5588,7 @@
         <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P39" t="s">
         <v>244</v>
@@ -5602,7 +5605,7 @@
         <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D40" t="s">
         <v>247</v>
@@ -5613,7 +5616,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J40" t="s">
         <v>249</v>
@@ -5622,7 +5625,7 @@
         <v>250</v>
       </c>
       <c r="L40" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M40" t="s">
         <v>251</v>
@@ -5631,7 +5634,7 @@
         <v>252</v>
       </c>
       <c r="O40" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P40" t="s">
         <v>253</v>
@@ -5652,7 +5655,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J41" t="s">
         <v>256</v>
@@ -5661,7 +5664,7 @@
         <v>257</v>
       </c>
       <c r="L41" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M41" t="s">
         <v>258</v>
@@ -5670,7 +5673,7 @@
         <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
@@ -5682,14 +5685,14 @@
         <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J42" t="s">
         <v>262</v>
@@ -5698,7 +5701,7 @@
         <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M42" t="s">
         <v>264</v>
@@ -5707,7 +5710,7 @@
         <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="P42" t="s">
         <v>266</v>
@@ -5730,7 +5733,7 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M43" t="s">
         <v>269</v>
@@ -5739,7 +5742,7 @@
         <v>270</v>
       </c>
       <c r="O43" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -5753,7 +5756,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C44" t="s">
         <v>275</v>
@@ -5769,7 +5772,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M44" t="s">
         <v>276</v>
@@ -5778,7 +5781,7 @@
         <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P44" t="s">
         <v>278</v>
@@ -5792,10 +5795,10 @@
         <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C45" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D45" t="s">
         <v>281</v>
@@ -5806,7 +5809,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -5815,7 +5818,7 @@
         <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M45" t="s">
         <v>285</v>
@@ -5824,7 +5827,7 @@
         <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P45" t="s">
         <v>278</v>
@@ -5841,7 +5844,7 @@
         <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D46" t="s">
         <v>288</v>
@@ -5852,7 +5855,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J46" t="s">
         <v>290</v>
@@ -5861,7 +5864,7 @@
         <v>291</v>
       </c>
       <c r="L46" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M46" t="s">
         <v>292</v>
@@ -5870,7 +5873,7 @@
         <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P46" t="s">
         <v>294</v>
@@ -5884,10 +5887,10 @@
         <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C47" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D47" t="s">
         <v>297</v>
@@ -5898,7 +5901,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J47" t="s">
         <v>299</v>
@@ -5907,7 +5910,7 @@
         <v>300</v>
       </c>
       <c r="L47" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M47" t="s">
         <v>301</v>
@@ -5916,7 +5919,7 @@
         <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="P47" t="s">
         <v>301</v>
@@ -5937,7 +5940,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J48" t="s">
         <v>304</v>
@@ -5946,7 +5949,7 @@
         <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M48" t="s">
         <v>306</v>
@@ -5955,7 +5958,7 @@
         <v>307</v>
       </c>
       <c r="O48" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P48" t="s">
         <v>308</v>
@@ -5972,7 +5975,7 @@
         <v>590</v>
       </c>
       <c r="C49" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D49" t="s">
         <v>311</v>
@@ -5997,7 +6000,7 @@
         <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P49" t="s">
         <v>308</v>
@@ -6014,7 +6017,7 @@
         <v>590</v>
       </c>
       <c r="C50" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6039,7 +6042,7 @@
         <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P50" t="s">
         <v>308</v>
@@ -6056,7 +6059,7 @@
         <v>592</v>
       </c>
       <c r="C51" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D51" t="s">
         <v>318</v>
@@ -6067,7 +6070,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6076,7 +6079,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6085,7 +6088,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6106,7 +6109,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J52" t="s">
         <v>327</v>
@@ -6115,7 +6118,7 @@
         <v>328</v>
       </c>
       <c r="L52" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M52" t="s">
         <v>329</v>
@@ -6124,7 +6127,7 @@
         <v>330</v>
       </c>
       <c r="O52" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P52" t="s">
         <v>331</v>
@@ -6141,7 +6144,7 @@
         <v>590</v>
       </c>
       <c r="C53" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D53" t="s">
         <v>334</v>
@@ -6187,7 +6190,7 @@
         <v>590</v>
       </c>
       <c r="C54" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D54" t="s">
         <v>337</v>
@@ -6196,7 +6199,7 @@
         <v>338</v>
       </c>
       <c r="F54" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G54" t="s">
         <v>339</v>
@@ -6237,10 +6240,10 @@
         <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C55" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D55" t="s">
         <v>342</v>
@@ -6282,7 +6285,7 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G56" t="s">
         <v>345</v>
@@ -6323,10 +6326,10 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C57" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D57" t="s">
         <v>349</v>
@@ -6335,7 +6338,7 @@
         <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G57" t="s">
         <v>351</v>
@@ -6381,7 +6384,7 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G58" t="s">
         <v>355</v>
@@ -6422,10 +6425,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C59" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -6436,7 +6439,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J59" t="s">
         <v>361</v>
@@ -6445,7 +6448,7 @@
         <v>362</v>
       </c>
       <c r="L59" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M59" t="s">
         <v>363</v>
@@ -6454,7 +6457,7 @@
         <v>364</v>
       </c>
       <c r="O59" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P59" t="s">
         <v>365</v>
@@ -6468,10 +6471,10 @@
         <v>367</v>
       </c>
       <c r="B60" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C60" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D60" t="s">
         <v>368</v>
@@ -6482,7 +6485,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J60" t="s">
         <v>370</v>
@@ -6491,7 +6494,7 @@
         <v>371</v>
       </c>
       <c r="L60" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M60" t="s">
         <v>372</v>
@@ -6500,7 +6503,7 @@
         <v>373</v>
       </c>
       <c r="O60" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P60" t="s">
         <v>374</v>
@@ -6514,10 +6517,10 @@
         <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C61" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D61" t="s">
         <v>377</v>
@@ -6528,7 +6531,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J61" t="s">
         <v>379</v>
@@ -6537,7 +6540,7 @@
         <v>380</v>
       </c>
       <c r="L61" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M61" t="s">
         <v>381</v>
@@ -6546,7 +6549,7 @@
         <v>382</v>
       </c>
       <c r="O61" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="P61" t="s">
         <v>383</v>
@@ -6565,7 +6568,7 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G62" t="s">
         <v>386</v>
@@ -6590,7 +6593,7 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G63" t="s">
         <v>389</v>
@@ -6631,10 +6634,10 @@
         <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C64" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D64" t="s">
         <v>392</v>
@@ -6645,7 +6648,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J64" t="s">
         <v>394</v>
@@ -6654,7 +6657,7 @@
         <v>395</v>
       </c>
       <c r="L64" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M64" t="s">
         <v>396</v>
@@ -6663,7 +6666,7 @@
         <v>397</v>
       </c>
       <c r="O64" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="P64" t="s">
         <v>398</v>
@@ -6680,7 +6683,7 @@
         <v>590</v>
       </c>
       <c r="C65" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D65" t="s">
         <v>401</v>
@@ -6702,10 +6705,10 @@
         <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C66" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D66" t="s">
         <v>404</v>
@@ -6730,7 +6733,7 @@
         <v>590</v>
       </c>
       <c r="C67" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -6755,7 +6758,7 @@
         <v>590</v>
       </c>
       <c r="C68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6780,7 +6783,7 @@
         <v>590</v>
       </c>
       <c r="C69" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -6789,7 +6792,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -6808,7 +6811,7 @@
         <v>590</v>
       </c>
       <c r="C70" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
@@ -6817,7 +6820,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -6836,7 +6839,7 @@
         <v>590</v>
       </c>
       <c r="C71" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -6845,21 +6848,21 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
         <v>420</v>
       </c>
       <c r="L71" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
         <v>421</v>
       </c>
       <c r="O71" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6873,10 +6876,10 @@
         <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C72" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D72" t="s">
         <v>425</v>
@@ -6887,21 +6890,21 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
         <v>420</v>
       </c>
       <c r="L72" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="s">
         <v>427</v>
       </c>
       <c r="O72" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P72" t="s">
         <v>422</v>
@@ -6924,7 +6927,7 @@
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M73" t="s">
         <v>430</v>
@@ -6943,7 +6946,7 @@
         <v>590</v>
       </c>
       <c r="C74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D74" t="s">
         <v>433</v>
@@ -6968,7 +6971,7 @@
         <v>590</v>
       </c>
       <c r="C75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D75" t="s">
         <v>436</v>
@@ -6990,10 +6993,10 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D76" t="s">
         <v>439</v>
@@ -7006,7 +7009,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M76" t="s">
         <v>441</v>
@@ -7022,10 +7025,10 @@
         <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C77" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D77" t="s">
         <v>444</v>
@@ -7038,7 +7041,7 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M77" t="s">
         <v>446</v>
@@ -7057,7 +7060,7 @@
         <v>590</v>
       </c>
       <c r="C78" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -7080,7 +7083,7 @@
         <v>590</v>
       </c>
       <c r="C79" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D79" t="s">
         <v>451</v>
@@ -7091,14 +7094,14 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
         <v>453</v>
       </c>
       <c r="L79" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="s">
@@ -7115,7 +7118,7 @@
         <v>590</v>
       </c>
       <c r="C80" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D80" t="s">
         <v>455</v>
@@ -7126,7 +7129,7 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -7135,7 +7138,7 @@
         <v>458</v>
       </c>
       <c r="L80" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M80" t="s">
         <v>459</v>
@@ -7144,7 +7147,7 @@
         <v>460</v>
       </c>
       <c r="O80" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P80" t="s">
         <v>461</v>
@@ -7158,10 +7161,10 @@
         <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C81" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D81" t="s">
         <v>464</v>
@@ -7192,7 +7195,7 @@
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7201,7 +7204,7 @@
         <v>270</v>
       </c>
       <c r="O82" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P82" t="s">
         <v>468</v>
@@ -7220,7 +7223,7 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G83" t="s">
         <v>471</v>
@@ -7264,7 +7267,7 @@
         <v>590</v>
       </c>
       <c r="C84" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D84" t="s">
         <v>474</v>
@@ -7273,7 +7276,7 @@
         <v>475</v>
       </c>
       <c r="F84" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G84" t="s">
         <v>476</v>
@@ -7296,7 +7299,7 @@
         <v>590</v>
       </c>
       <c r="C85" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D85" t="s">
         <v>479</v>
@@ -7305,7 +7308,7 @@
         <v>475</v>
       </c>
       <c r="F85" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G85" t="s">
         <v>480</v>
@@ -7328,7 +7331,7 @@
         <v>590</v>
       </c>
       <c r="C86" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D86" t="s">
         <v>483</v>
@@ -7337,7 +7340,7 @@
         <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G86" t="s">
         <v>485</v>
@@ -7360,7 +7363,7 @@
         <v>590</v>
       </c>
       <c r="C87" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D87" t="s">
         <v>488</v>
@@ -7385,7 +7388,7 @@
         <v>590</v>
       </c>
       <c r="C88" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -7410,7 +7413,7 @@
         <v>590</v>
       </c>
       <c r="C89" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -7419,7 +7422,7 @@
         <v>495</v>
       </c>
       <c r="F89" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G89" t="s">
         <v>496</v>
@@ -7442,7 +7445,7 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D90" t="s">
         <v>499</v>
@@ -7453,7 +7456,7 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J90" t="s">
         <v>501</v>
@@ -7462,7 +7465,7 @@
         <v>502</v>
       </c>
       <c r="L90" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M90" t="s">
         <v>503</v>
@@ -7471,7 +7474,7 @@
         <v>504</v>
       </c>
       <c r="O90" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="P90" t="s">
         <v>505</v>
@@ -7488,7 +7491,7 @@
         <v>590</v>
       </c>
       <c r="C91" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D91" t="s">
         <v>508</v>
@@ -7510,10 +7513,10 @@
         <v>510</v>
       </c>
       <c r="B92" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C92" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D92" t="s">
         <v>511</v>
@@ -7535,7 +7538,7 @@
         <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -7553,7 +7556,7 @@
         <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -7562,7 +7565,7 @@
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M94" t="s">
         <v>515</v>
@@ -7578,10 +7581,10 @@
         <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C95" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D95" t="s">
         <v>518</v>
@@ -7592,7 +7595,7 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J95" t="s">
         <v>520</v>
@@ -7601,7 +7604,7 @@
         <v>521</v>
       </c>
       <c r="L95" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M95" t="s">
         <v>522</v>
@@ -7610,7 +7613,7 @@
         <v>523</v>
       </c>
       <c r="O95" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P95" t="s">
         <v>524</v>
@@ -7624,10 +7627,10 @@
         <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C96" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -7638,7 +7641,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -7647,7 +7650,7 @@
         <v>530</v>
       </c>
       <c r="L96" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M96" t="s">
         <v>531</v>
@@ -7656,7 +7659,7 @@
         <v>532</v>
       </c>
       <c r="O96" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P96" t="s">
         <v>533</v>
@@ -7673,7 +7676,7 @@
         <v>592</v>
       </c>
       <c r="C97" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D97" t="s">
         <v>536</v>
@@ -7684,7 +7687,7 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J97" t="s">
         <v>538</v>
@@ -7693,7 +7696,7 @@
         <v>539</v>
       </c>
       <c r="L97" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M97" t="s">
         <v>467</v>
@@ -7702,7 +7705,7 @@
         <v>270</v>
       </c>
       <c r="O97" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P97" t="s">
         <v>540</v>
@@ -7716,10 +7719,10 @@
         <v>542</v>
       </c>
       <c r="B98" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C98" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D98" t="s">
         <v>543</v>
@@ -7730,7 +7733,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J98" t="s">
         <v>545</v>
@@ -7739,7 +7742,7 @@
         <v>546</v>
       </c>
       <c r="L98" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M98" t="s">
         <v>547</v>
@@ -7748,7 +7751,7 @@
         <v>548</v>
       </c>
       <c r="O98" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P98" t="s">
         <v>549</v>
@@ -7765,7 +7768,7 @@
         <v>592</v>
       </c>
       <c r="C99" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D99" t="s">
         <v>552</v>
@@ -7778,7 +7781,7 @@
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M99" t="s">
         <v>554</v>
@@ -7787,7 +7790,7 @@
         <v>555</v>
       </c>
       <c r="O99" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P99" t="s">
         <v>556</v>
@@ -7804,7 +7807,7 @@
         <v>592</v>
       </c>
       <c r="C100" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D100" t="s">
         <v>559</v>
@@ -7817,7 +7820,7 @@
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M100" t="s">
         <v>561</v>
@@ -7833,10 +7836,10 @@
         <v>563</v>
       </c>
       <c r="B101" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C101" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D101" t="s">
         <v>564</v>
@@ -7847,7 +7850,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J101" t="s">
         <v>566</v>
@@ -7856,7 +7859,7 @@
         <v>567</v>
       </c>
       <c r="L101" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M101" t="s">
         <v>568</v>
@@ -7865,7 +7868,7 @@
         <v>569</v>
       </c>
       <c r="O101" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P101" t="s">
         <v>570</v>
@@ -7882,7 +7885,7 @@
         <v>592</v>
       </c>
       <c r="C102" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D102" t="s">
         <v>573</v>
@@ -7893,7 +7896,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J102" t="s">
         <v>575</v>
@@ -7902,7 +7905,7 @@
         <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M102" t="s">
         <v>577</v>
@@ -7911,7 +7914,7 @@
         <v>578</v>
       </c>
       <c r="O102" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P102" t="s">
         <v>579</v>
@@ -7925,10 +7928,10 @@
         <v>581</v>
       </c>
       <c r="B103" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C103" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D103" t="s">
         <v>582</v>
@@ -7939,7 +7942,7 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J103" t="s">
         <v>584</v>
@@ -7948,7 +7951,7 @@
         <v>585</v>
       </c>
       <c r="L103" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M103" t="s">
         <v>586</v>
@@ -7957,7 +7960,7 @@
         <v>587</v>
       </c>
       <c r="O103" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P103" t="s">
         <v>588</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="854">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2722,6 +2722,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4143,7 +4146,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4152,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4161,7 +4164,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4178,7 +4181,7 @@
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4189,7 +4192,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4198,7 +4201,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4217,7 +4220,7 @@
         <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4239,10 +4242,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4255,7 +4258,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4264,7 +4267,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4281,7 +4284,7 @@
         <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4292,7 +4295,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4301,7 +4304,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4320,7 +4323,7 @@
         <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4331,7 +4334,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4340,7 +4343,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4349,7 +4352,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4366,7 +4369,7 @@
         <v>590</v>
       </c>
       <c r="C9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4377,7 +4380,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4386,7 +4389,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4395,7 +4398,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4412,7 +4415,7 @@
         <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4423,21 +4426,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4449,10 +4452,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4463,7 +4466,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4472,7 +4475,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4481,7 +4484,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4495,10 +4498,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4509,7 +4512,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4518,7 +4521,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4527,7 +4530,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4544,7 +4547,7 @@
         <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4562,7 +4565,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4578,10 +4581,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C14" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4592,7 +4595,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4601,7 +4604,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4610,7 +4613,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4624,10 +4627,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C15" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4663,14 +4666,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4679,7 +4682,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4688,7 +4691,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4702,10 +4705,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4716,7 +4719,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4725,7 +4728,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4734,7 +4737,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4755,7 +4758,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4764,7 +4767,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4773,7 +4776,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4787,14 +4790,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4803,7 +4806,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4812,7 +4815,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4829,7 +4832,7 @@
         <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4840,7 +4843,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4849,7 +4852,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4858,7 +4861,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4879,7 +4882,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4888,7 +4891,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4897,7 +4900,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4918,7 +4921,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -4927,7 +4930,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4936,7 +4939,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4950,10 +4953,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C23" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -4978,7 +4981,7 @@
         <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -4989,7 +4992,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -4998,7 +5001,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5007,7 +5010,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5028,7 +5031,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5056,7 +5059,7 @@
         <v>590</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5069,7 +5072,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5078,7 +5081,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5099,7 +5102,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5108,7 +5111,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5117,7 +5120,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5131,10 +5134,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5145,7 +5148,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5154,7 +5157,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5163,7 +5166,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5177,10 +5180,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C29" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5191,7 +5194,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5200,7 +5203,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5209,7 +5212,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5223,10 +5226,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C30" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5237,7 +5240,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5246,7 +5249,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5255,7 +5258,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5269,10 +5272,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C31" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5283,7 +5286,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5292,7 +5295,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5301,7 +5304,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5318,7 +5321,7 @@
         <v>590</v>
       </c>
       <c r="C32" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5349,7 +5352,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5358,7 +5361,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5379,7 +5382,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5388,7 +5391,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5397,7 +5400,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5416,7 +5419,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5425,7 +5428,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5434,7 +5437,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5443,7 +5446,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5457,10 +5460,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5469,7 +5472,7 @@
         <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G36" t="s">
         <v>231</v>
@@ -5478,7 +5481,7 @@
         <v>232</v>
       </c>
       <c r="I36" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J36" t="s">
         <v>222</v>
@@ -5487,7 +5490,7 @@
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M36" t="s">
         <v>224</v>
@@ -5496,7 +5499,7 @@
         <v>225</v>
       </c>
       <c r="O36" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P36" t="s">
         <v>226</v>
@@ -5513,7 +5516,7 @@
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D37" t="s">
         <v>234</v>
@@ -5553,10 +5556,10 @@
         <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C39" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D39" t="s">
         <v>238</v>
@@ -5567,7 +5570,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J39" t="s">
         <v>240</v>
@@ -5576,7 +5579,7 @@
         <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M39" t="s">
         <v>242</v>
@@ -5585,7 +5588,7 @@
         <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P39" t="s">
         <v>244</v>
@@ -5602,7 +5605,7 @@
         <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D40" t="s">
         <v>247</v>
@@ -5613,7 +5616,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J40" t="s">
         <v>249</v>
@@ -5622,7 +5625,7 @@
         <v>250</v>
       </c>
       <c r="L40" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M40" t="s">
         <v>251</v>
@@ -5631,7 +5634,7 @@
         <v>252</v>
       </c>
       <c r="O40" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P40" t="s">
         <v>253</v>
@@ -5652,7 +5655,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J41" t="s">
         <v>256</v>
@@ -5661,7 +5664,7 @@
         <v>257</v>
       </c>
       <c r="L41" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M41" t="s">
         <v>258</v>
@@ -5670,7 +5673,7 @@
         <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
@@ -5682,14 +5685,14 @@
         <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J42" t="s">
         <v>262</v>
@@ -5698,7 +5701,7 @@
         <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M42" t="s">
         <v>264</v>
@@ -5707,7 +5710,7 @@
         <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="P42" t="s">
         <v>266</v>
@@ -5730,7 +5733,7 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M43" t="s">
         <v>269</v>
@@ -5739,7 +5742,7 @@
         <v>270</v>
       </c>
       <c r="O43" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -5753,7 +5756,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C44" t="s">
         <v>275</v>
@@ -5769,7 +5772,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M44" t="s">
         <v>276</v>
@@ -5778,7 +5781,7 @@
         <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P44" t="s">
         <v>278</v>
@@ -5792,10 +5795,10 @@
         <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C45" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D45" t="s">
         <v>281</v>
@@ -5806,7 +5809,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -5815,7 +5818,7 @@
         <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M45" t="s">
         <v>285</v>
@@ -5824,7 +5827,7 @@
         <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P45" t="s">
         <v>278</v>
@@ -5841,7 +5844,7 @@
         <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D46" t="s">
         <v>288</v>
@@ -5852,7 +5855,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J46" t="s">
         <v>290</v>
@@ -5861,7 +5864,7 @@
         <v>291</v>
       </c>
       <c r="L46" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M46" t="s">
         <v>292</v>
@@ -5870,7 +5873,7 @@
         <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P46" t="s">
         <v>294</v>
@@ -5884,10 +5887,10 @@
         <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C47" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D47" t="s">
         <v>297</v>
@@ -5898,7 +5901,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J47" t="s">
         <v>299</v>
@@ -5907,7 +5910,7 @@
         <v>300</v>
       </c>
       <c r="L47" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M47" t="s">
         <v>301</v>
@@ -5916,7 +5919,7 @@
         <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="P47" t="s">
         <v>301</v>
@@ -5937,7 +5940,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J48" t="s">
         <v>304</v>
@@ -5946,7 +5949,7 @@
         <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M48" t="s">
         <v>306</v>
@@ -5955,7 +5958,7 @@
         <v>307</v>
       </c>
       <c r="O48" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P48" t="s">
         <v>308</v>
@@ -5972,7 +5975,7 @@
         <v>590</v>
       </c>
       <c r="C49" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D49" t="s">
         <v>311</v>
@@ -5997,7 +6000,7 @@
         <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P49" t="s">
         <v>308</v>
@@ -6014,7 +6017,7 @@
         <v>590</v>
       </c>
       <c r="C50" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6039,7 +6042,7 @@
         <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P50" t="s">
         <v>308</v>
@@ -6056,7 +6059,7 @@
         <v>592</v>
       </c>
       <c r="C51" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D51" t="s">
         <v>318</v>
@@ -6067,7 +6070,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6076,7 +6079,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6085,7 +6088,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6106,7 +6109,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J52" t="s">
         <v>327</v>
@@ -6115,7 +6118,7 @@
         <v>328</v>
       </c>
       <c r="L52" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M52" t="s">
         <v>329</v>
@@ -6124,7 +6127,7 @@
         <v>330</v>
       </c>
       <c r="O52" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P52" t="s">
         <v>331</v>
@@ -6141,7 +6144,7 @@
         <v>590</v>
       </c>
       <c r="C53" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D53" t="s">
         <v>334</v>
@@ -6187,7 +6190,7 @@
         <v>590</v>
       </c>
       <c r="C54" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D54" t="s">
         <v>337</v>
@@ -6196,7 +6199,7 @@
         <v>338</v>
       </c>
       <c r="F54" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G54" t="s">
         <v>339</v>
@@ -6237,10 +6240,10 @@
         <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C55" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D55" t="s">
         <v>342</v>
@@ -6282,7 +6285,7 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G56" t="s">
         <v>345</v>
@@ -6323,10 +6326,10 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C57" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D57" t="s">
         <v>349</v>
@@ -6335,7 +6338,7 @@
         <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G57" t="s">
         <v>351</v>
@@ -6381,7 +6384,7 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G58" t="s">
         <v>355</v>
@@ -6422,10 +6425,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C59" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -6436,7 +6439,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J59" t="s">
         <v>361</v>
@@ -6445,7 +6448,7 @@
         <v>362</v>
       </c>
       <c r="L59" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M59" t="s">
         <v>363</v>
@@ -6454,7 +6457,7 @@
         <v>364</v>
       </c>
       <c r="O59" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P59" t="s">
         <v>365</v>
@@ -6468,10 +6471,10 @@
         <v>367</v>
       </c>
       <c r="B60" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C60" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D60" t="s">
         <v>368</v>
@@ -6482,7 +6485,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J60" t="s">
         <v>370</v>
@@ -6491,7 +6494,7 @@
         <v>371</v>
       </c>
       <c r="L60" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M60" t="s">
         <v>372</v>
@@ -6500,7 +6503,7 @@
         <v>373</v>
       </c>
       <c r="O60" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P60" t="s">
         <v>374</v>
@@ -6514,10 +6517,10 @@
         <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C61" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D61" t="s">
         <v>377</v>
@@ -6528,7 +6531,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J61" t="s">
         <v>379</v>
@@ -6537,7 +6540,7 @@
         <v>380</v>
       </c>
       <c r="L61" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M61" t="s">
         <v>381</v>
@@ -6546,7 +6549,7 @@
         <v>382</v>
       </c>
       <c r="O61" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="P61" t="s">
         <v>383</v>
@@ -6565,7 +6568,7 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G62" t="s">
         <v>386</v>
@@ -6590,7 +6593,7 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G63" t="s">
         <v>389</v>
@@ -6631,10 +6634,10 @@
         <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C64" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D64" t="s">
         <v>392</v>
@@ -6645,7 +6648,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J64" t="s">
         <v>394</v>
@@ -6654,7 +6657,7 @@
         <v>395</v>
       </c>
       <c r="L64" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M64" t="s">
         <v>396</v>
@@ -6663,7 +6666,7 @@
         <v>397</v>
       </c>
       <c r="O64" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="P64" t="s">
         <v>398</v>
@@ -6680,7 +6683,7 @@
         <v>590</v>
       </c>
       <c r="C65" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D65" t="s">
         <v>401</v>
@@ -6702,10 +6705,10 @@
         <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C66" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D66" t="s">
         <v>404</v>
@@ -6730,7 +6733,7 @@
         <v>590</v>
       </c>
       <c r="C67" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -6755,7 +6758,7 @@
         <v>590</v>
       </c>
       <c r="C68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6780,7 +6783,7 @@
         <v>590</v>
       </c>
       <c r="C69" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -6789,7 +6792,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -6808,7 +6811,7 @@
         <v>590</v>
       </c>
       <c r="C70" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
@@ -6817,7 +6820,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -6836,7 +6839,7 @@
         <v>590</v>
       </c>
       <c r="C71" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -6845,21 +6848,21 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
         <v>420</v>
       </c>
       <c r="L71" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
         <v>421</v>
       </c>
       <c r="O71" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6873,10 +6876,10 @@
         <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C72" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D72" t="s">
         <v>425</v>
@@ -6887,21 +6890,21 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
         <v>420</v>
       </c>
       <c r="L72" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="s">
         <v>427</v>
       </c>
       <c r="O72" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P72" t="s">
         <v>422</v>
@@ -6924,7 +6927,7 @@
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M73" t="s">
         <v>430</v>
@@ -6943,7 +6946,7 @@
         <v>590</v>
       </c>
       <c r="C74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D74" t="s">
         <v>433</v>
@@ -6968,7 +6971,7 @@
         <v>590</v>
       </c>
       <c r="C75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D75" t="s">
         <v>436</v>
@@ -6990,10 +6993,10 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D76" t="s">
         <v>439</v>
@@ -7006,7 +7009,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M76" t="s">
         <v>441</v>
@@ -7022,10 +7025,10 @@
         <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C77" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D77" t="s">
         <v>444</v>
@@ -7038,7 +7041,7 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M77" t="s">
         <v>446</v>
@@ -7057,7 +7060,7 @@
         <v>590</v>
       </c>
       <c r="C78" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -7080,7 +7083,7 @@
         <v>590</v>
       </c>
       <c r="C79" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D79" t="s">
         <v>451</v>
@@ -7091,14 +7094,14 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
         <v>453</v>
       </c>
       <c r="L79" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="s">
@@ -7115,7 +7118,7 @@
         <v>590</v>
       </c>
       <c r="C80" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D80" t="s">
         <v>455</v>
@@ -7126,7 +7129,7 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -7135,7 +7138,7 @@
         <v>458</v>
       </c>
       <c r="L80" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M80" t="s">
         <v>459</v>
@@ -7144,7 +7147,7 @@
         <v>460</v>
       </c>
       <c r="O80" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P80" t="s">
         <v>461</v>
@@ -7158,10 +7161,10 @@
         <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C81" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D81" t="s">
         <v>464</v>
@@ -7192,7 +7195,7 @@
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7201,7 +7204,7 @@
         <v>270</v>
       </c>
       <c r="O82" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P82" t="s">
         <v>468</v>
@@ -7220,7 +7223,7 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G83" t="s">
         <v>471</v>
@@ -7264,7 +7267,7 @@
         <v>590</v>
       </c>
       <c r="C84" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D84" t="s">
         <v>474</v>
@@ -7273,7 +7276,7 @@
         <v>475</v>
       </c>
       <c r="F84" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G84" t="s">
         <v>476</v>
@@ -7296,7 +7299,7 @@
         <v>590</v>
       </c>
       <c r="C85" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D85" t="s">
         <v>479</v>
@@ -7305,7 +7308,7 @@
         <v>475</v>
       </c>
       <c r="F85" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G85" t="s">
         <v>480</v>
@@ -7328,7 +7331,7 @@
         <v>590</v>
       </c>
       <c r="C86" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D86" t="s">
         <v>483</v>
@@ -7337,7 +7340,7 @@
         <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G86" t="s">
         <v>485</v>
@@ -7360,7 +7363,7 @@
         <v>590</v>
       </c>
       <c r="C87" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D87" t="s">
         <v>488</v>
@@ -7385,7 +7388,7 @@
         <v>590</v>
       </c>
       <c r="C88" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -7410,7 +7413,7 @@
         <v>590</v>
       </c>
       <c r="C89" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -7419,7 +7422,7 @@
         <v>495</v>
       </c>
       <c r="F89" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G89" t="s">
         <v>496</v>
@@ -7439,10 +7442,10 @@
         <v>498</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C90" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D90" t="s">
         <v>499</v>
@@ -7453,7 +7456,7 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J90" t="s">
         <v>501</v>
@@ -7462,7 +7465,7 @@
         <v>502</v>
       </c>
       <c r="L90" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M90" t="s">
         <v>503</v>
@@ -7471,7 +7474,7 @@
         <v>504</v>
       </c>
       <c r="O90" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="P90" t="s">
         <v>505</v>
@@ -7488,7 +7491,7 @@
         <v>590</v>
       </c>
       <c r="C91" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D91" t="s">
         <v>508</v>
@@ -7510,10 +7513,10 @@
         <v>510</v>
       </c>
       <c r="B92" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C92" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D92" t="s">
         <v>511</v>
@@ -7535,7 +7538,7 @@
         <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -7553,7 +7556,7 @@
         <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -7562,7 +7565,7 @@
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M94" t="s">
         <v>515</v>
@@ -7578,10 +7581,10 @@
         <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C95" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D95" t="s">
         <v>518</v>
@@ -7592,7 +7595,7 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J95" t="s">
         <v>520</v>
@@ -7601,7 +7604,7 @@
         <v>521</v>
       </c>
       <c r="L95" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M95" t="s">
         <v>522</v>
@@ -7610,7 +7613,7 @@
         <v>523</v>
       </c>
       <c r="O95" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P95" t="s">
         <v>524</v>
@@ -7624,10 +7627,10 @@
         <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C96" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -7638,7 +7641,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -7647,7 +7650,7 @@
         <v>530</v>
       </c>
       <c r="L96" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M96" t="s">
         <v>531</v>
@@ -7656,7 +7659,7 @@
         <v>532</v>
       </c>
       <c r="O96" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P96" t="s">
         <v>533</v>
@@ -7673,7 +7676,7 @@
         <v>592</v>
       </c>
       <c r="C97" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D97" t="s">
         <v>536</v>
@@ -7684,7 +7687,7 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J97" t="s">
         <v>538</v>
@@ -7693,7 +7696,7 @@
         <v>539</v>
       </c>
       <c r="L97" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M97" t="s">
         <v>467</v>
@@ -7702,7 +7705,7 @@
         <v>270</v>
       </c>
       <c r="O97" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P97" t="s">
         <v>540</v>
@@ -7716,10 +7719,10 @@
         <v>542</v>
       </c>
       <c r="B98" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C98" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D98" t="s">
         <v>543</v>
@@ -7730,7 +7733,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J98" t="s">
         <v>545</v>
@@ -7739,7 +7742,7 @@
         <v>546</v>
       </c>
       <c r="L98" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M98" t="s">
         <v>547</v>
@@ -7748,7 +7751,7 @@
         <v>548</v>
       </c>
       <c r="O98" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P98" t="s">
         <v>549</v>
@@ -7765,7 +7768,7 @@
         <v>592</v>
       </c>
       <c r="C99" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D99" t="s">
         <v>552</v>
@@ -7778,7 +7781,7 @@
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M99" t="s">
         <v>554</v>
@@ -7787,7 +7790,7 @@
         <v>555</v>
       </c>
       <c r="O99" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P99" t="s">
         <v>556</v>
@@ -7804,7 +7807,7 @@
         <v>592</v>
       </c>
       <c r="C100" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D100" t="s">
         <v>559</v>
@@ -7817,7 +7820,7 @@
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M100" t="s">
         <v>561</v>
@@ -7833,10 +7836,10 @@
         <v>563</v>
       </c>
       <c r="B101" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C101" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D101" t="s">
         <v>564</v>
@@ -7847,7 +7850,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J101" t="s">
         <v>566</v>
@@ -7856,7 +7859,7 @@
         <v>567</v>
       </c>
       <c r="L101" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M101" t="s">
         <v>568</v>
@@ -7865,7 +7868,7 @@
         <v>569</v>
       </c>
       <c r="O101" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P101" t="s">
         <v>570</v>
@@ -7882,7 +7885,7 @@
         <v>592</v>
       </c>
       <c r="C102" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D102" t="s">
         <v>573</v>
@@ -7893,7 +7896,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J102" t="s">
         <v>575</v>
@@ -7902,7 +7905,7 @@
         <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M102" t="s">
         <v>577</v>
@@ -7911,7 +7914,7 @@
         <v>578</v>
       </c>
       <c r="O102" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P102" t="s">
         <v>579</v>
@@ -7925,10 +7928,10 @@
         <v>581</v>
       </c>
       <c r="B103" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C103" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D103" t="s">
         <v>582</v>
@@ -7939,7 +7942,7 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J103" t="s">
         <v>584</v>
@@ -7948,7 +7951,7 @@
         <v>585</v>
       </c>
       <c r="L103" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M103" t="s">
         <v>586</v>
@@ -7957,7 +7960,7 @@
         <v>587</v>
       </c>
       <c r="O103" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P103" t="s">
         <v>588</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2286,7 +2286,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -4242,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>611</v>
@@ -4581,7 +4581,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>619</v>
@@ -7442,7 +7442,7 @@
         <v>498</v>
       </c>
       <c r="B90" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>670</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="853">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2722,9 +2722,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4146,7 +4143,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4155,7 +4152,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4164,7 +4161,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4181,7 +4178,7 @@
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4192,7 +4189,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4201,7 +4198,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4220,7 +4217,7 @@
         <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4245,7 +4242,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4258,7 +4255,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4267,7 +4264,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4284,7 +4281,7 @@
         <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4295,7 +4292,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4304,7 +4301,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4323,7 +4320,7 @@
         <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4334,7 +4331,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4343,7 +4340,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4352,7 +4349,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4369,7 +4366,7 @@
         <v>590</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4380,7 +4377,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4389,7 +4386,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4398,7 +4395,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4415,7 +4412,7 @@
         <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4426,21 +4423,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4452,10 +4449,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4466,7 +4463,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4475,7 +4472,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4484,7 +4481,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4498,10 +4495,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4512,7 +4509,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4521,7 +4518,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4530,7 +4527,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4547,7 +4544,7 @@
         <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4565,7 +4562,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4584,7 +4581,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4595,7 +4592,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4604,7 +4601,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4613,7 +4610,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4627,10 +4624,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4666,14 +4663,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4682,7 +4679,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4691,7 +4688,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4705,10 +4702,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4719,7 +4716,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4728,7 +4725,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4737,7 +4734,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4758,7 +4755,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4767,7 +4764,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4776,7 +4773,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4790,14 +4787,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4806,7 +4803,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4815,7 +4812,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4832,7 +4829,7 @@
         <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4843,7 +4840,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4852,7 +4849,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4861,7 +4858,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4882,7 +4879,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4891,7 +4888,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4900,7 +4897,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4921,7 +4918,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -4930,7 +4927,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4939,7 +4936,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4953,10 +4950,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -4981,7 +4978,7 @@
         <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -4992,7 +4989,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5001,7 +4998,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5010,7 +5007,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5031,7 +5028,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5059,7 +5056,7 @@
         <v>590</v>
       </c>
       <c r="C26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5072,7 +5069,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5081,7 +5078,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5102,7 +5099,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5111,7 +5108,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5120,7 +5117,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5134,10 +5131,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5148,7 +5145,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5157,7 +5154,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5166,7 +5163,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5180,10 +5177,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5194,7 +5191,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5203,7 +5200,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5212,7 +5209,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5226,10 +5223,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5240,7 +5237,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5249,7 +5246,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5258,7 +5255,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5272,10 +5269,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C31" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5286,7 +5283,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5295,7 +5292,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5304,7 +5301,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5321,7 +5318,7 @@
         <v>590</v>
       </c>
       <c r="C32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5352,7 +5349,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5361,7 +5358,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5382,7 +5379,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5391,7 +5388,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5400,7 +5397,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5419,7 +5416,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5428,7 +5425,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5437,7 +5434,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5446,7 +5443,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5460,10 +5457,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5472,7 +5469,7 @@
         <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G36" t="s">
         <v>231</v>
@@ -5481,7 +5478,7 @@
         <v>232</v>
       </c>
       <c r="I36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J36" t="s">
         <v>222</v>
@@ -5490,7 +5487,7 @@
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M36" t="s">
         <v>224</v>
@@ -5499,7 +5496,7 @@
         <v>225</v>
       </c>
       <c r="O36" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P36" t="s">
         <v>226</v>
@@ -5516,7 +5513,7 @@
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D37" t="s">
         <v>234</v>
@@ -5556,10 +5553,10 @@
         <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D39" t="s">
         <v>238</v>
@@ -5570,7 +5567,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J39" t="s">
         <v>240</v>
@@ -5579,7 +5576,7 @@
         <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M39" t="s">
         <v>242</v>
@@ -5588,7 +5585,7 @@
         <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P39" t="s">
         <v>244</v>
@@ -5605,7 +5602,7 @@
         <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D40" t="s">
         <v>247</v>
@@ -5616,7 +5613,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J40" t="s">
         <v>249</v>
@@ -5625,7 +5622,7 @@
         <v>250</v>
       </c>
       <c r="L40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M40" t="s">
         <v>251</v>
@@ -5634,7 +5631,7 @@
         <v>252</v>
       </c>
       <c r="O40" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P40" t="s">
         <v>253</v>
@@ -5655,7 +5652,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J41" t="s">
         <v>256</v>
@@ -5664,7 +5661,7 @@
         <v>257</v>
       </c>
       <c r="L41" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M41" t="s">
         <v>258</v>
@@ -5673,7 +5670,7 @@
         <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
@@ -5685,14 +5682,14 @@
         <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J42" t="s">
         <v>262</v>
@@ -5701,7 +5698,7 @@
         <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M42" t="s">
         <v>264</v>
@@ -5710,7 +5707,7 @@
         <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P42" t="s">
         <v>266</v>
@@ -5733,7 +5730,7 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M43" t="s">
         <v>269</v>
@@ -5742,7 +5739,7 @@
         <v>270</v>
       </c>
       <c r="O43" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -5756,7 +5753,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C44" t="s">
         <v>275</v>
@@ -5772,7 +5769,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M44" t="s">
         <v>276</v>
@@ -5781,7 +5778,7 @@
         <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P44" t="s">
         <v>278</v>
@@ -5795,10 +5792,10 @@
         <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D45" t="s">
         <v>281</v>
@@ -5809,7 +5806,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -5818,7 +5815,7 @@
         <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M45" t="s">
         <v>285</v>
@@ -5827,7 +5824,7 @@
         <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P45" t="s">
         <v>278</v>
@@ -5844,7 +5841,7 @@
         <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D46" t="s">
         <v>288</v>
@@ -5855,7 +5852,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J46" t="s">
         <v>290</v>
@@ -5864,7 +5861,7 @@
         <v>291</v>
       </c>
       <c r="L46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M46" t="s">
         <v>292</v>
@@ -5873,7 +5870,7 @@
         <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P46" t="s">
         <v>294</v>
@@ -5887,10 +5884,10 @@
         <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D47" t="s">
         <v>297</v>
@@ -5901,7 +5898,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J47" t="s">
         <v>299</v>
@@ -5910,7 +5907,7 @@
         <v>300</v>
       </c>
       <c r="L47" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M47" t="s">
         <v>301</v>
@@ -5919,7 +5916,7 @@
         <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P47" t="s">
         <v>301</v>
@@ -5940,7 +5937,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J48" t="s">
         <v>304</v>
@@ -5949,7 +5946,7 @@
         <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M48" t="s">
         <v>306</v>
@@ -5958,7 +5955,7 @@
         <v>307</v>
       </c>
       <c r="O48" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P48" t="s">
         <v>308</v>
@@ -5975,7 +5972,7 @@
         <v>590</v>
       </c>
       <c r="C49" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D49" t="s">
         <v>311</v>
@@ -6000,7 +5997,7 @@
         <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P49" t="s">
         <v>308</v>
@@ -6017,7 +6014,7 @@
         <v>590</v>
       </c>
       <c r="C50" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6042,7 +6039,7 @@
         <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P50" t="s">
         <v>308</v>
@@ -6059,7 +6056,7 @@
         <v>592</v>
       </c>
       <c r="C51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D51" t="s">
         <v>318</v>
@@ -6070,7 +6067,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6079,7 +6076,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6088,7 +6085,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6109,7 +6106,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J52" t="s">
         <v>327</v>
@@ -6118,7 +6115,7 @@
         <v>328</v>
       </c>
       <c r="L52" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M52" t="s">
         <v>329</v>
@@ -6127,7 +6124,7 @@
         <v>330</v>
       </c>
       <c r="O52" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P52" t="s">
         <v>331</v>
@@ -6144,7 +6141,7 @@
         <v>590</v>
       </c>
       <c r="C53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D53" t="s">
         <v>334</v>
@@ -6190,7 +6187,7 @@
         <v>590</v>
       </c>
       <c r="C54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D54" t="s">
         <v>337</v>
@@ -6199,7 +6196,7 @@
         <v>338</v>
       </c>
       <c r="F54" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G54" t="s">
         <v>339</v>
@@ -6240,10 +6237,10 @@
         <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C55" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D55" t="s">
         <v>342</v>
@@ -6285,7 +6282,7 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G56" t="s">
         <v>345</v>
@@ -6326,10 +6323,10 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C57" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D57" t="s">
         <v>349</v>
@@ -6338,7 +6335,7 @@
         <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G57" t="s">
         <v>351</v>
@@ -6384,7 +6381,7 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G58" t="s">
         <v>355</v>
@@ -6425,10 +6422,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -6439,7 +6436,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J59" t="s">
         <v>361</v>
@@ -6448,7 +6445,7 @@
         <v>362</v>
       </c>
       <c r="L59" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M59" t="s">
         <v>363</v>
@@ -6457,7 +6454,7 @@
         <v>364</v>
       </c>
       <c r="O59" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P59" t="s">
         <v>365</v>
@@ -6471,10 +6468,10 @@
         <v>367</v>
       </c>
       <c r="B60" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D60" t="s">
         <v>368</v>
@@ -6485,7 +6482,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J60" t="s">
         <v>370</v>
@@ -6494,7 +6491,7 @@
         <v>371</v>
       </c>
       <c r="L60" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M60" t="s">
         <v>372</v>
@@ -6503,7 +6500,7 @@
         <v>373</v>
       </c>
       <c r="O60" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P60" t="s">
         <v>374</v>
@@ -6517,10 +6514,10 @@
         <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C61" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D61" t="s">
         <v>377</v>
@@ -6531,7 +6528,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J61" t="s">
         <v>379</v>
@@ -6540,7 +6537,7 @@
         <v>380</v>
       </c>
       <c r="L61" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M61" t="s">
         <v>381</v>
@@ -6549,7 +6546,7 @@
         <v>382</v>
       </c>
       <c r="O61" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P61" t="s">
         <v>383</v>
@@ -6568,7 +6565,7 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G62" t="s">
         <v>386</v>
@@ -6593,7 +6590,7 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G63" t="s">
         <v>389</v>
@@ -6634,10 +6631,10 @@
         <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D64" t="s">
         <v>392</v>
@@ -6648,7 +6645,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J64" t="s">
         <v>394</v>
@@ -6657,7 +6654,7 @@
         <v>395</v>
       </c>
       <c r="L64" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M64" t="s">
         <v>396</v>
@@ -6666,7 +6663,7 @@
         <v>397</v>
       </c>
       <c r="O64" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P64" t="s">
         <v>398</v>
@@ -6683,7 +6680,7 @@
         <v>590</v>
       </c>
       <c r="C65" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D65" t="s">
         <v>401</v>
@@ -6705,10 +6702,10 @@
         <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D66" t="s">
         <v>404</v>
@@ -6733,7 +6730,7 @@
         <v>590</v>
       </c>
       <c r="C67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -6758,7 +6755,7 @@
         <v>590</v>
       </c>
       <c r="C68" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6783,7 +6780,7 @@
         <v>590</v>
       </c>
       <c r="C69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -6792,7 +6789,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -6811,7 +6808,7 @@
         <v>590</v>
       </c>
       <c r="C70" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
@@ -6820,7 +6817,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -6839,7 +6836,7 @@
         <v>590</v>
       </c>
       <c r="C71" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -6848,21 +6845,21 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
         <v>420</v>
       </c>
       <c r="L71" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
         <v>421</v>
       </c>
       <c r="O71" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6876,10 +6873,10 @@
         <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C72" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D72" t="s">
         <v>425</v>
@@ -6890,21 +6887,21 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
         <v>420</v>
       </c>
       <c r="L72" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="s">
         <v>427</v>
       </c>
       <c r="O72" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P72" t="s">
         <v>422</v>
@@ -6927,7 +6924,7 @@
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M73" t="s">
         <v>430</v>
@@ -6946,7 +6943,7 @@
         <v>590</v>
       </c>
       <c r="C74" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D74" t="s">
         <v>433</v>
@@ -6971,7 +6968,7 @@
         <v>590</v>
       </c>
       <c r="C75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D75" t="s">
         <v>436</v>
@@ -6993,10 +6990,10 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C76" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D76" t="s">
         <v>439</v>
@@ -7009,7 +7006,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M76" t="s">
         <v>441</v>
@@ -7025,10 +7022,10 @@
         <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C77" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D77" t="s">
         <v>444</v>
@@ -7041,7 +7038,7 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M77" t="s">
         <v>446</v>
@@ -7060,7 +7057,7 @@
         <v>590</v>
       </c>
       <c r="C78" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -7083,7 +7080,7 @@
         <v>590</v>
       </c>
       <c r="C79" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D79" t="s">
         <v>451</v>
@@ -7094,14 +7091,14 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
         <v>453</v>
       </c>
       <c r="L79" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="s">
@@ -7118,7 +7115,7 @@
         <v>590</v>
       </c>
       <c r="C80" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D80" t="s">
         <v>455</v>
@@ -7129,7 +7126,7 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -7138,7 +7135,7 @@
         <v>458</v>
       </c>
       <c r="L80" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M80" t="s">
         <v>459</v>
@@ -7147,7 +7144,7 @@
         <v>460</v>
       </c>
       <c r="O80" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P80" t="s">
         <v>461</v>
@@ -7161,10 +7158,10 @@
         <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C81" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D81" t="s">
         <v>464</v>
@@ -7195,7 +7192,7 @@
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7204,7 +7201,7 @@
         <v>270</v>
       </c>
       <c r="O82" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P82" t="s">
         <v>468</v>
@@ -7223,7 +7220,7 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G83" t="s">
         <v>471</v>
@@ -7267,7 +7264,7 @@
         <v>590</v>
       </c>
       <c r="C84" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D84" t="s">
         <v>474</v>
@@ -7276,7 +7273,7 @@
         <v>475</v>
       </c>
       <c r="F84" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G84" t="s">
         <v>476</v>
@@ -7299,7 +7296,7 @@
         <v>590</v>
       </c>
       <c r="C85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D85" t="s">
         <v>479</v>
@@ -7308,7 +7305,7 @@
         <v>475</v>
       </c>
       <c r="F85" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G85" t="s">
         <v>480</v>
@@ -7331,7 +7328,7 @@
         <v>590</v>
       </c>
       <c r="C86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D86" t="s">
         <v>483</v>
@@ -7340,7 +7337,7 @@
         <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G86" t="s">
         <v>485</v>
@@ -7363,7 +7360,7 @@
         <v>590</v>
       </c>
       <c r="C87" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D87" t="s">
         <v>488</v>
@@ -7388,7 +7385,7 @@
         <v>590</v>
       </c>
       <c r="C88" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -7413,7 +7410,7 @@
         <v>590</v>
       </c>
       <c r="C89" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -7422,7 +7419,7 @@
         <v>495</v>
       </c>
       <c r="F89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G89" t="s">
         <v>496</v>
@@ -7445,7 +7442,7 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D90" t="s">
         <v>499</v>
@@ -7456,7 +7453,7 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J90" t="s">
         <v>501</v>
@@ -7465,7 +7462,7 @@
         <v>502</v>
       </c>
       <c r="L90" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M90" t="s">
         <v>503</v>
@@ -7474,7 +7471,7 @@
         <v>504</v>
       </c>
       <c r="O90" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P90" t="s">
         <v>505</v>
@@ -7491,7 +7488,7 @@
         <v>590</v>
       </c>
       <c r="C91" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D91" t="s">
         <v>508</v>
@@ -7513,10 +7510,10 @@
         <v>510</v>
       </c>
       <c r="B92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C92" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D92" t="s">
         <v>511</v>
@@ -7538,7 +7535,7 @@
         <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -7556,7 +7553,7 @@
         <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -7565,7 +7562,7 @@
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M94" t="s">
         <v>515</v>
@@ -7581,10 +7578,10 @@
         <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D95" t="s">
         <v>518</v>
@@ -7595,7 +7592,7 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J95" t="s">
         <v>520</v>
@@ -7604,7 +7601,7 @@
         <v>521</v>
       </c>
       <c r="L95" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M95" t="s">
         <v>522</v>
@@ -7613,7 +7610,7 @@
         <v>523</v>
       </c>
       <c r="O95" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P95" t="s">
         <v>524</v>
@@ -7627,10 +7624,10 @@
         <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C96" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -7641,7 +7638,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -7650,7 +7647,7 @@
         <v>530</v>
       </c>
       <c r="L96" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M96" t="s">
         <v>531</v>
@@ -7659,7 +7656,7 @@
         <v>532</v>
       </c>
       <c r="O96" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P96" t="s">
         <v>533</v>
@@ -7676,7 +7673,7 @@
         <v>592</v>
       </c>
       <c r="C97" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D97" t="s">
         <v>536</v>
@@ -7687,7 +7684,7 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J97" t="s">
         <v>538</v>
@@ -7696,7 +7693,7 @@
         <v>539</v>
       </c>
       <c r="L97" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M97" t="s">
         <v>467</v>
@@ -7705,7 +7702,7 @@
         <v>270</v>
       </c>
       <c r="O97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P97" t="s">
         <v>540</v>
@@ -7719,10 +7716,10 @@
         <v>542</v>
       </c>
       <c r="B98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C98" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D98" t="s">
         <v>543</v>
@@ -7733,7 +7730,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J98" t="s">
         <v>545</v>
@@ -7742,7 +7739,7 @@
         <v>546</v>
       </c>
       <c r="L98" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M98" t="s">
         <v>547</v>
@@ -7751,7 +7748,7 @@
         <v>548</v>
       </c>
       <c r="O98" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="P98" t="s">
         <v>549</v>
@@ -7768,7 +7765,7 @@
         <v>592</v>
       </c>
       <c r="C99" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D99" t="s">
         <v>552</v>
@@ -7781,7 +7778,7 @@
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M99" t="s">
         <v>554</v>
@@ -7790,7 +7787,7 @@
         <v>555</v>
       </c>
       <c r="O99" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="P99" t="s">
         <v>556</v>
@@ -7807,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="C100" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D100" t="s">
         <v>559</v>
@@ -7820,7 +7817,7 @@
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M100" t="s">
         <v>561</v>
@@ -7836,10 +7833,10 @@
         <v>563</v>
       </c>
       <c r="B101" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C101" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D101" t="s">
         <v>564</v>
@@ -7850,7 +7847,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J101" t="s">
         <v>566</v>
@@ -7859,7 +7856,7 @@
         <v>567</v>
       </c>
       <c r="L101" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M101" t="s">
         <v>568</v>
@@ -7868,7 +7865,7 @@
         <v>569</v>
       </c>
       <c r="O101" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="P101" t="s">
         <v>570</v>
@@ -7885,7 +7882,7 @@
         <v>592</v>
       </c>
       <c r="C102" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D102" t="s">
         <v>573</v>
@@ -7896,7 +7893,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J102" t="s">
         <v>575</v>
@@ -7905,7 +7902,7 @@
         <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M102" t="s">
         <v>577</v>
@@ -7914,7 +7911,7 @@
         <v>578</v>
       </c>
       <c r="O102" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P102" t="s">
         <v>579</v>
@@ -7928,10 +7925,10 @@
         <v>581</v>
       </c>
       <c r="B103" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C103" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D103" t="s">
         <v>582</v>
@@ -7942,7 +7939,7 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J103" t="s">
         <v>584</v>
@@ -7951,7 +7948,7 @@
         <v>585</v>
       </c>
       <c r="L103" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M103" t="s">
         <v>586</v>
@@ -7960,7 +7957,7 @@
         <v>587</v>
       </c>
       <c r="O103" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="P103" t="s">
         <v>588</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
+*ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2286,7 +2286,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -2722,6 +2722,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4143,7 +4146,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4152,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4161,7 +4164,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4178,7 +4181,7 @@
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4189,7 +4192,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4198,7 +4201,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4217,7 +4220,7 @@
         <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4242,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4255,7 +4258,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4264,7 +4267,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4281,7 +4284,7 @@
         <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4292,7 +4295,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4301,7 +4304,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4320,7 +4323,7 @@
         <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4331,7 +4334,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4340,7 +4343,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4349,7 +4352,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4366,7 +4369,7 @@
         <v>590</v>
       </c>
       <c r="C9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4377,7 +4380,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4386,7 +4389,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4395,7 +4398,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4412,7 +4415,7 @@
         <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4423,21 +4426,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4449,10 +4452,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4463,7 +4466,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4472,7 +4475,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4481,7 +4484,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4495,10 +4498,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4509,7 +4512,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4518,7 +4521,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4527,7 +4530,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4544,7 +4547,7 @@
         <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4562,7 +4565,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4581,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4592,7 +4595,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4601,7 +4604,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4610,7 +4613,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4624,10 +4627,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C15" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4663,14 +4666,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4679,7 +4682,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4688,7 +4691,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4702,10 +4705,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4716,7 +4719,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4725,7 +4728,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4734,7 +4737,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4755,7 +4758,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4764,7 +4767,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4773,7 +4776,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4787,14 +4790,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4803,7 +4806,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4812,7 +4815,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4829,7 +4832,7 @@
         <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4840,7 +4843,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4849,7 +4852,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4858,7 +4861,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4879,7 +4882,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4888,7 +4891,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4897,7 +4900,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4918,7 +4921,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -4927,7 +4930,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4936,7 +4939,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4950,10 +4953,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C23" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -4978,7 +4981,7 @@
         <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -4989,7 +4992,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -4998,7 +5001,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5007,7 +5010,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5028,7 +5031,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5056,7 +5059,7 @@
         <v>590</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5069,7 +5072,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5078,7 +5081,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5099,7 +5102,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5108,7 +5111,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5117,7 +5120,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5131,10 +5134,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5145,7 +5148,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5154,7 +5157,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5163,7 +5166,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5177,10 +5180,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C29" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5191,7 +5194,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5200,7 +5203,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5209,7 +5212,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5223,10 +5226,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C30" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5237,7 +5240,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5246,7 +5249,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5255,7 +5258,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5269,10 +5272,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C31" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5283,7 +5286,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5292,7 +5295,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5301,7 +5304,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5318,7 +5321,7 @@
         <v>590</v>
       </c>
       <c r="C32" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5349,7 +5352,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5358,7 +5361,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5379,7 +5382,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5388,7 +5391,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5397,7 +5400,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5416,7 +5419,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5425,7 +5428,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5434,7 +5437,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5443,7 +5446,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5457,10 +5460,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5469,7 +5472,7 @@
         <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G36" t="s">
         <v>231</v>
@@ -5478,7 +5481,7 @@
         <v>232</v>
       </c>
       <c r="I36" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J36" t="s">
         <v>222</v>
@@ -5487,7 +5490,7 @@
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M36" t="s">
         <v>224</v>
@@ -5496,7 +5499,7 @@
         <v>225</v>
       </c>
       <c r="O36" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P36" t="s">
         <v>226</v>
@@ -5513,7 +5516,7 @@
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D37" t="s">
         <v>234</v>
@@ -5553,10 +5556,10 @@
         <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C39" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D39" t="s">
         <v>238</v>
@@ -5567,7 +5570,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J39" t="s">
         <v>240</v>
@@ -5576,7 +5579,7 @@
         <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M39" t="s">
         <v>242</v>
@@ -5585,7 +5588,7 @@
         <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P39" t="s">
         <v>244</v>
@@ -5602,7 +5605,7 @@
         <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D40" t="s">
         <v>247</v>
@@ -5613,7 +5616,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J40" t="s">
         <v>249</v>
@@ -5622,7 +5625,7 @@
         <v>250</v>
       </c>
       <c r="L40" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M40" t="s">
         <v>251</v>
@@ -5631,7 +5634,7 @@
         <v>252</v>
       </c>
       <c r="O40" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P40" t="s">
         <v>253</v>
@@ -5652,7 +5655,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J41" t="s">
         <v>256</v>
@@ -5661,7 +5664,7 @@
         <v>257</v>
       </c>
       <c r="L41" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M41" t="s">
         <v>258</v>
@@ -5670,7 +5673,7 @@
         <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
@@ -5682,14 +5685,14 @@
         <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J42" t="s">
         <v>262</v>
@@ -5698,7 +5701,7 @@
         <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M42" t="s">
         <v>264</v>
@@ -5707,7 +5710,7 @@
         <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="P42" t="s">
         <v>266</v>
@@ -5730,7 +5733,7 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M43" t="s">
         <v>269</v>
@@ -5739,7 +5742,7 @@
         <v>270</v>
       </c>
       <c r="O43" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -5753,7 +5756,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C44" t="s">
         <v>275</v>
@@ -5769,7 +5772,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M44" t="s">
         <v>276</v>
@@ -5778,7 +5781,7 @@
         <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P44" t="s">
         <v>278</v>
@@ -5792,10 +5795,10 @@
         <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C45" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D45" t="s">
         <v>281</v>
@@ -5806,7 +5809,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -5815,7 +5818,7 @@
         <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M45" t="s">
         <v>285</v>
@@ -5824,7 +5827,7 @@
         <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P45" t="s">
         <v>278</v>
@@ -5841,7 +5844,7 @@
         <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D46" t="s">
         <v>288</v>
@@ -5852,7 +5855,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J46" t="s">
         <v>290</v>
@@ -5861,7 +5864,7 @@
         <v>291</v>
       </c>
       <c r="L46" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M46" t="s">
         <v>292</v>
@@ -5870,7 +5873,7 @@
         <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P46" t="s">
         <v>294</v>
@@ -5884,10 +5887,10 @@
         <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C47" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D47" t="s">
         <v>297</v>
@@ -5898,7 +5901,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J47" t="s">
         <v>299</v>
@@ -5907,7 +5910,7 @@
         <v>300</v>
       </c>
       <c r="L47" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M47" t="s">
         <v>301</v>
@@ -5916,7 +5919,7 @@
         <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="P47" t="s">
         <v>301</v>
@@ -5937,7 +5940,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J48" t="s">
         <v>304</v>
@@ -5946,7 +5949,7 @@
         <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M48" t="s">
         <v>306</v>
@@ -5955,7 +5958,7 @@
         <v>307</v>
       </c>
       <c r="O48" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P48" t="s">
         <v>308</v>
@@ -5972,7 +5975,7 @@
         <v>590</v>
       </c>
       <c r="C49" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D49" t="s">
         <v>311</v>
@@ -5997,7 +6000,7 @@
         <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P49" t="s">
         <v>308</v>
@@ -6014,7 +6017,7 @@
         <v>590</v>
       </c>
       <c r="C50" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6039,7 +6042,7 @@
         <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P50" t="s">
         <v>308</v>
@@ -6056,7 +6059,7 @@
         <v>592</v>
       </c>
       <c r="C51" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D51" t="s">
         <v>318</v>
@@ -6067,7 +6070,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6076,7 +6079,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6085,7 +6088,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6106,7 +6109,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J52" t="s">
         <v>327</v>
@@ -6115,7 +6118,7 @@
         <v>328</v>
       </c>
       <c r="L52" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M52" t="s">
         <v>329</v>
@@ -6124,7 +6127,7 @@
         <v>330</v>
       </c>
       <c r="O52" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P52" t="s">
         <v>331</v>
@@ -6141,7 +6144,7 @@
         <v>590</v>
       </c>
       <c r="C53" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D53" t="s">
         <v>334</v>
@@ -6187,7 +6190,7 @@
         <v>590</v>
       </c>
       <c r="C54" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D54" t="s">
         <v>337</v>
@@ -6196,7 +6199,7 @@
         <v>338</v>
       </c>
       <c r="F54" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G54" t="s">
         <v>339</v>
@@ -6237,10 +6240,10 @@
         <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C55" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D55" t="s">
         <v>342</v>
@@ -6282,7 +6285,7 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G56" t="s">
         <v>345</v>
@@ -6323,10 +6326,10 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C57" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D57" t="s">
         <v>349</v>
@@ -6335,7 +6338,7 @@
         <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G57" t="s">
         <v>351</v>
@@ -6381,7 +6384,7 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G58" t="s">
         <v>355</v>
@@ -6422,10 +6425,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C59" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -6436,7 +6439,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J59" t="s">
         <v>361</v>
@@ -6445,7 +6448,7 @@
         <v>362</v>
       </c>
       <c r="L59" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M59" t="s">
         <v>363</v>
@@ -6454,7 +6457,7 @@
         <v>364</v>
       </c>
       <c r="O59" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P59" t="s">
         <v>365</v>
@@ -6468,10 +6471,10 @@
         <v>367</v>
       </c>
       <c r="B60" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C60" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D60" t="s">
         <v>368</v>
@@ -6482,7 +6485,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J60" t="s">
         <v>370</v>
@@ -6491,7 +6494,7 @@
         <v>371</v>
       </c>
       <c r="L60" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M60" t="s">
         <v>372</v>
@@ -6500,7 +6503,7 @@
         <v>373</v>
       </c>
       <c r="O60" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P60" t="s">
         <v>374</v>
@@ -6514,10 +6517,10 @@
         <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C61" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D61" t="s">
         <v>377</v>
@@ -6528,7 +6531,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J61" t="s">
         <v>379</v>
@@ -6537,7 +6540,7 @@
         <v>380</v>
       </c>
       <c r="L61" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M61" t="s">
         <v>381</v>
@@ -6546,7 +6549,7 @@
         <v>382</v>
       </c>
       <c r="O61" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="P61" t="s">
         <v>383</v>
@@ -6565,7 +6568,7 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G62" t="s">
         <v>386</v>
@@ -6590,7 +6593,7 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G63" t="s">
         <v>389</v>
@@ -6631,10 +6634,10 @@
         <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C64" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D64" t="s">
         <v>392</v>
@@ -6645,7 +6648,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J64" t="s">
         <v>394</v>
@@ -6654,7 +6657,7 @@
         <v>395</v>
       </c>
       <c r="L64" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M64" t="s">
         <v>396</v>
@@ -6663,7 +6666,7 @@
         <v>397</v>
       </c>
       <c r="O64" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="P64" t="s">
         <v>398</v>
@@ -6680,7 +6683,7 @@
         <v>590</v>
       </c>
       <c r="C65" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D65" t="s">
         <v>401</v>
@@ -6702,10 +6705,10 @@
         <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C66" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D66" t="s">
         <v>404</v>
@@ -6730,7 +6733,7 @@
         <v>590</v>
       </c>
       <c r="C67" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -6755,7 +6758,7 @@
         <v>590</v>
       </c>
       <c r="C68" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6780,7 +6783,7 @@
         <v>590</v>
       </c>
       <c r="C69" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -6789,7 +6792,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -6808,7 +6811,7 @@
         <v>590</v>
       </c>
       <c r="C70" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
@@ -6817,7 +6820,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -6836,7 +6839,7 @@
         <v>590</v>
       </c>
       <c r="C71" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -6845,21 +6848,21 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
         <v>420</v>
       </c>
       <c r="L71" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
         <v>421</v>
       </c>
       <c r="O71" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6873,10 +6876,10 @@
         <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C72" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D72" t="s">
         <v>425</v>
@@ -6887,21 +6890,21 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
         <v>420</v>
       </c>
       <c r="L72" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="s">
         <v>427</v>
       </c>
       <c r="O72" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P72" t="s">
         <v>422</v>
@@ -6924,7 +6927,7 @@
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M73" t="s">
         <v>430</v>
@@ -6943,7 +6946,7 @@
         <v>590</v>
       </c>
       <c r="C74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D74" t="s">
         <v>433</v>
@@ -6968,7 +6971,7 @@
         <v>590</v>
       </c>
       <c r="C75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D75" t="s">
         <v>436</v>
@@ -6990,10 +6993,10 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D76" t="s">
         <v>439</v>
@@ -7006,7 +7009,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M76" t="s">
         <v>441</v>
@@ -7022,10 +7025,10 @@
         <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C77" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D77" t="s">
         <v>444</v>
@@ -7038,7 +7041,7 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M77" t="s">
         <v>446</v>
@@ -7057,7 +7060,7 @@
         <v>590</v>
       </c>
       <c r="C78" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -7080,7 +7083,7 @@
         <v>590</v>
       </c>
       <c r="C79" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D79" t="s">
         <v>451</v>
@@ -7091,14 +7094,14 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
         <v>453</v>
       </c>
       <c r="L79" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="s">
@@ -7115,7 +7118,7 @@
         <v>590</v>
       </c>
       <c r="C80" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D80" t="s">
         <v>455</v>
@@ -7126,7 +7129,7 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -7135,7 +7138,7 @@
         <v>458</v>
       </c>
       <c r="L80" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M80" t="s">
         <v>459</v>
@@ -7144,7 +7147,7 @@
         <v>460</v>
       </c>
       <c r="O80" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P80" t="s">
         <v>461</v>
@@ -7158,10 +7161,10 @@
         <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C81" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D81" t="s">
         <v>464</v>
@@ -7192,7 +7195,7 @@
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7201,7 +7204,7 @@
         <v>270</v>
       </c>
       <c r="O82" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P82" t="s">
         <v>468</v>
@@ -7220,7 +7223,7 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G83" t="s">
         <v>471</v>
@@ -7264,7 +7267,7 @@
         <v>590</v>
       </c>
       <c r="C84" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D84" t="s">
         <v>474</v>
@@ -7273,7 +7276,7 @@
         <v>475</v>
       </c>
       <c r="F84" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G84" t="s">
         <v>476</v>
@@ -7296,7 +7299,7 @@
         <v>590</v>
       </c>
       <c r="C85" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D85" t="s">
         <v>479</v>
@@ -7305,7 +7308,7 @@
         <v>475</v>
       </c>
       <c r="F85" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G85" t="s">
         <v>480</v>
@@ -7328,7 +7331,7 @@
         <v>590</v>
       </c>
       <c r="C86" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D86" t="s">
         <v>483</v>
@@ -7337,7 +7340,7 @@
         <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G86" t="s">
         <v>485</v>
@@ -7360,7 +7363,7 @@
         <v>590</v>
       </c>
       <c r="C87" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D87" t="s">
         <v>488</v>
@@ -7385,7 +7388,7 @@
         <v>590</v>
       </c>
       <c r="C88" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -7410,7 +7413,7 @@
         <v>590</v>
       </c>
       <c r="C89" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -7419,7 +7422,7 @@
         <v>495</v>
       </c>
       <c r="F89" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G89" t="s">
         <v>496</v>
@@ -7442,7 +7445,7 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D90" t="s">
         <v>499</v>
@@ -7453,7 +7456,7 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J90" t="s">
         <v>501</v>
@@ -7462,7 +7465,7 @@
         <v>502</v>
       </c>
       <c r="L90" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M90" t="s">
         <v>503</v>
@@ -7471,7 +7474,7 @@
         <v>504</v>
       </c>
       <c r="O90" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="P90" t="s">
         <v>505</v>
@@ -7488,7 +7491,7 @@
         <v>590</v>
       </c>
       <c r="C91" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D91" t="s">
         <v>508</v>
@@ -7510,10 +7513,10 @@
         <v>510</v>
       </c>
       <c r="B92" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C92" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D92" t="s">
         <v>511</v>
@@ -7535,7 +7538,7 @@
         <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -7553,7 +7556,7 @@
         <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -7562,7 +7565,7 @@
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M94" t="s">
         <v>515</v>
@@ -7578,10 +7581,10 @@
         <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C95" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D95" t="s">
         <v>518</v>
@@ -7592,7 +7595,7 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J95" t="s">
         <v>520</v>
@@ -7601,7 +7604,7 @@
         <v>521</v>
       </c>
       <c r="L95" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M95" t="s">
         <v>522</v>
@@ -7610,7 +7613,7 @@
         <v>523</v>
       </c>
       <c r="O95" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P95" t="s">
         <v>524</v>
@@ -7624,10 +7627,10 @@
         <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C96" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -7638,7 +7641,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -7647,7 +7650,7 @@
         <v>530</v>
       </c>
       <c r="L96" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M96" t="s">
         <v>531</v>
@@ -7656,7 +7659,7 @@
         <v>532</v>
       </c>
       <c r="O96" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P96" t="s">
         <v>533</v>
@@ -7673,7 +7676,7 @@
         <v>592</v>
       </c>
       <c r="C97" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D97" t="s">
         <v>536</v>
@@ -7684,7 +7687,7 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J97" t="s">
         <v>538</v>
@@ -7693,7 +7696,7 @@
         <v>539</v>
       </c>
       <c r="L97" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M97" t="s">
         <v>467</v>
@@ -7702,7 +7705,7 @@
         <v>270</v>
       </c>
       <c r="O97" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P97" t="s">
         <v>540</v>
@@ -7716,10 +7719,10 @@
         <v>542</v>
       </c>
       <c r="B98" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C98" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D98" t="s">
         <v>543</v>
@@ -7730,7 +7733,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J98" t="s">
         <v>545</v>
@@ -7739,7 +7742,7 @@
         <v>546</v>
       </c>
       <c r="L98" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M98" t="s">
         <v>547</v>
@@ -7748,7 +7751,7 @@
         <v>548</v>
       </c>
       <c r="O98" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P98" t="s">
         <v>549</v>
@@ -7765,7 +7768,7 @@
         <v>592</v>
       </c>
       <c r="C99" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D99" t="s">
         <v>552</v>
@@ -7778,7 +7781,7 @@
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M99" t="s">
         <v>554</v>
@@ -7787,7 +7790,7 @@
         <v>555</v>
       </c>
       <c r="O99" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P99" t="s">
         <v>556</v>
@@ -7804,7 +7807,7 @@
         <v>592</v>
       </c>
       <c r="C100" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D100" t="s">
         <v>559</v>
@@ -7817,7 +7820,7 @@
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M100" t="s">
         <v>561</v>
@@ -7833,10 +7836,10 @@
         <v>563</v>
       </c>
       <c r="B101" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C101" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D101" t="s">
         <v>564</v>
@@ -7847,7 +7850,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J101" t="s">
         <v>566</v>
@@ -7856,7 +7859,7 @@
         <v>567</v>
       </c>
       <c r="L101" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M101" t="s">
         <v>568</v>
@@ -7865,7 +7868,7 @@
         <v>569</v>
       </c>
       <c r="O101" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P101" t="s">
         <v>570</v>
@@ -7882,7 +7885,7 @@
         <v>592</v>
       </c>
       <c r="C102" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D102" t="s">
         <v>573</v>
@@ -7893,7 +7896,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J102" t="s">
         <v>575</v>
@@ -7902,7 +7905,7 @@
         <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M102" t="s">
         <v>577</v>
@@ -7911,7 +7914,7 @@
         <v>578</v>
       </c>
       <c r="O102" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P102" t="s">
         <v>579</v>
@@ -7925,10 +7928,10 @@
         <v>581</v>
       </c>
       <c r="B103" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C103" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D103" t="s">
         <v>582</v>
@@ -7939,7 +7942,7 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J103" t="s">
         <v>584</v>
@@ -7948,7 +7951,7 @@
         <v>585</v>
       </c>
       <c r="L103" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M103" t="s">
         <v>586</v>
@@ -7957,7 +7960,7 @@
         <v>587</v>
       </c>
       <c r="O103" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P103" t="s">
         <v>588</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="854">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2724,7 +2724,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4242,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
         <v>611</v>
@@ -4581,7 +4581,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C14" t="s">
         <v>619</v>
@@ -7442,7 +7442,7 @@
         <v>498</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C90" t="s">
         <v>670</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2286,7 +2286,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -4242,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>611</v>
@@ -4581,7 +4581,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>619</v>
@@ -7442,7 +7442,7 @@
         <v>498</v>
       </c>
       <c r="B90" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>670</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
+*ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2286,7 +2286,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -2724,7 +2724,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2286,7 +2286,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -2724,7 +2724,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="854">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2724,7 +2724,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4242,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
         <v>611</v>
@@ -4581,7 +4581,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C14" t="s">
         <v>619</v>
@@ -7442,7 +7442,7 @@
         <v>498</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>593</v>
       </c>
       <c r="C90" t="s">
         <v>670</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="857">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -1053,6 +1053,26 @@
   <si>
     <t xml:space="preserve">「あの世で後悔するがいい{よ}」
 「虫けらめ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Fish, fish, fish～♪"
+"Let’s eat some fish～♪"
+"It’s good for your body!"
+"Fish are waiting for us!"
+"White Trevally～♪"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「さかなさかなさかな～♪」
+「さかなを食べよう～♪」
+「体にいいのさ！」
+「魚は私たちを待っている{のだ}」
+「シマアジ～♪」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@merchant</t>
   </si>
   <si>
     <t xml:space="preserve">merchant_festival</t>
@@ -1664,9 +1684,6 @@
 「旦那、いい話がある{よ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">@merchant</t>
-  </si>
-  <si>
     <t xml:space="preserve">dealer</t>
   </si>
   <si>
@@ -2676,21 +2693,32 @@
     <t xml:space="preserve">adv_mesherada</t>
   </si>
   <si>
-    <t xml:space="preserve">"Where art thee, mine beloved Hathaway?"
-"Thou who pledged to protect only minese."
-"lf, e'en if it meant the betrayal of all others &amp;and their eternal enmity."
-"Thou dare maketh a frail lady who can &amp;barely lift more than a spoon wait so long?"
-"Oh mine beloved Hathaway."
-"how miserable thy current state!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「どこにいるの、私の愛しいハサウェイ？」
-「ただ私だけを守ると誓ったのに…」
-「他の全てを裏切り、&amp;永遠の敵意を買ってでも」
-「スプーンを持ち上げるのもやっとの&amp;私のような弱い女性を…」
-「こんなに長く待たせるなんてどうして？」
-「ああ、私の愛しいハサウェイ」
-「今のあなたはどんなに惨めなのでしょう！」</t>
+    <t xml:space="preserve">"This search spans ages, yet my heart knows &amp;thee still, across lifetimes and boundless paths."
+"Mine path stretches eternal, but for thee, &amp;it shall never feel too long."
+"Lifetimes pass, yet my heart still yearns for &amp;the one I swore to find."
+"Thou hast a presence faintly familiar."
+"Hath fate finally led me to thee?"
+"The winds carry thy name."
+"Couldst thou truly be the one &amp;I’ve sought across lifetimes?"
+"A promise binds me to this journey..."
+"Dost thou feel the echoes of such a vow?"
+"Thy gaze feels like a forgotten dream..."
+"Could it truly be thee?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「この探求は幾年月にも及ぶ」
+「私の心は、無限の道の果てでなお&amp;君を知っている」
+「私の道は永遠に続く」
+「あなたと一緒なら&amp;どんな道も長くは感じない」
+「幾つもの生が過ぎ去ろうとも&amp;今も誓ったあなたを求めている」
+「あなたにはどこか懐かさを感じる」
+「運命がついに私を導いたの？」
+「風があなたの名を運んでくる」
+「あなたは本当に&amp;探し求めてきた人？」
+「この旅を続けるのは&amp;誓いが私を縛るから」
+「あなたにも誓いの残響が聞こえるかしら？」
+「あなたの眼差しは忘れられた夢のよう…」
+「本当にあなたなの？」</t>
   </si>
   <si>
     <t xml:space="preserve">"How impertinent!"
@@ -4139,14 +4167,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4155,7 +4183,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4164,7 +4192,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4178,10 +4206,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4192,7 +4220,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4201,7 +4229,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4217,10 +4245,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4242,10 +4270,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4258,7 +4286,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4267,7 +4295,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4281,10 +4309,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4295,7 +4323,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4304,7 +4332,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4320,10 +4348,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4334,7 +4362,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4343,7 +4371,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4352,7 +4380,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4366,10 +4394,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4380,7 +4408,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4389,7 +4417,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4398,7 +4426,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4412,10 +4440,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4426,21 +4454,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4452,10 +4480,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4466,7 +4494,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4475,7 +4503,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4484,7 +4512,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4498,10 +4526,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4512,7 +4540,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4521,7 +4549,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4530,7 +4558,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4544,10 +4572,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4565,7 +4593,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4581,10 +4609,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4595,7 +4623,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4604,7 +4632,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4613,7 +4641,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4627,10 +4655,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4666,14 +4694,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4682,7 +4710,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4691,7 +4719,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4705,10 +4733,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4719,7 +4747,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4728,7 +4756,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4737,7 +4765,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4751,14 +4779,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4767,7 +4795,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4776,7 +4804,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4790,14 +4818,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4806,7 +4834,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4815,7 +4843,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4829,10 +4857,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4843,7 +4871,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4852,7 +4880,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4861,7 +4889,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4875,14 +4903,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4891,7 +4919,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4900,7 +4928,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4914,14 +4942,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -4930,7 +4958,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4939,7 +4967,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4953,10 +4981,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C23" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -4978,10 +5006,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C24" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -4992,7 +5020,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5001,7 +5029,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5010,7 +5038,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5024,14 +5052,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5056,10 +5084,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C26" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5072,7 +5100,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5081,7 +5109,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5095,14 +5123,14 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5111,7 +5139,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5120,7 +5148,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5134,10 +5162,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5148,7 +5176,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5157,7 +5185,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5166,7 +5194,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5180,10 +5208,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5194,7 +5222,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5203,7 +5231,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5212,7 +5240,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5226,10 +5254,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C30" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5240,7 +5268,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5249,7 +5277,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5258,7 +5286,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5272,10 +5300,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C31" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5286,7 +5314,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5295,7 +5323,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5304,7 +5332,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5318,10 +5346,10 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C32" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5343,7 +5371,7 @@
         <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -5352,7 +5380,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5361,7 +5389,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5375,14 +5403,14 @@
         <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5391,7 +5419,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5400,7 +5428,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5414,12 +5442,12 @@
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5428,7 +5456,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5437,7 +5465,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5446,7 +5474,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5460,10 +5488,7 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>594</v>
-      </c>
-      <c r="C36" t="s">
-        <v>631</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5471,77 +5496,100 @@
       <c r="E36" t="s">
         <v>230</v>
       </c>
-      <c r="F36" t="s">
-        <v>683</v>
-      </c>
       <c r="G36" t="s">
         <v>231</v>
       </c>
       <c r="H36" t="s">
-        <v>232</v>
-      </c>
-      <c r="I36" t="s">
-        <v>716</v>
+        <v>231</v>
       </c>
       <c r="J36" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K36" t="s">
-        <v>223</v>
-      </c>
-      <c r="L36" t="s">
-        <v>770</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="N36" t="s">
-        <v>225</v>
-      </c>
-      <c r="O36" t="s">
-        <v>826</v>
+        <v>231</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q36" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" t="s">
+        <v>597</v>
+      </c>
+      <c r="C37" t="s">
+        <v>634</v>
+      </c>
+      <c r="D37" t="s">
         <v>233</v>
       </c>
-      <c r="B37" t="s">
-        <v>590</v>
-      </c>
-      <c r="C37" t="s">
-        <v>632</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>234</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>686</v>
+      </c>
+      <c r="G37" t="s">
         <v>235</v>
       </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
+      <c r="H37" t="s">
+        <v>236</v>
+      </c>
+      <c r="I37" t="s">
+        <v>719</v>
+      </c>
+      <c r="J37" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" t="s">
+        <v>223</v>
+      </c>
+      <c r="L37" t="s">
+        <v>773</v>
+      </c>
+      <c r="M37" t="s">
+        <v>224</v>
+      </c>
+      <c r="N37" t="s">
+        <v>225</v>
+      </c>
+      <c r="O37" t="s">
+        <v>829</v>
+      </c>
+      <c r="P37" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>590</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38"/>
+        <v>593</v>
+      </c>
+      <c r="C38" t="s">
+        <v>635</v>
+      </c>
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
+        <v>239</v>
+      </c>
       <c r="G38"/>
       <c r="H38"/>
       <c r="J38"/>
@@ -5553,460 +5601,436 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s">
-        <v>594</v>
-      </c>
-      <c r="C39" t="s">
-        <v>633</v>
-      </c>
-      <c r="D39" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" t="s">
-        <v>239</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39" t="s">
-        <v>717</v>
-      </c>
-      <c r="J39" t="s">
-        <v>240</v>
-      </c>
-      <c r="K39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L39" t="s">
-        <v>771</v>
-      </c>
-      <c r="M39" t="s">
-        <v>242</v>
-      </c>
-      <c r="N39" t="s">
-        <v>243</v>
-      </c>
-      <c r="O39" t="s">
-        <v>827</v>
-      </c>
-      <c r="P39" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>245</v>
-      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C40" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="J40" t="s">
+        <v>244</v>
+      </c>
+      <c r="K40" t="s">
+        <v>245</v>
+      </c>
+      <c r="L40" t="s">
+        <v>774</v>
+      </c>
+      <c r="M40" t="s">
+        <v>246</v>
+      </c>
+      <c r="N40" t="s">
+        <v>247</v>
+      </c>
+      <c r="O40" t="s">
+        <v>830</v>
+      </c>
+      <c r="P40" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q40" t="s">
         <v>249</v>
-      </c>
-      <c r="K40" t="s">
-        <v>250</v>
-      </c>
-      <c r="L40" t="s">
-        <v>772</v>
-      </c>
-      <c r="M40" t="s">
-        <v>251</v>
-      </c>
-      <c r="N40" t="s">
-        <v>252</v>
-      </c>
-      <c r="O40" t="s">
-        <v>828</v>
-      </c>
-      <c r="P40" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>590</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41"/>
+        <v>593</v>
+      </c>
+      <c r="C41" t="s">
+        <v>637</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" t="s">
+        <v>252</v>
+      </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="J41" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L41" t="s">
+        <v>775</v>
+      </c>
+      <c r="M41" t="s">
+        <v>255</v>
+      </c>
+      <c r="N41" t="s">
         <v>256</v>
       </c>
-      <c r="K41" t="s">
+      <c r="O41" t="s">
+        <v>831</v>
+      </c>
+      <c r="P41" t="s">
         <v>257</v>
       </c>
-      <c r="L41" t="s">
-        <v>773</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="Q41" t="s">
         <v>258</v>
-      </c>
-      <c r="N41" t="s">
-        <v>259</v>
-      </c>
-      <c r="O41" t="s">
-        <v>829</v>
-      </c>
-      <c r="P41"/>
-      <c r="Q41" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="J42" t="s">
+        <v>260</v>
+      </c>
+      <c r="K42" t="s">
+        <v>261</v>
+      </c>
+      <c r="L42" t="s">
+        <v>776</v>
+      </c>
+      <c r="M42" t="s">
         <v>262</v>
       </c>
-      <c r="K42" t="s">
+      <c r="N42" t="s">
         <v>263</v>
       </c>
-      <c r="L42" t="s">
-        <v>774</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="O42" t="s">
+        <v>832</v>
+      </c>
+      <c r="P42"/>
+      <c r="Q42" t="s">
         <v>264</v>
-      </c>
-      <c r="N42" t="s">
-        <v>265</v>
-      </c>
-      <c r="O42" t="s">
-        <v>830</v>
-      </c>
-      <c r="P42" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
-      <c r="J43"/>
-      <c r="K43"/>
+      <c r="I43" t="s">
+        <v>723</v>
+      </c>
+      <c r="J43" t="s">
+        <v>266</v>
+      </c>
+      <c r="K43" t="s">
+        <v>267</v>
+      </c>
       <c r="L43" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M43" t="s">
+        <v>268</v>
+      </c>
+      <c r="N43" t="s">
         <v>269</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
+        <v>833</v>
+      </c>
+      <c r="P43" t="s">
         <v>270</v>
       </c>
-      <c r="O43" t="s">
-        <v>831</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>271</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>597</v>
-      </c>
-      <c r="C44" t="s">
-        <v>275</v>
-      </c>
-      <c r="D44" t="s">
-        <v>274</v>
-      </c>
-      <c r="E44" t="s">
-        <v>275</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M44" t="s">
+        <v>273</v>
+      </c>
+      <c r="N44" t="s">
+        <v>274</v>
+      </c>
+      <c r="O44" t="s">
+        <v>834</v>
+      </c>
+      <c r="P44" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q44" t="s">
         <v>276</v>
-      </c>
-      <c r="N44" t="s">
-        <v>277</v>
-      </c>
-      <c r="O44" t="s">
-        <v>832</v>
-      </c>
-      <c r="P44" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C45" t="s">
-        <v>635</v>
+        <v>279</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45" t="s">
-        <v>721</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45" t="s">
+        <v>779</v>
+      </c>
+      <c r="M45" t="s">
+        <v>280</v>
+      </c>
+      <c r="N45" t="s">
+        <v>281</v>
+      </c>
+      <c r="O45" t="s">
+        <v>835</v>
+      </c>
+      <c r="P45" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q45" t="s">
         <v>283</v>
-      </c>
-      <c r="K45" t="s">
-        <v>284</v>
-      </c>
-      <c r="L45" t="s">
-        <v>777</v>
-      </c>
-      <c r="M45" t="s">
-        <v>285</v>
-      </c>
-      <c r="N45" t="s">
-        <v>286</v>
-      </c>
-      <c r="O45" t="s">
-        <v>832</v>
-      </c>
-      <c r="P45" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C46" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E46" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="J46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K46" t="s">
+        <v>288</v>
+      </c>
+      <c r="L46" t="s">
+        <v>780</v>
+      </c>
+      <c r="M46" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" t="s">
         <v>290</v>
       </c>
-      <c r="K46" t="s">
-        <v>291</v>
-      </c>
-      <c r="L46" t="s">
-        <v>778</v>
-      </c>
-      <c r="M46" t="s">
-        <v>292</v>
-      </c>
-      <c r="N46" t="s">
-        <v>293</v>
-      </c>
       <c r="O46" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="P46" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="Q46" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C47" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="J47" t="s">
+        <v>294</v>
+      </c>
+      <c r="K47" t="s">
+        <v>295</v>
+      </c>
+      <c r="L47" t="s">
+        <v>781</v>
+      </c>
+      <c r="M47" t="s">
+        <v>296</v>
+      </c>
+      <c r="N47" t="s">
+        <v>297</v>
+      </c>
+      <c r="O47" t="s">
+        <v>836</v>
+      </c>
+      <c r="P47" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q47" t="s">
         <v>299</v>
-      </c>
-      <c r="K47" t="s">
-        <v>300</v>
-      </c>
-      <c r="L47" t="s">
-        <v>779</v>
-      </c>
-      <c r="M47" t="s">
-        <v>301</v>
-      </c>
-      <c r="N47" t="s">
-        <v>302</v>
-      </c>
-      <c r="O47" t="s">
-        <v>779</v>
-      </c>
-      <c r="P47" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>590</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
+        <v>597</v>
+      </c>
+      <c r="C48" t="s">
+        <v>640</v>
+      </c>
+      <c r="D48" t="s">
+        <v>301</v>
+      </c>
+      <c r="E48" t="s">
+        <v>302</v>
+      </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="J48" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" t="s">
         <v>304</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
+        <v>782</v>
+      </c>
+      <c r="M48" t="s">
         <v>305</v>
       </c>
-      <c r="L48" t="s">
-        <v>780</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>306</v>
       </c>
-      <c r="N48" t="s">
-        <v>307</v>
-      </c>
       <c r="O48" t="s">
-        <v>834</v>
+        <v>782</v>
       </c>
       <c r="P48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q48" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>590</v>
-      </c>
-      <c r="C49" t="s">
-        <v>638</v>
-      </c>
-      <c r="D49" t="s">
-        <v>311</v>
-      </c>
-      <c r="E49" t="s">
-        <v>312</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
+        <v>727</v>
+      </c>
+      <c r="J49" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" t="s">
+        <v>309</v>
+      </c>
+      <c r="L49" t="s">
+        <v>783</v>
+      </c>
+      <c r="M49" t="s">
+        <v>310</v>
+      </c>
+      <c r="N49" t="s">
+        <v>311</v>
+      </c>
+      <c r="O49" t="s">
+        <v>837</v>
+      </c>
+      <c r="P49" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q49" t="s">
         <v>313</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49" t="s">
-        <v>313</v>
-      </c>
-      <c r="L49" t="s">
-        <v>313</v>
-      </c>
-      <c r="M49"/>
-      <c r="N49" t="s">
-        <v>313</v>
-      </c>
-      <c r="O49" t="s">
-        <v>834</v>
-      </c>
-      <c r="P49" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="50">
@@ -6014,10 +6038,10 @@
         <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C50" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6028,185 +6052,174 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L50" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M50"/>
       <c r="N50" t="s">
+        <v>317</v>
+      </c>
+      <c r="O50" t="s">
+        <v>837</v>
+      </c>
+      <c r="P50" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q50" t="s">
         <v>313</v>
-      </c>
-      <c r="O50" t="s">
-        <v>834</v>
-      </c>
-      <c r="P50" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C51" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>725</v>
-      </c>
-      <c r="J51" t="s">
-        <v>320</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="J51"/>
       <c r="K51" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L51" t="s">
-        <v>781</v>
-      </c>
-      <c r="M51" t="s">
-        <v>322</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M51"/>
       <c r="N51" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O51" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="P51" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="Q51" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>590</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52"/>
+        <v>595</v>
+      </c>
+      <c r="C52" t="s">
+        <v>643</v>
+      </c>
+      <c r="D52" t="s">
+        <v>322</v>
+      </c>
+      <c r="E52" t="s">
+        <v>323</v>
+      </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="J52" t="s">
+        <v>324</v>
+      </c>
+      <c r="K52" t="s">
+        <v>325</v>
+      </c>
+      <c r="L52" t="s">
+        <v>784</v>
+      </c>
+      <c r="M52" t="s">
+        <v>326</v>
+      </c>
+      <c r="N52" t="s">
         <v>327</v>
       </c>
-      <c r="K52" t="s">
+      <c r="O52" t="s">
+        <v>838</v>
+      </c>
+      <c r="P52" t="s">
         <v>328</v>
       </c>
-      <c r="L52" t="s">
-        <v>782</v>
-      </c>
-      <c r="M52" t="s">
+      <c r="Q52" t="s">
         <v>329</v>
-      </c>
-      <c r="N52" t="s">
-        <v>330</v>
-      </c>
-      <c r="O52" t="s">
-        <v>836</v>
-      </c>
-      <c r="P52" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>590</v>
-      </c>
-      <c r="C53" t="s">
-        <v>641</v>
-      </c>
-      <c r="D53" t="s">
-        <v>334</v>
-      </c>
-      <c r="E53" t="s">
-        <v>335</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>165</v>
+        <v>729</v>
       </c>
       <c r="J53" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="K53" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="L53" t="s">
-        <v>165</v>
+        <v>785</v>
       </c>
       <c r="M53" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="N53" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="O53" t="s">
-        <v>165</v>
+        <v>839</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
       <c r="Q53" t="s">
-        <v>165</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C54" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E54" t="s">
-        <v>338</v>
-      </c>
-      <c r="F54" t="s">
-        <v>684</v>
-      </c>
-      <c r="G54" t="s">
         <v>339</v>
       </c>
-      <c r="H54" t="s">
-        <v>340</v>
-      </c>
+      <c r="G54"/>
+      <c r="H54"/>
       <c r="I54" t="s">
         <v>165</v>
       </c>
@@ -6237,88 +6250,95 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" t="s">
+        <v>593</v>
+      </c>
+      <c r="C55" t="s">
+        <v>645</v>
+      </c>
+      <c r="D55" t="s">
         <v>341</v>
       </c>
-      <c r="B55" t="s">
-        <v>601</v>
-      </c>
-      <c r="C55" t="s">
-        <v>643</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>342</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>687</v>
+      </c>
+      <c r="G55" t="s">
         <v>343</v>
       </c>
-      <c r="G55"/>
-      <c r="H55"/>
+      <c r="H55" t="s">
+        <v>344</v>
+      </c>
       <c r="I55" t="s">
         <v>165</v>
       </c>
-      <c r="J55"/>
+      <c r="J55" t="s">
+        <v>165</v>
+      </c>
       <c r="K55" t="s">
         <v>165</v>
       </c>
       <c r="L55" t="s">
         <v>165</v>
       </c>
-      <c r="M55"/>
+      <c r="M55" t="s">
+        <v>165</v>
+      </c>
       <c r="N55" t="s">
         <v>165</v>
       </c>
       <c r="O55" t="s">
         <v>165</v>
       </c>
-      <c r="P55"/>
+      <c r="P55" t="s">
+        <v>165</v>
+      </c>
       <c r="Q55" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
-        <v>590</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56" t="s">
-        <v>685</v>
-      </c>
-      <c r="G56" t="s">
-        <v>345</v>
-      </c>
-      <c r="H56" t="s">
+        <v>604</v>
+      </c>
+      <c r="C56" t="s">
+        <v>646</v>
+      </c>
+      <c r="D56" t="s">
         <v>346</v>
       </c>
+      <c r="E56" t="s">
+        <v>347</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
       <c r="I56" t="s">
-        <v>347</v>
-      </c>
-      <c r="J56" t="s">
-        <v>347</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J56"/>
       <c r="K56" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="L56" t="s">
-        <v>347</v>
-      </c>
-      <c r="M56" t="s">
-        <v>347</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M56"/>
       <c r="N56" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="O56" t="s">
-        <v>347</v>
-      </c>
-      <c r="P56" t="s">
-        <v>347</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P56"/>
       <c r="Q56" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57">
@@ -6326,65 +6346,65 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>594</v>
-      </c>
-      <c r="C57" t="s">
-        <v>644</v>
-      </c>
-      <c r="D57" t="s">
+        <v>593</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>688</v>
+      </c>
+      <c r="G57" t="s">
         <v>349</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>350</v>
       </c>
-      <c r="F57" t="s">
-        <v>686</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>351</v>
       </c>
-      <c r="H57" t="s">
-        <v>352</v>
-      </c>
-      <c r="I57" t="s">
-        <v>353</v>
-      </c>
       <c r="J57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>352</v>
+      </c>
+      <c r="B58" t="s">
+        <v>597</v>
+      </c>
+      <c r="C58" t="s">
+        <v>647</v>
+      </c>
+      <c r="D58" t="s">
+        <v>353</v>
+      </c>
+      <c r="E58" t="s">
         <v>354</v>
       </c>
-      <c r="B58" t="s">
-        <v>590</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58"/>
       <c r="F58" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G58" t="s">
         <v>355</v>
@@ -6393,207 +6413,228 @@
         <v>356</v>
       </c>
       <c r="I58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="J58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="K58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="M58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="N58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="O58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="P58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="Q58" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" t="s">
+        <v>593</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>690</v>
+      </c>
+      <c r="G59" t="s">
         <v>358</v>
       </c>
-      <c r="B59" t="s">
-        <v>602</v>
-      </c>
-      <c r="C59" t="s">
-        <v>645</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="H59" t="s">
         <v>359</v>
       </c>
-      <c r="E59" t="s">
+      <c r="I59" t="s">
         <v>360</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59" t="s">
-        <v>727</v>
-      </c>
       <c r="J59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L59" t="s">
-        <v>783</v>
+        <v>360</v>
       </c>
       <c r="M59" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N59" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="O59" t="s">
-        <v>837</v>
+        <v>360</v>
       </c>
       <c r="P59" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q59" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B60" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="C60" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D60" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E60" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="J60" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K60" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L60" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M60" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N60" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O60" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="P60" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q60" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C61" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D61" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E61" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J61" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K61" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M61" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N61" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="O61" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="P61" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q61" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>379</v>
+      </c>
+      <c r="B62" t="s">
+        <v>597</v>
+      </c>
+      <c r="C62" t="s">
+        <v>650</v>
+      </c>
+      <c r="D62" t="s">
+        <v>380</v>
+      </c>
+      <c r="E62" t="s">
+        <v>381</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62" t="s">
+        <v>732</v>
+      </c>
+      <c r="J62" t="s">
+        <v>382</v>
+      </c>
+      <c r="K62" t="s">
+        <v>383</v>
+      </c>
+      <c r="L62" t="s">
+        <v>788</v>
+      </c>
+      <c r="M62" t="s">
+        <v>384</v>
+      </c>
+      <c r="N62" t="s">
         <v>385</v>
       </c>
-      <c r="B62" t="s">
-        <v>590</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62" t="s">
-        <v>688</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="O62" t="s">
+        <v>842</v>
+      </c>
+      <c r="P62" t="s">
         <v>386</v>
       </c>
-      <c r="H62" t="s">
+      <c r="Q62" t="s">
         <v>387</v>
       </c>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>388</v>
       </c>
       <c r="B63" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G63" t="s">
         <v>389</v>
@@ -6601,114 +6642,114 @@
       <c r="H63" t="s">
         <v>390</v>
       </c>
-      <c r="I63" t="s">
-        <v>353</v>
-      </c>
-      <c r="J63" t="s">
-        <v>353</v>
-      </c>
-      <c r="K63" t="s">
-        <v>353</v>
-      </c>
-      <c r="L63" t="s">
-        <v>353</v>
-      </c>
-      <c r="M63" t="s">
-        <v>353</v>
-      </c>
-      <c r="N63" t="s">
-        <v>353</v>
-      </c>
-      <c r="O63" t="s">
-        <v>353</v>
-      </c>
-      <c r="P63" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>353</v>
-      </c>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>603</v>
-      </c>
-      <c r="C64" t="s">
-        <v>648</v>
-      </c>
-      <c r="D64" t="s">
+        <v>593</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>692</v>
+      </c>
+      <c r="G64" t="s">
         <v>392</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>393</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
       <c r="I64" t="s">
-        <v>730</v>
+        <v>231</v>
       </c>
       <c r="J64" t="s">
-        <v>394</v>
+        <v>231</v>
       </c>
       <c r="K64" t="s">
-        <v>395</v>
+        <v>231</v>
       </c>
       <c r="L64" t="s">
-        <v>786</v>
+        <v>231</v>
       </c>
       <c r="M64" t="s">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="N64" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="O64" t="s">
-        <v>840</v>
+        <v>231</v>
       </c>
       <c r="P64" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="Q64" t="s">
-        <v>399</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="C65" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D65" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E65" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
+      <c r="I65" t="s">
+        <v>733</v>
+      </c>
+      <c r="J65" t="s">
+        <v>397</v>
+      </c>
+      <c r="K65" t="s">
+        <v>398</v>
+      </c>
+      <c r="L65" t="s">
+        <v>789</v>
+      </c>
+      <c r="M65" t="s">
+        <v>399</v>
+      </c>
+      <c r="N65" t="s">
+        <v>400</v>
+      </c>
+      <c r="O65" t="s">
+        <v>843</v>
+      </c>
+      <c r="P65" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C66" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D66" t="s">
         <v>404</v>
@@ -6730,10 +6771,10 @@
         <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C67" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -6755,10 +6796,10 @@
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C68" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6780,24 +6821,21 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C69" t="s">
-        <v>653</v>
-      </c>
-      <c r="D69"/>
+        <v>655</v>
+      </c>
+      <c r="D69" t="s">
+        <v>413</v>
+      </c>
       <c r="E69" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69" t="s">
-        <v>731</v>
-      </c>
       <c r="J69"/>
-      <c r="K69" t="s">
-        <v>414</v>
-      </c>
+      <c r="K69"/>
       <c r="M69"/>
       <c r="N69"/>
       <c r="P69"/>
@@ -6808,10 +6846,10 @@
         <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C70" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
@@ -6820,7 +6858,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -6836,10 +6874,10 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C71" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -6848,118 +6886,121 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
         <v>420</v>
       </c>
-      <c r="L71" t="s">
-        <v>787</v>
-      </c>
       <c r="M71"/>
-      <c r="N71" t="s">
-        <v>421</v>
-      </c>
-      <c r="O71" t="s">
-        <v>841</v>
-      </c>
-      <c r="P71" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>423</v>
-      </c>
+      <c r="N71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="C72" t="s">
-        <v>656</v>
-      </c>
-      <c r="D72" t="s">
-        <v>425</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="D72"/>
       <c r="E72" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L72" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O72" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="P72" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>427</v>
+      </c>
+      <c r="B73" t="s">
+        <v>607</v>
+      </c>
+      <c r="C73" t="s">
+        <v>659</v>
+      </c>
+      <c r="D73" t="s">
+        <v>428</v>
+      </c>
+      <c r="E73" t="s">
         <v>429</v>
       </c>
-      <c r="B73" t="s">
-        <v>590</v>
-      </c>
-      <c r="D73"/>
-      <c r="E73"/>
       <c r="G73"/>
       <c r="H73"/>
+      <c r="I73" t="s">
+        <v>737</v>
+      </c>
       <c r="J73"/>
-      <c r="K73"/>
+      <c r="K73" t="s">
+        <v>423</v>
+      </c>
       <c r="L73" t="s">
-        <v>789</v>
-      </c>
-      <c r="M73" t="s">
+        <v>791</v>
+      </c>
+      <c r="M73"/>
+      <c r="N73" t="s">
         <v>430</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
+        <v>845</v>
+      </c>
+      <c r="P73" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q73" t="s">
         <v>431</v>
       </c>
-      <c r="P73"/>
-      <c r="Q73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>432</v>
       </c>
       <c r="B74" t="s">
-        <v>590</v>
-      </c>
-      <c r="C74" t="s">
-        <v>657</v>
-      </c>
-      <c r="D74" t="s">
-        <v>433</v>
-      </c>
-      <c r="E74" t="s">
-        <v>434</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
       <c r="G74"/>
       <c r="H74"/>
       <c r="J74"/>
       <c r="K74"/>
-      <c r="M74"/>
-      <c r="N74"/>
+      <c r="L74" t="s">
+        <v>792</v>
+      </c>
+      <c r="M74" t="s">
+        <v>433</v>
+      </c>
+      <c r="N74" t="s">
+        <v>434</v>
+      </c>
       <c r="P74"/>
       <c r="Q74"/>
     </row>
@@ -6968,10 +7009,10 @@
         <v>435</v>
       </c>
       <c r="B75" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C75" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D75" t="s">
         <v>436</v>
@@ -6993,10 +7034,10 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C76" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D76" t="s">
         <v>439</v>
@@ -7008,255 +7049,234 @@
       <c r="H76"/>
       <c r="J76"/>
       <c r="K76"/>
-      <c r="L76" t="s">
-        <v>790</v>
-      </c>
-      <c r="M76" t="s">
-        <v>441</v>
-      </c>
-      <c r="N76" t="s">
-        <v>442</v>
-      </c>
+      <c r="M76"/>
+      <c r="N76"/>
       <c r="P76"/>
       <c r="Q76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>441</v>
+      </c>
+      <c r="B77" t="s">
+        <v>599</v>
+      </c>
+      <c r="C77" t="s">
+        <v>662</v>
+      </c>
+      <c r="D77" t="s">
+        <v>442</v>
+      </c>
+      <c r="E77" t="s">
         <v>443</v>
-      </c>
-      <c r="B77" t="s">
-        <v>596</v>
-      </c>
-      <c r="C77" t="s">
-        <v>660</v>
-      </c>
-      <c r="D77" t="s">
-        <v>444</v>
-      </c>
-      <c r="E77" t="s">
-        <v>445</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N77" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P77"/>
       <c r="Q77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>446</v>
+      </c>
+      <c r="B78" t="s">
+        <v>599</v>
+      </c>
+      <c r="C78" t="s">
+        <v>663</v>
+      </c>
+      <c r="D78" t="s">
+        <v>447</v>
+      </c>
+      <c r="E78" t="s">
         <v>448</v>
-      </c>
-      <c r="B78" t="s">
-        <v>590</v>
-      </c>
-      <c r="C78" t="s">
-        <v>661</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78" t="s">
-        <v>449</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="M78"/>
-      <c r="N78"/>
+      <c r="L78" t="s">
+        <v>794</v>
+      </c>
+      <c r="M78" t="s">
+        <v>449</v>
+      </c>
+      <c r="N78" t="s">
+        <v>450</v>
+      </c>
       <c r="P78"/>
       <c r="Q78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B79" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C79" t="s">
-        <v>662</v>
-      </c>
-      <c r="D79" t="s">
-        <v>451</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="D79"/>
       <c r="E79" t="s">
         <v>452</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="I79" t="s">
-        <v>735</v>
-      </c>
       <c r="J79"/>
-      <c r="K79" t="s">
-        <v>453</v>
-      </c>
-      <c r="L79" t="s">
-        <v>776</v>
-      </c>
+      <c r="K79"/>
       <c r="M79"/>
-      <c r="N79" t="s">
-        <v>277</v>
-      </c>
+      <c r="N79"/>
       <c r="P79"/>
       <c r="Q79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>453</v>
+      </c>
+      <c r="B80" t="s">
+        <v>593</v>
+      </c>
+      <c r="C80" t="s">
+        <v>665</v>
+      </c>
+      <c r="D80" t="s">
         <v>454</v>
       </c>
-      <c r="B80" t="s">
-        <v>590</v>
-      </c>
-      <c r="C80" t="s">
-        <v>663</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>455</v>
-      </c>
-      <c r="E80" t="s">
-        <v>456</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>736</v>
-      </c>
-      <c r="J80" t="s">
-        <v>457</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="J80"/>
       <c r="K80" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L80" t="s">
-        <v>792</v>
-      </c>
-      <c r="M80" t="s">
-        <v>459</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="M80"/>
       <c r="N80" t="s">
-        <v>460</v>
-      </c>
-      <c r="O80" t="s">
-        <v>843</v>
-      </c>
-      <c r="P80" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>462</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P80"/>
+      <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C81" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D81" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E81" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="I81" t="s">
+        <v>739</v>
+      </c>
+      <c r="J81" t="s">
+        <v>460</v>
+      </c>
+      <c r="K81" t="s">
+        <v>461</v>
+      </c>
+      <c r="L81" t="s">
+        <v>795</v>
+      </c>
+      <c r="M81" t="s">
+        <v>462</v>
+      </c>
+      <c r="N81" t="s">
+        <v>463</v>
+      </c>
+      <c r="O81" t="s">
+        <v>846</v>
+      </c>
+      <c r="P81" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>466</v>
       </c>
       <c r="B82" t="s">
-        <v>590</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82"/>
+        <v>597</v>
+      </c>
+      <c r="C82" t="s">
+        <v>667</v>
+      </c>
+      <c r="D82" t="s">
+        <v>467</v>
+      </c>
+      <c r="E82" t="s">
+        <v>468</v>
+      </c>
       <c r="G82"/>
       <c r="H82"/>
       <c r="J82"/>
       <c r="K82"/>
-      <c r="L82" t="s">
-        <v>793</v>
-      </c>
-      <c r="M82" t="s">
-        <v>467</v>
-      </c>
-      <c r="N82" t="s">
-        <v>270</v>
-      </c>
-      <c r="O82" t="s">
-        <v>844</v>
-      </c>
-      <c r="P82" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>469</v>
-      </c>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B83" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" t="s">
-        <v>690</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83" t="s">
+        <v>796</v>
+      </c>
+      <c r="M83" t="s">
+        <v>470</v>
+      </c>
+      <c r="N83" t="s">
+        <v>274</v>
+      </c>
+      <c r="O83" t="s">
+        <v>847</v>
+      </c>
+      <c r="P83" t="s">
         <v>471</v>
       </c>
-      <c r="H83" t="s">
+      <c r="Q83" t="s">
         <v>472</v>
-      </c>
-      <c r="I83" t="s">
-        <v>353</v>
-      </c>
-      <c r="J83" t="s">
-        <v>353</v>
-      </c>
-      <c r="K83" t="s">
-        <v>353</v>
-      </c>
-      <c r="L83" t="s">
-        <v>353</v>
-      </c>
-      <c r="M83" t="s">
-        <v>353</v>
-      </c>
-      <c r="N83" t="s">
-        <v>353</v>
-      </c>
-      <c r="O83" t="s">
-        <v>353</v>
-      </c>
-      <c r="P83" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="84">
@@ -7264,57 +7284,71 @@
         <v>473</v>
       </c>
       <c r="B84" t="s">
-        <v>590</v>
-      </c>
-      <c r="C84" t="s">
-        <v>665</v>
-      </c>
-      <c r="D84" t="s">
+        <v>593</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>693</v>
+      </c>
+      <c r="G84" t="s">
         <v>474</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>475</v>
       </c>
-      <c r="F84" t="s">
-        <v>691</v>
-      </c>
-      <c r="G84" t="s">
-        <v>476</v>
-      </c>
-      <c r="H84" t="s">
-        <v>477</v>
-      </c>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
+      <c r="I84" t="s">
+        <v>231</v>
+      </c>
+      <c r="J84" t="s">
+        <v>231</v>
+      </c>
+      <c r="K84" t="s">
+        <v>231</v>
+      </c>
+      <c r="L84" t="s">
+        <v>231</v>
+      </c>
+      <c r="M84" t="s">
+        <v>231</v>
+      </c>
+      <c r="N84" t="s">
+        <v>231</v>
+      </c>
+      <c r="O84" t="s">
+        <v>231</v>
+      </c>
+      <c r="P84" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>476</v>
+      </c>
+      <c r="B85" t="s">
+        <v>593</v>
+      </c>
+      <c r="C85" t="s">
+        <v>668</v>
+      </c>
+      <c r="D85" t="s">
+        <v>477</v>
+      </c>
+      <c r="E85" t="s">
         <v>478</v>
       </c>
-      <c r="B85" t="s">
-        <v>590</v>
-      </c>
-      <c r="C85" t="s">
-        <v>665</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
+        <v>694</v>
+      </c>
+      <c r="G85" t="s">
         <v>479</v>
       </c>
-      <c r="E85" t="s">
-        <v>475</v>
-      </c>
-      <c r="F85" t="s">
-        <v>692</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>480</v>
-      </c>
-      <c r="H85" t="s">
-        <v>481</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -7325,28 +7359,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>481</v>
+      </c>
+      <c r="B86" t="s">
+        <v>593</v>
+      </c>
+      <c r="C86" t="s">
+        <v>668</v>
+      </c>
+      <c r="D86" t="s">
         <v>482</v>
       </c>
-      <c r="B86" t="s">
-        <v>590</v>
-      </c>
-      <c r="C86" t="s">
-        <v>666</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
+        <v>478</v>
+      </c>
+      <c r="F86" t="s">
+        <v>695</v>
+      </c>
+      <c r="G86" t="s">
         <v>483</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>484</v>
-      </c>
-      <c r="F86" t="s">
-        <v>693</v>
-      </c>
-      <c r="G86" t="s">
-        <v>485</v>
-      </c>
-      <c r="H86" t="s">
-        <v>486</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -7357,22 +7391,29 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>485</v>
+      </c>
+      <c r="B87" t="s">
+        <v>593</v>
+      </c>
+      <c r="C87" t="s">
+        <v>669</v>
+      </c>
+      <c r="D87" t="s">
+        <v>486</v>
+      </c>
+      <c r="E87" t="s">
         <v>487</v>
       </c>
-      <c r="B87" t="s">
-        <v>590</v>
-      </c>
-      <c r="C87" t="s">
-        <v>667</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
+        <v>696</v>
+      </c>
+      <c r="G87" t="s">
         <v>488</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>489</v>
       </c>
-      <c r="G87"/>
-      <c r="H87"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="M87"/>
@@ -7385,10 +7426,10 @@
         <v>490</v>
       </c>
       <c r="B88" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C88" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -7410,10 +7451,10 @@
         <v>493</v>
       </c>
       <c r="B89" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C89" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -7421,15 +7462,8 @@
       <c r="E89" t="s">
         <v>495</v>
       </c>
-      <c r="F89" t="s">
-        <v>694</v>
-      </c>
-      <c r="G89" t="s">
-        <v>496</v>
-      </c>
-      <c r="H89" t="s">
-        <v>497</v>
-      </c>
+      <c r="G89"/>
+      <c r="H89"/>
       <c r="J89"/>
       <c r="K89"/>
       <c r="M89"/>
@@ -7439,84 +7473,91 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B90" t="s">
         <v>593</v>
       </c>
       <c r="C90" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D90" t="s">
+        <v>497</v>
+      </c>
+      <c r="E90" t="s">
+        <v>498</v>
+      </c>
+      <c r="F90" t="s">
+        <v>697</v>
+      </c>
+      <c r="G90" t="s">
         <v>499</v>
       </c>
-      <c r="E90" t="s">
+      <c r="H90" t="s">
         <v>500</v>
       </c>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90" t="s">
-        <v>737</v>
-      </c>
-      <c r="J90" t="s">
-        <v>501</v>
-      </c>
-      <c r="K90" t="s">
-        <v>502</v>
-      </c>
-      <c r="L90" t="s">
-        <v>794</v>
-      </c>
-      <c r="M90" t="s">
-        <v>503</v>
-      </c>
-      <c r="N90" t="s">
-        <v>504</v>
-      </c>
-      <c r="O90" t="s">
-        <v>845</v>
-      </c>
-      <c r="P90" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>506</v>
-      </c>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B91" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C91" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D91" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E91" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
+      <c r="I91" t="s">
+        <v>740</v>
+      </c>
+      <c r="J91" t="s">
+        <v>504</v>
+      </c>
+      <c r="K91" t="s">
+        <v>505</v>
+      </c>
+      <c r="L91" t="s">
+        <v>797</v>
+      </c>
+      <c r="M91" t="s">
+        <v>506</v>
+      </c>
+      <c r="N91" t="s">
+        <v>507</v>
+      </c>
+      <c r="O91" t="s">
+        <v>848</v>
+      </c>
+      <c r="P91" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>510</v>
       </c>
       <c r="B92" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C92" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D92" t="s">
         <v>511</v>
@@ -7538,10 +7579,17 @@
         <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>606</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93"/>
+        <v>608</v>
+      </c>
+      <c r="C93" t="s">
+        <v>675</v>
+      </c>
+      <c r="D93" t="s">
+        <v>514</v>
+      </c>
+      <c r="E93" t="s">
+        <v>515</v>
+      </c>
       <c r="G93"/>
       <c r="H93"/>
       <c r="J93"/>
@@ -7553,10 +7601,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -7564,15 +7612,8 @@
       <c r="H94"/>
       <c r="J94"/>
       <c r="K94"/>
-      <c r="L94" t="s">
-        <v>795</v>
-      </c>
-      <c r="M94" t="s">
-        <v>515</v>
-      </c>
-      <c r="N94" t="s">
-        <v>516</v>
-      </c>
+      <c r="M94"/>
+      <c r="N94"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
@@ -7583,390 +7624,415 @@
       <c r="B95" t="s">
         <v>607</v>
       </c>
-      <c r="C95" t="s">
-        <v>673</v>
-      </c>
-      <c r="D95" t="s">
-        <v>518</v>
-      </c>
-      <c r="E95" t="s">
-        <v>519</v>
-      </c>
+      <c r="D95"/>
+      <c r="E95"/>
       <c r="G95"/>
       <c r="H95"/>
-      <c r="I95" t="s">
-        <v>738</v>
-      </c>
-      <c r="J95" t="s">
-        <v>520</v>
-      </c>
-      <c r="K95" t="s">
-        <v>521</v>
-      </c>
+      <c r="J95"/>
+      <c r="K95"/>
       <c r="L95" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M95" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="N95" t="s">
-        <v>523</v>
-      </c>
-      <c r="O95" t="s">
-        <v>846</v>
-      </c>
-      <c r="P95" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>525</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="P95"/>
+      <c r="Q95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C96" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D96" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E96" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="J96" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K96" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L96" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M96" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="N96" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="O96" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="P96" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q96" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B97" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="C97" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D97" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E97" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J97" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K97" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L97" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="M97" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="N97" t="s">
-        <v>270</v>
+        <v>535</v>
       </c>
       <c r="O97" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="P97" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q97" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B98" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C98" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D98" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E98" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J98" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K98" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L98" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M98" t="s">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="N98" t="s">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="O98" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="P98" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q98" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C99" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D99" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E99" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
-      <c r="J99"/>
-      <c r="K99"/>
+      <c r="I99" t="s">
+        <v>744</v>
+      </c>
+      <c r="J99" t="s">
+        <v>548</v>
+      </c>
+      <c r="K99" t="s">
+        <v>549</v>
+      </c>
       <c r="L99" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="M99" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N99" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O99" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="P99" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q99" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B100" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C100" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D100" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E100" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M100" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N100" t="s">
-        <v>562</v>
-      </c>
-      <c r="P100"/>
-      <c r="Q100"/>
+        <v>558</v>
+      </c>
+      <c r="O100" t="s">
+        <v>853</v>
+      </c>
+      <c r="P100" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>561</v>
+      </c>
+      <c r="B101" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" t="s">
+        <v>681</v>
+      </c>
+      <c r="D101" t="s">
+        <v>562</v>
+      </c>
+      <c r="E101" t="s">
         <v>563</v>
-      </c>
-      <c r="B101" t="s">
-        <v>603</v>
-      </c>
-      <c r="C101" t="s">
-        <v>679</v>
-      </c>
-      <c r="D101" t="s">
-        <v>564</v>
-      </c>
-      <c r="E101" t="s">
-        <v>565</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
-      <c r="I101" t="s">
-        <v>742</v>
-      </c>
-      <c r="J101" t="s">
-        <v>566</v>
-      </c>
-      <c r="K101" t="s">
-        <v>567</v>
-      </c>
+      <c r="J101"/>
+      <c r="K101"/>
       <c r="L101" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M101" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N101" t="s">
-        <v>569</v>
-      </c>
-      <c r="O101" t="s">
-        <v>851</v>
-      </c>
-      <c r="P101" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>571</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="P101"/>
+      <c r="Q101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="C102" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D102" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E102" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="J102" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K102" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="L102" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M102" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N102" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="O102" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="P102" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="Q102" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B103" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C103" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D103" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E103" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="J103" t="s">
+        <v>578</v>
+      </c>
+      <c r="K103" t="s">
+        <v>579</v>
+      </c>
+      <c r="L103" t="s">
+        <v>805</v>
+      </c>
+      <c r="M103" t="s">
+        <v>580</v>
+      </c>
+      <c r="N103" t="s">
+        <v>581</v>
+      </c>
+      <c r="O103" t="s">
+        <v>855</v>
+      </c>
+      <c r="P103" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
         <v>584</v>
       </c>
-      <c r="K103" t="s">
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>684</v>
+      </c>
+      <c r="D104" t="s">
         <v>585</v>
       </c>
-      <c r="L103" t="s">
-        <v>803</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="E104" t="s">
         <v>586</v>
       </c>
-      <c r="N103" t="s">
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104" t="s">
+        <v>747</v>
+      </c>
+      <c r="J104" t="s">
         <v>587</v>
       </c>
-      <c r="O103" t="s">
-        <v>853</v>
-      </c>
-      <c r="P103" t="s">
+      <c r="K104" t="s">
         <v>588</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="L104" t="s">
+        <v>806</v>
+      </c>
+      <c r="M104" t="s">
         <v>589</v>
+      </c>
+      <c r="N104" t="s">
+        <v>590</v>
+      </c>
+      <c r="O104" t="s">
+        <v>856</v>
+      </c>
+      <c r="P104" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="862">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -1457,6 +1457,24 @@
     <t xml:space="preserve">「弱い弱い」</t>
   </si>
   <si>
+    <t xml:space="preserve">moyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Step right up, step right up!"
+"Gather round, folks!"
+"Behold!&amp;The legendary fortune roll is here!"
+"Wait till you see what I got over here!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「さあ、寄った寄った！」
+「これなるは伝説のガラガラ！」
+「見なきゃ損だよ！」
+「他の店じゃ手に入らない珍品の数々！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@tourist</t>
+  </si>
+  <si>
     <t xml:space="preserve">tourist_festival</t>
   </si>
   <si>
@@ -1472,9 +1490,6 @@
 「なんとも騒々しい{な}」
 「すげえ！」
 「人がゴミのよう{だ}」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@tourist</t>
   </si>
   <si>
     <t xml:space="preserve">tourist_hotspring</t>
@@ -4183,14 +4198,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4199,7 +4214,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4208,7 +4223,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4222,10 +4237,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C4" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4236,7 +4251,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4245,7 +4260,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4261,10 +4276,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C5" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4286,10 +4301,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C6" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4302,7 +4317,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4311,7 +4326,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4325,10 +4340,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4339,7 +4354,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4348,7 +4363,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4364,10 +4379,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C8" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4378,7 +4393,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4387,7 +4402,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4396,7 +4411,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4410,10 +4425,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4424,7 +4439,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4433,7 +4448,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4442,7 +4457,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4456,10 +4471,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C10" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4470,21 +4485,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4496,10 +4511,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C11" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4510,7 +4525,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4519,7 +4534,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4528,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4542,10 +4557,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C12" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4556,7 +4571,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4565,7 +4580,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4574,7 +4589,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4588,10 +4603,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C13" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4609,7 +4624,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4625,10 +4640,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C14" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4639,7 +4654,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4648,7 +4663,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4657,7 +4672,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4671,10 +4686,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C15" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4710,14 +4725,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4726,7 +4741,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4735,7 +4750,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4749,10 +4764,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C17" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4763,7 +4778,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4772,7 +4787,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4781,7 +4796,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4795,14 +4810,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4811,7 +4826,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4820,7 +4835,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4834,14 +4849,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4850,7 +4865,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4859,7 +4874,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4873,10 +4888,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C20" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4887,7 +4902,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4896,7 +4911,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4905,7 +4920,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4919,14 +4934,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4935,7 +4950,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4944,7 +4959,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4958,14 +4973,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -4974,7 +4989,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4983,7 +4998,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4997,10 +5012,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C23" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5022,10 +5037,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C24" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5036,7 +5051,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5045,7 +5060,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5054,7 +5069,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5068,14 +5083,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5100,10 +5115,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C26" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5116,7 +5131,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5125,7 +5140,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5139,14 +5154,14 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5155,7 +5170,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5164,7 +5179,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5178,10 +5193,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C28" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5192,7 +5207,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5201,7 +5216,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5210,7 +5225,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5224,10 +5239,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C29" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5238,7 +5253,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5247,7 +5262,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5256,7 +5271,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5270,10 +5285,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C30" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5284,7 +5299,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5293,7 +5308,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5302,7 +5317,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5316,10 +5331,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C31" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5330,7 +5345,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5339,7 +5354,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5348,7 +5363,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5362,10 +5377,10 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C32" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5387,7 +5402,7 @@
         <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -5396,7 +5411,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5405,7 +5420,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5419,14 +5434,14 @@
         <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5435,7 +5450,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5444,7 +5459,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5458,12 +5473,12 @@
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5472,7 +5487,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5481,7 +5496,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5490,7 +5505,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5504,10 +5519,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C36" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5557,10 +5572,10 @@
         <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C37" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D37" t="s">
         <v>233</v>
@@ -5569,7 +5584,7 @@
         <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="G37" t="s">
         <v>235</v>
@@ -5578,7 +5593,7 @@
         <v>236</v>
       </c>
       <c r="I37" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="J37" t="s">
         <v>222</v>
@@ -5587,7 +5602,7 @@
         <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="M37" t="s">
         <v>224</v>
@@ -5596,7 +5611,7 @@
         <v>225</v>
       </c>
       <c r="O37" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5610,10 +5625,10 @@
         <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C38" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D38" t="s">
         <v>238</v>
@@ -5635,7 +5650,7 @@
         <v>240</v>
       </c>
       <c r="B39" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -5653,10 +5668,10 @@
         <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C40" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5667,7 +5682,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="J40" t="s">
         <v>244</v>
@@ -5676,7 +5691,7 @@
         <v>245</v>
       </c>
       <c r="L40" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="M40" t="s">
         <v>246</v>
@@ -5685,7 +5700,7 @@
         <v>247</v>
       </c>
       <c r="O40" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="P40" t="s">
         <v>248</v>
@@ -5699,10 +5714,10 @@
         <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C41" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D41" t="s">
         <v>251</v>
@@ -5713,7 +5728,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="J41" t="s">
         <v>253</v>
@@ -5722,7 +5737,7 @@
         <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="M41" t="s">
         <v>255</v>
@@ -5731,7 +5746,7 @@
         <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="P41" t="s">
         <v>257</v>
@@ -5745,14 +5760,14 @@
         <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="J42" t="s">
         <v>260</v>
@@ -5761,7 +5776,7 @@
         <v>261</v>
       </c>
       <c r="L42" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="M42" t="s">
         <v>262</v>
@@ -5770,7 +5785,7 @@
         <v>263</v>
       </c>
       <c r="O42" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -5782,14 +5797,14 @@
         <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="J43" t="s">
         <v>266</v>
@@ -5798,7 +5813,7 @@
         <v>267</v>
       </c>
       <c r="L43" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="M43" t="s">
         <v>268</v>
@@ -5807,7 +5822,7 @@
         <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="P43" t="s">
         <v>270</v>
@@ -5821,7 +5836,7 @@
         <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -5830,7 +5845,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="M44" t="s">
         <v>273</v>
@@ -5839,7 +5854,7 @@
         <v>274</v>
       </c>
       <c r="O44" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="P44" t="s">
         <v>275</v>
@@ -5853,7 +5868,7 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C45" t="s">
         <v>279</v>
@@ -5869,7 +5884,7 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -5878,7 +5893,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -5892,10 +5907,10 @@
         <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C46" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D46" t="s">
         <v>285</v>
@@ -5906,7 +5921,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="J46" t="s">
         <v>287</v>
@@ -5915,7 +5930,7 @@
         <v>288</v>
       </c>
       <c r="L46" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="M46" t="s">
         <v>289</v>
@@ -5924,7 +5939,7 @@
         <v>290</v>
       </c>
       <c r="O46" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="P46" t="s">
         <v>282</v>
@@ -5938,10 +5953,10 @@
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C47" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D47" t="s">
         <v>292</v>
@@ -5952,7 +5967,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="J47" t="s">
         <v>294</v>
@@ -5961,7 +5976,7 @@
         <v>295</v>
       </c>
       <c r="L47" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="M47" t="s">
         <v>296</v>
@@ -5970,7 +5985,7 @@
         <v>297</v>
       </c>
       <c r="O47" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="P47" t="s">
         <v>298</v>
@@ -5984,10 +5999,10 @@
         <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C48" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D48" t="s">
         <v>301</v>
@@ -5998,7 +6013,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J48" t="s">
         <v>303</v>
@@ -6007,7 +6022,7 @@
         <v>304</v>
       </c>
       <c r="L48" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="M48" t="s">
         <v>305</v>
@@ -6016,7 +6031,7 @@
         <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="P48" t="s">
         <v>305</v>
@@ -6030,14 +6045,14 @@
         <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="J49" t="s">
         <v>308</v>
@@ -6046,7 +6061,7 @@
         <v>309</v>
       </c>
       <c r="L49" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="M49" t="s">
         <v>310</v>
@@ -6055,7 +6070,7 @@
         <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="P49" t="s">
         <v>312</v>
@@ -6069,10 +6084,7 @@
         <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>593</v>
-      </c>
-      <c r="C50" t="s">
-        <v>643</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6082,28 +6094,23 @@
       </c>
       <c r="G50"/>
       <c r="H50"/>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>317</v>
       </c>
-      <c r="J50"/>
       <c r="K50" t="s">
         <v>317</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>317</v>
       </c>
-      <c r="M50"/>
       <c r="N50" t="s">
         <v>317</v>
       </c>
-      <c r="O50" t="s">
-        <v>839</v>
-      </c>
       <c r="P50" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q50" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51">
@@ -6111,10 +6118,10 @@
         <v>318</v>
       </c>
       <c r="B51" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D51" t="s">
         <v>319</v>
@@ -6127,25 +6134,29 @@
       <c r="I51" t="s">
         <v>317</v>
       </c>
-      <c r="J51"/>
+      <c r="J51" t="s">
+        <v>317</v>
+      </c>
       <c r="K51" t="s">
         <v>317</v>
       </c>
       <c r="L51" t="s">
         <v>317</v>
       </c>
-      <c r="M51"/>
+      <c r="M51" t="s">
+        <v>317</v>
+      </c>
       <c r="N51" t="s">
         <v>317</v>
       </c>
       <c r="O51" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="P51" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q51" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52">
@@ -6153,10 +6164,10 @@
         <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>595</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D52" t="s">
         <v>322</v>
@@ -6167,116 +6178,116 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>730</v>
+        <v>317</v>
       </c>
       <c r="J52" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K52" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L52" t="s">
-        <v>786</v>
+        <v>317</v>
       </c>
       <c r="M52" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="N52" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="O52" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="P52" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="Q52" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s">
-        <v>593</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53"/>
+        <v>598</v>
+      </c>
+      <c r="C53" t="s">
+        <v>648</v>
+      </c>
+      <c r="D53" t="s">
+        <v>325</v>
+      </c>
+      <c r="E53" t="s">
+        <v>326</v>
+      </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="J53" t="s">
+        <v>327</v>
+      </c>
+      <c r="K53" t="s">
+        <v>328</v>
+      </c>
+      <c r="L53" t="s">
+        <v>789</v>
+      </c>
+      <c r="M53" t="s">
+        <v>329</v>
+      </c>
+      <c r="N53" t="s">
+        <v>330</v>
+      </c>
+      <c r="O53" t="s">
+        <v>843</v>
+      </c>
+      <c r="P53" t="s">
         <v>331</v>
       </c>
-      <c r="K53" t="s">
+      <c r="Q53" t="s">
         <v>332</v>
-      </c>
-      <c r="L53" t="s">
-        <v>787</v>
-      </c>
-      <c r="M53" t="s">
-        <v>333</v>
-      </c>
-      <c r="N53" t="s">
-        <v>334</v>
-      </c>
-      <c r="O53" t="s">
-        <v>841</v>
-      </c>
-      <c r="P53" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>593</v>
-      </c>
-      <c r="C54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D54" t="s">
-        <v>338</v>
-      </c>
-      <c r="E54" t="s">
-        <v>339</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>165</v>
+        <v>734</v>
       </c>
       <c r="J54" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="K54" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s">
-        <v>165</v>
+        <v>790</v>
       </c>
       <c r="M54" t="s">
-        <v>165</v>
+        <v>336</v>
       </c>
       <c r="N54" t="s">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="O54" t="s">
-        <v>165</v>
+        <v>844</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="Q54" t="s">
-        <v>165</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55">
@@ -6284,10 +6295,10 @@
         <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C55" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D55" t="s">
         <v>341</v>
@@ -6295,15 +6306,8 @@
       <c r="E55" t="s">
         <v>342</v>
       </c>
-      <c r="F55" t="s">
-        <v>689</v>
-      </c>
-      <c r="G55" t="s">
-        <v>343</v>
-      </c>
-      <c r="H55" t="s">
-        <v>344</v>
-      </c>
+      <c r="G55"/>
+      <c r="H55"/>
       <c r="I55" t="s">
         <v>165</v>
       </c>
@@ -6334,40 +6338,53 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" t="s">
+        <v>596</v>
+      </c>
+      <c r="C56" t="s">
+        <v>650</v>
+      </c>
+      <c r="D56" t="s">
+        <v>344</v>
+      </c>
+      <c r="E56" t="s">
         <v>345</v>
       </c>
-      <c r="B56" t="s">
-        <v>605</v>
-      </c>
-      <c r="C56" t="s">
-        <v>648</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>692</v>
+      </c>
+      <c r="G56" t="s">
         <v>346</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>347</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
       <c r="I56" t="s">
         <v>165</v>
       </c>
-      <c r="J56"/>
+      <c r="J56" t="s">
+        <v>165</v>
+      </c>
       <c r="K56" t="s">
         <v>165</v>
       </c>
       <c r="L56" t="s">
         <v>165</v>
       </c>
-      <c r="M56"/>
+      <c r="M56" t="s">
+        <v>165</v>
+      </c>
       <c r="N56" t="s">
         <v>165</v>
       </c>
       <c r="O56" t="s">
         <v>165</v>
       </c>
-      <c r="P56"/>
+      <c r="P56" t="s">
+        <v>165</v>
+      </c>
       <c r="Q56" t="s">
         <v>165</v>
       </c>
@@ -6377,111 +6394,105 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>593</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57" t="s">
-        <v>690</v>
-      </c>
-      <c r="G57" t="s">
+        <v>608</v>
+      </c>
+      <c r="C57" t="s">
+        <v>651</v>
+      </c>
+      <c r="D57" t="s">
         <v>349</v>
       </c>
-      <c r="H57" t="s">
+      <c r="E57" t="s">
         <v>350</v>
       </c>
+      <c r="G57"/>
+      <c r="H57"/>
       <c r="I57" t="s">
-        <v>351</v>
-      </c>
-      <c r="J57" t="s">
-        <v>351</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J57"/>
       <c r="K57" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="L57" t="s">
-        <v>351</v>
-      </c>
-      <c r="M57" t="s">
-        <v>351</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M57"/>
       <c r="N57" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="O57" t="s">
-        <v>351</v>
-      </c>
-      <c r="P57" t="s">
-        <v>351</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P57"/>
       <c r="Q57" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" t="s">
+        <v>596</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>693</v>
+      </c>
+      <c r="G58" t="s">
         <v>352</v>
       </c>
-      <c r="B58" t="s">
-        <v>597</v>
-      </c>
-      <c r="C58" t="s">
-        <v>649</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="H58" t="s">
         <v>353</v>
       </c>
-      <c r="E58" t="s">
+      <c r="I58" t="s">
         <v>354</v>
       </c>
-      <c r="F58" t="s">
-        <v>691</v>
-      </c>
-      <c r="G58" t="s">
-        <v>355</v>
-      </c>
-      <c r="H58" t="s">
-        <v>356</v>
-      </c>
-      <c r="I58" t="s">
-        <v>231</v>
-      </c>
       <c r="J58" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="K58" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="L58" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="M58" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="N58" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="O58" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="Q58" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59" t="s">
+        <v>600</v>
+      </c>
+      <c r="C59" t="s">
+        <v>652</v>
+      </c>
+      <c r="D59" t="s">
+        <v>356</v>
+      </c>
+      <c r="E59" t="s">
         <v>357</v>
       </c>
-      <c r="B59" t="s">
-        <v>593</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59"/>
       <c r="F59" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G59" t="s">
         <v>358</v>
@@ -6490,207 +6501,228 @@
         <v>359</v>
       </c>
       <c r="I59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="J59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="K59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="L59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="M59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="N59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="O59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="P59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="Q59" t="s">
-        <v>360</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" t="s">
+        <v>596</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>695</v>
+      </c>
+      <c r="G60" t="s">
         <v>361</v>
       </c>
-      <c r="B60" t="s">
-        <v>606</v>
-      </c>
-      <c r="C60" t="s">
-        <v>650</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="H60" t="s">
         <v>362</v>
       </c>
-      <c r="E60" t="s">
+      <c r="I60" t="s">
         <v>363</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60" t="s">
-        <v>732</v>
-      </c>
       <c r="J60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K60" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L60" t="s">
-        <v>788</v>
+        <v>363</v>
       </c>
       <c r="M60" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N60" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O60" t="s">
-        <v>842</v>
+        <v>363</v>
       </c>
       <c r="P60" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q60" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B61" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="C61" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D61" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E61" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="J61" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K61" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L61" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M61" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="N61" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O61" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="P61" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q61" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C62" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D62" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E62" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="J62" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K62" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M62" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="N62" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O62" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="P62" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q62" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63" t="s">
+        <v>600</v>
+      </c>
+      <c r="C63" t="s">
+        <v>655</v>
+      </c>
+      <c r="D63" t="s">
+        <v>383</v>
+      </c>
+      <c r="E63" t="s">
+        <v>384</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" t="s">
+        <v>737</v>
+      </c>
+      <c r="J63" t="s">
+        <v>385</v>
+      </c>
+      <c r="K63" t="s">
+        <v>386</v>
+      </c>
+      <c r="L63" t="s">
+        <v>793</v>
+      </c>
+      <c r="M63" t="s">
+        <v>387</v>
+      </c>
+      <c r="N63" t="s">
         <v>388</v>
       </c>
-      <c r="B63" t="s">
-        <v>593</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63" t="s">
-        <v>693</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="O63" t="s">
+        <v>847</v>
+      </c>
+      <c r="P63" t="s">
         <v>389</v>
       </c>
-      <c r="H63" t="s">
+      <c r="Q63" t="s">
         <v>390</v>
       </c>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G64" t="s">
         <v>392</v>
@@ -6698,114 +6730,114 @@
       <c r="H64" t="s">
         <v>393</v>
       </c>
-      <c r="I64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J64" t="s">
-        <v>231</v>
-      </c>
-      <c r="K64" t="s">
-        <v>231</v>
-      </c>
-      <c r="L64" t="s">
-        <v>231</v>
-      </c>
-      <c r="M64" t="s">
-        <v>231</v>
-      </c>
-      <c r="N64" t="s">
-        <v>231</v>
-      </c>
-      <c r="O64" t="s">
-        <v>231</v>
-      </c>
-      <c r="P64" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>231</v>
-      </c>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>394</v>
       </c>
       <c r="B65" t="s">
-        <v>607</v>
-      </c>
-      <c r="C65" t="s">
-        <v>653</v>
-      </c>
-      <c r="D65" t="s">
+        <v>596</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>697</v>
+      </c>
+      <c r="G65" t="s">
         <v>395</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>396</v>
       </c>
-      <c r="G65"/>
-      <c r="H65"/>
       <c r="I65" t="s">
-        <v>735</v>
+        <v>231</v>
       </c>
       <c r="J65" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="K65" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="L65" t="s">
-        <v>791</v>
+        <v>231</v>
       </c>
       <c r="M65" t="s">
-        <v>399</v>
+        <v>231</v>
       </c>
       <c r="N65" t="s">
-        <v>400</v>
+        <v>231</v>
       </c>
       <c r="O65" t="s">
-        <v>845</v>
+        <v>231</v>
       </c>
       <c r="P65" t="s">
-        <v>401</v>
+        <v>231</v>
       </c>
       <c r="Q65" t="s">
-        <v>402</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="C66" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D66" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E66" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="I66" t="s">
+        <v>738</v>
+      </c>
+      <c r="J66" t="s">
+        <v>400</v>
+      </c>
+      <c r="K66" t="s">
+        <v>401</v>
+      </c>
+      <c r="L66" t="s">
+        <v>794</v>
+      </c>
+      <c r="M66" t="s">
+        <v>402</v>
+      </c>
+      <c r="N66" t="s">
+        <v>403</v>
+      </c>
+      <c r="O66" t="s">
+        <v>848</v>
+      </c>
+      <c r="P66" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C67" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -6827,10 +6859,10 @@
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C68" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6852,10 +6884,10 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C69" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -6877,24 +6909,21 @@
         <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C70" t="s">
-        <v>658</v>
-      </c>
-      <c r="D70"/>
+        <v>660</v>
+      </c>
+      <c r="D70" t="s">
+        <v>416</v>
+      </c>
       <c r="E70" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
-      <c r="I70" t="s">
-        <v>736</v>
-      </c>
       <c r="J70"/>
-      <c r="K70" t="s">
-        <v>417</v>
-      </c>
+      <c r="K70"/>
       <c r="M70"/>
       <c r="N70"/>
       <c r="P70"/>
@@ -6905,10 +6934,10 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C71" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -6917,7 +6946,7 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
@@ -6933,10 +6962,10 @@
         <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C72" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
@@ -6945,118 +6974,121 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
         <v>423</v>
       </c>
-      <c r="L72" t="s">
-        <v>792</v>
-      </c>
       <c r="M72"/>
-      <c r="N72" t="s">
-        <v>424</v>
-      </c>
-      <c r="O72" t="s">
-        <v>846</v>
-      </c>
-      <c r="P72" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>426</v>
-      </c>
+      <c r="N72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B73" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C73" t="s">
-        <v>661</v>
-      </c>
-      <c r="D73" t="s">
-        <v>428</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="D73"/>
       <c r="E73" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L73" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="M73"/>
       <c r="N73" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O73" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="P73" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q73" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>430</v>
+      </c>
+      <c r="B74" t="s">
+        <v>611</v>
+      </c>
+      <c r="C74" t="s">
+        <v>664</v>
+      </c>
+      <c r="D74" t="s">
+        <v>431</v>
+      </c>
+      <c r="E74" t="s">
         <v>432</v>
       </c>
-      <c r="B74" t="s">
-        <v>593</v>
-      </c>
-      <c r="D74"/>
-      <c r="E74"/>
       <c r="G74"/>
       <c r="H74"/>
+      <c r="I74" t="s">
+        <v>742</v>
+      </c>
       <c r="J74"/>
-      <c r="K74"/>
+      <c r="K74" t="s">
+        <v>426</v>
+      </c>
       <c r="L74" t="s">
-        <v>794</v>
-      </c>
-      <c r="M74" t="s">
+        <v>796</v>
+      </c>
+      <c r="M74"/>
+      <c r="N74" t="s">
         <v>433</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
+        <v>850</v>
+      </c>
+      <c r="P74" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q74" t="s">
         <v>434</v>
       </c>
-      <c r="P74"/>
-      <c r="Q74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>435</v>
       </c>
       <c r="B75" t="s">
-        <v>593</v>
-      </c>
-      <c r="C75" t="s">
-        <v>662</v>
-      </c>
-      <c r="D75" t="s">
-        <v>436</v>
-      </c>
-      <c r="E75" t="s">
-        <v>437</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
       <c r="G75"/>
       <c r="H75"/>
       <c r="J75"/>
       <c r="K75"/>
-      <c r="M75"/>
-      <c r="N75"/>
+      <c r="L75" t="s">
+        <v>797</v>
+      </c>
+      <c r="M75" t="s">
+        <v>436</v>
+      </c>
+      <c r="N75" t="s">
+        <v>437</v>
+      </c>
       <c r="P75"/>
       <c r="Q75"/>
     </row>
@@ -7065,10 +7097,10 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C76" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D76" t="s">
         <v>439</v>
@@ -7090,10 +7122,10 @@
         <v>441</v>
       </c>
       <c r="B77" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C77" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D77" t="s">
         <v>442</v>
@@ -7105,255 +7137,234 @@
       <c r="H77"/>
       <c r="J77"/>
       <c r="K77"/>
-      <c r="L77" t="s">
-        <v>795</v>
-      </c>
-      <c r="M77" t="s">
-        <v>444</v>
-      </c>
-      <c r="N77" t="s">
-        <v>445</v>
-      </c>
+      <c r="M77"/>
+      <c r="N77"/>
       <c r="P77"/>
       <c r="Q77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" t="s">
+        <v>602</v>
+      </c>
+      <c r="C78" t="s">
+        <v>667</v>
+      </c>
+      <c r="D78" t="s">
+        <v>445</v>
+      </c>
+      <c r="E78" t="s">
         <v>446</v>
-      </c>
-      <c r="B78" t="s">
-        <v>599</v>
-      </c>
-      <c r="C78" t="s">
-        <v>665</v>
-      </c>
-      <c r="D78" t="s">
-        <v>447</v>
-      </c>
-      <c r="E78" t="s">
-        <v>448</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N78" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P78"/>
       <c r="Q78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>449</v>
+      </c>
+      <c r="B79" t="s">
+        <v>602</v>
+      </c>
+      <c r="C79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D79" t="s">
+        <v>450</v>
+      </c>
+      <c r="E79" t="s">
         <v>451</v>
-      </c>
-      <c r="B79" t="s">
-        <v>593</v>
-      </c>
-      <c r="C79" t="s">
-        <v>666</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79" t="s">
-        <v>452</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="J79"/>
       <c r="K79"/>
-      <c r="M79"/>
-      <c r="N79"/>
+      <c r="L79" t="s">
+        <v>799</v>
+      </c>
+      <c r="M79" t="s">
+        <v>452</v>
+      </c>
+      <c r="N79" t="s">
+        <v>453</v>
+      </c>
       <c r="P79"/>
       <c r="Q79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C80" t="s">
-        <v>667</v>
-      </c>
-      <c r="D80" t="s">
-        <v>454</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D80"/>
       <c r="E80" t="s">
         <v>455</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="I80" t="s">
-        <v>740</v>
-      </c>
       <c r="J80"/>
-      <c r="K80" t="s">
-        <v>456</v>
-      </c>
-      <c r="L80" t="s">
-        <v>781</v>
-      </c>
+      <c r="K80"/>
       <c r="M80"/>
-      <c r="N80" t="s">
-        <v>281</v>
-      </c>
+      <c r="N80"/>
       <c r="P80"/>
       <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>456</v>
+      </c>
+      <c r="B81" t="s">
+        <v>596</v>
+      </c>
+      <c r="C81" t="s">
+        <v>670</v>
+      </c>
+      <c r="D81" t="s">
         <v>457</v>
       </c>
-      <c r="B81" t="s">
-        <v>593</v>
-      </c>
-      <c r="C81" t="s">
-        <v>668</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>458</v>
-      </c>
-      <c r="E81" t="s">
-        <v>459</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81" t="s">
-        <v>741</v>
-      </c>
-      <c r="J81" t="s">
-        <v>460</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="J81"/>
       <c r="K81" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L81" t="s">
-        <v>797</v>
-      </c>
-      <c r="M81" t="s">
-        <v>462</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="M81"/>
       <c r="N81" t="s">
-        <v>463</v>
-      </c>
-      <c r="O81" t="s">
-        <v>848</v>
-      </c>
-      <c r="P81" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>465</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P81"/>
+      <c r="Q81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B82" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C82" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D82" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E82" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="I82" t="s">
+        <v>744</v>
+      </c>
+      <c r="J82" t="s">
+        <v>463</v>
+      </c>
+      <c r="K82" t="s">
+        <v>464</v>
+      </c>
+      <c r="L82" t="s">
+        <v>800</v>
+      </c>
+      <c r="M82" t="s">
+        <v>465</v>
+      </c>
+      <c r="N82" t="s">
+        <v>466</v>
+      </c>
+      <c r="O82" t="s">
+        <v>851</v>
+      </c>
+      <c r="P82" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>469</v>
       </c>
       <c r="B83" t="s">
-        <v>593</v>
-      </c>
-      <c r="D83"/>
-      <c r="E83"/>
+        <v>600</v>
+      </c>
+      <c r="C83" t="s">
+        <v>672</v>
+      </c>
+      <c r="D83" t="s">
+        <v>470</v>
+      </c>
+      <c r="E83" t="s">
+        <v>471</v>
+      </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="J83"/>
       <c r="K83"/>
-      <c r="L83" t="s">
-        <v>798</v>
-      </c>
-      <c r="M83" t="s">
-        <v>470</v>
-      </c>
-      <c r="N83" t="s">
-        <v>274</v>
-      </c>
-      <c r="O83" t="s">
-        <v>849</v>
-      </c>
-      <c r="P83" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>472</v>
-      </c>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B84" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" t="s">
-        <v>695</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84" t="s">
+        <v>801</v>
+      </c>
+      <c r="M84" t="s">
+        <v>473</v>
+      </c>
+      <c r="N84" t="s">
+        <v>274</v>
+      </c>
+      <c r="O84" t="s">
+        <v>852</v>
+      </c>
+      <c r="P84" t="s">
         <v>474</v>
       </c>
-      <c r="H84" t="s">
+      <c r="Q84" t="s">
         <v>475</v>
-      </c>
-      <c r="I84" t="s">
-        <v>231</v>
-      </c>
-      <c r="J84" t="s">
-        <v>231</v>
-      </c>
-      <c r="K84" t="s">
-        <v>231</v>
-      </c>
-      <c r="L84" t="s">
-        <v>231</v>
-      </c>
-      <c r="M84" t="s">
-        <v>231</v>
-      </c>
-      <c r="N84" t="s">
-        <v>231</v>
-      </c>
-      <c r="O84" t="s">
-        <v>231</v>
-      </c>
-      <c r="P84" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="85">
@@ -7361,57 +7372,71 @@
         <v>476</v>
       </c>
       <c r="B85" t="s">
-        <v>593</v>
-      </c>
-      <c r="C85" t="s">
-        <v>670</v>
-      </c>
-      <c r="D85" t="s">
+        <v>596</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>698</v>
+      </c>
+      <c r="G85" t="s">
         <v>477</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>478</v>
       </c>
-      <c r="F85" t="s">
-        <v>696</v>
-      </c>
-      <c r="G85" t="s">
-        <v>479</v>
-      </c>
-      <c r="H85" t="s">
-        <v>480</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
+      <c r="I85" t="s">
+        <v>231</v>
+      </c>
+      <c r="J85" t="s">
+        <v>231</v>
+      </c>
+      <c r="K85" t="s">
+        <v>231</v>
+      </c>
+      <c r="L85" t="s">
+        <v>231</v>
+      </c>
+      <c r="M85" t="s">
+        <v>231</v>
+      </c>
+      <c r="N85" t="s">
+        <v>231</v>
+      </c>
+      <c r="O85" t="s">
+        <v>231</v>
+      </c>
+      <c r="P85" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86" t="s">
+        <v>596</v>
+      </c>
+      <c r="C86" t="s">
+        <v>673</v>
+      </c>
+      <c r="D86" t="s">
+        <v>480</v>
+      </c>
+      <c r="E86" t="s">
         <v>481</v>
       </c>
-      <c r="B86" t="s">
-        <v>593</v>
-      </c>
-      <c r="C86" t="s">
-        <v>670</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
+        <v>699</v>
+      </c>
+      <c r="G86" t="s">
         <v>482</v>
       </c>
-      <c r="E86" t="s">
-        <v>478</v>
-      </c>
-      <c r="F86" t="s">
-        <v>697</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>483</v>
-      </c>
-      <c r="H86" t="s">
-        <v>484</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -7422,28 +7447,28 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>484</v>
+      </c>
+      <c r="B87" t="s">
+        <v>596</v>
+      </c>
+      <c r="C87" t="s">
+        <v>673</v>
+      </c>
+      <c r="D87" t="s">
         <v>485</v>
       </c>
-      <c r="B87" t="s">
-        <v>593</v>
-      </c>
-      <c r="C87" t="s">
-        <v>671</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>481</v>
+      </c>
+      <c r="F87" t="s">
+        <v>700</v>
+      </c>
+      <c r="G87" t="s">
         <v>486</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>487</v>
-      </c>
-      <c r="F87" t="s">
-        <v>698</v>
-      </c>
-      <c r="G87" t="s">
-        <v>488</v>
-      </c>
-      <c r="H87" t="s">
-        <v>489</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -7454,22 +7479,29 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>488</v>
+      </c>
+      <c r="B88" t="s">
+        <v>596</v>
+      </c>
+      <c r="C88" t="s">
+        <v>674</v>
+      </c>
+      <c r="D88" t="s">
+        <v>489</v>
+      </c>
+      <c r="E88" t="s">
         <v>490</v>
       </c>
-      <c r="B88" t="s">
-        <v>593</v>
-      </c>
-      <c r="C88" t="s">
-        <v>672</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
+        <v>701</v>
+      </c>
+      <c r="G88" t="s">
         <v>491</v>
       </c>
-      <c r="E88" t="s">
+      <c r="H88" t="s">
         <v>492</v>
       </c>
-      <c r="G88"/>
-      <c r="H88"/>
       <c r="J88"/>
       <c r="K88"/>
       <c r="M88"/>
@@ -7482,10 +7514,10 @@
         <v>493</v>
       </c>
       <c r="B89" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C89" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -7507,10 +7539,10 @@
         <v>496</v>
       </c>
       <c r="B90" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C90" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D90" t="s">
         <v>497</v>
@@ -7518,15 +7550,8 @@
       <c r="E90" t="s">
         <v>498</v>
       </c>
-      <c r="F90" t="s">
-        <v>699</v>
-      </c>
-      <c r="G90" t="s">
-        <v>499</v>
-      </c>
-      <c r="H90" t="s">
-        <v>500</v>
-      </c>
+      <c r="G90"/>
+      <c r="H90"/>
       <c r="J90"/>
       <c r="K90"/>
       <c r="M90"/>
@@ -7536,84 +7561,91 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B91" t="s">
         <v>596</v>
       </c>
       <c r="C91" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D91" t="s">
+        <v>500</v>
+      </c>
+      <c r="E91" t="s">
+        <v>501</v>
+      </c>
+      <c r="F91" t="s">
+        <v>702</v>
+      </c>
+      <c r="G91" t="s">
         <v>502</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>503</v>
       </c>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91" t="s">
-        <v>742</v>
-      </c>
-      <c r="J91" t="s">
-        <v>504</v>
-      </c>
-      <c r="K91" t="s">
-        <v>505</v>
-      </c>
-      <c r="L91" t="s">
-        <v>799</v>
-      </c>
-      <c r="M91" t="s">
-        <v>506</v>
-      </c>
-      <c r="N91" t="s">
-        <v>507</v>
-      </c>
-      <c r="O91" t="s">
-        <v>850</v>
-      </c>
-      <c r="P91" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>509</v>
-      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C92" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D92" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E92" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
+      <c r="I92" t="s">
+        <v>745</v>
+      </c>
+      <c r="J92" t="s">
+        <v>507</v>
+      </c>
+      <c r="K92" t="s">
+        <v>508</v>
+      </c>
+      <c r="L92" t="s">
+        <v>802</v>
+      </c>
+      <c r="M92" t="s">
+        <v>509</v>
+      </c>
+      <c r="N92" t="s">
+        <v>510</v>
+      </c>
+      <c r="O92" t="s">
+        <v>853</v>
+      </c>
+      <c r="P92" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C93" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D93" t="s">
         <v>514</v>
@@ -7635,10 +7667,17 @@
         <v>516</v>
       </c>
       <c r="B94" t="s">
-        <v>610</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94"/>
+        <v>612</v>
+      </c>
+      <c r="C94" t="s">
+        <v>680</v>
+      </c>
+      <c r="D94" t="s">
+        <v>517</v>
+      </c>
+      <c r="E94" t="s">
+        <v>518</v>
+      </c>
       <c r="G94"/>
       <c r="H94"/>
       <c r="J94"/>
@@ -7650,10 +7689,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B95" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -7661,15 +7700,8 @@
       <c r="H95"/>
       <c r="J95"/>
       <c r="K95"/>
-      <c r="L95" t="s">
-        <v>800</v>
-      </c>
-      <c r="M95" t="s">
-        <v>518</v>
-      </c>
-      <c r="N95" t="s">
-        <v>519</v>
-      </c>
+      <c r="M95"/>
+      <c r="N95"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
@@ -7680,390 +7712,415 @@
       <c r="B96" t="s">
         <v>611</v>
       </c>
-      <c r="C96" t="s">
-        <v>678</v>
-      </c>
-      <c r="D96" t="s">
-        <v>521</v>
-      </c>
-      <c r="E96" t="s">
-        <v>522</v>
-      </c>
+      <c r="D96"/>
+      <c r="E96"/>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="I96" t="s">
-        <v>743</v>
-      </c>
-      <c r="J96" t="s">
-        <v>523</v>
-      </c>
-      <c r="K96" t="s">
-        <v>524</v>
-      </c>
+      <c r="J96"/>
+      <c r="K96"/>
       <c r="L96" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M96" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N96" t="s">
-        <v>526</v>
-      </c>
-      <c r="O96" t="s">
-        <v>851</v>
-      </c>
-      <c r="P96" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>528</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="P96"/>
+      <c r="Q96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B97" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C97" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D97" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E97" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="J97" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K97" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L97" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M97" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="N97" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="O97" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="P97" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="Q97" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B98" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="C98" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D98" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E98" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="J98" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K98" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L98" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="M98" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
       <c r="N98" t="s">
-        <v>274</v>
+        <v>538</v>
       </c>
       <c r="O98" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="P98" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q98" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B99" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C99" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D99" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E99" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="J99" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K99" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L99" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M99" t="s">
-        <v>550</v>
+        <v>473</v>
       </c>
       <c r="N99" t="s">
-        <v>551</v>
+        <v>274</v>
       </c>
       <c r="O99" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="P99" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q99" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B100" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C100" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D100" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E100" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
-      <c r="J100"/>
-      <c r="K100"/>
+      <c r="I100" t="s">
+        <v>749</v>
+      </c>
+      <c r="J100" t="s">
+        <v>551</v>
+      </c>
+      <c r="K100" t="s">
+        <v>552</v>
+      </c>
       <c r="L100" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M100" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="N100" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O100" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="P100" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q100" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B101" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C101" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E101" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="M101" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N101" t="s">
-        <v>565</v>
-      </c>
-      <c r="P101"/>
-      <c r="Q101"/>
+        <v>561</v>
+      </c>
+      <c r="O101" t="s">
+        <v>858</v>
+      </c>
+      <c r="P101" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B102" t="s">
+        <v>598</v>
+      </c>
+      <c r="C102" t="s">
+        <v>686</v>
+      </c>
+      <c r="D102" t="s">
+        <v>565</v>
+      </c>
+      <c r="E102" t="s">
         <v>566</v>
-      </c>
-      <c r="B102" t="s">
-        <v>607</v>
-      </c>
-      <c r="C102" t="s">
-        <v>684</v>
-      </c>
-      <c r="D102" t="s">
-        <v>567</v>
-      </c>
-      <c r="E102" t="s">
-        <v>568</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
-      <c r="I102" t="s">
-        <v>747</v>
-      </c>
-      <c r="J102" t="s">
-        <v>569</v>
-      </c>
-      <c r="K102" t="s">
-        <v>570</v>
-      </c>
+      <c r="J102"/>
+      <c r="K102"/>
       <c r="L102" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="M102" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N102" t="s">
-        <v>572</v>
-      </c>
-      <c r="O102" t="s">
-        <v>856</v>
-      </c>
-      <c r="P102" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>574</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="P102"/>
+      <c r="Q102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="C103" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D103" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E103" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="J103" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K103" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="L103" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M103" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="N103" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="O103" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="P103" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="Q103" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B104" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C104" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D104" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E104" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="J104" t="s">
+        <v>581</v>
+      </c>
+      <c r="K104" t="s">
+        <v>582</v>
+      </c>
+      <c r="L104" t="s">
+        <v>810</v>
+      </c>
+      <c r="M104" t="s">
+        <v>583</v>
+      </c>
+      <c r="N104" t="s">
+        <v>584</v>
+      </c>
+      <c r="O104" t="s">
+        <v>860</v>
+      </c>
+      <c r="P104" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
         <v>587</v>
       </c>
-      <c r="K104" t="s">
+      <c r="B105" t="s">
+        <v>607</v>
+      </c>
+      <c r="C105" t="s">
+        <v>689</v>
+      </c>
+      <c r="D105" t="s">
         <v>588</v>
       </c>
-      <c r="L104" t="s">
-        <v>808</v>
-      </c>
-      <c r="M104" t="s">
+      <c r="E105" t="s">
         <v>589</v>
       </c>
-      <c r="N104" t="s">
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105" t="s">
+        <v>752</v>
+      </c>
+      <c r="J105" t="s">
         <v>590</v>
       </c>
-      <c r="O104" t="s">
-        <v>858</v>
-      </c>
-      <c r="P104" t="s">
+      <c r="K105" t="s">
         <v>591</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="L105" t="s">
+        <v>811</v>
+      </c>
+      <c r="M105" t="s">
         <v>592</v>
+      </c>
+      <c r="N105" t="s">
+        <v>593</v>
+      </c>
+      <c r="O105" t="s">
+        <v>861</v>
+      </c>
+      <c r="P105" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="869">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2834,6 +2834,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve"> *딸랑*</t>
@@ -4235,7 +4238,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4244,7 +4247,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4253,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4270,7 +4273,7 @@
         <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4281,7 +4284,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4290,7 +4293,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4309,7 +4312,7 @@
         <v>601</v>
       </c>
       <c r="C5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4334,7 +4337,7 @@
         <v>602</v>
       </c>
       <c r="C6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4347,7 +4350,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4356,7 +4359,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4373,7 +4376,7 @@
         <v>599</v>
       </c>
       <c r="C7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4384,7 +4387,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4393,7 +4396,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4412,7 +4415,7 @@
         <v>599</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4423,7 +4426,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4432,7 +4435,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4441,7 +4444,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4458,7 +4461,7 @@
         <v>599</v>
       </c>
       <c r="C9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4469,7 +4472,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4478,7 +4481,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4487,7 +4490,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4504,7 +4507,7 @@
         <v>599</v>
       </c>
       <c r="C10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4515,21 +4518,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4544,7 +4547,7 @@
         <v>603</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4555,7 +4558,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4564,7 +4567,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4573,7 +4576,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4590,7 +4593,7 @@
         <v>604</v>
       </c>
       <c r="C12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4601,7 +4604,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4610,7 +4613,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4619,7 +4622,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4636,7 +4639,7 @@
         <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4654,7 +4657,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4673,7 +4676,7 @@
         <v>602</v>
       </c>
       <c r="C14" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4684,7 +4687,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4693,7 +4696,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4702,7 +4705,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4719,7 +4722,7 @@
         <v>605</v>
       </c>
       <c r="C15" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4762,7 +4765,7 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4771,7 +4774,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4780,7 +4783,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4797,7 +4800,7 @@
         <v>607</v>
       </c>
       <c r="C17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4808,7 +4811,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4817,7 +4820,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4826,7 +4829,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4847,7 +4850,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4856,7 +4859,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4865,7 +4868,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4886,7 +4889,7 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4895,7 +4898,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4904,7 +4907,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4921,7 +4924,7 @@
         <v>599</v>
       </c>
       <c r="C20" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4932,7 +4935,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4941,7 +4944,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4950,7 +4953,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4971,7 +4974,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4980,7 +4983,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4989,7 +4992,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5010,7 +5013,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5019,7 +5022,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5028,7 +5031,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5045,7 +5048,7 @@
         <v>603</v>
       </c>
       <c r="C23" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5070,7 +5073,7 @@
         <v>599</v>
       </c>
       <c r="C24" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5081,7 +5084,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5090,7 +5093,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5099,7 +5102,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5120,7 +5123,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5148,7 +5151,7 @@
         <v>599</v>
       </c>
       <c r="C26" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5161,7 +5164,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5170,7 +5173,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5191,7 +5194,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5200,7 +5203,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5209,7 +5212,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5226,7 +5229,7 @@
         <v>608</v>
       </c>
       <c r="C28" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5237,7 +5240,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5246,7 +5249,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5255,7 +5258,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5272,7 +5275,7 @@
         <v>609</v>
       </c>
       <c r="C29" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5283,7 +5286,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5292,7 +5295,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5301,7 +5304,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5318,7 +5321,7 @@
         <v>609</v>
       </c>
       <c r="C30" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5329,7 +5332,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5338,7 +5341,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5347,7 +5350,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5364,7 +5367,7 @@
         <v>609</v>
       </c>
       <c r="C31" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5375,7 +5378,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5384,7 +5387,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5393,7 +5396,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5410,7 +5413,7 @@
         <v>599</v>
       </c>
       <c r="C32" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5441,7 +5444,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5450,7 +5453,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5471,7 +5474,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5480,7 +5483,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5489,7 +5492,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5508,7 +5511,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5517,7 +5520,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5526,7 +5529,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5535,7 +5538,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5552,7 +5555,7 @@
         <v>610</v>
       </c>
       <c r="C36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5605,7 +5608,7 @@
         <v>603</v>
       </c>
       <c r="C37" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D37" t="s">
         <v>233</v>
@@ -5614,7 +5617,7 @@
         <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G37" t="s">
         <v>235</v>
@@ -5623,7 +5626,7 @@
         <v>236</v>
       </c>
       <c r="I37" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J37" t="s">
         <v>222</v>
@@ -5632,7 +5635,7 @@
         <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M37" t="s">
         <v>224</v>
@@ -5641,7 +5644,7 @@
         <v>225</v>
       </c>
       <c r="O37" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5658,7 +5661,7 @@
         <v>599</v>
       </c>
       <c r="C38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D38" t="s">
         <v>238</v>
@@ -5701,7 +5704,7 @@
         <v>603</v>
       </c>
       <c r="C40" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5712,7 +5715,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J40" t="s">
         <v>244</v>
@@ -5721,7 +5724,7 @@
         <v>245</v>
       </c>
       <c r="L40" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M40" t="s">
         <v>246</v>
@@ -5730,7 +5733,7 @@
         <v>247</v>
       </c>
       <c r="O40" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P40" t="s">
         <v>248</v>
@@ -5747,7 +5750,7 @@
         <v>599</v>
       </c>
       <c r="C41" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D41" t="s">
         <v>251</v>
@@ -5758,7 +5761,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J41" t="s">
         <v>253</v>
@@ -5767,7 +5770,7 @@
         <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M41" t="s">
         <v>255</v>
@@ -5776,7 +5779,7 @@
         <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P41" t="s">
         <v>257</v>
@@ -5797,7 +5800,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J42" t="s">
         <v>260</v>
@@ -5806,7 +5809,7 @@
         <v>261</v>
       </c>
       <c r="L42" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M42" t="s">
         <v>262</v>
@@ -5815,7 +5818,7 @@
         <v>263</v>
       </c>
       <c r="O42" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -5834,7 +5837,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J43" t="s">
         <v>266</v>
@@ -5843,7 +5846,7 @@
         <v>267</v>
       </c>
       <c r="L43" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M43" t="s">
         <v>268</v>
@@ -5852,7 +5855,7 @@
         <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="P43" t="s">
         <v>270</v>
@@ -5875,7 +5878,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M44" t="s">
         <v>273</v>
@@ -5884,7 +5887,7 @@
         <v>274</v>
       </c>
       <c r="O44" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P44" t="s">
         <v>275</v>
@@ -5914,7 +5917,7 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -5923,7 +5926,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -5940,7 +5943,7 @@
         <v>603</v>
       </c>
       <c r="C46" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D46" t="s">
         <v>285</v>
@@ -5951,7 +5954,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J46" t="s">
         <v>287</v>
@@ -5960,7 +5963,7 @@
         <v>288</v>
       </c>
       <c r="L46" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M46" t="s">
         <v>289</v>
@@ -5969,7 +5972,7 @@
         <v>290</v>
       </c>
       <c r="O46" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P46" t="s">
         <v>282</v>
@@ -5986,7 +5989,7 @@
         <v>599</v>
       </c>
       <c r="C47" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D47" t="s">
         <v>292</v>
@@ -5997,7 +6000,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J47" t="s">
         <v>294</v>
@@ -6006,7 +6009,7 @@
         <v>295</v>
       </c>
       <c r="L47" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M47" t="s">
         <v>296</v>
@@ -6015,7 +6018,7 @@
         <v>297</v>
       </c>
       <c r="O47" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P47" t="s">
         <v>298</v>
@@ -6032,7 +6035,7 @@
         <v>603</v>
       </c>
       <c r="C48" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D48" t="s">
         <v>301</v>
@@ -6043,7 +6046,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J48" t="s">
         <v>303</v>
@@ -6052,7 +6055,7 @@
         <v>304</v>
       </c>
       <c r="L48" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M48" t="s">
         <v>305</v>
@@ -6061,7 +6064,7 @@
         <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="P48" t="s">
         <v>305</v>
@@ -6082,7 +6085,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J49" t="s">
         <v>308</v>
@@ -6091,7 +6094,7 @@
         <v>309</v>
       </c>
       <c r="L49" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M49" t="s">
         <v>310</v>
@@ -6100,7 +6103,7 @@
         <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P49" t="s">
         <v>312</v>
@@ -6117,7 +6120,7 @@
         <v>611</v>
       </c>
       <c r="C50" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6163,7 +6166,7 @@
         <v>608</v>
       </c>
       <c r="C51" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D51" t="s">
         <v>319</v>
@@ -6209,7 +6212,7 @@
         <v>611</v>
       </c>
       <c r="C52" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D52" t="s">
         <v>322</v>
@@ -6255,7 +6258,7 @@
         <v>611</v>
       </c>
       <c r="C53" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D53" t="s">
         <v>325</v>
@@ -6301,7 +6304,7 @@
         <v>601</v>
       </c>
       <c r="C54" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6312,7 +6315,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J54" t="s">
         <v>330</v>
@@ -6321,7 +6324,7 @@
         <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M54" t="s">
         <v>332</v>
@@ -6330,7 +6333,7 @@
         <v>333</v>
       </c>
       <c r="O54" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P54" t="s">
         <v>334</v>
@@ -6351,7 +6354,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J55" t="s">
         <v>337</v>
@@ -6360,7 +6363,7 @@
         <v>338</v>
       </c>
       <c r="L55" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M55" t="s">
         <v>339</v>
@@ -6369,7 +6372,7 @@
         <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P55" t="s">
         <v>341</v>
@@ -6386,7 +6389,7 @@
         <v>599</v>
       </c>
       <c r="C56" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D56" t="s">
         <v>344</v>
@@ -6432,7 +6435,7 @@
         <v>599</v>
       </c>
       <c r="C57" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D57" t="s">
         <v>347</v>
@@ -6441,7 +6444,7 @@
         <v>348</v>
       </c>
       <c r="F57" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G57" t="s">
         <v>349</v>
@@ -6485,7 +6488,7 @@
         <v>612</v>
       </c>
       <c r="C58" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D58" t="s">
         <v>352</v>
@@ -6527,7 +6530,7 @@
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G59" t="s">
         <v>355</v>
@@ -6571,7 +6574,7 @@
         <v>603</v>
       </c>
       <c r="C60" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D60" t="s">
         <v>359</v>
@@ -6580,7 +6583,7 @@
         <v>360</v>
       </c>
       <c r="F60" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G60" t="s">
         <v>361</v>
@@ -6626,7 +6629,7 @@
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G61" t="s">
         <v>364</v>
@@ -6670,7 +6673,7 @@
         <v>613</v>
       </c>
       <c r="C62" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6681,7 +6684,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J62" t="s">
         <v>370</v>
@@ -6690,7 +6693,7 @@
         <v>371</v>
       </c>
       <c r="L62" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M62" t="s">
         <v>372</v>
@@ -6699,7 +6702,7 @@
         <v>373</v>
       </c>
       <c r="O62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P62" t="s">
         <v>374</v>
@@ -6716,7 +6719,7 @@
         <v>603</v>
       </c>
       <c r="C63" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D63" t="s">
         <v>377</v>
@@ -6727,7 +6730,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J63" t="s">
         <v>379</v>
@@ -6736,7 +6739,7 @@
         <v>380</v>
       </c>
       <c r="L63" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M63" t="s">
         <v>381</v>
@@ -6745,7 +6748,7 @@
         <v>382</v>
       </c>
       <c r="O63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P63" t="s">
         <v>383</v>
@@ -6762,7 +6765,7 @@
         <v>603</v>
       </c>
       <c r="C64" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6773,7 +6776,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J64" t="s">
         <v>388</v>
@@ -6782,7 +6785,7 @@
         <v>389</v>
       </c>
       <c r="L64" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M64" t="s">
         <v>390</v>
@@ -6791,7 +6794,7 @@
         <v>391</v>
       </c>
       <c r="O64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P64" t="s">
         <v>392</v>
@@ -6810,7 +6813,7 @@
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G65" t="s">
         <v>395</v>
@@ -6835,7 +6838,7 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G66" t="s">
         <v>398</v>
@@ -6879,7 +6882,7 @@
         <v>614</v>
       </c>
       <c r="C67" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6890,7 +6893,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J67" t="s">
         <v>403</v>
@@ -6899,7 +6902,7 @@
         <v>404</v>
       </c>
       <c r="L67" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M67" t="s">
         <v>405</v>
@@ -6908,7 +6911,7 @@
         <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="P67" t="s">
         <v>407</v>
@@ -6925,7 +6928,7 @@
         <v>599</v>
       </c>
       <c r="C68" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6950,7 +6953,7 @@
         <v>603</v>
       </c>
       <c r="C69" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -6975,7 +6978,7 @@
         <v>599</v>
       </c>
       <c r="C70" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D70" t="s">
         <v>416</v>
@@ -7000,7 +7003,7 @@
         <v>599</v>
       </c>
       <c r="C71" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D71" t="s">
         <v>419</v>
@@ -7025,7 +7028,7 @@
         <v>599</v>
       </c>
       <c r="C72" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
@@ -7034,7 +7037,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -7053,7 +7056,7 @@
         <v>599</v>
       </c>
       <c r="C73" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
@@ -7062,7 +7065,7 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
@@ -7081,7 +7084,7 @@
         <v>599</v>
       </c>
       <c r="C74" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -7090,21 +7093,21 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
         <v>429</v>
       </c>
       <c r="L74" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="s">
         <v>430</v>
       </c>
       <c r="O74" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="P74" t="s">
         <v>431</v>
@@ -7121,7 +7124,7 @@
         <v>615</v>
       </c>
       <c r="C75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D75" t="s">
         <v>434</v>
@@ -7132,21 +7135,21 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
         <v>429</v>
       </c>
       <c r="L75" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="s">
         <v>436</v>
       </c>
       <c r="O75" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="P75" t="s">
         <v>431</v>
@@ -7169,7 +7172,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M76" t="s">
         <v>439</v>
@@ -7188,7 +7191,7 @@
         <v>599</v>
       </c>
       <c r="C77" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D77" t="s">
         <v>442</v>
@@ -7213,7 +7216,7 @@
         <v>599</v>
       </c>
       <c r="C78" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D78" t="s">
         <v>445</v>
@@ -7238,7 +7241,7 @@
         <v>605</v>
       </c>
       <c r="C79" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D79" t="s">
         <v>448</v>
@@ -7251,7 +7254,7 @@
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M79" t="s">
         <v>450</v>
@@ -7270,7 +7273,7 @@
         <v>605</v>
       </c>
       <c r="C80" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D80" t="s">
         <v>453</v>
@@ -7283,7 +7286,7 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M80" t="s">
         <v>455</v>
@@ -7302,7 +7305,7 @@
         <v>599</v>
       </c>
       <c r="C81" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
@@ -7325,7 +7328,7 @@
         <v>599</v>
       </c>
       <c r="C82" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D82" t="s">
         <v>460</v>
@@ -7336,14 +7339,14 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
         <v>462</v>
       </c>
       <c r="L82" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="s">
@@ -7360,7 +7363,7 @@
         <v>599</v>
       </c>
       <c r="C83" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D83" t="s">
         <v>464</v>
@@ -7371,7 +7374,7 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J83" t="s">
         <v>466</v>
@@ -7380,7 +7383,7 @@
         <v>467</v>
       </c>
       <c r="L83" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M83" t="s">
         <v>468</v>
@@ -7389,7 +7392,7 @@
         <v>469</v>
       </c>
       <c r="O83" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="P83" t="s">
         <v>470</v>
@@ -7406,7 +7409,7 @@
         <v>603</v>
       </c>
       <c r="C84" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D84" t="s">
         <v>473</v>
@@ -7437,7 +7440,7 @@
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M85" t="s">
         <v>476</v>
@@ -7446,7 +7449,7 @@
         <v>274</v>
       </c>
       <c r="O85" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="P85" t="s">
         <v>477</v>
@@ -7465,7 +7468,7 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G86" t="s">
         <v>480</v>
@@ -7509,7 +7512,7 @@
         <v>599</v>
       </c>
       <c r="C87" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D87" t="s">
         <v>483</v>
@@ -7518,7 +7521,7 @@
         <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G87" t="s">
         <v>485</v>
@@ -7541,7 +7544,7 @@
         <v>599</v>
       </c>
       <c r="C88" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D88" t="s">
         <v>488</v>
@@ -7550,7 +7553,7 @@
         <v>484</v>
       </c>
       <c r="F88" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G88" t="s">
         <v>489</v>
@@ -7573,7 +7576,7 @@
         <v>599</v>
       </c>
       <c r="C89" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D89" t="s">
         <v>492</v>
@@ -7582,7 +7585,7 @@
         <v>493</v>
       </c>
       <c r="F89" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G89" t="s">
         <v>494</v>
@@ -7605,7 +7608,7 @@
         <v>599</v>
       </c>
       <c r="C90" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D90" t="s">
         <v>497</v>
@@ -7630,7 +7633,7 @@
         <v>599</v>
       </c>
       <c r="C91" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D91" t="s">
         <v>500</v>
@@ -7655,7 +7658,7 @@
         <v>599</v>
       </c>
       <c r="C92" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D92" t="s">
         <v>503</v>
@@ -7664,7 +7667,7 @@
         <v>504</v>
       </c>
       <c r="F92" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G92" t="s">
         <v>505</v>
@@ -7687,7 +7690,7 @@
         <v>602</v>
       </c>
       <c r="C93" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D93" t="s">
         <v>508</v>
@@ -7698,7 +7701,7 @@
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J93" t="s">
         <v>510</v>
@@ -7707,7 +7710,7 @@
         <v>511</v>
       </c>
       <c r="L93" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M93" t="s">
         <v>512</v>
@@ -7716,7 +7719,7 @@
         <v>513</v>
       </c>
       <c r="O93" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="P93" t="s">
         <v>514</v>
@@ -7733,7 +7736,7 @@
         <v>599</v>
       </c>
       <c r="C94" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D94" t="s">
         <v>517</v>
@@ -7758,7 +7761,7 @@
         <v>616</v>
       </c>
       <c r="C95" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D95" t="s">
         <v>520</v>
@@ -7807,7 +7810,7 @@
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M97" t="s">
         <v>524</v>
@@ -7826,7 +7829,7 @@
         <v>618</v>
       </c>
       <c r="C98" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D98" t="s">
         <v>527</v>
@@ -7837,7 +7840,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J98" t="s">
         <v>529</v>
@@ -7846,7 +7849,7 @@
         <v>530</v>
       </c>
       <c r="L98" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M98" t="s">
         <v>531</v>
@@ -7855,7 +7858,7 @@
         <v>532</v>
       </c>
       <c r="O98" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="P98" t="s">
         <v>533</v>
@@ -7872,7 +7875,7 @@
         <v>619</v>
       </c>
       <c r="C99" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D99" t="s">
         <v>536</v>
@@ -7883,7 +7886,7 @@
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J99" t="s">
         <v>538</v>
@@ -7892,7 +7895,7 @@
         <v>539</v>
       </c>
       <c r="L99" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M99" t="s">
         <v>540</v>
@@ -7901,7 +7904,7 @@
         <v>541</v>
       </c>
       <c r="O99" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="P99" t="s">
         <v>542</v>
@@ -7918,7 +7921,7 @@
         <v>601</v>
       </c>
       <c r="C100" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D100" t="s">
         <v>545</v>
@@ -7929,7 +7932,7 @@
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J100" t="s">
         <v>547</v>
@@ -7938,7 +7941,7 @@
         <v>548</v>
       </c>
       <c r="L100" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M100" t="s">
         <v>476</v>
@@ -7947,7 +7950,7 @@
         <v>274</v>
       </c>
       <c r="O100" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P100" t="s">
         <v>549</v>
@@ -7964,7 +7967,7 @@
         <v>603</v>
       </c>
       <c r="C101" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D101" t="s">
         <v>552</v>
@@ -7975,7 +7978,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J101" t="s">
         <v>554</v>
@@ -7984,7 +7987,7 @@
         <v>555</v>
       </c>
       <c r="L101" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M101" t="s">
         <v>556</v>
@@ -7993,7 +7996,7 @@
         <v>557</v>
       </c>
       <c r="O101" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="P101" t="s">
         <v>558</v>
@@ -8010,7 +8013,7 @@
         <v>601</v>
       </c>
       <c r="C102" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D102" t="s">
         <v>561</v>
@@ -8023,7 +8026,7 @@
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M102" t="s">
         <v>563</v>
@@ -8032,7 +8035,7 @@
         <v>564</v>
       </c>
       <c r="O102" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="P102" t="s">
         <v>565</v>
@@ -8049,7 +8052,7 @@
         <v>601</v>
       </c>
       <c r="C103" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D103" t="s">
         <v>568</v>
@@ -8062,7 +8065,7 @@
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M103" t="s">
         <v>570</v>
@@ -8078,10 +8081,10 @@
         <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>620</v>
       </c>
       <c r="C104" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D104" t="s">
         <v>573</v>
@@ -8092,7 +8095,7 @@
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J104" t="s">
         <v>575</v>
@@ -8101,7 +8104,7 @@
         <v>576</v>
       </c>
       <c r="L104" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M104" t="s">
         <v>577</v>
@@ -8110,7 +8113,7 @@
         <v>578</v>
       </c>
       <c r="O104" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="P104" t="s">
         <v>579</v>
@@ -8127,7 +8130,7 @@
         <v>601</v>
       </c>
       <c r="C105" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D105" t="s">
         <v>582</v>
@@ -8138,7 +8141,7 @@
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J105" t="s">
         <v>584</v>
@@ -8147,7 +8150,7 @@
         <v>585</v>
       </c>
       <c r="L105" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M105" t="s">
         <v>586</v>
@@ -8156,7 +8159,7 @@
         <v>587</v>
       </c>
       <c r="O105" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="P105" t="s">
         <v>588</v>
@@ -8173,7 +8176,7 @@
         <v>608</v>
       </c>
       <c r="C106" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D106" t="s">
         <v>591</v>
@@ -8184,7 +8187,7 @@
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J106" t="s">
         <v>593</v>
@@ -8193,7 +8196,7 @@
         <v>594</v>
       </c>
       <c r="L106" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M106" t="s">
         <v>595</v>
@@ -8202,7 +8205,7 @@
         <v>596</v>
       </c>
       <c r="O106" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="P106" t="s">
         <v>597</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="869">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
+*ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -4334,7 +4334,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>623</v>
@@ -4673,7 +4673,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>631</v>
@@ -7687,7 +7687,7 @@
         <v>507</v>
       </c>
       <c r="B93" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
         <v>685</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="869">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -4334,7 +4334,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>623</v>
@@ -4673,7 +4673,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>631</v>
@@ -7687,7 +7687,7 @@
         <v>507</v>
       </c>
       <c r="B93" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
         <v>685</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="869">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2782,7 +2782,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4334,7 +4334,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>602</v>
       </c>
       <c r="C6" t="s">
         <v>623</v>
@@ -4673,7 +4673,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>602</v>
       </c>
       <c r="C14" t="s">
         <v>631</v>
@@ -7687,7 +7687,7 @@
         <v>507</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>602</v>
       </c>
       <c r="C93" t="s">
         <v>685</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="885">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2273,6 +2273,27 @@
     <t xml:space="preserve">「この先は盗賊ギルドの管轄…」</t>
   </si>
   <si>
+    <t xml:space="preserve">isygarad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Show me your dance."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「さあ、踊ってみせよ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"This can’t be…!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「馬鹿な…！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"How boring."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「つまらぬな」</t>
+  </si>
+  <si>
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
@@ -2575,6 +2596,39 @@
     <t xml:space="preserve">「残念だよ」
 「安らかに眠れ」
 「もう苦しまなくていい」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raphael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ladies! The line starts here!"
+"No woman can resist my charms."
+*ero-ero-ero-ero*
+"I am the Gods gift to women."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あんな極上の女はそうはいねえ」
+「俺の手に掛かれば、どんな女もイチコロよ」
+ *レロレロレロ*
+「まったく罪な男に生まれちまったもんだ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I'll show you what it means to be a real man!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「真の男ってものを見せてやるよ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mamaaa!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ママー！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ptui!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ペッ」</t>
   </si>
   <si>
     <t xml:space="preserve">defender</t>
@@ -4231,14 +4285,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4247,7 +4301,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4256,7 +4310,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4270,10 +4324,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="C4" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4284,7 +4338,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4293,7 +4347,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4309,10 +4363,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C5" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4334,10 +4388,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="C6" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4350,7 +4404,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4359,7 +4413,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4373,10 +4427,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C7" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4387,7 +4441,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4396,7 +4450,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4412,10 +4466,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C8" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4426,7 +4480,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4435,7 +4489,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4444,7 +4498,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4458,10 +4512,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C9" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4472,7 +4526,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4481,7 +4535,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4490,7 +4544,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4504,10 +4558,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C10" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4518,21 +4572,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4544,10 +4598,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C11" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4558,7 +4612,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4567,7 +4621,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4576,7 +4630,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4590,10 +4644,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="C12" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4604,7 +4658,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4613,7 +4667,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4622,7 +4676,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4636,10 +4690,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C13" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4657,7 +4711,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4673,10 +4727,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4687,7 +4741,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4696,7 +4750,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4705,7 +4759,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4719,10 +4773,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C15" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4758,14 +4812,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4774,7 +4828,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4783,7 +4837,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4797,10 +4851,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="C17" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4811,7 +4865,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4820,7 +4874,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4829,7 +4883,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4843,14 +4897,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4859,7 +4913,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4868,7 +4922,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4882,14 +4936,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4898,7 +4952,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4907,7 +4961,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4921,10 +4975,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C20" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4935,7 +4989,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4944,7 +4998,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4953,7 +5007,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4967,14 +5021,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4983,7 +5037,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4992,7 +5046,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5006,14 +5060,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5022,7 +5076,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5031,7 +5085,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5045,10 +5099,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C23" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5070,10 +5124,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C24" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5084,7 +5138,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5093,7 +5147,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5102,7 +5156,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5116,14 +5170,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5148,10 +5202,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C26" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5164,7 +5218,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5173,7 +5227,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5187,14 +5241,14 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5203,7 +5257,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5212,7 +5266,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5226,10 +5280,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C28" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5240,7 +5294,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5249,7 +5303,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5258,7 +5312,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5272,10 +5326,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C29" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5286,7 +5340,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5295,7 +5349,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5304,7 +5358,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5318,10 +5372,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C30" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5332,7 +5386,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5341,7 +5395,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5350,7 +5404,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5364,10 +5418,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C31" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5378,7 +5432,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5387,7 +5441,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5396,7 +5450,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5410,10 +5464,10 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C32" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5435,7 +5489,7 @@
         <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -5444,7 +5498,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5453,7 +5507,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5467,14 +5521,14 @@
         <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5483,7 +5537,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5492,7 +5546,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5506,12 +5560,12 @@
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5520,7 +5574,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5529,7 +5583,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5538,7 +5592,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5552,10 +5606,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="C36" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5605,10 +5659,10 @@
         <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C37" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="D37" t="s">
         <v>233</v>
@@ -5617,7 +5671,7 @@
         <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="G37" t="s">
         <v>235</v>
@@ -5626,7 +5680,7 @@
         <v>236</v>
       </c>
       <c r="I37" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="J37" t="s">
         <v>222</v>
@@ -5635,7 +5689,7 @@
         <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="M37" t="s">
         <v>224</v>
@@ -5644,7 +5698,7 @@
         <v>225</v>
       </c>
       <c r="O37" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5658,10 +5712,10 @@
         <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C38" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="D38" t="s">
         <v>238</v>
@@ -5683,7 +5737,7 @@
         <v>240</v>
       </c>
       <c r="B39" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -5701,10 +5755,10 @@
         <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C40" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5715,7 +5769,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="J40" t="s">
         <v>244</v>
@@ -5724,7 +5778,7 @@
         <v>245</v>
       </c>
       <c r="L40" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="M40" t="s">
         <v>246</v>
@@ -5733,7 +5787,7 @@
         <v>247</v>
       </c>
       <c r="O40" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="P40" t="s">
         <v>248</v>
@@ -5747,10 +5801,10 @@
         <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C41" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="D41" t="s">
         <v>251</v>
@@ -5761,7 +5815,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="J41" t="s">
         <v>253</v>
@@ -5770,7 +5824,7 @@
         <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="M41" t="s">
         <v>255</v>
@@ -5779,7 +5833,7 @@
         <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="P41" t="s">
         <v>257</v>
@@ -5793,14 +5847,14 @@
         <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="J42" t="s">
         <v>260</v>
@@ -5809,7 +5863,7 @@
         <v>261</v>
       </c>
       <c r="L42" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="M42" t="s">
         <v>262</v>
@@ -5818,7 +5872,7 @@
         <v>263</v>
       </c>
       <c r="O42" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -5830,14 +5884,14 @@
         <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="J43" t="s">
         <v>266</v>
@@ -5846,7 +5900,7 @@
         <v>267</v>
       </c>
       <c r="L43" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="M43" t="s">
         <v>268</v>
@@ -5855,7 +5909,7 @@
         <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="P43" t="s">
         <v>270</v>
@@ -5869,7 +5923,7 @@
         <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -5878,7 +5932,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="M44" t="s">
         <v>273</v>
@@ -5887,7 +5941,7 @@
         <v>274</v>
       </c>
       <c r="O44" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="P44" t="s">
         <v>275</v>
@@ -5901,7 +5955,7 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="C45" t="s">
         <v>279</v>
@@ -5917,7 +5971,7 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -5926,7 +5980,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -5940,10 +5994,10 @@
         <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C46" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="D46" t="s">
         <v>285</v>
@@ -5954,7 +6008,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="J46" t="s">
         <v>287</v>
@@ -5963,7 +6017,7 @@
         <v>288</v>
       </c>
       <c r="L46" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="M46" t="s">
         <v>289</v>
@@ -5972,7 +6026,7 @@
         <v>290</v>
       </c>
       <c r="O46" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="P46" t="s">
         <v>282</v>
@@ -5986,10 +6040,10 @@
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C47" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="D47" t="s">
         <v>292</v>
@@ -6000,7 +6054,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="J47" t="s">
         <v>294</v>
@@ -6009,7 +6063,7 @@
         <v>295</v>
       </c>
       <c r="L47" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="M47" t="s">
         <v>296</v>
@@ -6018,7 +6072,7 @@
         <v>297</v>
       </c>
       <c r="O47" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="P47" t="s">
         <v>298</v>
@@ -6032,10 +6086,10 @@
         <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C48" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="D48" t="s">
         <v>301</v>
@@ -6046,7 +6100,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="J48" t="s">
         <v>303</v>
@@ -6055,7 +6109,7 @@
         <v>304</v>
       </c>
       <c r="L48" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="M48" t="s">
         <v>305</v>
@@ -6064,7 +6118,7 @@
         <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="P48" t="s">
         <v>305</v>
@@ -6078,14 +6132,14 @@
         <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="J49" t="s">
         <v>308</v>
@@ -6094,7 +6148,7 @@
         <v>309</v>
       </c>
       <c r="L49" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="M49" t="s">
         <v>310</v>
@@ -6103,7 +6157,7 @@
         <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="P49" t="s">
         <v>312</v>
@@ -6117,10 +6171,10 @@
         <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C50" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6163,10 +6217,10 @@
         <v>318</v>
       </c>
       <c r="B51" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C51" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D51" t="s">
         <v>319</v>
@@ -6209,10 +6263,10 @@
         <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C52" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="D52" t="s">
         <v>322</v>
@@ -6255,10 +6309,10 @@
         <v>324</v>
       </c>
       <c r="B53" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C53" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="D53" t="s">
         <v>325</v>
@@ -6301,10 +6355,10 @@
         <v>327</v>
       </c>
       <c r="B54" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C54" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6315,7 +6369,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="J54" t="s">
         <v>330</v>
@@ -6324,7 +6378,7 @@
         <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="M54" t="s">
         <v>332</v>
@@ -6333,7 +6387,7 @@
         <v>333</v>
       </c>
       <c r="O54" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="P54" t="s">
         <v>334</v>
@@ -6347,14 +6401,14 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="J55" t="s">
         <v>337</v>
@@ -6363,7 +6417,7 @@
         <v>338</v>
       </c>
       <c r="L55" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="M55" t="s">
         <v>339</v>
@@ -6372,7 +6426,7 @@
         <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="P55" t="s">
         <v>341</v>
@@ -6386,10 +6440,10 @@
         <v>343</v>
       </c>
       <c r="B56" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C56" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="D56" t="s">
         <v>344</v>
@@ -6432,10 +6486,10 @@
         <v>346</v>
       </c>
       <c r="B57" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C57" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="D57" t="s">
         <v>347</v>
@@ -6444,7 +6498,7 @@
         <v>348</v>
       </c>
       <c r="F57" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="G57" t="s">
         <v>349</v>
@@ -6485,10 +6539,10 @@
         <v>351</v>
       </c>
       <c r="B58" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="C58" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="D58" t="s">
         <v>352</v>
@@ -6525,12 +6579,12 @@
         <v>354</v>
       </c>
       <c r="B59" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="G59" t="s">
         <v>355</v>
@@ -6571,10 +6625,10 @@
         <v>358</v>
       </c>
       <c r="B60" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C60" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="D60" t="s">
         <v>359</v>
@@ -6583,7 +6637,7 @@
         <v>360</v>
       </c>
       <c r="F60" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="G60" t="s">
         <v>361</v>
@@ -6624,12 +6678,12 @@
         <v>363</v>
       </c>
       <c r="B61" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="G61" t="s">
         <v>364</v>
@@ -6670,10 +6724,10 @@
         <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="C62" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6684,7 +6738,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="J62" t="s">
         <v>370</v>
@@ -6693,7 +6747,7 @@
         <v>371</v>
       </c>
       <c r="L62" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="M62" t="s">
         <v>372</v>
@@ -6702,7 +6756,7 @@
         <v>373</v>
       </c>
       <c r="O62" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="P62" t="s">
         <v>374</v>
@@ -6716,10 +6770,10 @@
         <v>376</v>
       </c>
       <c r="B63" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C63" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="D63" t="s">
         <v>377</v>
@@ -6730,7 +6784,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="J63" t="s">
         <v>379</v>
@@ -6739,7 +6793,7 @@
         <v>380</v>
       </c>
       <c r="L63" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="M63" t="s">
         <v>381</v>
@@ -6748,7 +6802,7 @@
         <v>382</v>
       </c>
       <c r="O63" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="P63" t="s">
         <v>383</v>
@@ -6762,10 +6816,10 @@
         <v>385</v>
       </c>
       <c r="B64" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C64" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6776,7 +6830,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="J64" t="s">
         <v>388</v>
@@ -6785,7 +6839,7 @@
         <v>389</v>
       </c>
       <c r="L64" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="M64" t="s">
         <v>390</v>
@@ -6794,7 +6848,7 @@
         <v>391</v>
       </c>
       <c r="O64" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="P64" t="s">
         <v>392</v>
@@ -6808,12 +6862,12 @@
         <v>394</v>
       </c>
       <c r="B65" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="G65" t="s">
         <v>395</v>
@@ -6833,12 +6887,12 @@
         <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="G66" t="s">
         <v>398</v>
@@ -6879,10 +6933,10 @@
         <v>400</v>
       </c>
       <c r="B67" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="C67" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6893,7 +6947,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="J67" t="s">
         <v>403</v>
@@ -6902,7 +6956,7 @@
         <v>404</v>
       </c>
       <c r="L67" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="M67" t="s">
         <v>405</v>
@@ -6911,7 +6965,7 @@
         <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="P67" t="s">
         <v>407</v>
@@ -6925,10 +6979,10 @@
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C68" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6950,10 +7004,10 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C69" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -6975,10 +7029,10 @@
         <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C70" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="D70" t="s">
         <v>416</v>
@@ -7000,10 +7054,10 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C71" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="D71" t="s">
         <v>419</v>
@@ -7025,10 +7079,10 @@
         <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C72" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
@@ -7037,7 +7091,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -7053,10 +7107,10 @@
         <v>424</v>
       </c>
       <c r="B73" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C73" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
@@ -7065,7 +7119,7 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
@@ -7081,10 +7135,10 @@
         <v>427</v>
       </c>
       <c r="B74" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C74" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -7093,21 +7147,21 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
         <v>429</v>
       </c>
       <c r="L74" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="s">
         <v>430</v>
       </c>
       <c r="O74" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="P74" t="s">
         <v>431</v>
@@ -7121,10 +7175,10 @@
         <v>433</v>
       </c>
       <c r="B75" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C75" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="D75" t="s">
         <v>434</v>
@@ -7135,21 +7189,21 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
         <v>429</v>
       </c>
       <c r="L75" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="s">
         <v>436</v>
       </c>
       <c r="O75" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="P75" t="s">
         <v>431</v>
@@ -7163,7 +7217,7 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -7172,7 +7226,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="M76" t="s">
         <v>439</v>
@@ -7188,10 +7242,10 @@
         <v>441</v>
       </c>
       <c r="B77" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C77" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="D77" t="s">
         <v>442</v>
@@ -7213,10 +7267,10 @@
         <v>444</v>
       </c>
       <c r="B78" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C78" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="D78" t="s">
         <v>445</v>
@@ -7238,10 +7292,10 @@
         <v>447</v>
       </c>
       <c r="B79" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C79" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="D79" t="s">
         <v>448</v>
@@ -7254,7 +7308,7 @@
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="M79" t="s">
         <v>450</v>
@@ -7270,10 +7324,10 @@
         <v>452</v>
       </c>
       <c r="B80" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C80" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="D80" t="s">
         <v>453</v>
@@ -7286,7 +7340,7 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="M80" t="s">
         <v>455</v>
@@ -7302,10 +7356,10 @@
         <v>457</v>
       </c>
       <c r="B81" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C81" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
@@ -7325,10 +7379,10 @@
         <v>459</v>
       </c>
       <c r="B82" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C82" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="D82" t="s">
         <v>460</v>
@@ -7339,14 +7393,14 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
         <v>462</v>
       </c>
       <c r="L82" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="s">
@@ -7360,10 +7414,10 @@
         <v>463</v>
       </c>
       <c r="B83" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C83" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="D83" t="s">
         <v>464</v>
@@ -7374,7 +7428,7 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="J83" t="s">
         <v>466</v>
@@ -7383,7 +7437,7 @@
         <v>467</v>
       </c>
       <c r="L83" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="M83" t="s">
         <v>468</v>
@@ -7392,7 +7446,7 @@
         <v>469</v>
       </c>
       <c r="O83" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="P83" t="s">
         <v>470</v>
@@ -7406,10 +7460,10 @@
         <v>472</v>
       </c>
       <c r="B84" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C84" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="D84" t="s">
         <v>473</v>
@@ -7431,7 +7485,7 @@
         <v>475</v>
       </c>
       <c r="B85" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -7440,7 +7494,7 @@
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="M85" t="s">
         <v>476</v>
@@ -7449,7 +7503,7 @@
         <v>274</v>
       </c>
       <c r="O85" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="P85" t="s">
         <v>477</v>
@@ -7463,12 +7517,12 @@
         <v>479</v>
       </c>
       <c r="B86" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="G86" t="s">
         <v>480</v>
@@ -7509,10 +7563,10 @@
         <v>482</v>
       </c>
       <c r="B87" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C87" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="D87" t="s">
         <v>483</v>
@@ -7521,7 +7575,7 @@
         <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G87" t="s">
         <v>485</v>
@@ -7541,10 +7595,10 @@
         <v>487</v>
       </c>
       <c r="B88" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C88" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="D88" t="s">
         <v>488</v>
@@ -7553,7 +7607,7 @@
         <v>484</v>
       </c>
       <c r="F88" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="G88" t="s">
         <v>489</v>
@@ -7573,10 +7627,10 @@
         <v>491</v>
       </c>
       <c r="B89" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C89" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="D89" t="s">
         <v>492</v>
@@ -7585,7 +7639,7 @@
         <v>493</v>
       </c>
       <c r="F89" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="G89" t="s">
         <v>494</v>
@@ -7605,41 +7659,46 @@
         <v>496</v>
       </c>
       <c r="B90" t="s">
-        <v>599</v>
-      </c>
-      <c r="C90" t="s">
-        <v>682</v>
-      </c>
-      <c r="D90" t="s">
-        <v>497</v>
-      </c>
-      <c r="E90" t="s">
-        <v>498</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
       <c r="G90"/>
       <c r="H90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+      <c r="J90" t="s">
+        <v>497</v>
+      </c>
+      <c r="K90" t="s">
+        <v>498</v>
+      </c>
+      <c r="M90" t="s">
+        <v>499</v>
+      </c>
+      <c r="N90" t="s">
+        <v>500</v>
+      </c>
+      <c r="P90" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B91" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C91" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="D91" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E91" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -7652,29 +7711,22 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B92" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C92" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="D92" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E92" t="s">
-        <v>504</v>
-      </c>
-      <c r="F92" t="s">
-        <v>709</v>
-      </c>
-      <c r="G92" t="s">
-        <v>505</v>
-      </c>
-      <c r="H92" t="s">
-        <v>506</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92"/>
       <c r="J92"/>
       <c r="K92"/>
       <c r="M92"/>
@@ -7684,90 +7736,97 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="C93" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="D93" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E93" t="s">
-        <v>509</v>
-      </c>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93" t="s">
-        <v>752</v>
-      </c>
-      <c r="J93" t="s">
-        <v>510</v>
-      </c>
-      <c r="K93" t="s">
         <v>511</v>
       </c>
-      <c r="L93" t="s">
-        <v>809</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="F93" t="s">
+        <v>725</v>
+      </c>
+      <c r="G93" t="s">
         <v>512</v>
       </c>
-      <c r="N93" t="s">
+      <c r="H93" t="s">
         <v>513</v>
       </c>
-      <c r="O93" t="s">
-        <v>860</v>
-      </c>
-      <c r="P93" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>515</v>
-      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>514</v>
+      </c>
+      <c r="B94" t="s">
+        <v>618</v>
+      </c>
+      <c r="C94" t="s">
+        <v>701</v>
+      </c>
+      <c r="D94" t="s">
+        <v>515</v>
+      </c>
+      <c r="E94" t="s">
         <v>516</v>
-      </c>
-      <c r="B94" t="s">
-        <v>599</v>
-      </c>
-      <c r="C94" t="s">
-        <v>686</v>
-      </c>
-      <c r="D94" t="s">
-        <v>517</v>
-      </c>
-      <c r="E94" t="s">
-        <v>518</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="I94" t="s">
+        <v>768</v>
+      </c>
+      <c r="J94" t="s">
+        <v>517</v>
+      </c>
+      <c r="K94" t="s">
+        <v>518</v>
+      </c>
+      <c r="L94" t="s">
+        <v>825</v>
+      </c>
+      <c r="M94" t="s">
+        <v>519</v>
+      </c>
+      <c r="N94" t="s">
+        <v>520</v>
+      </c>
+      <c r="O94" t="s">
+        <v>876</v>
+      </c>
+      <c r="P94" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B95" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C95" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="D95" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E95" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -7780,13 +7839,20 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>617</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96"/>
+        <v>632</v>
+      </c>
+      <c r="C96" t="s">
+        <v>703</v>
+      </c>
+      <c r="D96" t="s">
+        <v>527</v>
+      </c>
+      <c r="E96" t="s">
+        <v>528</v>
+      </c>
       <c r="G96"/>
       <c r="H96"/>
       <c r="J96"/>
@@ -7798,10 +7864,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B97" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
@@ -7809,47 +7875,26 @@
       <c r="H97"/>
       <c r="J97"/>
       <c r="K97"/>
-      <c r="L97" t="s">
-        <v>810</v>
-      </c>
-      <c r="M97" t="s">
-        <v>524</v>
-      </c>
-      <c r="N97" t="s">
-        <v>525</v>
-      </c>
+      <c r="M97"/>
+      <c r="N97"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B98" t="s">
-        <v>618</v>
-      </c>
-      <c r="C98" t="s">
-        <v>688</v>
-      </c>
-      <c r="D98" t="s">
-        <v>527</v>
-      </c>
-      <c r="E98" t="s">
-        <v>528</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98" t="s">
-        <v>753</v>
-      </c>
-      <c r="J98" t="s">
-        <v>529</v>
-      </c>
-      <c r="K98" t="s">
-        <v>530</v>
-      </c>
+      <c r="J98"/>
+      <c r="K98"/>
       <c r="L98" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="M98" t="s">
         <v>531</v>
@@ -7857,100 +7902,93 @@
       <c r="N98" t="s">
         <v>532</v>
       </c>
-      <c r="O98" t="s">
-        <v>861</v>
-      </c>
-      <c r="P98" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>534</v>
-      </c>
+      <c r="P98"/>
+      <c r="Q98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>533</v>
+      </c>
+      <c r="B99" t="s">
+        <v>634</v>
+      </c>
+      <c r="C99" t="s">
+        <v>704</v>
+      </c>
+      <c r="D99" t="s">
+        <v>534</v>
+      </c>
+      <c r="E99" t="s">
         <v>535</v>
-      </c>
-      <c r="B99" t="s">
-        <v>619</v>
-      </c>
-      <c r="C99" t="s">
-        <v>689</v>
-      </c>
-      <c r="D99" t="s">
-        <v>536</v>
-      </c>
-      <c r="E99" t="s">
-        <v>537</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="J99" t="s">
+        <v>536</v>
+      </c>
+      <c r="K99" t="s">
+        <v>537</v>
+      </c>
+      <c r="L99" t="s">
+        <v>827</v>
+      </c>
+      <c r="M99" t="s">
         <v>538</v>
       </c>
-      <c r="K99" t="s">
+      <c r="N99" t="s">
         <v>539</v>
       </c>
-      <c r="L99" t="s">
-        <v>812</v>
-      </c>
-      <c r="M99" t="s">
+      <c r="O99" t="s">
+        <v>877</v>
+      </c>
+      <c r="P99" t="s">
         <v>540</v>
       </c>
-      <c r="N99" t="s">
+      <c r="Q99" t="s">
         <v>541</v>
-      </c>
-      <c r="O99" t="s">
-        <v>862</v>
-      </c>
-      <c r="P99" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>542</v>
+      </c>
+      <c r="B100" t="s">
+        <v>635</v>
+      </c>
+      <c r="C100" t="s">
+        <v>705</v>
+      </c>
+      <c r="D100" t="s">
+        <v>543</v>
+      </c>
+      <c r="E100" t="s">
         <v>544</v>
-      </c>
-      <c r="B100" t="s">
-        <v>601</v>
-      </c>
-      <c r="C100" t="s">
-        <v>690</v>
-      </c>
-      <c r="D100" t="s">
-        <v>545</v>
-      </c>
-      <c r="E100" t="s">
-        <v>546</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="J100" t="s">
+        <v>545</v>
+      </c>
+      <c r="K100" t="s">
+        <v>546</v>
+      </c>
+      <c r="L100" t="s">
+        <v>828</v>
+      </c>
+      <c r="M100" t="s">
         <v>547</v>
       </c>
-      <c r="K100" t="s">
+      <c r="N100" t="s">
         <v>548</v>
       </c>
-      <c r="L100" t="s">
-        <v>808</v>
-      </c>
-      <c r="M100" t="s">
-        <v>476</v>
-      </c>
-      <c r="N100" t="s">
-        <v>274</v>
-      </c>
       <c r="O100" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="P100" t="s">
         <v>549</v>
@@ -7964,10 +8002,10 @@
         <v>551</v>
       </c>
       <c r="B101" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="C101" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="D101" t="s">
         <v>552</v>
@@ -7978,7 +8016,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="J101" t="s">
         <v>554</v>
@@ -7987,46 +8025,53 @@
         <v>555</v>
       </c>
       <c r="L101" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="M101" t="s">
+        <v>476</v>
+      </c>
+      <c r="N101" t="s">
+        <v>274</v>
+      </c>
+      <c r="O101" t="s">
+        <v>879</v>
+      </c>
+      <c r="P101" t="s">
         <v>556</v>
       </c>
-      <c r="N101" t="s">
+      <c r="Q101" t="s">
         <v>557</v>
-      </c>
-      <c r="O101" t="s">
-        <v>864</v>
-      </c>
-      <c r="P101" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>558</v>
+      </c>
+      <c r="B102" t="s">
+        <v>619</v>
+      </c>
+      <c r="C102" t="s">
+        <v>707</v>
+      </c>
+      <c r="D102" t="s">
+        <v>559</v>
+      </c>
+      <c r="E102" t="s">
         <v>560</v>
-      </c>
-      <c r="B102" t="s">
-        <v>601</v>
-      </c>
-      <c r="C102" t="s">
-        <v>692</v>
-      </c>
-      <c r="D102" t="s">
-        <v>561</v>
-      </c>
-      <c r="E102" t="s">
-        <v>562</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
-      <c r="J102"/>
-      <c r="K102"/>
+      <c r="I102" t="s">
+        <v>772</v>
+      </c>
+      <c r="J102" t="s">
+        <v>561</v>
+      </c>
+      <c r="K102" t="s">
+        <v>562</v>
+      </c>
       <c r="L102" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="M102" t="s">
         <v>563</v>
@@ -8035,7 +8080,7 @@
         <v>564</v>
       </c>
       <c r="O102" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="P102" t="s">
         <v>565</v>
@@ -8049,10 +8094,7 @@
         <v>567</v>
       </c>
       <c r="B103" t="s">
-        <v>601</v>
-      </c>
-      <c r="C103" t="s">
-        <v>693</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
         <v>568</v>
@@ -8062,95 +8104,86 @@
       </c>
       <c r="G103"/>
       <c r="H103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103" t="s">
-        <v>815</v>
+      <c r="J103" t="s">
+        <v>570</v>
+      </c>
+      <c r="K103" t="s">
+        <v>571</v>
       </c>
       <c r="M103" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N103" t="s">
-        <v>571</v>
-      </c>
-      <c r="P103"/>
-      <c r="Q103"/>
+        <v>573</v>
+      </c>
+      <c r="P103" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B104" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C104" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="D104" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E104" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
-      <c r="I104" t="s">
-        <v>757</v>
-      </c>
-      <c r="J104" t="s">
-        <v>575</v>
-      </c>
-      <c r="K104" t="s">
-        <v>576</v>
-      </c>
+      <c r="J104"/>
+      <c r="K104"/>
       <c r="L104" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="M104" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N104" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="O104" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="P104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Q104" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B105" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C105" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="D105" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E105" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
-      <c r="I105" t="s">
-        <v>758</v>
-      </c>
-      <c r="J105" t="s">
-        <v>584</v>
-      </c>
-      <c r="K105" t="s">
-        <v>585</v>
-      </c>
+      <c r="J105"/>
+      <c r="K105"/>
       <c r="L105" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="M105" t="s">
         <v>586</v>
@@ -8158,60 +8191,145 @@
       <c r="N105" t="s">
         <v>587</v>
       </c>
-      <c r="O105" t="s">
-        <v>867</v>
-      </c>
-      <c r="P105" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>589</v>
-      </c>
+      <c r="P105"/>
+      <c r="Q105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>588</v>
+      </c>
+      <c r="B106" t="s">
+        <v>636</v>
+      </c>
+      <c r="C106" t="s">
+        <v>710</v>
+      </c>
+      <c r="D106" t="s">
+        <v>589</v>
+      </c>
+      <c r="E106" t="s">
         <v>590</v>
-      </c>
-      <c r="B106" t="s">
-        <v>608</v>
-      </c>
-      <c r="C106" t="s">
-        <v>696</v>
-      </c>
-      <c r="D106" t="s">
-        <v>591</v>
-      </c>
-      <c r="E106" t="s">
-        <v>592</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="J106" t="s">
+        <v>591</v>
+      </c>
+      <c r="K106" t="s">
+        <v>592</v>
+      </c>
+      <c r="L106" t="s">
+        <v>832</v>
+      </c>
+      <c r="M106" t="s">
         <v>593</v>
       </c>
-      <c r="K106" t="s">
+      <c r="N106" t="s">
         <v>594</v>
       </c>
-      <c r="L106" t="s">
-        <v>818</v>
-      </c>
-      <c r="M106" t="s">
+      <c r="O106" t="s">
+        <v>882</v>
+      </c>
+      <c r="P106" t="s">
         <v>595</v>
       </c>
-      <c r="N106" t="s">
+      <c r="Q106" t="s">
         <v>596</v>
       </c>
-      <c r="O106" t="s">
-        <v>868</v>
-      </c>
-      <c r="P106" t="s">
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
         <v>597</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="B107" t="s">
+        <v>617</v>
+      </c>
+      <c r="C107" t="s">
+        <v>711</v>
+      </c>
+      <c r="D107" t="s">
         <v>598</v>
+      </c>
+      <c r="E107" t="s">
+        <v>599</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107" t="s">
+        <v>774</v>
+      </c>
+      <c r="J107" t="s">
+        <v>600</v>
+      </c>
+      <c r="K107" t="s">
+        <v>601</v>
+      </c>
+      <c r="L107" t="s">
+        <v>833</v>
+      </c>
+      <c r="M107" t="s">
+        <v>602</v>
+      </c>
+      <c r="N107" t="s">
+        <v>603</v>
+      </c>
+      <c r="O107" t="s">
+        <v>883</v>
+      </c>
+      <c r="P107" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>606</v>
+      </c>
+      <c r="B108" t="s">
+        <v>624</v>
+      </c>
+      <c r="C108" t="s">
+        <v>712</v>
+      </c>
+      <c r="D108" t="s">
+        <v>607</v>
+      </c>
+      <c r="E108" t="s">
+        <v>608</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108" t="s">
+        <v>775</v>
+      </c>
+      <c r="J108" t="s">
+        <v>609</v>
+      </c>
+      <c r="K108" t="s">
+        <v>610</v>
+      </c>
+      <c r="L108" t="s">
+        <v>834</v>
+      </c>
+      <c r="M108" t="s">
+        <v>611</v>
+      </c>
+      <c r="N108" t="s">
+        <v>612</v>
+      </c>
+      <c r="O108" t="s">
+        <v>884</v>
+      </c>
+      <c r="P108" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="900">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -1081,15 +1081,16 @@
     <t xml:space="preserve">The area is alive with festival-goers.
 Joyful laughters echo around.
 Someone begins to hum a #festival tune.
-~giggles and laughter~
-~buzzing~</t>
+*giggles*
+*laughter*
+*buzzing*</t>
   </si>
   <si>
     <t xml:space="preserve">辺りは祭りに来た人々で賑わっている。
 楽しそうな笑い声が聞こえる。
 誰かが#festivalの歌を口ずさんだ。
-~わいわい~
-~ガヤガヤ~</t>
+*わいわい*
+*ガヤガヤ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Come see what I have, #brother!"
@@ -1236,10 +1237,10 @@
 「くそったれー」
 「やめてくれー」
 「うそだー」
-「俺は負けんのだぁ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「二度と俺を馬鹿にするな」
+「私は負けんのだぁ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「二度と私を馬鹿にするな」
 「ギャハハハハ！」
 「ゴゥトゥヘル」</t>
   </si>
@@ -2199,6 +2200,39 @@
 あなたは背後に冷たい視線を感じた。</t>
   </si>
   <si>
+    <t xml:space="preserve">gwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ah... What a cute flower!"
+"Can I come with you?"
+"I want Sandra's red cape..."
+"That's a pretty flower～!"
+"Red is my favorite color!"
+"My mom made this flower crown for me."
+"La la la～♪"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あー…かわいいお花！」
+「ついていっていい？」
+「サンドラさんの赤いケープほしい…」
+「ざっつあぷりちーふらわー」
+「赤って好きな色なの～」
+「この花の冠はお母さんに編んでもらったの」
+「るるる♪」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Why would you do that?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「どうして、そんなことするの？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I don't like scary things..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「怖いのはいや…」</t>
+  </si>
+  <si>
     <t xml:space="preserve">lady</t>
   </si>
   <si>
@@ -2354,7 +2388,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -2609,7 +2643,7 @@
   <si>
     <t xml:space="preserve">「あんな極上の女はそうはいねえ」
 「俺の手に掛かれば、どんな女もイチコロよ」
-*レロレロレロ*
+ *レロレロレロ*
 「まったく罪な男に生まれちまったもんだ」</t>
   </si>
   <si>
@@ -2836,7 +2870,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4312,14 +4346,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4328,7 +4362,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4337,7 +4371,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4351,10 +4385,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C4" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4365,7 +4399,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4374,7 +4408,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4390,10 +4424,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C5" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4418,7 +4452,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4431,7 +4465,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4440,7 +4474,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4454,10 +4488,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4468,7 +4502,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4477,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4493,10 +4527,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C8" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4507,7 +4541,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4516,7 +4550,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4525,7 +4559,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4539,10 +4573,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C9" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4553,7 +4587,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4562,7 +4596,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4571,7 +4605,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4585,10 +4619,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4599,21 +4633,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4625,10 +4659,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C11" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4639,7 +4673,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4648,7 +4682,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4657,7 +4691,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4671,10 +4705,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C12" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4685,7 +4719,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4694,7 +4728,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4703,7 +4737,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4717,10 +4751,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C13" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4738,7 +4772,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4757,7 +4791,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4768,7 +4802,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4777,7 +4811,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4786,7 +4820,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4800,10 +4834,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C15" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4839,14 +4873,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4855,7 +4889,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4864,7 +4898,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4878,10 +4912,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C17" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4892,7 +4926,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4901,7 +4935,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4910,7 +4944,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4924,14 +4958,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4940,7 +4974,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4949,7 +4983,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4963,14 +4997,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4979,7 +5013,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4988,7 +5022,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5002,10 +5036,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C20" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5016,7 +5050,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5025,7 +5059,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5034,7 +5068,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5048,14 +5082,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5064,7 +5098,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5073,7 +5107,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5087,14 +5121,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5103,7 +5137,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5112,7 +5146,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5126,10 +5160,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C23" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5151,10 +5185,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C24" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5165,7 +5199,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5174,7 +5208,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5183,7 +5217,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5197,14 +5231,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5229,10 +5263,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C26" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5245,7 +5279,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5254,7 +5288,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5268,14 +5302,14 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5284,7 +5318,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5293,7 +5327,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5307,10 +5341,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C28" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5321,7 +5355,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5330,7 +5364,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5339,7 +5373,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5353,10 +5387,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C29" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5367,7 +5401,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5376,7 +5410,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5385,7 +5419,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5399,10 +5433,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C30" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5413,7 +5447,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5422,7 +5456,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5431,7 +5465,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5445,10 +5479,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C31" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5459,7 +5493,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5468,7 +5502,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5477,7 +5511,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5491,10 +5525,10 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C32" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5516,7 +5550,7 @@
         <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -5525,7 +5559,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5534,7 +5568,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5548,14 +5582,14 @@
         <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5564,7 +5598,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5573,7 +5607,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5587,12 +5621,12 @@
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5601,7 +5635,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5610,7 +5644,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5619,7 +5653,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5633,10 +5667,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C36" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5686,10 +5720,10 @@
         <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>619</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="D37" t="s">
         <v>233</v>
@@ -5698,7 +5732,7 @@
         <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="G37" t="s">
         <v>235</v>
@@ -5707,7 +5741,7 @@
         <v>236</v>
       </c>
       <c r="I37" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="J37" t="s">
         <v>222</v>
@@ -5716,7 +5750,7 @@
         <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="M37" t="s">
         <v>224</v>
@@ -5725,7 +5759,7 @@
         <v>225</v>
       </c>
       <c r="O37" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5739,10 +5773,10 @@
         <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C38" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="D38" t="s">
         <v>238</v>
@@ -5764,7 +5798,7 @@
         <v>240</v>
       </c>
       <c r="B39" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -5782,10 +5816,10 @@
         <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C40" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5796,7 +5830,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="J40" t="s">
         <v>244</v>
@@ -5805,7 +5839,7 @@
         <v>245</v>
       </c>
       <c r="L40" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="M40" t="s">
         <v>246</v>
@@ -5814,7 +5848,7 @@
         <v>247</v>
       </c>
       <c r="O40" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="P40" t="s">
         <v>248</v>
@@ -5828,10 +5862,10 @@
         <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C41" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="D41" t="s">
         <v>251</v>
@@ -5842,7 +5876,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="J41" t="s">
         <v>253</v>
@@ -5851,7 +5885,7 @@
         <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="M41" t="s">
         <v>255</v>
@@ -5860,7 +5894,7 @@
         <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="P41" t="s">
         <v>257</v>
@@ -5874,14 +5908,14 @@
         <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>615</v>
+        <v>18</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="J42" t="s">
         <v>260</v>
@@ -5890,7 +5924,7 @@
         <v>261</v>
       </c>
       <c r="L42" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="M42" t="s">
         <v>262</v>
@@ -5899,7 +5933,7 @@
         <v>263</v>
       </c>
       <c r="O42" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -5911,14 +5945,14 @@
         <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="J43" t="s">
         <v>266</v>
@@ -5927,7 +5961,7 @@
         <v>267</v>
       </c>
       <c r="L43" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="M43" t="s">
         <v>268</v>
@@ -5936,7 +5970,7 @@
         <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="P43" t="s">
         <v>270</v>
@@ -5950,7 +5984,7 @@
         <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -5959,7 +5993,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="M44" t="s">
         <v>273</v>
@@ -5968,7 +6002,7 @@
         <v>274</v>
       </c>
       <c r="O44" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="P44" t="s">
         <v>275</v>
@@ -5982,7 +6016,7 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C45" t="s">
         <v>279</v>
@@ -5998,7 +6032,7 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -6007,7 +6041,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -6021,10 +6055,10 @@
         <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C46" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="D46" t="s">
         <v>285</v>
@@ -6035,7 +6069,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="J46" t="s">
         <v>287</v>
@@ -6044,7 +6078,7 @@
         <v>288</v>
       </c>
       <c r="L46" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="M46" t="s">
         <v>289</v>
@@ -6053,7 +6087,7 @@
         <v>290</v>
       </c>
       <c r="O46" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="P46" t="s">
         <v>282</v>
@@ -6067,10 +6101,10 @@
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C47" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D47" t="s">
         <v>292</v>
@@ -6081,7 +6115,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="J47" t="s">
         <v>294</v>
@@ -6090,7 +6124,7 @@
         <v>295</v>
       </c>
       <c r="L47" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="M47" t="s">
         <v>296</v>
@@ -6099,7 +6133,7 @@
         <v>297</v>
       </c>
       <c r="O47" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="P47" t="s">
         <v>298</v>
@@ -6113,10 +6147,10 @@
         <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C48" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D48" t="s">
         <v>301</v>
@@ -6127,7 +6161,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="J48" t="s">
         <v>303</v>
@@ -6136,7 +6170,7 @@
         <v>304</v>
       </c>
       <c r="L48" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="M48" t="s">
         <v>305</v>
@@ -6145,7 +6179,7 @@
         <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="P48" t="s">
         <v>305</v>
@@ -6159,14 +6193,14 @@
         <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="J49" t="s">
         <v>308</v>
@@ -6175,7 +6209,7 @@
         <v>309</v>
       </c>
       <c r="L49" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="M49" t="s">
         <v>310</v>
@@ -6184,7 +6218,7 @@
         <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="P49" t="s">
         <v>312</v>
@@ -6198,10 +6232,10 @@
         <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C50" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6244,10 +6278,10 @@
         <v>318</v>
       </c>
       <c r="B51" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C51" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="D51" t="s">
         <v>319</v>
@@ -6290,10 +6324,10 @@
         <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C52" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D52" t="s">
         <v>322</v>
@@ -6336,10 +6370,10 @@
         <v>324</v>
       </c>
       <c r="B53" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C53" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="D53" t="s">
         <v>325</v>
@@ -6382,10 +6416,10 @@
         <v>327</v>
       </c>
       <c r="B54" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C54" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6396,7 +6430,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="J54" t="s">
         <v>330</v>
@@ -6405,7 +6439,7 @@
         <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="M54" t="s">
         <v>332</v>
@@ -6414,7 +6448,7 @@
         <v>333</v>
       </c>
       <c r="O54" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="P54" t="s">
         <v>334</v>
@@ -6428,14 +6462,14 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="J55" t="s">
         <v>337</v>
@@ -6444,7 +6478,7 @@
         <v>338</v>
       </c>
       <c r="L55" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="M55" t="s">
         <v>339</v>
@@ -6453,7 +6487,7 @@
         <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="P55" t="s">
         <v>341</v>
@@ -6467,10 +6501,10 @@
         <v>343</v>
       </c>
       <c r="B56" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C56" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D56" t="s">
         <v>344</v>
@@ -6513,10 +6547,10 @@
         <v>346</v>
       </c>
       <c r="B57" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C57" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="D57" t="s">
         <v>347</v>
@@ -6525,7 +6559,7 @@
         <v>348</v>
       </c>
       <c r="F57" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="G57" t="s">
         <v>349</v>
@@ -6566,10 +6600,10 @@
         <v>351</v>
       </c>
       <c r="B58" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C58" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D58" t="s">
         <v>352</v>
@@ -6606,12 +6640,12 @@
         <v>354</v>
       </c>
       <c r="B59" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="G59" t="s">
         <v>355</v>
@@ -6652,10 +6686,10 @@
         <v>358</v>
       </c>
       <c r="B60" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C60" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="D60" t="s">
         <v>359</v>
@@ -6664,7 +6698,7 @@
         <v>360</v>
       </c>
       <c r="F60" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="G60" t="s">
         <v>361</v>
@@ -6705,12 +6739,12 @@
         <v>363</v>
       </c>
       <c r="B61" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="G61" t="s">
         <v>364</v>
@@ -6751,10 +6785,10 @@
         <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C62" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6765,7 +6799,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="J62" t="s">
         <v>370</v>
@@ -6774,7 +6808,7 @@
         <v>371</v>
       </c>
       <c r="L62" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="M62" t="s">
         <v>372</v>
@@ -6783,7 +6817,7 @@
         <v>373</v>
       </c>
       <c r="O62" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="P62" t="s">
         <v>374</v>
@@ -6797,10 +6831,10 @@
         <v>376</v>
       </c>
       <c r="B63" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C63" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D63" t="s">
         <v>377</v>
@@ -6811,7 +6845,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="J63" t="s">
         <v>379</v>
@@ -6820,7 +6854,7 @@
         <v>380</v>
       </c>
       <c r="L63" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="M63" t="s">
         <v>381</v>
@@ -6829,7 +6863,7 @@
         <v>382</v>
       </c>
       <c r="O63" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="P63" t="s">
         <v>383</v>
@@ -6843,10 +6877,10 @@
         <v>385</v>
       </c>
       <c r="B64" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C64" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6857,7 +6891,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="J64" t="s">
         <v>388</v>
@@ -6866,7 +6900,7 @@
         <v>389</v>
       </c>
       <c r="L64" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="M64" t="s">
         <v>390</v>
@@ -6875,7 +6909,7 @@
         <v>391</v>
       </c>
       <c r="O64" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="P64" t="s">
         <v>392</v>
@@ -6889,12 +6923,12 @@
         <v>394</v>
       </c>
       <c r="B65" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="G65" t="s">
         <v>395</v>
@@ -6914,12 +6948,12 @@
         <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="G66" t="s">
         <v>398</v>
@@ -6960,10 +6994,10 @@
         <v>400</v>
       </c>
       <c r="B67" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C67" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6974,7 +7008,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="J67" t="s">
         <v>403</v>
@@ -6983,7 +7017,7 @@
         <v>404</v>
       </c>
       <c r="L67" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="M67" t="s">
         <v>405</v>
@@ -6992,7 +7026,7 @@
         <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="P67" t="s">
         <v>407</v>
@@ -7006,10 +7040,10 @@
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C68" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -7031,10 +7065,10 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C69" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -7056,10 +7090,10 @@
         <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C70" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="D70" t="s">
         <v>416</v>
@@ -7081,10 +7115,10 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C71" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="D71" t="s">
         <v>419</v>
@@ -7106,10 +7140,10 @@
         <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C72" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
@@ -7118,7 +7152,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -7134,10 +7168,10 @@
         <v>424</v>
       </c>
       <c r="B73" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C73" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
@@ -7146,7 +7180,7 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
@@ -7162,10 +7196,10 @@
         <v>427</v>
       </c>
       <c r="B74" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C74" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -7174,21 +7208,21 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
         <v>429</v>
       </c>
       <c r="L74" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="s">
         <v>430</v>
       </c>
       <c r="O74" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="P74" t="s">
         <v>431</v>
@@ -7202,10 +7236,10 @@
         <v>433</v>
       </c>
       <c r="B75" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C75" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="D75" t="s">
         <v>434</v>
@@ -7216,21 +7250,21 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
         <v>429</v>
       </c>
       <c r="L75" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="s">
         <v>436</v>
       </c>
       <c r="O75" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="P75" t="s">
         <v>431</v>
@@ -7244,7 +7278,7 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -7253,7 +7287,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="M76" t="s">
         <v>439</v>
@@ -7269,10 +7303,10 @@
         <v>441</v>
       </c>
       <c r="B77" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C77" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D77" t="s">
         <v>442</v>
@@ -7294,10 +7328,10 @@
         <v>444</v>
       </c>
       <c r="B78" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C78" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="D78" t="s">
         <v>445</v>
@@ -7319,10 +7353,10 @@
         <v>447</v>
       </c>
       <c r="B79" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C79" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D79" t="s">
         <v>448</v>
@@ -7335,7 +7369,7 @@
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="M79" t="s">
         <v>450</v>
@@ -7351,10 +7385,10 @@
         <v>452</v>
       </c>
       <c r="B80" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C80" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="D80" t="s">
         <v>453</v>
@@ -7367,7 +7401,7 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="M80" t="s">
         <v>455</v>
@@ -7383,10 +7417,10 @@
         <v>457</v>
       </c>
       <c r="B81" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C81" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
@@ -7406,10 +7440,10 @@
         <v>459</v>
       </c>
       <c r="B82" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C82" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="D82" t="s">
         <v>460</v>
@@ -7420,14 +7454,14 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
         <v>462</v>
       </c>
       <c r="L82" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="s">
@@ -7441,10 +7475,10 @@
         <v>463</v>
       </c>
       <c r="B83" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C83" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D83" t="s">
         <v>464</v>
@@ -7455,7 +7489,7 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="J83" t="s">
         <v>466</v>
@@ -7464,7 +7498,7 @@
         <v>467</v>
       </c>
       <c r="L83" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="M83" t="s">
         <v>468</v>
@@ -7473,7 +7507,7 @@
         <v>469</v>
       </c>
       <c r="O83" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="P83" t="s">
         <v>470</v>
@@ -7487,10 +7521,10 @@
         <v>472</v>
       </c>
       <c r="B84" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C84" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D84" t="s">
         <v>473</v>
@@ -7512,135 +7546,133 @@
         <v>475</v>
       </c>
       <c r="B85" t="s">
-        <v>615</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85"/>
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>476</v>
+      </c>
+      <c r="E85" t="s">
+        <v>477</v>
+      </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="J85"/>
       <c r="K85"/>
-      <c r="L85" t="s">
-        <v>828</v>
-      </c>
       <c r="M85" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N85" t="s">
-        <v>274</v>
-      </c>
-      <c r="O85" t="s">
-        <v>881</v>
+        <v>479</v>
       </c>
       <c r="P85" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Q85" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B86" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" t="s">
-        <v>723</v>
-      </c>
-      <c r="G86" t="s">
-        <v>480</v>
-      </c>
-      <c r="H86" t="s">
-        <v>481</v>
-      </c>
-      <c r="I86" t="s">
-        <v>231</v>
-      </c>
-      <c r="J86" t="s">
-        <v>231</v>
-      </c>
-      <c r="K86" t="s">
-        <v>231</v>
-      </c>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="J86"/>
+      <c r="K86"/>
       <c r="L86" t="s">
-        <v>231</v>
+        <v>835</v>
       </c>
       <c r="M86" t="s">
-        <v>231</v>
+        <v>483</v>
       </c>
       <c r="N86" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="O86" t="s">
-        <v>231</v>
+        <v>888</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>484</v>
       </c>
       <c r="Q86" t="s">
-        <v>231</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B87" t="s">
-        <v>615</v>
-      </c>
-      <c r="C87" t="s">
-        <v>697</v>
-      </c>
-      <c r="D87" t="s">
-        <v>483</v>
-      </c>
-      <c r="E87" t="s">
-        <v>484</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="G87" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H87" t="s">
-        <v>486</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
+        <v>488</v>
+      </c>
+      <c r="I87" t="s">
+        <v>231</v>
+      </c>
+      <c r="J87" t="s">
+        <v>231</v>
+      </c>
+      <c r="K87" t="s">
+        <v>231</v>
+      </c>
+      <c r="L87" t="s">
+        <v>231</v>
+      </c>
+      <c r="M87" t="s">
+        <v>231</v>
+      </c>
+      <c r="N87" t="s">
+        <v>231</v>
+      </c>
+      <c r="O87" t="s">
+        <v>231</v>
+      </c>
+      <c r="P87" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B88" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C88" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D88" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E88" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F88" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="G88" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H88" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -7651,28 +7683,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>494</v>
+      </c>
+      <c r="B89" t="s">
+        <v>622</v>
+      </c>
+      <c r="C89" t="s">
+        <v>704</v>
+      </c>
+      <c r="D89" t="s">
+        <v>495</v>
+      </c>
+      <c r="E89" t="s">
         <v>491</v>
       </c>
-      <c r="B89" t="s">
-        <v>615</v>
-      </c>
-      <c r="C89" t="s">
-        <v>698</v>
-      </c>
-      <c r="D89" t="s">
-        <v>492</v>
-      </c>
-      <c r="E89" t="s">
-        <v>493</v>
-      </c>
       <c r="F89" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="G89" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H89" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -7683,83 +7715,90 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B90" t="s">
-        <v>632</v>
-      </c>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90" t="s">
-        <v>770</v>
-      </c>
-      <c r="J90" t="s">
-        <v>497</v>
-      </c>
-      <c r="K90" t="s">
-        <v>498</v>
-      </c>
-      <c r="L90" t="s">
-        <v>829</v>
-      </c>
-      <c r="M90" t="s">
+        <v>622</v>
+      </c>
+      <c r="C90" t="s">
+        <v>705</v>
+      </c>
+      <c r="D90" t="s">
         <v>499</v>
       </c>
-      <c r="N90" t="s">
+      <c r="E90" t="s">
         <v>500</v>
       </c>
-      <c r="O90" t="s">
-        <v>882</v>
-      </c>
-      <c r="P90" t="s">
+      <c r="F90" t="s">
+        <v>733</v>
+      </c>
+      <c r="G90" t="s">
         <v>501</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="H90" t="s">
         <v>502</v>
       </c>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>503</v>
       </c>
       <c r="B91" t="s">
-        <v>615</v>
-      </c>
-      <c r="C91" t="s">
-        <v>699</v>
-      </c>
-      <c r="D91" t="s">
-        <v>504</v>
-      </c>
-      <c r="E91" t="s">
-        <v>505</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
       <c r="G91"/>
       <c r="H91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
+      <c r="I91" t="s">
+        <v>777</v>
+      </c>
+      <c r="J91" t="s">
+        <v>504</v>
+      </c>
+      <c r="K91" t="s">
+        <v>505</v>
+      </c>
+      <c r="L91" t="s">
+        <v>836</v>
+      </c>
+      <c r="M91" t="s">
+        <v>506</v>
+      </c>
+      <c r="N91" t="s">
+        <v>507</v>
+      </c>
+      <c r="O91" t="s">
+        <v>889</v>
+      </c>
+      <c r="P91" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B92" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C92" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="D92" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E92" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -7772,29 +7811,22 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C93" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D93" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E93" t="s">
-        <v>511</v>
-      </c>
-      <c r="F93" t="s">
-        <v>727</v>
-      </c>
-      <c r="G93" t="s">
-        <v>512</v>
-      </c>
-      <c r="H93" t="s">
-        <v>513</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93"/>
       <c r="J93"/>
       <c r="K93"/>
       <c r="M93"/>
@@ -7804,90 +7836,97 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>622</v>
       </c>
       <c r="C94" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D94" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E94" t="s">
-        <v>516</v>
-      </c>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94" t="s">
-        <v>771</v>
-      </c>
-      <c r="J94" t="s">
-        <v>517</v>
-      </c>
-      <c r="K94" t="s">
         <v>518</v>
       </c>
-      <c r="L94" t="s">
-        <v>830</v>
-      </c>
-      <c r="M94" t="s">
+      <c r="F94" t="s">
+        <v>734</v>
+      </c>
+      <c r="G94" t="s">
         <v>519</v>
       </c>
-      <c r="N94" t="s">
+      <c r="H94" t="s">
         <v>520</v>
       </c>
-      <c r="O94" t="s">
-        <v>883</v>
-      </c>
-      <c r="P94" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>522</v>
-      </c>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>521</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>709</v>
+      </c>
+      <c r="D95" t="s">
+        <v>522</v>
+      </c>
+      <c r="E95" t="s">
         <v>523</v>
-      </c>
-      <c r="B95" t="s">
-        <v>615</v>
-      </c>
-      <c r="C95" t="s">
-        <v>703</v>
-      </c>
-      <c r="D95" t="s">
-        <v>524</v>
-      </c>
-      <c r="E95" t="s">
-        <v>525</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
+      <c r="I95" t="s">
+        <v>778</v>
+      </c>
+      <c r="J95" t="s">
+        <v>524</v>
+      </c>
+      <c r="K95" t="s">
+        <v>525</v>
+      </c>
+      <c r="L95" t="s">
+        <v>837</v>
+      </c>
+      <c r="M95" t="s">
+        <v>526</v>
+      </c>
+      <c r="N95" t="s">
+        <v>527</v>
+      </c>
+      <c r="O95" t="s">
+        <v>890</v>
+      </c>
+      <c r="P95" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B96" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="C96" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D96" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E96" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -7900,13 +7939,20 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B97" t="s">
-        <v>634</v>
-      </c>
-      <c r="D97"/>
-      <c r="E97"/>
+        <v>640</v>
+      </c>
+      <c r="C97" t="s">
+        <v>711</v>
+      </c>
+      <c r="D97" t="s">
+        <v>534</v>
+      </c>
+      <c r="E97" t="s">
+        <v>535</v>
+      </c>
       <c r="G97"/>
       <c r="H97"/>
       <c r="J97"/>
@@ -7918,10 +7964,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B98" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
@@ -7929,47 +7975,26 @@
       <c r="H98"/>
       <c r="J98"/>
       <c r="K98"/>
-      <c r="L98" t="s">
-        <v>831</v>
-      </c>
-      <c r="M98" t="s">
-        <v>531</v>
-      </c>
-      <c r="N98" t="s">
-        <v>532</v>
-      </c>
+      <c r="M98"/>
+      <c r="N98"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B99" t="s">
-        <v>635</v>
-      </c>
-      <c r="C99" t="s">
-        <v>705</v>
-      </c>
-      <c r="D99" t="s">
-        <v>534</v>
-      </c>
-      <c r="E99" t="s">
-        <v>535</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
       <c r="G99"/>
       <c r="H99"/>
-      <c r="I99" t="s">
-        <v>772</v>
-      </c>
-      <c r="J99" t="s">
-        <v>536</v>
-      </c>
-      <c r="K99" t="s">
-        <v>537</v>
-      </c>
+      <c r="J99"/>
+      <c r="K99"/>
       <c r="L99" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="M99" t="s">
         <v>538</v>
@@ -7977,100 +8002,93 @@
       <c r="N99" t="s">
         <v>539</v>
       </c>
-      <c r="O99" t="s">
-        <v>884</v>
-      </c>
-      <c r="P99" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>541</v>
-      </c>
+      <c r="P99"/>
+      <c r="Q99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>540</v>
+      </c>
+      <c r="B100" t="s">
+        <v>642</v>
+      </c>
+      <c r="C100" t="s">
+        <v>712</v>
+      </c>
+      <c r="D100" t="s">
+        <v>541</v>
+      </c>
+      <c r="E100" t="s">
         <v>542</v>
-      </c>
-      <c r="B100" t="s">
-        <v>636</v>
-      </c>
-      <c r="C100" t="s">
-        <v>706</v>
-      </c>
-      <c r="D100" t="s">
-        <v>543</v>
-      </c>
-      <c r="E100" t="s">
-        <v>544</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="J100" t="s">
+        <v>543</v>
+      </c>
+      <c r="K100" t="s">
+        <v>544</v>
+      </c>
+      <c r="L100" t="s">
+        <v>839</v>
+      </c>
+      <c r="M100" t="s">
         <v>545</v>
       </c>
-      <c r="K100" t="s">
+      <c r="N100" t="s">
         <v>546</v>
       </c>
-      <c r="L100" t="s">
-        <v>833</v>
-      </c>
-      <c r="M100" t="s">
+      <c r="O100" t="s">
+        <v>891</v>
+      </c>
+      <c r="P100" t="s">
         <v>547</v>
       </c>
-      <c r="N100" t="s">
+      <c r="Q100" t="s">
         <v>548</v>
-      </c>
-      <c r="O100" t="s">
-        <v>885</v>
-      </c>
-      <c r="P100" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>549</v>
+      </c>
+      <c r="B101" t="s">
+        <v>643</v>
+      </c>
+      <c r="C101" t="s">
+        <v>713</v>
+      </c>
+      <c r="D101" t="s">
+        <v>550</v>
+      </c>
+      <c r="E101" t="s">
         <v>551</v>
-      </c>
-      <c r="B101" t="s">
-        <v>617</v>
-      </c>
-      <c r="C101" t="s">
-        <v>707</v>
-      </c>
-      <c r="D101" t="s">
-        <v>552</v>
-      </c>
-      <c r="E101" t="s">
-        <v>553</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="J101" t="s">
+        <v>552</v>
+      </c>
+      <c r="K101" t="s">
+        <v>553</v>
+      </c>
+      <c r="L101" t="s">
+        <v>840</v>
+      </c>
+      <c r="M101" t="s">
         <v>554</v>
       </c>
-      <c r="K101" t="s">
+      <c r="N101" t="s">
         <v>555</v>
       </c>
-      <c r="L101" t="s">
-        <v>828</v>
-      </c>
-      <c r="M101" t="s">
-        <v>476</v>
-      </c>
-      <c r="N101" t="s">
-        <v>274</v>
-      </c>
       <c r="O101" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="P101" t="s">
         <v>556</v>
@@ -8084,10 +8102,10 @@
         <v>558</v>
       </c>
       <c r="B102" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C102" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D102" t="s">
         <v>559</v>
@@ -8098,7 +8116,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="J102" t="s">
         <v>561</v>
@@ -8107,92 +8125,99 @@
         <v>562</v>
       </c>
       <c r="L102" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M102" t="s">
+        <v>483</v>
+      </c>
+      <c r="N102" t="s">
+        <v>274</v>
+      </c>
+      <c r="O102" t="s">
+        <v>893</v>
+      </c>
+      <c r="P102" t="s">
         <v>563</v>
       </c>
-      <c r="N102" t="s">
+      <c r="Q102" t="s">
         <v>564</v>
-      </c>
-      <c r="O102" t="s">
-        <v>887</v>
-      </c>
-      <c r="P102" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>565</v>
+      </c>
+      <c r="B103" t="s">
+        <v>626</v>
+      </c>
+      <c r="C103" t="s">
+        <v>715</v>
+      </c>
+      <c r="D103" t="s">
+        <v>566</v>
+      </c>
+      <c r="E103" t="s">
         <v>567</v>
-      </c>
-      <c r="B103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" t="s">
-        <v>709</v>
-      </c>
-      <c r="D103" t="s">
-        <v>568</v>
-      </c>
-      <c r="E103" t="s">
-        <v>569</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="J103" t="s">
+        <v>568</v>
+      </c>
+      <c r="K103" t="s">
+        <v>569</v>
+      </c>
+      <c r="L103" t="s">
+        <v>841</v>
+      </c>
+      <c r="M103" t="s">
         <v>570</v>
       </c>
-      <c r="K103" t="s">
+      <c r="N103" t="s">
         <v>571</v>
       </c>
-      <c r="L103" t="s">
-        <v>835</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="O103" t="s">
+        <v>894</v>
+      </c>
+      <c r="P103" t="s">
         <v>572</v>
       </c>
-      <c r="N103" t="s">
+      <c r="Q103" t="s">
         <v>573</v>
-      </c>
-      <c r="O103" t="s">
-        <v>888</v>
-      </c>
-      <c r="P103" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>574</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>716</v>
+      </c>
+      <c r="D104" t="s">
+        <v>575</v>
+      </c>
+      <c r="E104" t="s">
         <v>576</v>
-      </c>
-      <c r="B104" t="s">
-        <v>617</v>
-      </c>
-      <c r="C104" t="s">
-        <v>710</v>
-      </c>
-      <c r="D104" t="s">
-        <v>577</v>
-      </c>
-      <c r="E104" t="s">
-        <v>578</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
-      <c r="J104"/>
-      <c r="K104"/>
+      <c r="I104" t="s">
+        <v>783</v>
+      </c>
+      <c r="J104" t="s">
+        <v>577</v>
+      </c>
+      <c r="K104" t="s">
+        <v>578</v>
+      </c>
       <c r="L104" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="M104" t="s">
         <v>579</v>
@@ -8201,7 +8226,7 @@
         <v>580</v>
       </c>
       <c r="O104" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="P104" t="s">
         <v>581</v>
@@ -8215,10 +8240,10 @@
         <v>583</v>
       </c>
       <c r="B105" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C105" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D105" t="s">
         <v>584</v>
@@ -8231,7 +8256,7 @@
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="M105" t="s">
         <v>586</v>
@@ -8239,38 +8264,38 @@
       <c r="N105" t="s">
         <v>587</v>
       </c>
-      <c r="P105"/>
-      <c r="Q105"/>
+      <c r="O105" t="s">
+        <v>896</v>
+      </c>
+      <c r="P105" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B106" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C106" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D106" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E106" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
-      <c r="I106" t="s">
-        <v>777</v>
-      </c>
-      <c r="J106" t="s">
-        <v>591</v>
-      </c>
-      <c r="K106" t="s">
-        <v>592</v>
-      </c>
+      <c r="J106"/>
+      <c r="K106"/>
       <c r="L106" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="M106" t="s">
         <v>593</v>
@@ -8278,106 +8303,145 @@
       <c r="N106" t="s">
         <v>594</v>
       </c>
-      <c r="O106" t="s">
-        <v>890</v>
-      </c>
-      <c r="P106" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>596</v>
-      </c>
+      <c r="P106"/>
+      <c r="Q106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>595</v>
+      </c>
+      <c r="B107" t="s">
+        <v>644</v>
+      </c>
+      <c r="C107" t="s">
+        <v>719</v>
+      </c>
+      <c r="D107" t="s">
+        <v>596</v>
+      </c>
+      <c r="E107" t="s">
         <v>597</v>
-      </c>
-      <c r="B107" t="s">
-        <v>617</v>
-      </c>
-      <c r="C107" t="s">
-        <v>713</v>
-      </c>
-      <c r="D107" t="s">
-        <v>598</v>
-      </c>
-      <c r="E107" t="s">
-        <v>599</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="J107" t="s">
+        <v>598</v>
+      </c>
+      <c r="K107" t="s">
+        <v>599</v>
+      </c>
+      <c r="L107" t="s">
+        <v>845</v>
+      </c>
+      <c r="M107" t="s">
         <v>600</v>
       </c>
-      <c r="K107" t="s">
+      <c r="N107" t="s">
         <v>601</v>
       </c>
-      <c r="L107" t="s">
-        <v>839</v>
-      </c>
-      <c r="M107" t="s">
+      <c r="O107" t="s">
+        <v>897</v>
+      </c>
+      <c r="P107" t="s">
         <v>602</v>
       </c>
-      <c r="N107" t="s">
+      <c r="Q107" t="s">
         <v>603</v>
-      </c>
-      <c r="O107" t="s">
-        <v>891</v>
-      </c>
-      <c r="P107" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B108" t="s">
         <v>624</v>
       </c>
       <c r="C108" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D108" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E108" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="J108" t="s">
+        <v>607</v>
+      </c>
+      <c r="K108" t="s">
+        <v>608</v>
+      </c>
+      <c r="L108" t="s">
+        <v>846</v>
+      </c>
+      <c r="M108" t="s">
         <v>609</v>
       </c>
-      <c r="K108" t="s">
+      <c r="N108" t="s">
         <v>610</v>
       </c>
-      <c r="L108" t="s">
-        <v>840</v>
-      </c>
-      <c r="M108" t="s">
+      <c r="O108" t="s">
+        <v>898</v>
+      </c>
+      <c r="P108" t="s">
         <v>611</v>
       </c>
-      <c r="N108" t="s">
+      <c r="Q108" t="s">
         <v>612</v>
       </c>
-      <c r="O108" t="s">
-        <v>892</v>
-      </c>
-      <c r="P108" t="s">
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
         <v>613</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="B109" t="s">
+        <v>631</v>
+      </c>
+      <c r="C109" t="s">
+        <v>721</v>
+      </c>
+      <c r="D109" t="s">
         <v>614</v>
+      </c>
+      <c r="E109" t="s">
+        <v>615</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109" t="s">
+        <v>786</v>
+      </c>
+      <c r="J109" t="s">
+        <v>616</v>
+      </c>
+      <c r="K109" t="s">
+        <v>617</v>
+      </c>
+      <c r="L109" t="s">
+        <v>847</v>
+      </c>
+      <c r="M109" t="s">
+        <v>618</v>
+      </c>
+      <c r="N109" t="s">
+        <v>619</v>
+      </c>
+      <c r="O109" t="s">
+        <v>899</v>
+      </c>
+      <c r="P109" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="915">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2005,6 +2005,41 @@
     <t xml:space="preserve">「コケー！」</t>
   </si>
   <si>
+    <t xml:space="preserve">gomachan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Kyu."
+"Kyuu kyuu!"
+"Kyut?"
+"Kyu."
+"Kyuuu."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「キュー」
+「キューキュー」
+「キュッ？」
+「キュ」
+「キューッ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Kyut!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「キュッ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Kyu..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「キュー…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Kyuuu!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「キューッ！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">sheep</t>
   </si>
   <si>
@@ -2430,6 +2465,19 @@
 「御婦人方、危険だから下がって！」
 「剣の鍛錬も怠るな」
 「弓で殴ろうなんて思うなよ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Hoo."
+"Hoo-hooo."
+"Hooo!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ホゥ」
+「ホホゥ」
+「ホゥー！」</t>
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
@@ -4361,14 +4409,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4377,7 +4425,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4386,7 +4434,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4400,10 +4448,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="C4" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4414,7 +4462,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4423,7 +4471,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4439,10 +4487,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C5" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4464,10 +4512,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="C6" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4480,7 +4528,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4489,7 +4537,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4503,10 +4551,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C7" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4517,7 +4565,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4526,7 +4574,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4542,10 +4590,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C8" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4556,7 +4604,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4565,7 +4613,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4574,7 +4622,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4588,10 +4636,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C9" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4602,7 +4650,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4611,7 +4659,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4620,7 +4668,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4634,10 +4682,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C10" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4648,21 +4696,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4674,10 +4722,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C11" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4688,7 +4736,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4697,7 +4745,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4706,7 +4754,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4720,10 +4768,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="C12" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4734,7 +4782,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4743,7 +4791,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4752,7 +4800,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4766,10 +4814,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C13" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4787,7 +4835,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4803,10 +4851,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="C14" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4817,7 +4865,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4826,7 +4874,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4835,7 +4883,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4849,10 +4897,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C15" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4888,14 +4936,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4904,7 +4952,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4913,7 +4961,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4927,10 +4975,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="C17" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4941,7 +4989,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4950,7 +4998,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4959,7 +5007,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4973,14 +5021,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4989,7 +5037,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4998,7 +5046,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5012,14 +5060,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5028,7 +5076,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5037,7 +5085,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5051,10 +5099,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C20" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5065,7 +5113,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5074,7 +5122,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5083,7 +5131,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5097,14 +5145,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5113,7 +5161,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5122,7 +5170,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5136,14 +5184,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5152,7 +5200,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5161,7 +5209,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5175,10 +5223,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C23" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5200,10 +5248,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C24" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5214,7 +5262,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5223,7 +5271,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5232,7 +5280,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5246,14 +5294,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5278,10 +5326,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C26" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5294,7 +5342,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5303,7 +5351,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5317,14 +5365,14 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5333,7 +5381,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5342,7 +5390,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5356,10 +5404,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="C28" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5370,7 +5418,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5379,7 +5427,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5388,7 +5436,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5402,10 +5450,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="C29" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5416,7 +5464,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5425,7 +5473,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5434,7 +5482,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5448,10 +5496,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="C30" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5462,7 +5510,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5471,7 +5519,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5480,7 +5528,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5494,10 +5542,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="C31" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5508,7 +5556,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5517,7 +5565,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5526,7 +5574,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5540,10 +5588,10 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C32" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5565,7 +5613,7 @@
         <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -5574,7 +5622,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5583,7 +5631,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5597,14 +5645,14 @@
         <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5613,7 +5661,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5622,7 +5670,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5636,12 +5684,12 @@
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5650,7 +5698,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5659,7 +5707,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5668,7 +5716,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5682,10 +5730,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="C36" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5735,10 +5783,10 @@
         <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="C37" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="D37" t="s">
         <v>233</v>
@@ -5747,7 +5795,7 @@
         <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="G37" t="s">
         <v>235</v>
@@ -5756,7 +5804,7 @@
         <v>236</v>
       </c>
       <c r="I37" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="J37" t="s">
         <v>222</v>
@@ -5765,7 +5813,7 @@
         <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="M37" t="s">
         <v>224</v>
@@ -5774,7 +5822,7 @@
         <v>225</v>
       </c>
       <c r="O37" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5788,10 +5836,10 @@
         <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C38" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="D38" t="s">
         <v>238</v>
@@ -5813,7 +5861,7 @@
         <v>240</v>
       </c>
       <c r="B39" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -5831,10 +5879,10 @@
         <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C40" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5845,7 +5893,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="J40" t="s">
         <v>244</v>
@@ -5854,7 +5902,7 @@
         <v>245</v>
       </c>
       <c r="L40" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="M40" t="s">
         <v>246</v>
@@ -5863,7 +5911,7 @@
         <v>247</v>
       </c>
       <c r="O40" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="P40" t="s">
         <v>248</v>
@@ -5877,10 +5925,10 @@
         <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C41" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="D41" t="s">
         <v>251</v>
@@ -5891,7 +5939,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="J41" t="s">
         <v>253</v>
@@ -5900,7 +5948,7 @@
         <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="M41" t="s">
         <v>255</v>
@@ -5909,7 +5957,7 @@
         <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="P41" t="s">
         <v>257</v>
@@ -5923,14 +5971,14 @@
         <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="J42" t="s">
         <v>260</v>
@@ -5939,7 +5987,7 @@
         <v>261</v>
       </c>
       <c r="L42" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="M42" t="s">
         <v>262</v>
@@ -5948,7 +5996,7 @@
         <v>263</v>
       </c>
       <c r="O42" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -5960,14 +6008,14 @@
         <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="J43" t="s">
         <v>266</v>
@@ -5976,7 +6024,7 @@
         <v>267</v>
       </c>
       <c r="L43" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="M43" t="s">
         <v>268</v>
@@ -5985,7 +6033,7 @@
         <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="P43" t="s">
         <v>270</v>
@@ -5999,7 +6047,7 @@
         <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -6008,7 +6056,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="M44" t="s">
         <v>273</v>
@@ -6017,7 +6065,7 @@
         <v>274</v>
       </c>
       <c r="O44" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="P44" t="s">
         <v>275</v>
@@ -6031,7 +6079,7 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="C45" t="s">
         <v>279</v>
@@ -6047,7 +6095,7 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -6056,7 +6104,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -6070,10 +6118,10 @@
         <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C46" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="D46" t="s">
         <v>285</v>
@@ -6084,7 +6132,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="J46" t="s">
         <v>287</v>
@@ -6093,7 +6141,7 @@
         <v>288</v>
       </c>
       <c r="L46" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="M46" t="s">
         <v>289</v>
@@ -6102,7 +6150,7 @@
         <v>290</v>
       </c>
       <c r="O46" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="P46" t="s">
         <v>282</v>
@@ -6116,10 +6164,10 @@
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C47" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="D47" t="s">
         <v>292</v>
@@ -6130,7 +6178,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="J47" t="s">
         <v>294</v>
@@ -6139,7 +6187,7 @@
         <v>295</v>
       </c>
       <c r="L47" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="M47" t="s">
         <v>296</v>
@@ -6148,7 +6196,7 @@
         <v>297</v>
       </c>
       <c r="O47" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="P47" t="s">
         <v>298</v>
@@ -6162,10 +6210,10 @@
         <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C48" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="D48" t="s">
         <v>301</v>
@@ -6176,7 +6224,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="J48" t="s">
         <v>303</v>
@@ -6185,7 +6233,7 @@
         <v>304</v>
       </c>
       <c r="L48" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="M48" t="s">
         <v>305</v>
@@ -6194,7 +6242,7 @@
         <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="P48" t="s">
         <v>305</v>
@@ -6208,14 +6256,14 @@
         <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="J49" t="s">
         <v>308</v>
@@ -6224,7 +6272,7 @@
         <v>309</v>
       </c>
       <c r="L49" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="M49" t="s">
         <v>310</v>
@@ -6233,7 +6281,7 @@
         <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="P49" t="s">
         <v>312</v>
@@ -6247,10 +6295,10 @@
         <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="C50" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6293,10 +6341,10 @@
         <v>318</v>
       </c>
       <c r="B51" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="C51" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="D51" t="s">
         <v>319</v>
@@ -6339,10 +6387,10 @@
         <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="C52" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="D52" t="s">
         <v>322</v>
@@ -6385,10 +6433,10 @@
         <v>324</v>
       </c>
       <c r="B53" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="C53" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="D53" t="s">
         <v>325</v>
@@ -6431,10 +6479,10 @@
         <v>327</v>
       </c>
       <c r="B54" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C54" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6445,7 +6493,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="J54" t="s">
         <v>330</v>
@@ -6454,7 +6502,7 @@
         <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="M54" t="s">
         <v>332</v>
@@ -6463,7 +6511,7 @@
         <v>333</v>
       </c>
       <c r="O54" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="P54" t="s">
         <v>334</v>
@@ -6477,14 +6525,14 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="J55" t="s">
         <v>337</v>
@@ -6493,7 +6541,7 @@
         <v>338</v>
       </c>
       <c r="L55" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="M55" t="s">
         <v>339</v>
@@ -6502,7 +6550,7 @@
         <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="P55" t="s">
         <v>341</v>
@@ -6516,10 +6564,10 @@
         <v>343</v>
       </c>
       <c r="B56" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C56" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="D56" t="s">
         <v>344</v>
@@ -6562,10 +6610,10 @@
         <v>346</v>
       </c>
       <c r="B57" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C57" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="D57" t="s">
         <v>347</v>
@@ -6574,7 +6622,7 @@
         <v>348</v>
       </c>
       <c r="F57" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="G57" t="s">
         <v>349</v>
@@ -6615,10 +6663,10 @@
         <v>351</v>
       </c>
       <c r="B58" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="C58" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="D58" t="s">
         <v>352</v>
@@ -6655,12 +6703,12 @@
         <v>354</v>
       </c>
       <c r="B59" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="G59" t="s">
         <v>355</v>
@@ -6701,10 +6749,10 @@
         <v>358</v>
       </c>
       <c r="B60" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C60" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="D60" t="s">
         <v>359</v>
@@ -6713,7 +6761,7 @@
         <v>360</v>
       </c>
       <c r="F60" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="G60" t="s">
         <v>361</v>
@@ -6754,12 +6802,12 @@
         <v>363</v>
       </c>
       <c r="B61" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="G61" t="s">
         <v>364</v>
@@ -6800,10 +6848,10 @@
         <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="C62" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6814,7 +6862,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="J62" t="s">
         <v>370</v>
@@ -6823,7 +6871,7 @@
         <v>371</v>
       </c>
       <c r="L62" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="M62" t="s">
         <v>372</v>
@@ -6832,7 +6880,7 @@
         <v>373</v>
       </c>
       <c r="O62" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="P62" t="s">
         <v>374</v>
@@ -6846,10 +6894,10 @@
         <v>376</v>
       </c>
       <c r="B63" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C63" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="D63" t="s">
         <v>377</v>
@@ -6860,7 +6908,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="J63" t="s">
         <v>379</v>
@@ -6869,7 +6917,7 @@
         <v>380</v>
       </c>
       <c r="L63" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="M63" t="s">
         <v>381</v>
@@ -6878,7 +6926,7 @@
         <v>382</v>
       </c>
       <c r="O63" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="P63" t="s">
         <v>383</v>
@@ -6892,10 +6940,10 @@
         <v>385</v>
       </c>
       <c r="B64" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C64" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6906,7 +6954,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="J64" t="s">
         <v>388</v>
@@ -6915,7 +6963,7 @@
         <v>389</v>
       </c>
       <c r="L64" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="M64" t="s">
         <v>390</v>
@@ -6924,7 +6972,7 @@
         <v>391</v>
       </c>
       <c r="O64" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="P64" t="s">
         <v>392</v>
@@ -6938,12 +6986,12 @@
         <v>394</v>
       </c>
       <c r="B65" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="G65" t="s">
         <v>395</v>
@@ -6963,12 +7011,12 @@
         <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="G66" t="s">
         <v>398</v>
@@ -7009,10 +7057,10 @@
         <v>400</v>
       </c>
       <c r="B67" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="C67" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -7023,7 +7071,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="J67" t="s">
         <v>403</v>
@@ -7032,7 +7080,7 @@
         <v>404</v>
       </c>
       <c r="L67" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="M67" t="s">
         <v>405</v>
@@ -7041,7 +7089,7 @@
         <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="P67" t="s">
         <v>407</v>
@@ -7055,10 +7103,10 @@
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C68" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -7080,10 +7128,10 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C69" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -7105,10 +7153,10 @@
         <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C70" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="D70" t="s">
         <v>416</v>
@@ -7130,10 +7178,10 @@
         <v>418</v>
       </c>
       <c r="B71" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C71" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="D71" t="s">
         <v>419</v>
@@ -7155,10 +7203,10 @@
         <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C72" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
@@ -7167,7 +7215,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -7183,176 +7231,185 @@
         <v>424</v>
       </c>
       <c r="B73" t="s">
-        <v>622</v>
-      </c>
-      <c r="C73" t="s">
-        <v>693</v>
-      </c>
-      <c r="D73"/>
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>425</v>
+      </c>
       <c r="E73" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="I73" t="s">
-        <v>773</v>
-      </c>
-      <c r="J73"/>
+      <c r="J73" t="s">
+        <v>427</v>
+      </c>
       <c r="K73" t="s">
-        <v>426</v>
-      </c>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
+        <v>428</v>
+      </c>
+      <c r="M73" t="s">
+        <v>429</v>
+      </c>
+      <c r="N73" t="s">
+        <v>430</v>
+      </c>
+      <c r="P73" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C74" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
-        <v>429</v>
-      </c>
-      <c r="L74" t="s">
-        <v>830</v>
+        <v>435</v>
       </c>
       <c r="M74"/>
-      <c r="N74" t="s">
-        <v>430</v>
-      </c>
-      <c r="O74" t="s">
-        <v>887</v>
-      </c>
-      <c r="P74" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>432</v>
-      </c>
+      <c r="N74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C75" t="s">
-        <v>695</v>
-      </c>
-      <c r="D75" t="s">
-        <v>434</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="D75"/>
       <c r="E75" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="L75" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="O75" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="P75" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="Q75" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B76" t="s">
-        <v>622</v>
-      </c>
-      <c r="D76"/>
-      <c r="E76"/>
+        <v>650</v>
+      </c>
+      <c r="C76" t="s">
+        <v>707</v>
+      </c>
+      <c r="D76" t="s">
+        <v>443</v>
+      </c>
+      <c r="E76" t="s">
+        <v>444</v>
+      </c>
       <c r="G76"/>
       <c r="H76"/>
+      <c r="I76" t="s">
+        <v>787</v>
+      </c>
       <c r="J76"/>
-      <c r="K76"/>
+      <c r="K76" t="s">
+        <v>438</v>
+      </c>
       <c r="L76" t="s">
-        <v>832</v>
-      </c>
-      <c r="M76" t="s">
-        <v>439</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="M76"/>
       <c r="N76" t="s">
+        <v>445</v>
+      </c>
+      <c r="O76" t="s">
+        <v>900</v>
+      </c>
+      <c r="P76" t="s">
         <v>440</v>
       </c>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="Q76" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s">
-        <v>622</v>
-      </c>
-      <c r="C77" t="s">
-        <v>696</v>
-      </c>
-      <c r="D77" t="s">
-        <v>442</v>
-      </c>
-      <c r="E77" t="s">
-        <v>443</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
       <c r="G77"/>
       <c r="H77"/>
       <c r="J77"/>
       <c r="K77"/>
-      <c r="M77"/>
-      <c r="N77"/>
+      <c r="L77" t="s">
+        <v>844</v>
+      </c>
+      <c r="M77" t="s">
+        <v>448</v>
+      </c>
+      <c r="N77" t="s">
+        <v>449</v>
+      </c>
       <c r="P77"/>
       <c r="Q77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C78" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="D78" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E78" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
@@ -7365,181 +7422,160 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C79" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="D79" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E79" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="J79"/>
       <c r="K79"/>
-      <c r="L79" t="s">
-        <v>833</v>
-      </c>
-      <c r="M79" t="s">
-        <v>450</v>
-      </c>
-      <c r="N79" t="s">
-        <v>451</v>
-      </c>
+      <c r="M79"/>
+      <c r="N79"/>
       <c r="P79"/>
       <c r="Q79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C80" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="D80" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E80" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="M80" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N80" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P80"/>
       <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B81" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="C81" t="s">
-        <v>700</v>
-      </c>
-      <c r="D81"/>
+        <v>711</v>
+      </c>
+      <c r="D81" t="s">
+        <v>462</v>
+      </c>
       <c r="E81" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="J81"/>
       <c r="K81"/>
-      <c r="M81"/>
-      <c r="N81"/>
+      <c r="L81" t="s">
+        <v>846</v>
+      </c>
+      <c r="M81" t="s">
+        <v>464</v>
+      </c>
+      <c r="N81" t="s">
+        <v>465</v>
+      </c>
       <c r="P81"/>
       <c r="Q81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B82" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C82" t="s">
-        <v>701</v>
-      </c>
-      <c r="D82" t="s">
-        <v>460</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="D82"/>
       <c r="E82" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="I82" t="s">
-        <v>776</v>
-      </c>
       <c r="J82"/>
-      <c r="K82" t="s">
-        <v>462</v>
-      </c>
-      <c r="L82" t="s">
-        <v>819</v>
-      </c>
+      <c r="K82"/>
       <c r="M82"/>
-      <c r="N82" t="s">
-        <v>281</v>
-      </c>
+      <c r="N82"/>
       <c r="P82"/>
       <c r="Q82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B83" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C83" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="D83" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E83" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>777</v>
-      </c>
-      <c r="J83" t="s">
-        <v>466</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="J83"/>
       <c r="K83" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L83" t="s">
-        <v>835</v>
-      </c>
-      <c r="M83" t="s">
-        <v>468</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="M83"/>
       <c r="N83" t="s">
-        <v>469</v>
-      </c>
-      <c r="O83" t="s">
-        <v>889</v>
-      </c>
-      <c r="P83" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>471</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P83"/>
+      <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>472</v>
       </c>
       <c r="B84" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C84" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="D84" t="s">
         <v>473</v>
@@ -7549,186 +7585,200 @@
       </c>
       <c r="G84"/>
       <c r="H84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
+      <c r="I84" t="s">
+        <v>789</v>
+      </c>
+      <c r="J84" t="s">
+        <v>475</v>
+      </c>
+      <c r="K84" t="s">
+        <v>476</v>
+      </c>
+      <c r="L84" t="s">
+        <v>847</v>
+      </c>
+      <c r="M84" t="s">
+        <v>477</v>
+      </c>
+      <c r="N84" t="s">
+        <v>478</v>
+      </c>
+      <c r="O84" t="s">
+        <v>901</v>
+      </c>
+      <c r="P84" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="C85" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="D85" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E85" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="J85"/>
       <c r="K85"/>
-      <c r="L85" t="s">
-        <v>836</v>
-      </c>
-      <c r="M85" t="s">
-        <v>478</v>
-      </c>
-      <c r="N85" t="s">
-        <v>479</v>
-      </c>
-      <c r="O85" t="s">
-        <v>890</v>
-      </c>
-      <c r="P85" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>481</v>
-      </c>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B86" t="s">
-        <v>622</v>
-      </c>
-      <c r="D86"/>
-      <c r="E86"/>
+        <v>637</v>
+      </c>
+      <c r="C86" t="s">
+        <v>716</v>
+      </c>
+      <c r="D86" t="s">
+        <v>485</v>
+      </c>
+      <c r="E86" t="s">
+        <v>486</v>
+      </c>
       <c r="G86"/>
       <c r="H86"/>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="M86" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="N86" t="s">
-        <v>274</v>
+        <v>488</v>
       </c>
       <c r="O86" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="P86" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q86" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" t="s">
-        <v>731</v>
-      </c>
-      <c r="G87" t="s">
-        <v>487</v>
-      </c>
-      <c r="H87" t="s">
-        <v>488</v>
-      </c>
-      <c r="I87" t="s">
-        <v>231</v>
-      </c>
-      <c r="J87" t="s">
-        <v>231</v>
-      </c>
-      <c r="K87" t="s">
-        <v>231</v>
-      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="J87"/>
+      <c r="K87"/>
       <c r="L87" t="s">
-        <v>231</v>
+        <v>849</v>
       </c>
       <c r="M87" t="s">
-        <v>231</v>
+        <v>492</v>
       </c>
       <c r="N87" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="O87" t="s">
-        <v>231</v>
+        <v>903</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>493</v>
       </c>
       <c r="Q87" t="s">
-        <v>231</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B88" t="s">
-        <v>622</v>
-      </c>
-      <c r="C88" t="s">
-        <v>705</v>
-      </c>
-      <c r="D88" t="s">
-        <v>490</v>
-      </c>
-      <c r="E88" t="s">
-        <v>491</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
       <c r="F88" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="G88" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H88" t="s">
-        <v>493</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
+        <v>497</v>
+      </c>
+      <c r="I88" t="s">
+        <v>231</v>
+      </c>
+      <c r="J88" t="s">
+        <v>231</v>
+      </c>
+      <c r="K88" t="s">
+        <v>231</v>
+      </c>
+      <c r="L88" t="s">
+        <v>231</v>
+      </c>
+      <c r="M88" t="s">
+        <v>231</v>
+      </c>
+      <c r="N88" t="s">
+        <v>231</v>
+      </c>
+      <c r="O88" t="s">
+        <v>231</v>
+      </c>
+      <c r="P88" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B89" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C89" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="D89" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E89" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="F89" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="G89" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H89" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -7739,28 +7789,28 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B90" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C90" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D90" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E90" t="s">
         <v>500</v>
       </c>
       <c r="F90" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="G90" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H90" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -7771,83 +7821,90 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B91" t="s">
-        <v>639</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91" t="s">
-        <v>778</v>
-      </c>
-      <c r="J91" t="s">
-        <v>504</v>
-      </c>
-      <c r="K91" t="s">
-        <v>505</v>
-      </c>
-      <c r="L91" t="s">
-        <v>838</v>
-      </c>
-      <c r="M91" t="s">
-        <v>506</v>
-      </c>
-      <c r="N91" t="s">
-        <v>507</v>
-      </c>
-      <c r="O91" t="s">
-        <v>892</v>
-      </c>
-      <c r="P91" t="s">
+        <v>634</v>
+      </c>
+      <c r="C91" t="s">
+        <v>718</v>
+      </c>
+      <c r="D91" t="s">
         <v>508</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="E91" t="s">
         <v>509</v>
       </c>
+      <c r="F91" t="s">
+        <v>746</v>
+      </c>
+      <c r="G91" t="s">
+        <v>510</v>
+      </c>
+      <c r="H91" t="s">
+        <v>511</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B92" t="s">
-        <v>622</v>
-      </c>
-      <c r="C92" t="s">
-        <v>707</v>
-      </c>
-      <c r="D92" t="s">
-        <v>511</v>
-      </c>
-      <c r="E92" t="s">
-        <v>512</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
       <c r="G92"/>
       <c r="H92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
+      <c r="I92" t="s">
+        <v>790</v>
+      </c>
+      <c r="J92" t="s">
+        <v>513</v>
+      </c>
+      <c r="K92" t="s">
+        <v>514</v>
+      </c>
+      <c r="L92" t="s">
+        <v>850</v>
+      </c>
+      <c r="M92" t="s">
+        <v>515</v>
+      </c>
+      <c r="N92" t="s">
+        <v>516</v>
+      </c>
+      <c r="O92" t="s">
+        <v>904</v>
+      </c>
+      <c r="P92" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B93" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C93" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="D93" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E93" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -7860,29 +7917,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B94" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C94" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="D94" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="E94" t="s">
-        <v>518</v>
-      </c>
-      <c r="F94" t="s">
-        <v>735</v>
-      </c>
-      <c r="G94" t="s">
-        <v>519</v>
-      </c>
-      <c r="H94" t="s">
-        <v>520</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
       <c r="J94"/>
       <c r="K94"/>
       <c r="M94"/>
@@ -7892,59 +7942,45 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B95" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="C95" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="D95" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E95" t="s">
-        <v>523</v>
-      </c>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95" t="s">
-        <v>779</v>
-      </c>
-      <c r="J95" t="s">
-        <v>524</v>
-      </c>
-      <c r="K95" t="s">
-        <v>525</v>
-      </c>
-      <c r="L95" t="s">
-        <v>839</v>
-      </c>
-      <c r="M95" t="s">
-        <v>526</v>
-      </c>
-      <c r="N95" t="s">
         <v>527</v>
       </c>
-      <c r="O95" t="s">
-        <v>893</v>
-      </c>
-      <c r="P95" t="s">
+      <c r="F95" t="s">
+        <v>747</v>
+      </c>
+      <c r="G95" t="s">
         <v>528</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="H95" t="s">
         <v>529</v>
       </c>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>530</v>
       </c>
       <c r="B96" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C96" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="D96" t="s">
         <v>531</v>
@@ -7954,28 +7990,49 @@
       </c>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="P96"/>
-      <c r="Q96"/>
+      <c r="I96" t="s">
+        <v>791</v>
+      </c>
+      <c r="J96" t="s">
+        <v>533</v>
+      </c>
+      <c r="K96" t="s">
+        <v>534</v>
+      </c>
+      <c r="L96" t="s">
+        <v>851</v>
+      </c>
+      <c r="M96" t="s">
+        <v>535</v>
+      </c>
+      <c r="N96" t="s">
+        <v>536</v>
+      </c>
+      <c r="O96" t="s">
+        <v>905</v>
+      </c>
+      <c r="P96" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B97" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C97" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="D97" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="E97" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -7988,13 +8045,17 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B98" t="s">
-        <v>641</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98"/>
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>543</v>
+      </c>
+      <c r="E98" t="s">
+        <v>544</v>
+      </c>
       <c r="G98"/>
       <c r="H98"/>
       <c r="J98"/>
@@ -8006,339 +8067,311 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s">
-        <v>638</v>
-      </c>
-      <c r="D99"/>
-      <c r="E99"/>
+        <v>652</v>
+      </c>
+      <c r="C99" t="s">
+        <v>724</v>
+      </c>
+      <c r="D99" t="s">
+        <v>546</v>
+      </c>
+      <c r="E99" t="s">
+        <v>547</v>
+      </c>
       <c r="G99"/>
       <c r="H99"/>
       <c r="J99"/>
       <c r="K99"/>
-      <c r="L99" t="s">
-        <v>840</v>
-      </c>
-      <c r="M99" t="s">
-        <v>538</v>
-      </c>
-      <c r="N99" t="s">
-        <v>539</v>
-      </c>
+      <c r="M99"/>
+      <c r="N99"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B100" t="s">
-        <v>642</v>
-      </c>
-      <c r="C100" t="s">
-        <v>713</v>
-      </c>
-      <c r="D100" t="s">
-        <v>541</v>
-      </c>
-      <c r="E100" t="s">
-        <v>542</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
       <c r="G100"/>
       <c r="H100"/>
-      <c r="I100" t="s">
-        <v>780</v>
-      </c>
-      <c r="J100" t="s">
-        <v>543</v>
-      </c>
-      <c r="K100" t="s">
-        <v>544</v>
-      </c>
-      <c r="L100" t="s">
-        <v>841</v>
-      </c>
-      <c r="M100" t="s">
-        <v>545</v>
-      </c>
-      <c r="N100" t="s">
-        <v>546</v>
-      </c>
-      <c r="O100" t="s">
-        <v>894</v>
-      </c>
-      <c r="P100" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>548</v>
-      </c>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>549</v>
       </c>
       <c r="B101" t="s">
-        <v>643</v>
-      </c>
-      <c r="C101" t="s">
-        <v>714</v>
-      </c>
-      <c r="D101" t="s">
-        <v>550</v>
-      </c>
-      <c r="E101" t="s">
-        <v>551</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
       <c r="G101"/>
       <c r="H101"/>
-      <c r="I101" t="s">
-        <v>781</v>
-      </c>
-      <c r="J101" t="s">
-        <v>552</v>
-      </c>
-      <c r="K101" t="s">
-        <v>553</v>
-      </c>
+      <c r="J101"/>
+      <c r="K101"/>
       <c r="L101" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="M101" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N101" t="s">
-        <v>555</v>
-      </c>
-      <c r="O101" t="s">
-        <v>895</v>
-      </c>
-      <c r="P101" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>557</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="P101"/>
+      <c r="Q101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B102" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="C102" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="D102" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E102" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="J102" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="K102" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L102" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="M102" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="N102" t="s">
-        <v>274</v>
+        <v>558</v>
       </c>
       <c r="O102" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="P102" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Q102" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B103" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="C103" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="D103" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E103" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="J103" t="s">
+        <v>564</v>
+      </c>
+      <c r="K103" t="s">
+        <v>565</v>
+      </c>
+      <c r="L103" t="s">
+        <v>854</v>
+      </c>
+      <c r="M103" t="s">
+        <v>566</v>
+      </c>
+      <c r="N103" t="s">
+        <v>567</v>
+      </c>
+      <c r="O103" t="s">
+        <v>907</v>
+      </c>
+      <c r="P103" t="s">
         <v>568</v>
       </c>
-      <c r="K103" t="s">
+      <c r="Q103" t="s">
         <v>569</v>
-      </c>
-      <c r="L103" t="s">
-        <v>843</v>
-      </c>
-      <c r="M103" t="s">
-        <v>570</v>
-      </c>
-      <c r="N103" t="s">
-        <v>571</v>
-      </c>
-      <c r="O103" t="s">
-        <v>897</v>
-      </c>
-      <c r="P103" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B104" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C104" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="D104" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E104" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="J104" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K104" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L104" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="M104" t="s">
-        <v>579</v>
+        <v>492</v>
       </c>
       <c r="N104" t="s">
-        <v>580</v>
+        <v>274</v>
       </c>
       <c r="O104" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="P104" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="Q104" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B105" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="C105" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="D105" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E105" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
-      <c r="J105"/>
-      <c r="K105"/>
+      <c r="I105" t="s">
+        <v>795</v>
+      </c>
+      <c r="J105" t="s">
+        <v>580</v>
+      </c>
+      <c r="K105" t="s">
+        <v>581</v>
+      </c>
       <c r="L105" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="M105" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N105" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="O105" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="P105" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="Q105" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B106" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="C106" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="D106" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E106" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
-      <c r="J106"/>
-      <c r="K106"/>
+      <c r="I106" t="s">
+        <v>796</v>
+      </c>
+      <c r="J106" t="s">
+        <v>589</v>
+      </c>
+      <c r="K106" t="s">
+        <v>590</v>
+      </c>
       <c r="L106" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="M106" t="s">
+        <v>591</v>
+      </c>
+      <c r="N106" t="s">
+        <v>592</v>
+      </c>
+      <c r="O106" t="s">
+        <v>910</v>
+      </c>
+      <c r="P106" t="s">
         <v>593</v>
       </c>
-      <c r="N106" t="s">
+      <c r="Q106" t="s">
         <v>594</v>
       </c>
-      <c r="P106"/>
-      <c r="Q106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>595</v>
       </c>
       <c r="B107" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C107" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="D107" t="s">
         <v>596</v>
@@ -8348,124 +8381,195 @@
       </c>
       <c r="G107"/>
       <c r="H107"/>
-      <c r="I107" t="s">
-        <v>785</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107" t="s">
+        <v>857</v>
+      </c>
+      <c r="M107" t="s">
         <v>598</v>
       </c>
-      <c r="K107" t="s">
+      <c r="N107" t="s">
         <v>599</v>
       </c>
-      <c r="L107" t="s">
-        <v>847</v>
-      </c>
-      <c r="M107" t="s">
+      <c r="O107" t="s">
+        <v>911</v>
+      </c>
+      <c r="P107" t="s">
         <v>600</v>
       </c>
-      <c r="N107" t="s">
+      <c r="Q107" t="s">
         <v>601</v>
-      </c>
-      <c r="O107" t="s">
-        <v>900</v>
-      </c>
-      <c r="P107" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>602</v>
+      </c>
+      <c r="B108" t="s">
+        <v>636</v>
+      </c>
+      <c r="C108" t="s">
+        <v>731</v>
+      </c>
+      <c r="D108" t="s">
+        <v>603</v>
+      </c>
+      <c r="E108" t="s">
         <v>604</v>
-      </c>
-      <c r="B108" t="s">
-        <v>624</v>
-      </c>
-      <c r="C108" t="s">
-        <v>721</v>
-      </c>
-      <c r="D108" t="s">
-        <v>605</v>
-      </c>
-      <c r="E108" t="s">
-        <v>606</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
-      <c r="I108" t="s">
-        <v>786</v>
-      </c>
-      <c r="J108" t="s">
-        <v>607</v>
-      </c>
-      <c r="K108" t="s">
-        <v>608</v>
-      </c>
+      <c r="J108"/>
+      <c r="K108"/>
       <c r="L108" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="M108" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N108" t="s">
-        <v>610</v>
-      </c>
-      <c r="O108" t="s">
-        <v>901</v>
-      </c>
-      <c r="P108" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>612</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="P108"/>
+      <c r="Q108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B109" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="C109" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="D109" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E109" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="J109" t="s">
+        <v>610</v>
+      </c>
+      <c r="K109" t="s">
+        <v>611</v>
+      </c>
+      <c r="L109" t="s">
+        <v>859</v>
+      </c>
+      <c r="M109" t="s">
+        <v>612</v>
+      </c>
+      <c r="N109" t="s">
+        <v>613</v>
+      </c>
+      <c r="O109" t="s">
+        <v>912</v>
+      </c>
+      <c r="P109" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
         <v>616</v>
       </c>
-      <c r="K109" t="s">
+      <c r="B110" t="s">
+        <v>636</v>
+      </c>
+      <c r="C110" t="s">
+        <v>733</v>
+      </c>
+      <c r="D110" t="s">
         <v>617</v>
       </c>
-      <c r="L109" t="s">
-        <v>849</v>
-      </c>
-      <c r="M109" t="s">
+      <c r="E110" t="s">
         <v>618</v>
       </c>
-      <c r="N109" t="s">
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" t="s">
+        <v>798</v>
+      </c>
+      <c r="J110" t="s">
         <v>619</v>
       </c>
-      <c r="O109" t="s">
-        <v>902</v>
-      </c>
-      <c r="P109" t="s">
+      <c r="K110" t="s">
         <v>620</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="L110" t="s">
+        <v>860</v>
+      </c>
+      <c r="M110" t="s">
         <v>621</v>
+      </c>
+      <c r="N110" t="s">
+        <v>622</v>
+      </c>
+      <c r="O110" t="s">
+        <v>913</v>
+      </c>
+      <c r="P110" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>625</v>
+      </c>
+      <c r="B111" t="s">
+        <v>643</v>
+      </c>
+      <c r="C111" t="s">
+        <v>734</v>
+      </c>
+      <c r="D111" t="s">
+        <v>626</v>
+      </c>
+      <c r="E111" t="s">
+        <v>627</v>
+      </c>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111" t="s">
+        <v>799</v>
+      </c>
+      <c r="J111" t="s">
+        <v>628</v>
+      </c>
+      <c r="K111" t="s">
+        <v>629</v>
+      </c>
+      <c r="L111" t="s">
+        <v>861</v>
+      </c>
+      <c r="M111" t="s">
+        <v>630</v>
+      </c>
+      <c r="N111" t="s">
+        <v>631</v>
+      </c>
+      <c r="O111" t="s">
+        <v>914</v>
+      </c>
+      <c r="P111" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="921">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2515,9 +2515,9 @@
 "In that moment, I..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「古き者たちは災いをもたらす」
+    <t xml:space="preserve">「古き者たちは災いをもたらす…」
 「ククク…」
-「神話は、時の砂漠で真実を失うだろう」
+「神話は時の砂漠で真実を失うだろう」
 「神々は傲慢だ」
 「あの時、我は…」</t>
   </si>
@@ -2637,7 +2637,6 @@
 "Hehe, did I take the wrong path again?"
 "A journey astray is &amp;an adventure in its own right."
 "Do you know the name of the wind?"
-"Everyone has their own story."
 "The sound of water is the oldest storyteller."</t>
   </si>
   <si>
@@ -2650,7 +2649,6 @@
 「ふふ、また道を間違えたかな？」
 「迷う旅もまた一つの冒険さ」
 「風の名前を知っているかい？」
-「 誰もが自分の物語を持っているのさ」
 「 水の音は最も古い語り部だ」</t>
   </si>
   <si>
@@ -8177,7 +8175,7 @@
         <v>552</v>
       </c>
       <c r="B102" t="s">
-        <v>655</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
         <v>728</v>
@@ -8315,7 +8313,7 @@
         <v>577</v>
       </c>
       <c r="B105" t="s">
-        <v>638</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
         <v>731</v>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="972">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2727,6 +2727,93 @@
   </si>
   <si>
     <t xml:space="preserve">「ペッ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pursuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You hear the rough breathing of a hunting dogs.
+You feel that you’re being pursued.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猟犬の荒い鼻息が聞こえる。
+あなたは追われていると感じた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I’ve found you."
+"Did you think you could escape?"
+"Death has caught up to you."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「見つけたぞ」
+「逃れられるとでも？」
+「死がお前に追いついた」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Is this the will of the gods?"
+"A curse upon you."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「これが神の意思なのか？」
+「お前に呪いあれ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Face judgment."
+"This is the will of the gods."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「裁きを受けるがいい」
+「これは神の意思だ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_nanasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_poina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Idiot..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「バカがよ…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Ngh..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ひゃん…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Next..."
+"Huh..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「次…」
+「ふん…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_raina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"One roasted eggplant!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「焼きナスお待ちぃ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Huh? Me...!?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「え？アタシが…！？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shocky?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ビリビリした？」</t>
   </si>
   <si>
     <t xml:space="preserve">defender</t>
@@ -3026,73 +3113,76 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve"> *딸랑*</t>
@@ -4597,14 +4687,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4613,7 +4703,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4622,7 +4712,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4636,10 +4726,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="C4" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4650,7 +4740,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4659,7 +4749,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4675,10 +4765,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="C5" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4700,10 +4790,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>678</v>
       </c>
       <c r="C6" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4716,7 +4806,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4725,7 +4815,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>892</v>
+        <v>918</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4739,10 +4829,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C7" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4753,7 +4843,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4762,7 +4852,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4778,10 +4868,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C8" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4792,7 +4882,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4801,7 +4891,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4810,7 +4900,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>893</v>
+        <v>919</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4824,10 +4914,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C9" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4838,7 +4928,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4847,7 +4937,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4856,7 +4946,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>894</v>
+        <v>920</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4870,10 +4960,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C10" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4884,21 +4974,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4910,10 +5000,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C11" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4924,7 +5014,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4933,7 +5023,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4942,7 +5032,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>896</v>
+        <v>922</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4956,10 +5046,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="C12" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4970,7 +5060,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4979,7 +5069,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4988,7 +5078,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5002,10 +5092,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="C13" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5023,7 +5113,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5039,10 +5129,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>678</v>
       </c>
       <c r="C14" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5053,7 +5143,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -5062,7 +5152,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -5071,7 +5161,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5085,10 +5175,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="C15" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5124,14 +5214,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5140,7 +5230,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5149,7 +5239,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>899</v>
+        <v>925</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5163,10 +5253,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="C17" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5177,7 +5267,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5186,7 +5276,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5195,7 +5285,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5209,14 +5299,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5225,7 +5315,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5234,7 +5324,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5248,14 +5338,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5264,7 +5354,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5273,7 +5363,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>902</v>
+        <v>928</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5287,10 +5377,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C20" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5301,7 +5391,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5310,7 +5400,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5319,7 +5409,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>903</v>
+        <v>929</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5333,14 +5423,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5349,7 +5439,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5358,7 +5448,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>904</v>
+        <v>930</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5372,14 +5462,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5388,7 +5478,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5397,7 +5487,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>905</v>
+        <v>931</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5411,10 +5501,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C23" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5436,10 +5526,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C24" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5450,7 +5540,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5459,7 +5549,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5468,7 +5558,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>906</v>
+        <v>932</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5482,14 +5572,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5514,10 +5604,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C26" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5530,7 +5620,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>845</v>
+        <v>871</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5539,7 +5629,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>907</v>
+        <v>933</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5553,14 +5643,14 @@
         <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5569,7 +5659,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>846</v>
+        <v>872</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5578,7 +5668,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>908</v>
+        <v>934</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5592,10 +5682,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="C28" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5606,7 +5696,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5615,7 +5705,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5624,7 +5714,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5638,10 +5728,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="C29" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5652,7 +5742,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5661,7 +5751,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5670,7 +5760,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5684,10 +5774,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="C30" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5698,7 +5788,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5707,7 +5797,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5716,7 +5806,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>909</v>
+        <v>935</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5730,10 +5820,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="C31" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5744,7 +5834,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5753,7 +5843,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5762,7 +5852,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>910</v>
+        <v>936</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5776,10 +5866,10 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C32" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5790,7 +5880,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="J32" t="s">
         <v>207</v>
@@ -5799,7 +5889,7 @@
         <v>208</v>
       </c>
       <c r="L32" t="s">
-        <v>849</v>
+        <v>875</v>
       </c>
       <c r="M32" t="s">
         <v>209</v>
@@ -5815,7 +5905,7 @@
         <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -5824,7 +5914,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="M33" t="s">
         <v>212</v>
@@ -5833,7 +5923,7 @@
         <v>213</v>
       </c>
       <c r="O33" t="s">
-        <v>911</v>
+        <v>937</v>
       </c>
       <c r="P33" t="s">
         <v>214</v>
@@ -5847,14 +5937,14 @@
         <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="J34" t="s">
         <v>217</v>
@@ -5863,7 +5953,7 @@
         <v>218</v>
       </c>
       <c r="L34" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="M34" t="s">
         <v>219</v>
@@ -5872,7 +5962,7 @@
         <v>220</v>
       </c>
       <c r="O34" t="s">
-        <v>912</v>
+        <v>938</v>
       </c>
       <c r="P34" t="s">
         <v>221</v>
@@ -5886,12 +5976,12 @@
         <v>223</v>
       </c>
       <c r="B35" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="G35" t="s">
         <v>224</v>
@@ -5900,7 +5990,7 @@
         <v>225</v>
       </c>
       <c r="I35" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="J35" t="s">
         <v>226</v>
@@ -5909,7 +5999,7 @@
         <v>227</v>
       </c>
       <c r="L35" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="M35" t="s">
         <v>228</v>
@@ -5918,7 +6008,7 @@
         <v>229</v>
       </c>
       <c r="O35" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="P35" t="s">
         <v>230</v>
@@ -5932,10 +6022,10 @@
         <v>232</v>
       </c>
       <c r="B36" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="C36" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="D36" t="s">
         <v>233</v>
@@ -5985,10 +6075,10 @@
         <v>236</v>
       </c>
       <c r="B37" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="C37" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="D37" t="s">
         <v>237</v>
@@ -5997,7 +6087,7 @@
         <v>238</v>
       </c>
       <c r="F37" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="G37" t="s">
         <v>239</v>
@@ -6006,7 +6096,7 @@
         <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="J37" t="s">
         <v>226</v>
@@ -6015,7 +6105,7 @@
         <v>227</v>
       </c>
       <c r="L37" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="M37" t="s">
         <v>228</v>
@@ -6024,7 +6114,7 @@
         <v>229</v>
       </c>
       <c r="O37" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="P37" t="s">
         <v>230</v>
@@ -6038,10 +6128,10 @@
         <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C38" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="D38" t="s">
         <v>242</v>
@@ -6063,7 +6153,7 @@
         <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -6081,10 +6171,10 @@
         <v>245</v>
       </c>
       <c r="B40" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C40" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
       <c r="D40" t="s">
         <v>246</v>
@@ -6095,7 +6185,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="J40" t="s">
         <v>248</v>
@@ -6104,7 +6194,7 @@
         <v>249</v>
       </c>
       <c r="L40" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="M40" t="s">
         <v>250</v>
@@ -6113,7 +6203,7 @@
         <v>251</v>
       </c>
       <c r="O40" t="s">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="P40" t="s">
         <v>252</v>
@@ -6127,10 +6217,10 @@
         <v>254</v>
       </c>
       <c r="B41" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C41" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="D41" t="s">
         <v>255</v>
@@ -6141,7 +6231,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>795</v>
+        <v>821</v>
       </c>
       <c r="J41" t="s">
         <v>257</v>
@@ -6150,7 +6240,7 @@
         <v>258</v>
       </c>
       <c r="L41" t="s">
-        <v>854</v>
+        <v>880</v>
       </c>
       <c r="M41" t="s">
         <v>259</v>
@@ -6159,7 +6249,7 @@
         <v>260</v>
       </c>
       <c r="O41" t="s">
-        <v>915</v>
+        <v>941</v>
       </c>
       <c r="P41" t="s">
         <v>261</v>
@@ -6173,14 +6263,14 @@
         <v>263</v>
       </c>
       <c r="B42" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>796</v>
+        <v>822</v>
       </c>
       <c r="J42" t="s">
         <v>264</v>
@@ -6189,7 +6279,7 @@
         <v>265</v>
       </c>
       <c r="L42" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="M42" t="s">
         <v>266</v>
@@ -6198,7 +6288,7 @@
         <v>267</v>
       </c>
       <c r="O42" t="s">
-        <v>916</v>
+        <v>942</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -6210,14 +6300,14 @@
         <v>269</v>
       </c>
       <c r="B43" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="J43" t="s">
         <v>270</v>
@@ -6226,7 +6316,7 @@
         <v>271</v>
       </c>
       <c r="L43" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="M43" t="s">
         <v>272</v>
@@ -6235,7 +6325,7 @@
         <v>273</v>
       </c>
       <c r="O43" t="s">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="P43" t="s">
         <v>274</v>
@@ -6249,7 +6339,7 @@
         <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -6258,7 +6348,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
       <c r="M44" t="s">
         <v>277</v>
@@ -6267,7 +6357,7 @@
         <v>278</v>
       </c>
       <c r="O44" t="s">
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="P44" t="s">
         <v>279</v>
@@ -6281,7 +6371,7 @@
         <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="C45" t="s">
         <v>283</v>
@@ -6297,7 +6387,7 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="M45" t="s">
         <v>284</v>
@@ -6306,7 +6396,7 @@
         <v>285</v>
       </c>
       <c r="O45" t="s">
-        <v>919</v>
+        <v>945</v>
       </c>
       <c r="P45" t="s">
         <v>286</v>
@@ -6320,10 +6410,10 @@
         <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C46" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="D46" t="s">
         <v>289</v>
@@ -6334,7 +6424,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="J46" t="s">
         <v>291</v>
@@ -6343,7 +6433,7 @@
         <v>292</v>
       </c>
       <c r="L46" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="M46" t="s">
         <v>293</v>
@@ -6352,7 +6442,7 @@
         <v>294</v>
       </c>
       <c r="O46" t="s">
-        <v>919</v>
+        <v>945</v>
       </c>
       <c r="P46" t="s">
         <v>286</v>
@@ -6366,10 +6456,10 @@
         <v>295</v>
       </c>
       <c r="B47" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C47" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="D47" t="s">
         <v>296</v>
@@ -6380,7 +6470,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="J47" t="s">
         <v>298</v>
@@ -6389,7 +6479,7 @@
         <v>299</v>
       </c>
       <c r="L47" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="M47" t="s">
         <v>300</v>
@@ -6398,7 +6488,7 @@
         <v>301</v>
       </c>
       <c r="O47" t="s">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="P47" t="s">
         <v>302</v>
@@ -6412,10 +6502,10 @@
         <v>304</v>
       </c>
       <c r="B48" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C48" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="D48" t="s">
         <v>305</v>
@@ -6426,7 +6516,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="J48" t="s">
         <v>307</v>
@@ -6435,7 +6525,7 @@
         <v>308</v>
       </c>
       <c r="L48" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="M48" t="s">
         <v>309</v>
@@ -6444,7 +6534,7 @@
         <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="P48" t="s">
         <v>309</v>
@@ -6458,14 +6548,14 @@
         <v>311</v>
       </c>
       <c r="B49" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="J49" t="s">
         <v>312</v>
@@ -6474,7 +6564,7 @@
         <v>313</v>
       </c>
       <c r="L49" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="M49" t="s">
         <v>314</v>
@@ -6483,7 +6573,7 @@
         <v>315</v>
       </c>
       <c r="O49" t="s">
-        <v>921</v>
+        <v>947</v>
       </c>
       <c r="P49" t="s">
         <v>316</v>
@@ -6497,10 +6587,10 @@
         <v>318</v>
       </c>
       <c r="B50" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="C50" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="D50" t="s">
         <v>319</v>
@@ -6543,10 +6633,10 @@
         <v>322</v>
       </c>
       <c r="B51" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="C51" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="D51" t="s">
         <v>323</v>
@@ -6589,10 +6679,10 @@
         <v>325</v>
       </c>
       <c r="B52" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="C52" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="D52" t="s">
         <v>326</v>
@@ -6635,10 +6725,10 @@
         <v>328</v>
       </c>
       <c r="B53" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
       <c r="C53" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="D53" t="s">
         <v>329</v>
@@ -6681,10 +6771,10 @@
         <v>331</v>
       </c>
       <c r="B54" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="C54" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="D54" t="s">
         <v>332</v>
@@ -6695,7 +6785,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="J54" t="s">
         <v>334</v>
@@ -6704,7 +6794,7 @@
         <v>335</v>
       </c>
       <c r="L54" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="M54" t="s">
         <v>336</v>
@@ -6713,7 +6803,7 @@
         <v>337</v>
       </c>
       <c r="O54" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="P54" t="s">
         <v>338</v>
@@ -6727,14 +6817,14 @@
         <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="J55" t="s">
         <v>341</v>
@@ -6743,7 +6833,7 @@
         <v>342</v>
       </c>
       <c r="L55" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="M55" t="s">
         <v>343</v>
@@ -6752,7 +6842,7 @@
         <v>344</v>
       </c>
       <c r="O55" t="s">
-        <v>923</v>
+        <v>949</v>
       </c>
       <c r="P55" t="s">
         <v>345</v>
@@ -6766,10 +6856,10 @@
         <v>347</v>
       </c>
       <c r="B56" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C56" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="D56" t="s">
         <v>348</v>
@@ -6812,10 +6902,10 @@
         <v>350</v>
       </c>
       <c r="B57" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C57" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="D57" t="s">
         <v>351</v>
@@ -6824,7 +6914,7 @@
         <v>352</v>
       </c>
       <c r="F57" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="G57" t="s">
         <v>353</v>
@@ -6865,10 +6955,10 @@
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="C58" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -6905,12 +6995,12 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="G59" t="s">
         <v>359</v>
@@ -6951,10 +7041,10 @@
         <v>362</v>
       </c>
       <c r="B60" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C60" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="D60" t="s">
         <v>363</v>
@@ -6963,7 +7053,7 @@
         <v>364</v>
       </c>
       <c r="F60" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="G60" t="s">
         <v>365</v>
@@ -7004,12 +7094,12 @@
         <v>367</v>
       </c>
       <c r="B61" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="G61" t="s">
         <v>368</v>
@@ -7050,10 +7140,10 @@
         <v>371</v>
       </c>
       <c r="B62" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="C62" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="D62" t="s">
         <v>372</v>
@@ -7064,7 +7154,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="J62" t="s">
         <v>374</v>
@@ -7073,7 +7163,7 @@
         <v>375</v>
       </c>
       <c r="L62" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
       <c r="M62" t="s">
         <v>376</v>
@@ -7082,7 +7172,7 @@
         <v>377</v>
       </c>
       <c r="O62" t="s">
-        <v>924</v>
+        <v>950</v>
       </c>
       <c r="P62" t="s">
         <v>378</v>
@@ -7096,10 +7186,10 @@
         <v>380</v>
       </c>
       <c r="B63" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C63" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="D63" t="s">
         <v>381</v>
@@ -7110,7 +7200,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="J63" t="s">
         <v>383</v>
@@ -7119,7 +7209,7 @@
         <v>384</v>
       </c>
       <c r="L63" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="M63" t="s">
         <v>385</v>
@@ -7128,7 +7218,7 @@
         <v>386</v>
       </c>
       <c r="O63" t="s">
-        <v>925</v>
+        <v>951</v>
       </c>
       <c r="P63" t="s">
         <v>387</v>
@@ -7142,10 +7232,10 @@
         <v>389</v>
       </c>
       <c r="B64" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C64" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
       <c r="D64" t="s">
         <v>390</v>
@@ -7156,7 +7246,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="J64" t="s">
         <v>392</v>
@@ -7165,7 +7255,7 @@
         <v>393</v>
       </c>
       <c r="L64" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="M64" t="s">
         <v>394</v>
@@ -7174,7 +7264,7 @@
         <v>395</v>
       </c>
       <c r="O64" t="s">
-        <v>926</v>
+        <v>952</v>
       </c>
       <c r="P64" t="s">
         <v>396</v>
@@ -7188,12 +7278,12 @@
         <v>398</v>
       </c>
       <c r="B65" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="G65" t="s">
         <v>399</v>
@@ -7213,12 +7303,12 @@
         <v>401</v>
       </c>
       <c r="B66" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="G66" t="s">
         <v>402</v>
@@ -7259,10 +7349,10 @@
         <v>404</v>
       </c>
       <c r="B67" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="C67" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="D67" t="s">
         <v>405</v>
@@ -7273,7 +7363,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="J67" t="s">
         <v>407</v>
@@ -7282,7 +7372,7 @@
         <v>408</v>
       </c>
       <c r="L67" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="M67" t="s">
         <v>409</v>
@@ -7291,7 +7381,7 @@
         <v>410</v>
       </c>
       <c r="O67" t="s">
-        <v>927</v>
+        <v>953</v>
       </c>
       <c r="P67" t="s">
         <v>411</v>
@@ -7305,10 +7395,10 @@
         <v>413</v>
       </c>
       <c r="B68" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C68" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
       <c r="D68" t="s">
         <v>414</v>
@@ -7330,10 +7420,10 @@
         <v>416</v>
       </c>
       <c r="B69" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C69" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="D69" t="s">
         <v>417</v>
@@ -7355,10 +7445,10 @@
         <v>419</v>
       </c>
       <c r="B70" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C70" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -7380,10 +7470,10 @@
         <v>422</v>
       </c>
       <c r="B71" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C71" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="D71" t="s">
         <v>423</v>
@@ -7405,10 +7495,10 @@
         <v>425</v>
       </c>
       <c r="B72" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C72" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
@@ -7417,7 +7507,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -7433,10 +7523,10 @@
         <v>428</v>
       </c>
       <c r="B73" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="C73" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="D73" t="s">
         <v>429</v>
@@ -7447,7 +7537,7 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="J73" t="s">
         <v>431</v>
@@ -7456,7 +7546,7 @@
         <v>432</v>
       </c>
       <c r="L73" t="s">
-        <v>869</v>
+        <v>895</v>
       </c>
       <c r="M73" t="s">
         <v>433</v>
@@ -7465,7 +7555,7 @@
         <v>434</v>
       </c>
       <c r="O73" t="s">
-        <v>928</v>
+        <v>954</v>
       </c>
       <c r="P73" t="s">
         <v>435</v>
@@ -7479,10 +7569,10 @@
         <v>437</v>
       </c>
       <c r="B74" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C74" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -7491,7 +7581,7 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
@@ -7507,10 +7597,10 @@
         <v>440</v>
       </c>
       <c r="B75" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C75" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
@@ -7519,21 +7609,21 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
         <v>442</v>
       </c>
       <c r="L75" t="s">
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="s">
         <v>443</v>
       </c>
       <c r="O75" t="s">
-        <v>929</v>
+        <v>955</v>
       </c>
       <c r="P75" t="s">
         <v>444</v>
@@ -7547,10 +7637,10 @@
         <v>446</v>
       </c>
       <c r="B76" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="C76" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="D76" t="s">
         <v>447</v>
@@ -7561,21 +7651,21 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
         <v>442</v>
       </c>
       <c r="L76" t="s">
-        <v>871</v>
+        <v>897</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="s">
         <v>449</v>
       </c>
       <c r="O76" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
       <c r="P76" t="s">
         <v>444</v>
@@ -7589,7 +7679,7 @@
         <v>451</v>
       </c>
       <c r="B77" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -7598,7 +7688,7 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="M77" t="s">
         <v>452</v>
@@ -7614,10 +7704,10 @@
         <v>454</v>
       </c>
       <c r="B78" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C78" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="D78" t="s">
         <v>455</v>
@@ -7639,10 +7729,10 @@
         <v>457</v>
       </c>
       <c r="B79" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C79" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="D79" t="s">
         <v>458</v>
@@ -7664,10 +7754,10 @@
         <v>460</v>
       </c>
       <c r="B80" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="C80" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="D80" t="s">
         <v>461</v>
@@ -7680,7 +7770,7 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="M80" t="s">
         <v>463</v>
@@ -7696,10 +7786,10 @@
         <v>465</v>
       </c>
       <c r="B81" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="C81" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="D81" t="s">
         <v>466</v>
@@ -7712,7 +7802,7 @@
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="M81" t="s">
         <v>468</v>
@@ -7728,10 +7818,10 @@
         <v>470</v>
       </c>
       <c r="B82" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C82" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
@@ -7751,10 +7841,10 @@
         <v>472</v>
       </c>
       <c r="B83" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C83" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="D83" t="s">
         <v>473</v>
@@ -7765,14 +7855,14 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
         <v>475</v>
       </c>
       <c r="L83" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="s">
@@ -7786,10 +7876,10 @@
         <v>476</v>
       </c>
       <c r="B84" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C84" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="D84" t="s">
         <v>477</v>
@@ -7800,7 +7890,7 @@
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84" t="s">
-        <v>814</v>
+        <v>840</v>
       </c>
       <c r="J84" t="s">
         <v>479</v>
@@ -7809,7 +7899,7 @@
         <v>480</v>
       </c>
       <c r="L84" t="s">
-        <v>875</v>
+        <v>901</v>
       </c>
       <c r="M84" t="s">
         <v>481</v>
@@ -7818,7 +7908,7 @@
         <v>482</v>
       </c>
       <c r="O84" t="s">
-        <v>931</v>
+        <v>957</v>
       </c>
       <c r="P84" t="s">
         <v>483</v>
@@ -7832,10 +7922,10 @@
         <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="C85" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="D85" t="s">
         <v>486</v>
@@ -7857,10 +7947,10 @@
         <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="C86" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="D86" t="s">
         <v>489</v>
@@ -7873,7 +7963,7 @@
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="s">
-        <v>876</v>
+        <v>902</v>
       </c>
       <c r="M86" t="s">
         <v>491</v>
@@ -7882,7 +7972,7 @@
         <v>492</v>
       </c>
       <c r="O86" t="s">
-        <v>932</v>
+        <v>958</v>
       </c>
       <c r="P86" t="s">
         <v>493</v>
@@ -7896,7 +7986,7 @@
         <v>495</v>
       </c>
       <c r="B87" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -7905,7 +7995,7 @@
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="s">
-        <v>877</v>
+        <v>903</v>
       </c>
       <c r="M87" t="s">
         <v>496</v>
@@ -7914,7 +8004,7 @@
         <v>278</v>
       </c>
       <c r="O87" t="s">
-        <v>933</v>
+        <v>959</v>
       </c>
       <c r="P87" t="s">
         <v>497</v>
@@ -7928,12 +8018,12 @@
         <v>499</v>
       </c>
       <c r="B88" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="G88" t="s">
         <v>500</v>
@@ -7974,10 +8064,10 @@
         <v>502</v>
       </c>
       <c r="B89" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C89" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="D89" t="s">
         <v>503</v>
@@ -7986,7 +8076,7 @@
         <v>504</v>
       </c>
       <c r="F89" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="G89" t="s">
         <v>505</v>
@@ -8006,10 +8096,10 @@
         <v>507</v>
       </c>
       <c r="B90" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C90" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="D90" t="s">
         <v>508</v>
@@ -8018,7 +8108,7 @@
         <v>504</v>
       </c>
       <c r="F90" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="G90" t="s">
         <v>509</v>
@@ -8038,10 +8128,10 @@
         <v>511</v>
       </c>
       <c r="B91" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C91" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="D91" t="s">
         <v>512</v>
@@ -8050,7 +8140,7 @@
         <v>513</v>
       </c>
       <c r="F91" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="G91" t="s">
         <v>514</v>
@@ -8070,14 +8160,14 @@
         <v>516</v>
       </c>
       <c r="B92" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="J92" t="s">
         <v>517</v>
@@ -8086,7 +8176,7 @@
         <v>518</v>
       </c>
       <c r="L92" t="s">
-        <v>878</v>
+        <v>904</v>
       </c>
       <c r="M92" t="s">
         <v>519</v>
@@ -8095,7 +8185,7 @@
         <v>520</v>
       </c>
       <c r="O92" t="s">
-        <v>934</v>
+        <v>960</v>
       </c>
       <c r="P92" t="s">
         <v>521</v>
@@ -8109,10 +8199,10 @@
         <v>523</v>
       </c>
       <c r="B93" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C93" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="D93" t="s">
         <v>524</v>
@@ -8134,10 +8224,10 @@
         <v>526</v>
       </c>
       <c r="B94" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C94" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="D94" t="s">
         <v>527</v>
@@ -8159,10 +8249,10 @@
         <v>529</v>
       </c>
       <c r="B95" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C95" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="D95" t="s">
         <v>530</v>
@@ -8171,7 +8261,7 @@
         <v>531</v>
       </c>
       <c r="F95" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="G95" t="s">
         <v>532</v>
@@ -8191,10 +8281,10 @@
         <v>534</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>678</v>
       </c>
       <c r="C96" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
       <c r="D96" t="s">
         <v>535</v>
@@ -8205,7 +8295,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="J96" t="s">
         <v>537</v>
@@ -8214,7 +8304,7 @@
         <v>538</v>
       </c>
       <c r="L96" t="s">
-        <v>879</v>
+        <v>905</v>
       </c>
       <c r="M96" t="s">
         <v>539</v>
@@ -8223,7 +8313,7 @@
         <v>540</v>
       </c>
       <c r="O96" t="s">
-        <v>935</v>
+        <v>961</v>
       </c>
       <c r="P96" t="s">
         <v>541</v>
@@ -8237,10 +8327,10 @@
         <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="C97" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="D97" t="s">
         <v>544</v>
@@ -8262,10 +8352,10 @@
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="C98" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8287,10 +8377,10 @@
         <v>549</v>
       </c>
       <c r="B99" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="C99" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="D99" t="s">
         <v>550</v>
@@ -8312,7 +8402,7 @@
         <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
@@ -8330,7 +8420,7 @@
         <v>553</v>
       </c>
       <c r="B101" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
@@ -8339,7 +8429,7 @@
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101" t="s">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="M101" t="s">
         <v>554</v>
@@ -8355,10 +8445,10 @@
         <v>556</v>
       </c>
       <c r="B102" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="C102" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
       <c r="D102" t="s">
         <v>557</v>
@@ -8369,7 +8459,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="J102" t="s">
         <v>559</v>
@@ -8378,7 +8468,7 @@
         <v>560</v>
       </c>
       <c r="L102" t="s">
-        <v>881</v>
+        <v>907</v>
       </c>
       <c r="M102" t="s">
         <v>561</v>
@@ -8387,7 +8477,7 @@
         <v>562</v>
       </c>
       <c r="O102" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="P102" t="s">
         <v>563</v>
@@ -8401,10 +8491,10 @@
         <v>565</v>
       </c>
       <c r="B103" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="C103" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="D103" t="s">
         <v>566</v>
@@ -8415,7 +8505,7 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="J103" t="s">
         <v>568</v>
@@ -8424,7 +8514,7 @@
         <v>569</v>
       </c>
       <c r="L103" t="s">
-        <v>882</v>
+        <v>908</v>
       </c>
       <c r="M103" t="s">
         <v>570</v>
@@ -8433,7 +8523,7 @@
         <v>571</v>
       </c>
       <c r="O103" t="s">
-        <v>937</v>
+        <v>963</v>
       </c>
       <c r="P103" t="s">
         <v>572</v>
@@ -8447,10 +8537,10 @@
         <v>574</v>
       </c>
       <c r="B104" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="C104" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="D104" t="s">
         <v>575</v>
@@ -8461,7 +8551,7 @@
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="J104" t="s">
         <v>577</v>
@@ -8470,7 +8560,7 @@
         <v>578</v>
       </c>
       <c r="L104" t="s">
-        <v>877</v>
+        <v>903</v>
       </c>
       <c r="M104" t="s">
         <v>496</v>
@@ -8479,7 +8569,7 @@
         <v>278</v>
       </c>
       <c r="O104" t="s">
-        <v>938</v>
+        <v>964</v>
       </c>
       <c r="P104" t="s">
         <v>579</v>
@@ -8493,10 +8583,10 @@
         <v>581</v>
       </c>
       <c r="B105" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="C105" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="D105" t="s">
         <v>582</v>
@@ -8507,7 +8597,7 @@
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="J105" t="s">
         <v>584</v>
@@ -8516,7 +8606,7 @@
         <v>585</v>
       </c>
       <c r="L105" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
       <c r="M105" t="s">
         <v>586</v>
@@ -8525,7 +8615,7 @@
         <v>587</v>
       </c>
       <c r="O105" t="s">
-        <v>939</v>
+        <v>965</v>
       </c>
       <c r="P105" t="s">
         <v>588</v>
@@ -8539,10 +8629,10 @@
         <v>590</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>678</v>
       </c>
       <c r="C106" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="D106" t="s">
         <v>591</v>
@@ -8553,7 +8643,7 @@
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="J106" t="s">
         <v>593</v>
@@ -8562,7 +8652,7 @@
         <v>594</v>
       </c>
       <c r="L106" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
       <c r="M106" t="s">
         <v>595</v>
@@ -8571,7 +8661,7 @@
         <v>596</v>
       </c>
       <c r="O106" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="P106" t="s">
         <v>597</v>
@@ -8585,10 +8675,7 @@
         <v>599</v>
       </c>
       <c r="B107" t="s">
-        <v>652</v>
-      </c>
-      <c r="C107" t="s">
-        <v>751</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
         <v>600</v>
@@ -8598,267 +8685,394 @@
       </c>
       <c r="G107"/>
       <c r="H107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107" t="s">
-        <v>885</v>
+      <c r="J107" t="s">
+        <v>602</v>
+      </c>
+      <c r="K107" t="s">
+        <v>603</v>
       </c>
       <c r="M107" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="N107" t="s">
-        <v>603</v>
-      </c>
-      <c r="O107" t="s">
-        <v>941</v>
+        <v>605</v>
       </c>
       <c r="P107" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="Q107" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B108" t="s">
-        <v>652</v>
-      </c>
-      <c r="C108" t="s">
-        <v>752</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E108" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="J108"/>
       <c r="K108"/>
-      <c r="L108" t="s">
-        <v>886</v>
-      </c>
-      <c r="M108" t="s">
-        <v>609</v>
-      </c>
-      <c r="N108" t="s">
-        <v>610</v>
-      </c>
+      <c r="M108"/>
+      <c r="N108"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B109" t="s">
-        <v>674</v>
-      </c>
-      <c r="C109" t="s">
-        <v>753</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E109" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
-      <c r="I109" t="s">
-        <v>822</v>
-      </c>
       <c r="J109" t="s">
+        <v>611</v>
+      </c>
+      <c r="K109" t="s">
+        <v>612</v>
+      </c>
+      <c r="M109" t="s">
+        <v>613</v>
+      </c>
+      <c r="N109" t="s">
         <v>614</v>
       </c>
-      <c r="K109" t="s">
+      <c r="P109" t="s">
         <v>615</v>
       </c>
-      <c r="L109" t="s">
-        <v>887</v>
-      </c>
-      <c r="M109" t="s">
+      <c r="Q109" t="s">
         <v>616</v>
-      </c>
-      <c r="N109" t="s">
-        <v>617</v>
-      </c>
-      <c r="O109" t="s">
-        <v>942</v>
-      </c>
-      <c r="P109" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B110" t="s">
-        <v>652</v>
-      </c>
-      <c r="C110" t="s">
-        <v>754</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="E110" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
-      <c r="I110" t="s">
-        <v>823</v>
-      </c>
       <c r="J110" t="s">
+        <v>618</v>
+      </c>
+      <c r="K110" t="s">
+        <v>619</v>
+      </c>
+      <c r="M110" t="s">
+        <v>620</v>
+      </c>
+      <c r="N110" t="s">
+        <v>621</v>
+      </c>
+      <c r="P110" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q110" t="s">
         <v>623</v>
-      </c>
-      <c r="K110" t="s">
-        <v>624</v>
-      </c>
-      <c r="L110" t="s">
-        <v>888</v>
-      </c>
-      <c r="M110" t="s">
-        <v>625</v>
-      </c>
-      <c r="N110" t="s">
-        <v>626</v>
-      </c>
-      <c r="O110" t="s">
-        <v>943</v>
-      </c>
-      <c r="P110" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B111" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C111" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="D111" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E111" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
-      <c r="I111" t="s">
-        <v>824</v>
-      </c>
-      <c r="J111" t="s">
-        <v>632</v>
-      </c>
-      <c r="K111" t="s">
-        <v>633</v>
-      </c>
+      <c r="J111"/>
+      <c r="K111"/>
       <c r="L111" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="M111" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="N111" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="O111" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="P111" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="Q111" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="C112" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="D112" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E112" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
-      <c r="I112" t="s">
-        <v>825</v>
-      </c>
-      <c r="J112" t="s">
-        <v>641</v>
-      </c>
-      <c r="K112" t="s">
-        <v>642</v>
-      </c>
+      <c r="J112"/>
+      <c r="K112"/>
       <c r="L112" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="M112" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="N112" t="s">
-        <v>644</v>
-      </c>
-      <c r="O112" t="s">
-        <v>945</v>
-      </c>
-      <c r="P112" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>646</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="P112"/>
+      <c r="Q112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B113" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="C113" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="D113" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="E113" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="M113"/>
-      <c r="N113"/>
-      <c r="P113"/>
-      <c r="Q113"/>
+      <c r="I113" t="s">
+        <v>848</v>
+      </c>
+      <c r="J113" t="s">
+        <v>639</v>
+      </c>
+      <c r="K113" t="s">
+        <v>640</v>
+      </c>
+      <c r="L113" t="s">
+        <v>913</v>
+      </c>
+      <c r="M113" t="s">
+        <v>641</v>
+      </c>
+      <c r="N113" t="s">
+        <v>642</v>
+      </c>
+      <c r="O113" t="s">
+        <v>968</v>
+      </c>
+      <c r="P113" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>645</v>
+      </c>
+      <c r="B114" t="s">
+        <v>677</v>
+      </c>
+      <c r="C114" t="s">
+        <v>780</v>
+      </c>
+      <c r="D114" t="s">
+        <v>646</v>
+      </c>
+      <c r="E114" t="s">
+        <v>647</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114" t="s">
+        <v>849</v>
+      </c>
+      <c r="J114" t="s">
+        <v>648</v>
+      </c>
+      <c r="K114" t="s">
+        <v>649</v>
+      </c>
+      <c r="L114" t="s">
+        <v>914</v>
+      </c>
+      <c r="M114" t="s">
+        <v>650</v>
+      </c>
+      <c r="N114" t="s">
+        <v>651</v>
+      </c>
+      <c r="O114" t="s">
+        <v>969</v>
+      </c>
+      <c r="P114" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>654</v>
+      </c>
+      <c r="B115" t="s">
+        <v>700</v>
+      </c>
+      <c r="C115" t="s">
+        <v>781</v>
+      </c>
+      <c r="D115" t="s">
+        <v>655</v>
+      </c>
+      <c r="E115" t="s">
+        <v>656</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115" t="s">
+        <v>850</v>
+      </c>
+      <c r="J115" t="s">
+        <v>657</v>
+      </c>
+      <c r="K115" t="s">
+        <v>658</v>
+      </c>
+      <c r="L115" t="s">
+        <v>915</v>
+      </c>
+      <c r="M115" t="s">
+        <v>659</v>
+      </c>
+      <c r="N115" t="s">
+        <v>660</v>
+      </c>
+      <c r="O115" t="s">
+        <v>970</v>
+      </c>
+      <c r="P115" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>663</v>
+      </c>
+      <c r="B116" t="s">
+        <v>701</v>
+      </c>
+      <c r="C116" t="s">
+        <v>782</v>
+      </c>
+      <c r="D116" t="s">
+        <v>664</v>
+      </c>
+      <c r="E116" t="s">
+        <v>665</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116" t="s">
+        <v>851</v>
+      </c>
+      <c r="J116" t="s">
+        <v>666</v>
+      </c>
+      <c r="K116" t="s">
+        <v>667</v>
+      </c>
+      <c r="L116" t="s">
+        <v>916</v>
+      </c>
+      <c r="M116" t="s">
+        <v>668</v>
+      </c>
+      <c r="N116" t="s">
+        <v>669</v>
+      </c>
+      <c r="O116" t="s">
+        <v>971</v>
+      </c>
+      <c r="P116" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>672</v>
+      </c>
+      <c r="B117" t="s">
+        <v>700</v>
+      </c>
+      <c r="C117" t="s">
+        <v>783</v>
+      </c>
+      <c r="D117" t="s">
+        <v>673</v>
+      </c>
+      <c r="E117" t="s">
+        <v>674</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q2"/>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1019">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -766,6 +766,17 @@
   </si>
   <si>
     <t xml:space="preserve">@citizen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*thud*
+*thump*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ドスン*
+*ズシン*</t>
   </si>
   <si>
     <t xml:space="preserve">horse</t>
@@ -953,7 +964,7 @@
   <si>
     <t xml:space="preserve">"That’s a problem."
 "This too is part of my training."
-"No use stopping it." </t>
+"No use stopping it."</t>
   </si>
   <si>
     <t xml:space="preserve">「困るんだ、そういうの」
@@ -961,12 +972,22 @@
 「止めても無駄か」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Ugh..." 
-"This message... to Palmia..." </t>
+    <t xml:space="preserve">"Ugh..."
+"This message... to Palmia..."</t>
   </si>
   <si>
     <t xml:space="preserve">「この知らせを…パルミアに…」
 「 …う、うぅ 」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Well, that’s taken care of."
+"No hard feelings."
+"That should quiet things down a bit."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「やれやれ、片付いたな」
+「恨まないでくれ」
+「これで少しは静かになる」</t>
   </si>
   <si>
     <t xml:space="preserve">adventurer_fox</t>
@@ -2118,6 +2139,28 @@
     <t xml:space="preserve">*ぷちゅっ*</t>
   </si>
   <si>
+    <t xml:space="preserve">mammoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Trroooomp!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パォオオオオン！」
+「パオオオォン！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Toot..." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パオン…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Trooomp!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パオオオオン！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">snail</t>
   </si>
   <si>
@@ -2696,6 +2739,84 @@
 「もう苦しまなくていい」</t>
   </si>
   <si>
+    <t xml:space="preserve">larnneire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You know the fairy tale where a wicked &amp;witch transforms a dashing prince into an monster?"
+The stunning beauty of Elea's face halts your step a moment.
+"The world is thrown into bedlam and chaos. &amp;We must remain strong in the face of it."
+"The man we saw in Vernis, he just might be..."
+Someone mutters in mysterious ancient language.
+"Elea is already being regarded as a heretic. &amp;Your lofty dignity isn't helping this."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「獣に変えられた王子の童話を知っているかしら？」
+痺れるほど美しいエレアの横顔にあなたは見とれた。
+「この世界は今、大きく変わろうとしているの」
+「ヴェルニースで見かけたあの男…まさか…」
+神秘的な古代の言葉で誰かが囁いた。
+「あなたはプライドが高すぎるのよ。&amp;ただでさえエレアは異端視されているのに」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Do we really have to fight?"
+"Sorry  I don't have time for this."
+The Elean little girl has an angry look in her beautiful cold eyes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「なぜ戦わなければならないの？」
+「悪いけど、遊んでいる暇は無いの」
+エレアの少女は美しい瞳を凍りつくようにとがらせた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"A-ah...I failed my task...this world....this world will..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「うぅ…誰かが…ジャビ王に風の異変を伝えなければ…このままでは…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sorry..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ごめんなさい…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lomias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Wait'll they hear the news we bring."
+"And they think they have problems. Hah!"
+"Hey... This is a fine looking place!"
+"Pah! It would take a child less than a day to &amp;walk to Vernis, we won't be late."
+"Man, that girl at the pub..."
+You hear someone testing the string of his bow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「異形の森、か…」
+「我等のもたらす真実を彼らはどう受け止めるか」
+「ここもなかな住み心地がよさそうじゃないか」
+「ヴェルニースまでは&amp;子供の足でも一日でたどり着けるだろう」
+「あの酒場の娘にはまいったな！」
+誰かが弓矢を手入れする音が聞こえた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You repay kindness with ingratitude?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「恩を仇で返すとはこのことだ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"This is ridiculous..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「おいおい、冗談だろう…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"There's always someone I can never understand."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「世の中には、おかしな奴がいるものだ」</t>
+  </si>
+  <si>
     <t xml:space="preserve">raphael</t>
   </si>
   <si>
@@ -2720,7 +2841,7 @@
     <t xml:space="preserve">"Mamaaa!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「ママー！」</t>
+    <t xml:space="preserve">「ママン！」</t>
   </si>
   <si>
     <t xml:space="preserve">"Ptui!"</t>
@@ -3102,6 +3223,24 @@
   <si>
     <t xml:space="preserve">「ついほうしゃ…」
 「追放者…♥」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lurie_boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"GROOOOAAARRR!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「グウォオオォォオオン！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Whimper..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"GRROOAARR!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「グウォォオオ！」</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -4726,14 +4865,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4742,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>857</v>
+        <v>893</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4751,7 +4890,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4765,10 +4904,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="C4" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4779,7 +4918,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4788,7 +4927,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>858</v>
+        <v>894</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4804,10 +4943,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="C5" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4829,10 +4968,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4845,7 +4984,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>859</v>
+        <v>895</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4854,7 +4993,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4868,10 +5007,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C7" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4882,7 +5021,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>801</v>
+        <v>837</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4891,7 +5030,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>860</v>
+        <v>896</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4907,10 +5046,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C8" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4921,7 +5060,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4930,7 +5069,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>861</v>
+        <v>897</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4939,7 +5078,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>927</v>
+        <v>963</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4953,10 +5092,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C9" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4967,7 +5106,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4976,7 +5115,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4985,7 +5124,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>928</v>
+        <v>964</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4999,10 +5138,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C10" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5013,21 +5152,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>863</v>
+        <v>899</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>929</v>
+        <v>965</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -5039,10 +5178,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="C11" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5053,7 +5192,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -5062,7 +5201,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>864</v>
+        <v>900</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -5071,7 +5210,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>930</v>
+        <v>966</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5085,10 +5224,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>680</v>
+        <v>716</v>
       </c>
       <c r="C12" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5099,7 +5238,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5108,7 +5247,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>865</v>
+        <v>901</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5117,7 +5256,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>931</v>
+        <v>967</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5131,10 +5270,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="C13" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5152,7 +5291,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>866</v>
+        <v>902</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5168,10 +5307,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="C14" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5182,7 +5321,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -5191,7 +5330,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>867</v>
+        <v>903</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -5200,7 +5339,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>932</v>
+        <v>968</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5214,10 +5353,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="C15" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5253,14 +5392,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5269,7 +5408,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>868</v>
+        <v>904</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5278,7 +5417,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>933</v>
+        <v>969</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5292,10 +5431,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="C17" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5306,7 +5445,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5315,7 +5454,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>869</v>
+        <v>905</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5324,7 +5463,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>934</v>
+        <v>970</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5338,14 +5477,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5354,7 +5493,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>870</v>
+        <v>906</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5363,7 +5502,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>935</v>
+        <v>971</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5377,14 +5516,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5393,7 +5532,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>871</v>
+        <v>907</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5402,7 +5541,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5416,10 +5555,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C20" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5430,7 +5569,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5439,7 +5578,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>872</v>
+        <v>908</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5448,7 +5587,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>937</v>
+        <v>973</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5462,14 +5601,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>812</v>
+        <v>848</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5478,7 +5617,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>873</v>
+        <v>909</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5487,7 +5626,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>938</v>
+        <v>974</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5501,14 +5640,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>813</v>
+        <v>849</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5517,7 +5656,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>874</v>
+        <v>910</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5526,7 +5665,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>939</v>
+        <v>975</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5540,10 +5679,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="C23" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5565,10 +5704,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C24" t="s">
-        <v>718</v>
+        <v>754</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5579,7 +5718,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5588,7 +5727,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>875</v>
+        <v>911</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5597,7 +5736,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5611,14 +5750,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>815</v>
+        <v>851</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5643,10 +5782,7 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>675</v>
-      </c>
-      <c r="C26" t="s">
-        <v>719</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5656,156 +5792,139 @@
       </c>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26" t="s">
-        <v>876</v>
-      </c>
-      <c r="M26" t="s">
-        <v>169</v>
-      </c>
-      <c r="N26" t="s">
-        <v>170</v>
-      </c>
-      <c r="O26" t="s">
-        <v>941</v>
-      </c>
-      <c r="P26" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>172</v>
-      </c>
+      <c r="J26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>675</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
+        <v>711</v>
+      </c>
+      <c r="C27" t="s">
+        <v>755</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" t="s">
-        <v>816</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>912</v>
+      </c>
+      <c r="M27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" t="s">
+        <v>977</v>
+      </c>
+      <c r="P27" t="s">
         <v>174</v>
       </c>
-      <c r="K27" t="s">
+      <c r="Q27" t="s">
         <v>175</v>
-      </c>
-      <c r="L27" t="s">
-        <v>877</v>
-      </c>
-      <c r="M27" t="s">
-        <v>176</v>
-      </c>
-      <c r="N27" t="s">
-        <v>177</v>
-      </c>
-      <c r="O27" t="s">
-        <v>942</v>
-      </c>
-      <c r="P27" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>684</v>
-      </c>
-      <c r="C28" t="s">
-        <v>720</v>
-      </c>
-      <c r="D28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
       <c r="J28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="M28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s">
-        <v>943</v>
+        <v>978</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q28" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="C29" t="s">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
       <c r="J29" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s">
-        <v>878</v>
+        <v>914</v>
       </c>
       <c r="M29" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O29" t="s">
-        <v>943</v>
+        <v>979</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30">
@@ -5813,10 +5932,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="C30" t="s">
-        <v>722</v>
+        <v>757</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5827,31 +5946,31 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L30" t="s">
-        <v>878</v>
+        <v>914</v>
       </c>
       <c r="M30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O30" t="s">
-        <v>943</v>
+        <v>979</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
@@ -5859,10 +5978,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="C31" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5873,96 +5992,114 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>818</v>
+        <v>853</v>
       </c>
       <c r="J31" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K31" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="M31" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O31" t="s">
-        <v>944</v>
+        <v>979</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="Q31" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="C32" t="s">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="J32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K32" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L32" t="s">
-        <v>880</v>
+        <v>915</v>
       </c>
       <c r="M32" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N32" t="s">
-        <v>210</v>
-      </c>
-      <c r="P32"/>
-      <c r="Q32"/>
+        <v>204</v>
+      </c>
+      <c r="O32" t="s">
+        <v>980</v>
+      </c>
+      <c r="P32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>676</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
+        <v>711</v>
+      </c>
+      <c r="C33" t="s">
+        <v>760</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="J33"/>
-      <c r="K33"/>
+      <c r="I33" t="s">
+        <v>855</v>
+      </c>
+      <c r="J33" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" t="s">
+        <v>211</v>
+      </c>
       <c r="L33" t="s">
-        <v>881</v>
+        <v>916</v>
       </c>
       <c r="M33" t="s">
         <v>212</v>
       </c>
       <c r="N33" t="s">
         <v>213</v>
-      </c>
-      <c r="O33" t="s">
-        <v>945</v>
       </c>
       <c r="P33" t="s">
         <v>214</v>
@@ -5976,190 +6113,169 @@
         <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="I34" t="s">
-        <v>820</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34" t="s">
+        <v>917</v>
+      </c>
+      <c r="M34" t="s">
         <v>217</v>
       </c>
-      <c r="K34" t="s">
+      <c r="N34" t="s">
         <v>218</v>
       </c>
-      <c r="L34" t="s">
-        <v>882</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
+        <v>981</v>
+      </c>
+      <c r="P34" t="s">
         <v>219</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>220</v>
-      </c>
-      <c r="O34" t="s">
-        <v>946</v>
-      </c>
-      <c r="P34" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" t="s">
-        <v>786</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>856</v>
+      </c>
+      <c r="J35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" t="s">
+        <v>918</v>
+      </c>
+      <c r="M35" t="s">
         <v>224</v>
       </c>
-      <c r="H35" t="s">
+      <c r="N35" t="s">
         <v>225</v>
       </c>
-      <c r="I35" t="s">
-        <v>821</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="O35" t="s">
+        <v>982</v>
+      </c>
+      <c r="P35" t="s">
         <v>226</v>
       </c>
-      <c r="K35" t="s">
+      <c r="Q35" t="s">
         <v>227</v>
-      </c>
-      <c r="L35" t="s">
-        <v>883</v>
-      </c>
-      <c r="M35" t="s">
-        <v>228</v>
-      </c>
-      <c r="N35" t="s">
-        <v>229</v>
-      </c>
-      <c r="O35" t="s">
-        <v>947</v>
-      </c>
-      <c r="P35" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" t="s">
+        <v>711</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>822</v>
+      </c>
+      <c r="G36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" t="s">
+        <v>857</v>
+      </c>
+      <c r="J36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s">
         <v>232</v>
       </c>
-      <c r="B36" t="s">
-        <v>686</v>
-      </c>
-      <c r="C36" t="s">
-        <v>725</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="L36" t="s">
+        <v>919</v>
+      </c>
+      <c r="M36" t="s">
         <v>233</v>
       </c>
-      <c r="E36" t="s">
+      <c r="N36" t="s">
         <v>234</v>
       </c>
-      <c r="F36" t="s">
-        <v>235</v>
-      </c>
-      <c r="G36" t="s">
-        <v>235</v>
-      </c>
-      <c r="H36" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" t="s">
-        <v>235</v>
-      </c>
-      <c r="K36" t="s">
-        <v>235</v>
-      </c>
-      <c r="L36" t="s">
-        <v>235</v>
-      </c>
-      <c r="M36" t="s">
-        <v>235</v>
-      </c>
-      <c r="N36" t="s">
-        <v>235</v>
-      </c>
       <c r="O36" t="s">
-        <v>235</v>
+        <v>983</v>
       </c>
       <c r="P36" t="s">
         <v>235</v>
       </c>
       <c r="Q36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="C37" t="s">
-        <v>726</v>
+        <v>761</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F37" t="s">
-        <v>787</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
         <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>821</v>
+        <v>240</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s">
-        <v>883</v>
+        <v>240</v>
       </c>
       <c r="M37" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N37" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="O37" t="s">
-        <v>947</v>
+        <v>240</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q37" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -6167,10 +6283,10 @@
         <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="C38" t="s">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="D38" t="s">
         <v>242</v>
@@ -6178,24 +6294,59 @@
       <c r="E38" t="s">
         <v>243</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="F38" t="s">
+        <v>823</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" t="s">
+        <v>245</v>
+      </c>
+      <c r="I38" t="s">
+        <v>857</v>
+      </c>
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s">
+        <v>919</v>
+      </c>
+      <c r="M38" t="s">
+        <v>233</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" t="s">
+        <v>983</v>
+      </c>
+      <c r="P38" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>675</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39"/>
+        <v>711</v>
+      </c>
+      <c r="C39" t="s">
+        <v>763</v>
+      </c>
+      <c r="D39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" t="s">
+        <v>248</v>
+      </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="J39"/>
@@ -6207,187 +6358,173 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>679</v>
-      </c>
-      <c r="C40" t="s">
-        <v>728</v>
-      </c>
-      <c r="D40" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" t="s">
-        <v>247</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40" t="s">
-        <v>822</v>
-      </c>
-      <c r="J40" t="s">
-        <v>248</v>
-      </c>
-      <c r="K40" t="s">
-        <v>249</v>
-      </c>
-      <c r="L40" t="s">
-        <v>884</v>
-      </c>
-      <c r="M40" t="s">
-        <v>250</v>
-      </c>
-      <c r="N40" t="s">
-        <v>251</v>
-      </c>
-      <c r="O40" t="s">
-        <v>948</v>
-      </c>
-      <c r="P40" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>253</v>
-      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="C41" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>823</v>
+        <v>858</v>
       </c>
       <c r="J41" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L41" t="s">
+        <v>920</v>
+      </c>
+      <c r="M41" t="s">
+        <v>255</v>
+      </c>
+      <c r="N41" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" t="s">
+        <v>984</v>
+      </c>
+      <c r="P41" t="s">
         <v>257</v>
       </c>
-      <c r="K41" t="s">
+      <c r="Q41" t="s">
         <v>258</v>
-      </c>
-      <c r="L41" t="s">
-        <v>885</v>
-      </c>
-      <c r="M41" t="s">
-        <v>259</v>
-      </c>
-      <c r="N41" t="s">
-        <v>260</v>
-      </c>
-      <c r="O41" t="s">
-        <v>949</v>
-      </c>
-      <c r="P41" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>687</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
+        <v>711</v>
+      </c>
+      <c r="C42" t="s">
+        <v>765</v>
+      </c>
+      <c r="D42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" t="s">
+        <v>261</v>
+      </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="J42" t="s">
+        <v>262</v>
+      </c>
+      <c r="K42" t="s">
+        <v>263</v>
+      </c>
+      <c r="L42" t="s">
+        <v>921</v>
+      </c>
+      <c r="M42" t="s">
         <v>264</v>
       </c>
-      <c r="K42" t="s">
+      <c r="N42" t="s">
         <v>265</v>
       </c>
-      <c r="L42" t="s">
-        <v>886</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="O42" t="s">
+        <v>985</v>
+      </c>
+      <c r="P42" t="s">
         <v>266</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>267</v>
-      </c>
-      <c r="O42" t="s">
-        <v>950</v>
-      </c>
-      <c r="P42"/>
-      <c r="Q42" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>825</v>
+        <v>860</v>
       </c>
       <c r="J43" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" t="s">
         <v>270</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>922</v>
+      </c>
+      <c r="M43" t="s">
         <v>271</v>
       </c>
-      <c r="L43" t="s">
-        <v>887</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>272</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
+        <v>986</v>
+      </c>
+      <c r="P43"/>
+      <c r="Q43" t="s">
         <v>273</v>
-      </c>
-      <c r="O43" t="s">
-        <v>951</v>
-      </c>
-      <c r="P43" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="J44"/>
-      <c r="K44"/>
+      <c r="I44" t="s">
+        <v>861</v>
+      </c>
+      <c r="J44" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" t="s">
+        <v>276</v>
+      </c>
       <c r="L44" t="s">
-        <v>888</v>
+        <v>923</v>
       </c>
       <c r="M44" t="s">
         <v>277</v>
@@ -6396,7 +6533,7 @@
         <v>278</v>
       </c>
       <c r="O44" t="s">
-        <v>952</v>
+        <v>987</v>
       </c>
       <c r="P44" t="s">
         <v>279</v>
@@ -6410,191 +6547,184 @@
         <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>682</v>
-      </c>
-      <c r="C45" t="s">
-        <v>283</v>
-      </c>
-      <c r="D45" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" t="s">
-        <v>283</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>889</v>
+        <v>924</v>
       </c>
       <c r="M45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N45" t="s">
+        <v>283</v>
+      </c>
+      <c r="O45" t="s">
+        <v>988</v>
+      </c>
+      <c r="P45" t="s">
         <v>284</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>285</v>
-      </c>
-      <c r="O45" t="s">
-        <v>953</v>
-      </c>
-      <c r="P45" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" t="s">
+        <v>718</v>
+      </c>
+      <c r="C46" t="s">
         <v>288</v>
       </c>
-      <c r="B46" t="s">
-        <v>679</v>
-      </c>
-      <c r="C46" t="s">
-        <v>730</v>
-      </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46" t="s">
-        <v>826</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46" t="s">
+        <v>925</v>
+      </c>
+      <c r="M46" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" t="s">
+        <v>290</v>
+      </c>
+      <c r="O46" t="s">
+        <v>989</v>
+      </c>
+      <c r="P46" t="s">
         <v>291</v>
       </c>
-      <c r="K46" t="s">
+      <c r="Q46" t="s">
         <v>292</v>
-      </c>
-      <c r="L46" t="s">
-        <v>890</v>
-      </c>
-      <c r="M46" t="s">
-        <v>293</v>
-      </c>
-      <c r="N46" t="s">
-        <v>294</v>
-      </c>
-      <c r="O46" t="s">
-        <v>953</v>
-      </c>
-      <c r="P46" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" t="s">
+        <v>715</v>
+      </c>
+      <c r="C47" t="s">
+        <v>766</v>
+      </c>
+      <c r="D47" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" t="s">
         <v>295</v>
-      </c>
-      <c r="B47" t="s">
-        <v>675</v>
-      </c>
-      <c r="C47" t="s">
-        <v>731</v>
-      </c>
-      <c r="D47" t="s">
-        <v>296</v>
-      </c>
-      <c r="E47" t="s">
-        <v>297</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>827</v>
+        <v>862</v>
       </c>
       <c r="J47" t="s">
+        <v>296</v>
+      </c>
+      <c r="K47" t="s">
+        <v>297</v>
+      </c>
+      <c r="L47" t="s">
+        <v>926</v>
+      </c>
+      <c r="M47" t="s">
         <v>298</v>
       </c>
-      <c r="K47" t="s">
+      <c r="N47" t="s">
         <v>299</v>
       </c>
-      <c r="L47" t="s">
-        <v>891</v>
-      </c>
-      <c r="M47" t="s">
-        <v>300</v>
-      </c>
-      <c r="N47" t="s">
-        <v>301</v>
-      </c>
       <c r="O47" t="s">
-        <v>954</v>
+        <v>989</v>
       </c>
       <c r="P47" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Q47" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="C48" t="s">
-        <v>732</v>
+        <v>767</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>828</v>
+        <v>863</v>
       </c>
       <c r="J48" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" t="s">
+        <v>304</v>
+      </c>
+      <c r="L48" t="s">
+        <v>927</v>
+      </c>
+      <c r="M48" t="s">
+        <v>305</v>
+      </c>
+      <c r="N48" t="s">
+        <v>306</v>
+      </c>
+      <c r="O48" t="s">
+        <v>990</v>
+      </c>
+      <c r="P48" t="s">
         <v>307</v>
       </c>
-      <c r="K48" t="s">
+      <c r="Q48" t="s">
         <v>308</v>
-      </c>
-      <c r="L48" t="s">
-        <v>892</v>
-      </c>
-      <c r="M48" t="s">
-        <v>309</v>
-      </c>
-      <c r="N48" t="s">
-        <v>310</v>
-      </c>
-      <c r="O48" t="s">
-        <v>892</v>
-      </c>
-      <c r="P48" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" t="s">
+        <v>715</v>
+      </c>
+      <c r="C49" t="s">
+        <v>768</v>
+      </c>
+      <c r="D49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" t="s">
         <v>311</v>
       </c>
-      <c r="B49" t="s">
-        <v>675</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>829</v>
+        <v>864</v>
       </c>
       <c r="J49" t="s">
         <v>312</v>
@@ -6603,7 +6733,7 @@
         <v>313</v>
       </c>
       <c r="L49" t="s">
-        <v>893</v>
+        <v>928</v>
       </c>
       <c r="M49" t="s">
         <v>314</v>
@@ -6612,355 +6742,341 @@
         <v>315</v>
       </c>
       <c r="O49" t="s">
-        <v>955</v>
+        <v>928</v>
       </c>
       <c r="P49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>688</v>
-      </c>
-      <c r="C50" t="s">
-        <v>733</v>
-      </c>
-      <c r="D50" t="s">
-        <v>319</v>
-      </c>
-      <c r="E50" t="s">
-        <v>320</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>321</v>
+        <v>865</v>
       </c>
       <c r="J50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K50" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L50" t="s">
-        <v>321</v>
+        <v>929</v>
       </c>
       <c r="M50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O50" t="s">
-        <v>321</v>
+        <v>991</v>
       </c>
       <c r="P50" t="s">
         <v>321</v>
       </c>
       <c r="Q50" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="C51" t="s">
-        <v>734</v>
+        <v>769</v>
       </c>
       <c r="D51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="C52" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="D52" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E52" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="C53" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="D53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="C54" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>830</v>
+        <v>326</v>
       </c>
       <c r="J54" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K54" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L54" t="s">
-        <v>894</v>
+        <v>326</v>
       </c>
       <c r="M54" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N54" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="O54" t="s">
-        <v>956</v>
+        <v>326</v>
       </c>
       <c r="P54" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="Q54" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>675</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
+        <v>713</v>
+      </c>
+      <c r="C55" t="s">
+        <v>773</v>
+      </c>
+      <c r="D55" t="s">
+        <v>337</v>
+      </c>
+      <c r="E55" t="s">
+        <v>338</v>
+      </c>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>831</v>
+        <v>866</v>
       </c>
       <c r="J55" t="s">
+        <v>339</v>
+      </c>
+      <c r="K55" t="s">
+        <v>340</v>
+      </c>
+      <c r="L55" t="s">
+        <v>930</v>
+      </c>
+      <c r="M55" t="s">
         <v>341</v>
       </c>
-      <c r="K55" t="s">
+      <c r="N55" t="s">
         <v>342</v>
       </c>
-      <c r="L55" t="s">
-        <v>895</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
+        <v>992</v>
+      </c>
+      <c r="P55" t="s">
         <v>343</v>
       </c>
-      <c r="N55" t="s">
+      <c r="Q55" t="s">
         <v>344</v>
-      </c>
-      <c r="O55" t="s">
-        <v>957</v>
-      </c>
-      <c r="P55" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
-        <v>675</v>
-      </c>
-      <c r="C56" t="s">
-        <v>738</v>
-      </c>
-      <c r="D56" t="s">
-        <v>348</v>
-      </c>
-      <c r="E56" t="s">
-        <v>349</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>165</v>
+        <v>867</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>346</v>
       </c>
       <c r="K56" t="s">
-        <v>165</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s">
-        <v>165</v>
+        <v>931</v>
       </c>
       <c r="M56" t="s">
-        <v>165</v>
+        <v>348</v>
       </c>
       <c r="N56" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="O56" t="s">
-        <v>165</v>
+        <v>993</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="Q56" t="s">
-        <v>165</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C57" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
       <c r="D57" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>352</v>
-      </c>
-      <c r="F57" t="s">
-        <v>788</v>
-      </c>
-      <c r="G57" t="s">
-        <v>353</v>
-      </c>
-      <c r="H57" t="s">
         <v>354</v>
       </c>
+      <c r="G57"/>
+      <c r="H57"/>
       <c r="I57" t="s">
         <v>165</v>
       </c>
@@ -6994,10 +7110,10 @@
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="C58" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -7005,127 +7121,127 @@
       <c r="E58" t="s">
         <v>357</v>
       </c>
-      <c r="G58"/>
-      <c r="H58"/>
+      <c r="F58" t="s">
+        <v>824</v>
+      </c>
+      <c r="G58" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" t="s">
+        <v>359</v>
+      </c>
       <c r="I58" t="s">
         <v>165</v>
       </c>
-      <c r="J58"/>
+      <c r="J58" t="s">
+        <v>165</v>
+      </c>
       <c r="K58" t="s">
         <v>165</v>
       </c>
       <c r="L58" t="s">
         <v>165</v>
       </c>
-      <c r="M58"/>
+      <c r="M58" t="s">
+        <v>165</v>
+      </c>
       <c r="N58" t="s">
         <v>165</v>
       </c>
       <c r="O58" t="s">
         <v>165</v>
       </c>
-      <c r="P58"/>
+      <c r="P58" t="s">
+        <v>165</v>
+      </c>
       <c r="Q58" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>675</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59" t="s">
-        <v>789</v>
-      </c>
-      <c r="G59" t="s">
-        <v>359</v>
-      </c>
-      <c r="H59" t="s">
-        <v>360</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="C59" t="s">
+        <v>776</v>
+      </c>
+      <c r="D59" t="s">
+        <v>361</v>
+      </c>
+      <c r="E59" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
       <c r="I59" t="s">
-        <v>361</v>
-      </c>
-      <c r="J59" t="s">
-        <v>361</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J59"/>
       <c r="K59" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="L59" t="s">
-        <v>361</v>
-      </c>
-      <c r="M59" t="s">
-        <v>361</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M59"/>
       <c r="N59" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="O59" t="s">
-        <v>361</v>
-      </c>
-      <c r="P59" t="s">
-        <v>361</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P59"/>
       <c r="Q59" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>679</v>
-      </c>
-      <c r="C60" t="s">
-        <v>741</v>
-      </c>
-      <c r="D60" t="s">
-        <v>363</v>
-      </c>
-      <c r="E60" t="s">
+        <v>711</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>825</v>
+      </c>
+      <c r="G60" t="s">
         <v>364</v>
       </c>
-      <c r="F60" t="s">
-        <v>790</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>365</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>366</v>
       </c>
-      <c r="I60" t="s">
-        <v>235</v>
-      </c>
       <c r="J60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="K60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="L60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="M60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="N60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="O60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="Q60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61">
@@ -7133,342 +7249,370 @@
         <v>367</v>
       </c>
       <c r="B61" t="s">
-        <v>675</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
+        <v>715</v>
+      </c>
+      <c r="C61" t="s">
+        <v>777</v>
+      </c>
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" t="s">
+        <v>369</v>
+      </c>
       <c r="F61" t="s">
-        <v>791</v>
+        <v>826</v>
       </c>
       <c r="G61" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H61" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="K61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="L61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="M61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="N61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="O61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="P61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="Q61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s">
-        <v>690</v>
-      </c>
-      <c r="C62" t="s">
-        <v>742</v>
-      </c>
-      <c r="D62" t="s">
-        <v>372</v>
-      </c>
-      <c r="E62" t="s">
+        <v>711</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>827</v>
+      </c>
+      <c r="G62" t="s">
         <v>373</v>
       </c>
-      <c r="G62"/>
-      <c r="H62"/>
+      <c r="H62" t="s">
+        <v>374</v>
+      </c>
       <c r="I62" t="s">
-        <v>832</v>
+        <v>375</v>
       </c>
       <c r="J62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K62" t="s">
         <v>375</v>
       </c>
       <c r="L62" t="s">
-        <v>896</v>
+        <v>375</v>
       </c>
       <c r="M62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N62" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O62" t="s">
-        <v>958</v>
+        <v>375</v>
       </c>
       <c r="P62" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q62" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s">
-        <v>679</v>
+        <v>726</v>
       </c>
       <c r="C63" t="s">
-        <v>743</v>
+        <v>778</v>
       </c>
       <c r="D63" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E63" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>833</v>
+        <v>868</v>
       </c>
       <c r="J63" t="s">
+        <v>379</v>
+      </c>
+      <c r="K63" t="s">
+        <v>380</v>
+      </c>
+      <c r="L63" t="s">
+        <v>932</v>
+      </c>
+      <c r="M63" t="s">
+        <v>381</v>
+      </c>
+      <c r="N63" t="s">
+        <v>382</v>
+      </c>
+      <c r="O63" t="s">
+        <v>994</v>
+      </c>
+      <c r="P63" t="s">
         <v>383</v>
       </c>
-      <c r="K63" t="s">
+      <c r="Q63" t="s">
         <v>384</v>
-      </c>
-      <c r="L63" t="s">
-        <v>897</v>
-      </c>
-      <c r="M63" t="s">
-        <v>385</v>
-      </c>
-      <c r="N63" t="s">
-        <v>386</v>
-      </c>
-      <c r="O63" t="s">
-        <v>959</v>
-      </c>
-      <c r="P63" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B64" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="C64" t="s">
-        <v>744</v>
+        <v>779</v>
       </c>
       <c r="D64" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E64" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>834</v>
+        <v>869</v>
       </c>
       <c r="J64" t="s">
+        <v>388</v>
+      </c>
+      <c r="K64" t="s">
+        <v>389</v>
+      </c>
+      <c r="L64" t="s">
+        <v>933</v>
+      </c>
+      <c r="M64" t="s">
+        <v>390</v>
+      </c>
+      <c r="N64" t="s">
+        <v>391</v>
+      </c>
+      <c r="O64" t="s">
+        <v>995</v>
+      </c>
+      <c r="P64" t="s">
         <v>392</v>
       </c>
-      <c r="K64" t="s">
+      <c r="Q64" t="s">
         <v>393</v>
-      </c>
-      <c r="L64" t="s">
-        <v>898</v>
-      </c>
-      <c r="M64" t="s">
-        <v>394</v>
-      </c>
-      <c r="N64" t="s">
-        <v>395</v>
-      </c>
-      <c r="O64" t="s">
-        <v>960</v>
-      </c>
-      <c r="P64" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>394</v>
+      </c>
+      <c r="B65" t="s">
+        <v>715</v>
+      </c>
+      <c r="C65" t="s">
+        <v>780</v>
+      </c>
+      <c r="D65" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" t="s">
+        <v>396</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" t="s">
+        <v>870</v>
+      </c>
+      <c r="J65" t="s">
+        <v>397</v>
+      </c>
+      <c r="K65" t="s">
         <v>398</v>
       </c>
-      <c r="B65" t="s">
-        <v>675</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65" t="s">
-        <v>792</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="L65" t="s">
+        <v>934</v>
+      </c>
+      <c r="M65" t="s">
         <v>399</v>
       </c>
-      <c r="H65" t="s">
+      <c r="N65" t="s">
         <v>400</v>
       </c>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
+      <c r="O65" t="s">
+        <v>996</v>
+      </c>
+      <c r="P65" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="G66" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H66" t="s">
-        <v>403</v>
-      </c>
-      <c r="I66" t="s">
-        <v>235</v>
-      </c>
-      <c r="J66" t="s">
-        <v>235</v>
-      </c>
-      <c r="K66" t="s">
-        <v>235</v>
-      </c>
-      <c r="L66" t="s">
-        <v>235</v>
-      </c>
-      <c r="M66" t="s">
-        <v>235</v>
-      </c>
-      <c r="N66" t="s">
-        <v>235</v>
-      </c>
-      <c r="O66" t="s">
-        <v>235</v>
-      </c>
-      <c r="P66" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>235</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>691</v>
-      </c>
-      <c r="C67" t="s">
-        <v>745</v>
-      </c>
-      <c r="D67" t="s">
-        <v>405</v>
-      </c>
-      <c r="E67" t="s">
-        <v>406</v>
-      </c>
-      <c r="G67"/>
-      <c r="H67"/>
+        <v>711</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>829</v>
+      </c>
+      <c r="G67" t="s">
+        <v>407</v>
+      </c>
+      <c r="H67" t="s">
+        <v>408</v>
+      </c>
       <c r="I67" t="s">
-        <v>835</v>
+        <v>240</v>
       </c>
       <c r="J67" t="s">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="K67" t="s">
-        <v>408</v>
+        <v>240</v>
       </c>
       <c r="L67" t="s">
-        <v>899</v>
+        <v>240</v>
       </c>
       <c r="M67" t="s">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="N67" t="s">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="O67" t="s">
-        <v>961</v>
+        <v>240</v>
       </c>
       <c r="P67" t="s">
-        <v>411</v>
+        <v>240</v>
       </c>
       <c r="Q67" t="s">
-        <v>412</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>675</v>
+        <v>727</v>
       </c>
       <c r="C68" t="s">
-        <v>746</v>
+        <v>781</v>
       </c>
       <c r="D68" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E68" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="I68" t="s">
+        <v>871</v>
+      </c>
+      <c r="J68" t="s">
+        <v>412</v>
+      </c>
+      <c r="K68" t="s">
+        <v>413</v>
+      </c>
+      <c r="L68" t="s">
+        <v>935</v>
+      </c>
+      <c r="M68" t="s">
+        <v>414</v>
+      </c>
+      <c r="N68" t="s">
+        <v>415</v>
+      </c>
+      <c r="O68" t="s">
+        <v>997</v>
+      </c>
+      <c r="P68" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="C69" t="s">
-        <v>747</v>
+        <v>782</v>
       </c>
       <c r="D69" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E69" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -7481,19 +7625,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="C70" t="s">
-        <v>748</v>
+        <v>783</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E70" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -7506,19 +7650,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C71" t="s">
-        <v>749</v>
+        <v>784</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E71" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -7531,27 +7675,24 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C72" t="s">
-        <v>750</v>
-      </c>
-      <c r="D72"/>
+        <v>785</v>
+      </c>
+      <c r="D72" t="s">
+        <v>428</v>
+      </c>
       <c r="E72" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="I72" t="s">
-        <v>836</v>
-      </c>
       <c r="J72"/>
-      <c r="K72" t="s">
-        <v>427</v>
-      </c>
+      <c r="K72"/>
       <c r="M72"/>
       <c r="N72"/>
       <c r="P72"/>
@@ -7559,155 +7700,141 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="C73" t="s">
-        <v>751</v>
-      </c>
-      <c r="D73" t="s">
-        <v>429</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="D73"/>
       <c r="E73" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>837</v>
-      </c>
-      <c r="J73" t="s">
-        <v>431</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="J73"/>
       <c r="K73" t="s">
         <v>432</v>
       </c>
-      <c r="L73" t="s">
-        <v>900</v>
-      </c>
-      <c r="M73" t="s">
-        <v>433</v>
-      </c>
-      <c r="N73" t="s">
-        <v>434</v>
-      </c>
-      <c r="O73" t="s">
-        <v>962</v>
-      </c>
-      <c r="P73" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>436</v>
-      </c>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>675</v>
+        <v>728</v>
       </c>
       <c r="C74" t="s">
-        <v>752</v>
-      </c>
-      <c r="D74"/>
+        <v>787</v>
+      </c>
+      <c r="D74" t="s">
+        <v>434</v>
+      </c>
       <c r="E74" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>838</v>
-      </c>
-      <c r="J74"/>
+        <v>873</v>
+      </c>
+      <c r="J74" t="s">
+        <v>436</v>
+      </c>
       <c r="K74" t="s">
+        <v>437</v>
+      </c>
+      <c r="L74" t="s">
+        <v>936</v>
+      </c>
+      <c r="M74" t="s">
+        <v>438</v>
+      </c>
+      <c r="N74" t="s">
         <v>439</v>
       </c>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="s">
+        <v>998</v>
+      </c>
+      <c r="P74" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C75" t="s">
-        <v>753</v>
+        <v>788</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>839</v>
+        <v>874</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
-        <v>442</v>
-      </c>
-      <c r="L75" t="s">
-        <v>901</v>
+        <v>444</v>
       </c>
       <c r="M75"/>
-      <c r="N75" t="s">
-        <v>443</v>
-      </c>
-      <c r="O75" t="s">
-        <v>963</v>
-      </c>
-      <c r="P75" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>445</v>
-      </c>
+      <c r="N75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>445</v>
+      </c>
+      <c r="B76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C76" t="s">
+        <v>789</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="s">
         <v>446</v>
-      </c>
-      <c r="B76" t="s">
-        <v>693</v>
-      </c>
-      <c r="C76" t="s">
-        <v>754</v>
-      </c>
-      <c r="D76" t="s">
-        <v>447</v>
-      </c>
-      <c r="E76" t="s">
-        <v>448</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L76" t="s">
-        <v>902</v>
+        <v>937</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="s">
+        <v>448</v>
+      </c>
+      <c r="O76" t="s">
+        <v>999</v>
+      </c>
+      <c r="P76" t="s">
         <v>449</v>
-      </c>
-      <c r="O76" t="s">
-        <v>964</v>
-      </c>
-      <c r="P76" t="s">
-        <v>444</v>
       </c>
       <c r="Q76" t="s">
         <v>450</v>
@@ -7718,266 +7845,271 @@
         <v>451</v>
       </c>
       <c r="B77" t="s">
-        <v>675</v>
-      </c>
-      <c r="D77"/>
-      <c r="E77"/>
+        <v>729</v>
+      </c>
+      <c r="C77" t="s">
+        <v>790</v>
+      </c>
+      <c r="D77" t="s">
+        <v>452</v>
+      </c>
+      <c r="E77" t="s">
+        <v>453</v>
+      </c>
       <c r="G77"/>
       <c r="H77"/>
+      <c r="I77" t="s">
+        <v>876</v>
+      </c>
       <c r="J77"/>
-      <c r="K77"/>
+      <c r="K77" t="s">
+        <v>447</v>
+      </c>
       <c r="L77" t="s">
-        <v>903</v>
-      </c>
-      <c r="M77" t="s">
-        <v>452</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="M77"/>
       <c r="N77" t="s">
-        <v>453</v>
-      </c>
-      <c r="P77"/>
-      <c r="Q77"/>
+        <v>454</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P77" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>675</v>
-      </c>
-      <c r="C78" t="s">
-        <v>755</v>
-      </c>
-      <c r="D78" t="s">
-        <v>455</v>
-      </c>
-      <c r="E78" t="s">
-        <v>456</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
       <c r="G78"/>
       <c r="H78"/>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="M78"/>
-      <c r="N78"/>
+      <c r="L78" t="s">
+        <v>939</v>
+      </c>
+      <c r="M78" t="s">
+        <v>457</v>
+      </c>
+      <c r="N78" t="s">
+        <v>458</v>
+      </c>
       <c r="P78"/>
       <c r="Q78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B79" t="s">
-        <v>675</v>
-      </c>
-      <c r="C79" t="s">
-        <v>756</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>458</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>459</v>
+        <v>168</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="J79" t="s">
+        <v>460</v>
+      </c>
+      <c r="K79" t="s">
+        <v>461</v>
+      </c>
+      <c r="M79" t="s">
+        <v>462</v>
+      </c>
+      <c r="N79" t="s">
+        <v>463</v>
+      </c>
+      <c r="P79" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="C80" t="s">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="D80" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E80" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
       <c r="J80"/>
       <c r="K80"/>
-      <c r="L80" t="s">
-        <v>904</v>
-      </c>
-      <c r="M80" t="s">
-        <v>463</v>
-      </c>
-      <c r="N80" t="s">
-        <v>464</v>
-      </c>
+      <c r="M80"/>
+      <c r="N80"/>
       <c r="P80"/>
       <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="C81" t="s">
-        <v>758</v>
+        <v>792</v>
       </c>
       <c r="D81" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E81" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
       <c r="J81"/>
       <c r="K81"/>
-      <c r="L81" t="s">
-        <v>905</v>
-      </c>
-      <c r="M81" t="s">
-        <v>468</v>
-      </c>
-      <c r="N81" t="s">
-        <v>469</v>
-      </c>
+      <c r="M81"/>
+      <c r="N81"/>
       <c r="P81"/>
       <c r="Q81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
       <c r="C82" t="s">
-        <v>759</v>
-      </c>
-      <c r="D82"/>
+        <v>793</v>
+      </c>
+      <c r="D82" t="s">
+        <v>473</v>
+      </c>
       <c r="E82" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
       <c r="J82"/>
       <c r="K82"/>
-      <c r="M82"/>
-      <c r="N82"/>
+      <c r="L82" t="s">
+        <v>940</v>
+      </c>
+      <c r="M82" t="s">
+        <v>475</v>
+      </c>
+      <c r="N82" t="s">
+        <v>476</v>
+      </c>
       <c r="P82"/>
       <c r="Q82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
       <c r="C83" t="s">
-        <v>760</v>
+        <v>794</v>
       </c>
       <c r="D83" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E83" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
-      <c r="I83" t="s">
-        <v>841</v>
-      </c>
       <c r="J83"/>
-      <c r="K83" t="s">
-        <v>475</v>
-      </c>
+      <c r="K83"/>
       <c r="L83" t="s">
-        <v>889</v>
-      </c>
-      <c r="M83"/>
+        <v>941</v>
+      </c>
+      <c r="M83" t="s">
+        <v>480</v>
+      </c>
       <c r="N83" t="s">
-        <v>285</v>
+        <v>481</v>
       </c>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C84" t="s">
-        <v>761</v>
-      </c>
-      <c r="D84" t="s">
-        <v>477</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="D84"/>
       <c r="E84" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
-      <c r="I84" t="s">
-        <v>842</v>
-      </c>
-      <c r="J84" t="s">
-        <v>479</v>
-      </c>
-      <c r="K84" t="s">
-        <v>480</v>
-      </c>
-      <c r="L84" t="s">
-        <v>906</v>
-      </c>
-      <c r="M84" t="s">
-        <v>481</v>
-      </c>
-      <c r="N84" t="s">
-        <v>482</v>
-      </c>
-      <c r="O84" t="s">
-        <v>965</v>
-      </c>
-      <c r="P84" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>484</v>
-      </c>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>484</v>
+      </c>
+      <c r="B85" t="s">
+        <v>711</v>
+      </c>
+      <c r="C85" t="s">
+        <v>796</v>
+      </c>
+      <c r="D85" t="s">
         <v>485</v>
       </c>
-      <c r="B85" t="s">
-        <v>679</v>
-      </c>
-      <c r="C85" t="s">
-        <v>762</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>486</v>
-      </c>
-      <c r="E85" t="s">
-        <v>487</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
+      <c r="I85" t="s">
+        <v>877</v>
+      </c>
       <c r="J85"/>
-      <c r="K85"/>
+      <c r="K85" t="s">
+        <v>487</v>
+      </c>
+      <c r="L85" t="s">
+        <v>925</v>
+      </c>
       <c r="M85"/>
-      <c r="N85"/>
+      <c r="N85" t="s">
+        <v>290</v>
+      </c>
       <c r="P85"/>
       <c r="Q85"/>
     </row>
@@ -7986,10 +8118,10 @@
         <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="C86" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="D86" t="s">
         <v>489</v>
@@ -7999,193 +8131,200 @@
       </c>
       <c r="G86"/>
       <c r="H86"/>
-      <c r="J86"/>
-      <c r="K86"/>
+      <c r="I86" t="s">
+        <v>878</v>
+      </c>
+      <c r="J86" t="s">
+        <v>491</v>
+      </c>
+      <c r="K86" t="s">
+        <v>492</v>
+      </c>
       <c r="L86" t="s">
-        <v>907</v>
+        <v>942</v>
       </c>
       <c r="M86" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N86" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O86" t="s">
-        <v>966</v>
+        <v>1001</v>
       </c>
       <c r="P86" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q86" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s">
-        <v>675</v>
-      </c>
-      <c r="D87"/>
-      <c r="E87"/>
+        <v>715</v>
+      </c>
+      <c r="C87" t="s">
+        <v>798</v>
+      </c>
+      <c r="D87" t="s">
+        <v>498</v>
+      </c>
+      <c r="E87" t="s">
+        <v>499</v>
+      </c>
       <c r="G87"/>
       <c r="H87"/>
       <c r="J87"/>
       <c r="K87"/>
-      <c r="L87" t="s">
-        <v>908</v>
-      </c>
-      <c r="M87" t="s">
-        <v>496</v>
-      </c>
-      <c r="N87" t="s">
-        <v>278</v>
-      </c>
-      <c r="O87" t="s">
-        <v>967</v>
-      </c>
-      <c r="P87" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>498</v>
-      </c>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>675</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88" t="s">
-        <v>794</v>
-      </c>
-      <c r="G88" t="s">
-        <v>500</v>
-      </c>
-      <c r="H88" t="s">
+        <v>723</v>
+      </c>
+      <c r="C88" t="s">
+        <v>799</v>
+      </c>
+      <c r="D88" t="s">
         <v>501</v>
       </c>
-      <c r="I88" t="s">
-        <v>235</v>
-      </c>
-      <c r="J88" t="s">
-        <v>235</v>
-      </c>
-      <c r="K88" t="s">
-        <v>235</v>
-      </c>
+      <c r="E88" t="s">
+        <v>502</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="J88"/>
+      <c r="K88"/>
       <c r="L88" t="s">
-        <v>235</v>
+        <v>943</v>
       </c>
       <c r="M88" t="s">
-        <v>235</v>
+        <v>503</v>
       </c>
       <c r="N88" t="s">
-        <v>235</v>
+        <v>504</v>
       </c>
       <c r="O88" t="s">
-        <v>235</v>
+        <v>1002</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>505</v>
       </c>
       <c r="Q88" t="s">
-        <v>235</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B89" t="s">
-        <v>675</v>
-      </c>
-      <c r="C89" t="s">
-        <v>764</v>
-      </c>
-      <c r="D89" t="s">
-        <v>503</v>
-      </c>
-      <c r="E89" t="s">
-        <v>504</v>
-      </c>
-      <c r="F89" t="s">
-        <v>795</v>
-      </c>
-      <c r="G89" t="s">
-        <v>505</v>
-      </c>
-      <c r="H89" t="s">
-        <v>506</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="G89"/>
+      <c r="H89"/>
       <c r="J89"/>
       <c r="K89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
+      <c r="L89" t="s">
+        <v>944</v>
+      </c>
+      <c r="M89" t="s">
+        <v>508</v>
+      </c>
+      <c r="N89" t="s">
+        <v>283</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P89" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B90" t="s">
-        <v>675</v>
-      </c>
-      <c r="C90" t="s">
-        <v>764</v>
-      </c>
-      <c r="D90" t="s">
-        <v>508</v>
-      </c>
-      <c r="E90" t="s">
-        <v>504</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
       <c r="F90" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="G90" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H90" t="s">
-        <v>510</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+        <v>513</v>
+      </c>
+      <c r="I90" t="s">
+        <v>240</v>
+      </c>
+      <c r="J90" t="s">
+        <v>240</v>
+      </c>
+      <c r="K90" t="s">
+        <v>240</v>
+      </c>
+      <c r="L90" t="s">
+        <v>240</v>
+      </c>
+      <c r="M90" t="s">
+        <v>240</v>
+      </c>
+      <c r="N90" t="s">
+        <v>240</v>
+      </c>
+      <c r="O90" t="s">
+        <v>240</v>
+      </c>
+      <c r="P90" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B91" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C91" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E91" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F91" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="G91" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H91" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -8196,52 +8335,45 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>519</v>
+      </c>
+      <c r="B92" t="s">
+        <v>711</v>
+      </c>
+      <c r="C92" t="s">
+        <v>800</v>
+      </c>
+      <c r="D92" t="s">
+        <v>520</v>
+      </c>
+      <c r="E92" t="s">
         <v>516</v>
       </c>
-      <c r="B92" t="s">
-        <v>694</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92" t="s">
-        <v>843</v>
-      </c>
-      <c r="J92" t="s">
-        <v>517</v>
-      </c>
-      <c r="K92" t="s">
-        <v>518</v>
-      </c>
-      <c r="L92" t="s">
-        <v>909</v>
-      </c>
-      <c r="M92" t="s">
-        <v>519</v>
-      </c>
-      <c r="N92" t="s">
-        <v>520</v>
-      </c>
-      <c r="O92" t="s">
-        <v>968</v>
-      </c>
-      <c r="P92" t="s">
+      <c r="F92" t="s">
+        <v>832</v>
+      </c>
+      <c r="G92" t="s">
         <v>521</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="H92" t="s">
         <v>522</v>
       </c>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>523</v>
       </c>
       <c r="B93" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C93" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="D93" t="s">
         <v>524</v>
@@ -8249,8 +8381,15 @@
       <c r="E93" t="s">
         <v>525</v>
       </c>
-      <c r="G93"/>
-      <c r="H93"/>
+      <c r="F93" t="s">
+        <v>833</v>
+      </c>
+      <c r="G93" t="s">
+        <v>526</v>
+      </c>
+      <c r="H93" t="s">
+        <v>527</v>
+      </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="M93"/>
@@ -8260,54 +8399,61 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B94" t="s">
-        <v>675</v>
-      </c>
-      <c r="C94" t="s">
-        <v>767</v>
-      </c>
-      <c r="D94" t="s">
-        <v>527</v>
-      </c>
-      <c r="E94" t="s">
-        <v>528</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
       <c r="G94"/>
       <c r="H94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="I94" t="s">
+        <v>879</v>
+      </c>
+      <c r="J94" t="s">
+        <v>529</v>
+      </c>
+      <c r="K94" t="s">
+        <v>530</v>
+      </c>
+      <c r="L94" t="s">
+        <v>945</v>
+      </c>
+      <c r="M94" t="s">
+        <v>531</v>
+      </c>
+      <c r="N94" t="s">
+        <v>532</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P94" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B95" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C95" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="D95" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E95" t="s">
-        <v>531</v>
-      </c>
-      <c r="F95" t="s">
-        <v>798</v>
-      </c>
-      <c r="G95" t="s">
-        <v>532</v>
-      </c>
-      <c r="H95" t="s">
-        <v>533</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
       <c r="J95"/>
       <c r="K95"/>
       <c r="M95"/>
@@ -8317,68 +8463,54 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="C96" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="D96" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E96" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="I96" t="s">
-        <v>844</v>
-      </c>
-      <c r="J96" t="s">
-        <v>537</v>
-      </c>
-      <c r="K96" t="s">
-        <v>538</v>
-      </c>
-      <c r="L96" t="s">
-        <v>910</v>
-      </c>
-      <c r="M96" t="s">
-        <v>539</v>
-      </c>
-      <c r="N96" t="s">
-        <v>540</v>
-      </c>
-      <c r="O96" t="s">
-        <v>969</v>
-      </c>
-      <c r="P96" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>542</v>
-      </c>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>541</v>
+      </c>
+      <c r="B97" t="s">
+        <v>711</v>
+      </c>
+      <c r="C97" t="s">
+        <v>804</v>
+      </c>
+      <c r="D97" t="s">
+        <v>542</v>
+      </c>
+      <c r="E97" t="s">
         <v>543</v>
       </c>
-      <c r="B97" t="s">
-        <v>675</v>
-      </c>
-      <c r="C97" t="s">
-        <v>770</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
+        <v>834</v>
+      </c>
+      <c r="G97" t="s">
         <v>544</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>545</v>
       </c>
-      <c r="G97"/>
-      <c r="H97"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="M97"/>
@@ -8391,10 +8523,10 @@
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="C98" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8404,28 +8536,49 @@
       </c>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="I98" t="s">
+        <v>880</v>
+      </c>
+      <c r="J98" t="s">
+        <v>549</v>
+      </c>
+      <c r="K98" t="s">
+        <v>550</v>
+      </c>
+      <c r="L98" t="s">
+        <v>946</v>
+      </c>
+      <c r="M98" t="s">
+        <v>551</v>
+      </c>
+      <c r="N98" t="s">
+        <v>552</v>
+      </c>
+      <c r="O98" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P98" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="C99" t="s">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="D99" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E99" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -8438,13 +8591,20 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s">
-        <v>696</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
+        <v>728</v>
+      </c>
+      <c r="C100" t="s">
+        <v>807</v>
+      </c>
+      <c r="D100" t="s">
+        <v>559</v>
+      </c>
+      <c r="E100" t="s">
+        <v>560</v>
+      </c>
       <c r="G100"/>
       <c r="H100"/>
       <c r="J100"/>
@@ -8456,559 +8616,507 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s">
-        <v>693</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
+        <v>731</v>
+      </c>
+      <c r="C101" t="s">
+        <v>808</v>
+      </c>
+      <c r="D101" t="s">
+        <v>562</v>
+      </c>
+      <c r="E101" t="s">
+        <v>563</v>
+      </c>
       <c r="G101"/>
       <c r="H101"/>
       <c r="J101"/>
       <c r="K101"/>
-      <c r="L101" t="s">
-        <v>911</v>
-      </c>
-      <c r="M101" t="s">
-        <v>554</v>
-      </c>
-      <c r="N101" t="s">
-        <v>555</v>
-      </c>
+      <c r="M101"/>
+      <c r="N101"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B102" t="s">
-        <v>697</v>
-      </c>
-      <c r="C102" t="s">
-        <v>773</v>
-      </c>
-      <c r="D102" t="s">
-        <v>557</v>
-      </c>
-      <c r="E102" t="s">
-        <v>558</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
       <c r="G102"/>
       <c r="H102"/>
-      <c r="I102" t="s">
-        <v>845</v>
-      </c>
-      <c r="J102" t="s">
-        <v>559</v>
-      </c>
-      <c r="K102" t="s">
-        <v>560</v>
-      </c>
-      <c r="L102" t="s">
-        <v>912</v>
-      </c>
-      <c r="M102" t="s">
-        <v>561</v>
-      </c>
-      <c r="N102" t="s">
-        <v>562</v>
-      </c>
-      <c r="O102" t="s">
-        <v>970</v>
-      </c>
-      <c r="P102" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>564</v>
-      </c>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>565</v>
       </c>
       <c r="B103" t="s">
-        <v>698</v>
-      </c>
-      <c r="C103" t="s">
-        <v>774</v>
-      </c>
-      <c r="D103" t="s">
-        <v>566</v>
-      </c>
-      <c r="E103" t="s">
-        <v>567</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
       <c r="G103"/>
       <c r="H103"/>
-      <c r="I103" t="s">
-        <v>846</v>
-      </c>
-      <c r="J103" t="s">
-        <v>568</v>
-      </c>
-      <c r="K103" t="s">
-        <v>569</v>
-      </c>
+      <c r="J103"/>
+      <c r="K103"/>
       <c r="L103" t="s">
-        <v>913</v>
+        <v>947</v>
       </c>
       <c r="M103" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N103" t="s">
-        <v>571</v>
-      </c>
-      <c r="O103" t="s">
-        <v>971</v>
-      </c>
-      <c r="P103" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>573</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="P103"/>
+      <c r="Q103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B104" t="s">
-        <v>677</v>
+        <v>733</v>
       </c>
       <c r="C104" t="s">
-        <v>775</v>
+        <v>809</v>
       </c>
       <c r="D104" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E104" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>847</v>
+        <v>881</v>
       </c>
       <c r="J104" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K104" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L104" t="s">
-        <v>908</v>
+        <v>948</v>
       </c>
       <c r="M104" t="s">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="N104" t="s">
-        <v>278</v>
+        <v>574</v>
       </c>
       <c r="O104" t="s">
-        <v>972</v>
+        <v>1006</v>
       </c>
       <c r="P104" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Q104" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B105" t="s">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="C105" t="s">
-        <v>776</v>
+        <v>810</v>
       </c>
       <c r="D105" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E105" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="J105" t="s">
+        <v>580</v>
+      </c>
+      <c r="K105" t="s">
+        <v>581</v>
+      </c>
+      <c r="L105" t="s">
+        <v>949</v>
+      </c>
+      <c r="M105" t="s">
+        <v>582</v>
+      </c>
+      <c r="N105" t="s">
+        <v>583</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P105" t="s">
         <v>584</v>
       </c>
-      <c r="K105" t="s">
+      <c r="Q105" t="s">
         <v>585</v>
-      </c>
-      <c r="L105" t="s">
-        <v>914</v>
-      </c>
-      <c r="M105" t="s">
-        <v>586</v>
-      </c>
-      <c r="N105" t="s">
-        <v>587</v>
-      </c>
-      <c r="O105" t="s">
-        <v>973</v>
-      </c>
-      <c r="P105" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B106" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="C106" t="s">
-        <v>777</v>
+        <v>811</v>
       </c>
       <c r="D106" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E106" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="J106" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K106" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L106" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="M106" t="s">
-        <v>595</v>
+        <v>508</v>
       </c>
       <c r="N106" t="s">
-        <v>596</v>
+        <v>283</v>
       </c>
       <c r="O106" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="P106" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q106" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B107" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="C107" t="s">
-        <v>778</v>
+        <v>812</v>
       </c>
       <c r="D107" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E107" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>850</v>
+        <v>884</v>
       </c>
       <c r="J107" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="K107" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L107" t="s">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="M107" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="N107" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="O107" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="P107" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="Q107" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B108" t="s">
-        <v>699</v>
-      </c>
-      <c r="C108" t="s">
-        <v>609</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E108" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
+      <c r="J108" t="s">
+        <v>605</v>
+      </c>
+      <c r="K108" t="s">
+        <v>606</v>
+      </c>
+      <c r="M108" t="s">
+        <v>607</v>
+      </c>
+      <c r="N108" t="s">
+        <v>608</v>
+      </c>
+      <c r="P108" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s">
-        <v>699</v>
-      </c>
-      <c r="C109" t="s">
-        <v>609</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E109" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
-      <c r="I109" t="s">
-        <v>851</v>
-      </c>
       <c r="J109" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K109" t="s">
-        <v>612</v>
-      </c>
-      <c r="L109" t="s">
-        <v>917</v>
+        <v>615</v>
       </c>
       <c r="M109" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="N109" t="s">
-        <v>614</v>
-      </c>
-      <c r="O109" t="s">
-        <v>976</v>
+        <v>617</v>
       </c>
       <c r="P109" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Q109" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B110" t="s">
-        <v>699</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>609</v>
+        <v>813</v>
       </c>
       <c r="D110" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="E110" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>852</v>
+        <v>885</v>
       </c>
       <c r="J110" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K110" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="L110" t="s">
-        <v>918</v>
+        <v>951</v>
       </c>
       <c r="M110" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N110" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
       <c r="P110" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="Q110" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s">
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="C111" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="D111" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E111" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
-      <c r="J111"/>
-      <c r="K111"/>
+      <c r="I111" t="s">
+        <v>886</v>
+      </c>
+      <c r="J111" t="s">
+        <v>632</v>
+      </c>
+      <c r="K111" t="s">
+        <v>633</v>
+      </c>
       <c r="L111" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="M111" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="N111" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="O111" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
       <c r="P111" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="Q111" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B112" t="s">
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="C112" t="s">
-        <v>780</v>
+        <v>639</v>
       </c>
       <c r="D112" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="E112" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
       <c r="J112"/>
       <c r="K112"/>
-      <c r="L112" t="s">
-        <v>920</v>
-      </c>
-      <c r="M112" t="s">
-        <v>634</v>
-      </c>
-      <c r="N112" t="s">
-        <v>635</v>
-      </c>
+      <c r="M112"/>
+      <c r="N112"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B113" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C113" t="s">
-        <v>781</v>
+        <v>639</v>
       </c>
       <c r="D113" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E113" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113" t="s">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="J113" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="K113" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L113" t="s">
-        <v>921</v>
+        <v>953</v>
       </c>
       <c r="M113" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N113" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="O113" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
       <c r="P113" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="Q113" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B114" t="s">
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="C114" t="s">
-        <v>782</v>
+        <v>639</v>
       </c>
       <c r="D114" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E114" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="J114" t="s">
         <v>648</v>
@@ -9017,7 +9125,7 @@
         <v>649</v>
       </c>
       <c r="L114" t="s">
-        <v>922</v>
+        <v>954</v>
       </c>
       <c r="M114" t="s">
         <v>650</v>
@@ -9026,7 +9134,7 @@
         <v>651</v>
       </c>
       <c r="O114" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
       <c r="P114" t="s">
         <v>652</v>
@@ -9040,10 +9148,10 @@
         <v>654</v>
       </c>
       <c r="B115" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="C115" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
       <c r="D115" t="s">
         <v>655</v>
@@ -9053,104 +9161,297 @@
       </c>
       <c r="G115"/>
       <c r="H115"/>
-      <c r="I115" t="s">
-        <v>855</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115" t="s">
+        <v>955</v>
+      </c>
+      <c r="M115" t="s">
         <v>657</v>
       </c>
-      <c r="K115" t="s">
+      <c r="N115" t="s">
         <v>658</v>
       </c>
-      <c r="L115" t="s">
-        <v>923</v>
-      </c>
-      <c r="M115" t="s">
+      <c r="O115" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P115" t="s">
         <v>659</v>
       </c>
-      <c r="N115" t="s">
+      <c r="Q115" t="s">
         <v>660</v>
-      </c>
-      <c r="O115" t="s">
-        <v>981</v>
-      </c>
-      <c r="P115" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>661</v>
+      </c>
+      <c r="B116" t="s">
+        <v>713</v>
+      </c>
+      <c r="C116" t="s">
+        <v>816</v>
+      </c>
+      <c r="D116" t="s">
+        <v>662</v>
+      </c>
+      <c r="E116" t="s">
         <v>663</v>
-      </c>
-      <c r="B116" t="s">
-        <v>702</v>
-      </c>
-      <c r="C116" t="s">
-        <v>784</v>
-      </c>
-      <c r="D116" t="s">
-        <v>664</v>
-      </c>
-      <c r="E116" t="s">
-        <v>665</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
-      <c r="I116" t="s">
-        <v>856</v>
-      </c>
-      <c r="J116" t="s">
-        <v>666</v>
-      </c>
-      <c r="K116" t="s">
-        <v>667</v>
-      </c>
+      <c r="J116"/>
+      <c r="K116"/>
       <c r="L116" t="s">
-        <v>924</v>
+        <v>956</v>
       </c>
       <c r="M116" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N116" t="s">
-        <v>669</v>
-      </c>
-      <c r="O116" t="s">
-        <v>982</v>
-      </c>
-      <c r="P116" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>671</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="P116"/>
+      <c r="Q116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B117" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="C117" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="D117" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E117" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="P117"/>
-      <c r="Q117"/>
+      <c r="I117" t="s">
+        <v>889</v>
+      </c>
+      <c r="J117" t="s">
+        <v>669</v>
+      </c>
+      <c r="K117" t="s">
+        <v>670</v>
+      </c>
+      <c r="L117" t="s">
+        <v>957</v>
+      </c>
+      <c r="M117" t="s">
+        <v>671</v>
+      </c>
+      <c r="N117" t="s">
+        <v>672</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P117" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>675</v>
+      </c>
+      <c r="B118" t="s">
+        <v>713</v>
+      </c>
+      <c r="C118" t="s">
+        <v>818</v>
+      </c>
+      <c r="D118" t="s">
+        <v>676</v>
+      </c>
+      <c r="E118" t="s">
+        <v>677</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118" t="s">
+        <v>890</v>
+      </c>
+      <c r="J118" t="s">
+        <v>678</v>
+      </c>
+      <c r="K118" t="s">
+        <v>679</v>
+      </c>
+      <c r="L118" t="s">
+        <v>958</v>
+      </c>
+      <c r="M118" t="s">
+        <v>680</v>
+      </c>
+      <c r="N118" t="s">
+        <v>681</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P118" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>684</v>
+      </c>
+      <c r="B119" t="s">
+        <v>737</v>
+      </c>
+      <c r="C119" t="s">
+        <v>819</v>
+      </c>
+      <c r="D119" t="s">
+        <v>685</v>
+      </c>
+      <c r="E119" t="s">
+        <v>686</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119" t="s">
+        <v>891</v>
+      </c>
+      <c r="J119" t="s">
+        <v>687</v>
+      </c>
+      <c r="K119" t="s">
+        <v>688</v>
+      </c>
+      <c r="L119" t="s">
+        <v>959</v>
+      </c>
+      <c r="M119" t="s">
+        <v>689</v>
+      </c>
+      <c r="N119" t="s">
+        <v>690</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P119" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" t="s">
+        <v>738</v>
+      </c>
+      <c r="C120" t="s">
+        <v>820</v>
+      </c>
+      <c r="D120" t="s">
+        <v>694</v>
+      </c>
+      <c r="E120" t="s">
+        <v>695</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120" t="s">
+        <v>892</v>
+      </c>
+      <c r="J120" t="s">
+        <v>696</v>
+      </c>
+      <c r="K120" t="s">
+        <v>697</v>
+      </c>
+      <c r="L120" t="s">
+        <v>960</v>
+      </c>
+      <c r="M120" t="s">
+        <v>698</v>
+      </c>
+      <c r="N120" t="s">
+        <v>699</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P120" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>702</v>
+      </c>
+      <c r="B121" t="s">
+        <v>737</v>
+      </c>
+      <c r="C121" t="s">
+        <v>821</v>
+      </c>
+      <c r="D121" t="s">
+        <v>703</v>
+      </c>
+      <c r="E121" t="s">
+        <v>704</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>705</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="J122" t="s">
+        <v>706</v>
+      </c>
+      <c r="K122" t="s">
+        <v>707</v>
+      </c>
+      <c r="M122" t="s">
+        <v>708</v>
+      </c>
+      <c r="N122" t="s">
+        <v>454</v>
+      </c>
+      <c r="P122" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>710</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q2"/>

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1068">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
+*ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -2774,6 +2774,72 @@
 「もう苦しまなくていい」</t>
   </si>
   <si>
+    <t xml:space="preserve">keeper_garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"How adorable."
+"Muwohoho."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「かわいいのう」
+「フホホホ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Muwohohoho! You dare challenge me!?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「フホホホ！わっちに刃を向けるか！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Muwohohoho! Splendid!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「フホォホホホォ！天晴じゃ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Muwohohoho, how weak you are!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「フホホホホ、弱いのう！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erishe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I wonder where he went?"
+You feel a warmth as if being wrapped in gentle sunlight. "Come here, Vesel."
+"It feels like I could forget the passage of time."
+"We should hurry back."
+"We'll be late for the play."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「どこに行ってしまったのかしらね？」
+柔らかな陽だまりの中にいるような温かさをあなたは感じた。 
+「ふふ、おいで、ヴェセル」
+「時が経つのを忘れてしまいそうです」
+「早く帰らなきゃ」
+「お芝居に遅れてしまいます」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"P-please... stop."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「や…やめてください」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"B-brother..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「にい…さん…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sorry..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ごめんなさい…」</t>
+  </si>
+  <si>
     <t xml:space="preserve">larnneire</t>
   </si>
   <si>
@@ -2809,12 +2875,6 @@
     <t xml:space="preserve">「うぅ…誰かが…ジャビ王に風の異変を伝えなければ…このままでは…」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Sorry..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ごめんなさい…」</t>
-  </si>
-  <si>
     <t xml:space="preserve">lomias</t>
   </si>
   <si>
@@ -2863,7 +2923,7 @@
   <si>
     <t xml:space="preserve">「あんな極上の女はそうはいねえ」
 「俺の手に掛かれば、どんな女もイチコロよ」
- *レロレロレロ*
+*レロレロレロ*
 「まったく罪な男に生まれちまったもんだ」</t>
   </si>
   <si>
@@ -4983,14 +5043,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4999,7 +5059,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -5008,7 +5068,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -5022,10 +5082,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C4" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -5036,7 +5096,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -5045,7 +5105,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -5061,10 +5121,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C5" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -5086,10 +5146,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>725</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -5102,7 +5162,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -5111,7 +5171,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -5125,10 +5185,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C7" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5139,7 +5199,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -5148,7 +5208,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -5164,10 +5224,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C8" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -5178,7 +5238,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -5187,7 +5247,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -5196,7 +5256,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>991</v>
+        <v>1007</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5210,10 +5270,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C9" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -5224,7 +5284,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -5233,7 +5293,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -5242,7 +5302,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>992</v>
+        <v>1008</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -5256,10 +5316,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C10" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5270,21 +5330,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>921</v>
+        <v>937</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>993</v>
+        <v>1009</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -5296,10 +5356,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C11" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5310,7 +5370,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -5319,7 +5379,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -5328,7 +5388,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5342,10 +5402,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="C12" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5356,7 +5416,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5365,7 +5425,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5374,7 +5434,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5388,10 +5448,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C13" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5409,7 +5469,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5425,10 +5485,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>725</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5439,7 +5499,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -5448,7 +5508,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -5457,7 +5517,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5471,10 +5531,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="C15" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5510,14 +5570,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5526,7 +5586,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5535,7 +5595,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5549,10 +5609,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="C17" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5563,7 +5623,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5572,7 +5632,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5581,7 +5641,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5595,14 +5655,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5611,7 +5671,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5620,7 +5680,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>999</v>
+        <v>1015</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5634,14 +5694,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5650,7 +5710,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5659,7 +5719,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5673,10 +5733,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C20" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5687,7 +5747,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5696,7 +5756,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5705,7 +5765,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5719,14 +5779,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5735,7 +5795,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>931</v>
+        <v>947</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5744,7 +5804,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5758,14 +5818,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5774,7 +5834,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5783,7 +5843,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5797,10 +5857,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C23" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5822,10 +5882,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C24" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5836,7 +5896,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5845,7 +5905,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5854,7 +5914,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5868,14 +5928,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5900,10 +5960,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="C26" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5914,7 +5974,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
@@ -5932,10 +5992,10 @@
         <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="C27" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -5944,7 +6004,7 @@
         <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="G27" t="s">
         <v>170</v>
@@ -5964,10 +6024,10 @@
         <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C28" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -5980,7 +6040,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="M28" t="s">
         <v>175</v>
@@ -5989,7 +6049,7 @@
         <v>176</v>
       </c>
       <c r="O28" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="P28" t="s">
         <v>177</v>
@@ -6003,14 +6063,14 @@
         <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="J29" t="s">
         <v>180</v>
@@ -6019,7 +6079,7 @@
         <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="M29" t="s">
         <v>182</v>
@@ -6028,7 +6088,7 @@
         <v>183</v>
       </c>
       <c r="O29" t="s">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="P29" t="s">
         <v>184</v>
@@ -6042,10 +6102,10 @@
         <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="C30" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="D30" t="s">
         <v>187</v>
@@ -6056,7 +6116,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="J30" t="s">
         <v>189</v>
@@ -6065,7 +6125,7 @@
         <v>190</v>
       </c>
       <c r="L30" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="M30" t="s">
         <v>191</v>
@@ -6074,7 +6134,7 @@
         <v>192</v>
       </c>
       <c r="O30" t="s">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="P30" t="s">
         <v>193</v>
@@ -6088,10 +6148,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="C31" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -6102,7 +6162,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="J31" t="s">
         <v>189</v>
@@ -6111,7 +6171,7 @@
         <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="M31" t="s">
         <v>191</v>
@@ -6120,7 +6180,7 @@
         <v>192</v>
       </c>
       <c r="O31" t="s">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="P31" t="s">
         <v>193</v>
@@ -6134,10 +6194,10 @@
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="C32" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -6148,7 +6208,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="J32" t="s">
         <v>189</v>
@@ -6157,7 +6217,7 @@
         <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="M32" t="s">
         <v>191</v>
@@ -6166,7 +6226,7 @@
         <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="P32" t="s">
         <v>193</v>
@@ -6180,10 +6240,10 @@
         <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="C33" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="D33" t="s">
         <v>202</v>
@@ -6194,7 +6254,7 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="J33" t="s">
         <v>204</v>
@@ -6203,7 +6263,7 @@
         <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="M33" t="s">
         <v>206</v>
@@ -6212,7 +6272,7 @@
         <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="P33" t="s">
         <v>208</v>
@@ -6226,10 +6286,10 @@
         <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C34" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6240,7 +6300,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -6249,7 +6309,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -6258,7 +6318,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>1009</v>
+        <v>1025</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -6272,7 +6332,7 @@
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -6281,7 +6341,7 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="M35" t="s">
         <v>220</v>
@@ -6290,7 +6350,7 @@
         <v>221</v>
       </c>
       <c r="O35" t="s">
-        <v>1010</v>
+        <v>1026</v>
       </c>
       <c r="P35" t="s">
         <v>222</v>
@@ -6304,14 +6364,14 @@
         <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="J36" t="s">
         <v>225</v>
@@ -6320,7 +6380,7 @@
         <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="M36" t="s">
         <v>227</v>
@@ -6329,7 +6389,7 @@
         <v>228</v>
       </c>
       <c r="O36" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="P36" t="s">
         <v>229</v>
@@ -6343,12 +6403,12 @@
         <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="G37" t="s">
         <v>232</v>
@@ -6357,7 +6417,7 @@
         <v>233</v>
       </c>
       <c r="I37" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="J37" t="s">
         <v>234</v>
@@ -6366,7 +6426,7 @@
         <v>235</v>
       </c>
       <c r="L37" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="M37" t="s">
         <v>236</v>
@@ -6375,7 +6435,7 @@
         <v>237</v>
       </c>
       <c r="O37" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="P37" t="s">
         <v>238</v>
@@ -6389,10 +6449,10 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="C38" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="D38" t="s">
         <v>241</v>
@@ -6442,10 +6502,10 @@
         <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="C39" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="D39" t="s">
         <v>245</v>
@@ -6454,7 +6514,7 @@
         <v>246</v>
       </c>
       <c r="F39" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="G39" t="s">
         <v>247</v>
@@ -6463,7 +6523,7 @@
         <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="J39" t="s">
         <v>234</v>
@@ -6472,7 +6532,7 @@
         <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="M39" t="s">
         <v>236</v>
@@ -6481,7 +6541,7 @@
         <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="P39" t="s">
         <v>238</v>
@@ -6495,10 +6555,10 @@
         <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C40" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="D40" t="s">
         <v>250</v>
@@ -6520,7 +6580,7 @@
         <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -6538,10 +6598,10 @@
         <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C42" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -6552,7 +6612,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="J42" t="s">
         <v>256</v>
@@ -6561,7 +6621,7 @@
         <v>257</v>
       </c>
       <c r="L42" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="M42" t="s">
         <v>258</v>
@@ -6570,7 +6630,7 @@
         <v>259</v>
       </c>
       <c r="O42" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
       <c r="P42" t="s">
         <v>260</v>
@@ -6584,10 +6644,10 @@
         <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C43" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="D43" t="s">
         <v>263</v>
@@ -6598,7 +6658,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="J43" t="s">
         <v>265</v>
@@ -6607,7 +6667,7 @@
         <v>266</v>
       </c>
       <c r="L43" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="M43" t="s">
         <v>267</v>
@@ -6616,7 +6676,7 @@
         <v>268</v>
       </c>
       <c r="O43" t="s">
-        <v>1014</v>
+        <v>1030</v>
       </c>
       <c r="P43" t="s">
         <v>269</v>
@@ -6630,14 +6690,14 @@
         <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="J44" t="s">
         <v>272</v>
@@ -6646,7 +6706,7 @@
         <v>273</v>
       </c>
       <c r="L44" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="M44" t="s">
         <v>274</v>
@@ -6655,7 +6715,7 @@
         <v>275</v>
       </c>
       <c r="O44" t="s">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="P44"/>
       <c r="Q44" t="s">
@@ -6667,14 +6727,14 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="J45" t="s">
         <v>278</v>
@@ -6683,7 +6743,7 @@
         <v>279</v>
       </c>
       <c r="L45" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -6692,7 +6752,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -6706,7 +6766,7 @@
         <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -6715,7 +6775,7 @@
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="M46" t="s">
         <v>285</v>
@@ -6724,7 +6784,7 @@
         <v>286</v>
       </c>
       <c r="O46" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="P46" t="s">
         <v>287</v>
@@ -6738,7 +6798,7 @@
         <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="C47" t="s">
         <v>291</v>
@@ -6754,7 +6814,7 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="M47" t="s">
         <v>292</v>
@@ -6763,7 +6823,7 @@
         <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="P47" t="s">
         <v>294</v>
@@ -6777,10 +6837,10 @@
         <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C48" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="D48" t="s">
         <v>297</v>
@@ -6791,7 +6851,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="J48" t="s">
         <v>299</v>
@@ -6800,7 +6860,7 @@
         <v>300</v>
       </c>
       <c r="L48" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="M48" t="s">
         <v>301</v>
@@ -6809,7 +6869,7 @@
         <v>302</v>
       </c>
       <c r="O48" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="P48" t="s">
         <v>294</v>
@@ -6823,10 +6883,10 @@
         <v>303</v>
       </c>
       <c r="B49" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C49" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="D49" t="s">
         <v>304</v>
@@ -6837,7 +6897,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="J49" t="s">
         <v>306</v>
@@ -6846,7 +6906,7 @@
         <v>307</v>
       </c>
       <c r="L49" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="M49" t="s">
         <v>308</v>
@@ -6855,7 +6915,7 @@
         <v>309</v>
       </c>
       <c r="O49" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="P49" t="s">
         <v>310</v>
@@ -6869,10 +6929,10 @@
         <v>312</v>
       </c>
       <c r="B50" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C50" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="D50" t="s">
         <v>313</v>
@@ -6883,7 +6943,7 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="J50" t="s">
         <v>315</v>
@@ -6892,7 +6952,7 @@
         <v>316</v>
       </c>
       <c r="L50" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="M50" t="s">
         <v>317</v>
@@ -6901,7 +6961,7 @@
         <v>318</v>
       </c>
       <c r="O50" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="P50" t="s">
         <v>317</v>
@@ -6915,14 +6975,14 @@
         <v>319</v>
       </c>
       <c r="B51" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6931,7 +6991,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6940,7 +7000,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6954,10 +7014,10 @@
         <v>326</v>
       </c>
       <c r="B52" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="C52" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="D52" t="s">
         <v>327</v>
@@ -7000,10 +7060,10 @@
         <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="C53" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="D53" t="s">
         <v>331</v>
@@ -7046,10 +7106,10 @@
         <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="C54" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="D54" t="s">
         <v>334</v>
@@ -7092,10 +7152,10 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="C55" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="D55" t="s">
         <v>337</v>
@@ -7138,10 +7198,10 @@
         <v>339</v>
       </c>
       <c r="B56" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C56" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="D56" t="s">
         <v>340</v>
@@ -7152,7 +7212,7 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="J56" t="s">
         <v>342</v>
@@ -7161,7 +7221,7 @@
         <v>343</v>
       </c>
       <c r="L56" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="M56" t="s">
         <v>344</v>
@@ -7170,7 +7230,7 @@
         <v>345</v>
       </c>
       <c r="O56" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="P56" t="s">
         <v>346</v>
@@ -7184,14 +7244,14 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="J57" t="s">
         <v>349</v>
@@ -7200,7 +7260,7 @@
         <v>350</v>
       </c>
       <c r="L57" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="M57" t="s">
         <v>351</v>
@@ -7209,7 +7269,7 @@
         <v>352</v>
       </c>
       <c r="O57" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="P57" t="s">
         <v>353</v>
@@ -7223,10 +7283,10 @@
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C58" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -7269,10 +7329,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C59" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -7281,7 +7341,7 @@
         <v>360</v>
       </c>
       <c r="F59" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="G59" t="s">
         <v>361</v>
@@ -7322,10 +7382,10 @@
         <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="C60" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -7362,12 +7422,12 @@
         <v>366</v>
       </c>
       <c r="B61" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="G61" t="s">
         <v>367</v>
@@ -7408,10 +7468,10 @@
         <v>370</v>
       </c>
       <c r="B62" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C62" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="D62" t="s">
         <v>371</v>
@@ -7420,7 +7480,7 @@
         <v>372</v>
       </c>
       <c r="F62" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="G62" t="s">
         <v>373</v>
@@ -7461,12 +7521,12 @@
         <v>375</v>
       </c>
       <c r="B63" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="G63" t="s">
         <v>376</v>
@@ -7507,10 +7567,10 @@
         <v>379</v>
       </c>
       <c r="B64" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="C64" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="D64" t="s">
         <v>380</v>
@@ -7521,7 +7581,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="J64" t="s">
         <v>382</v>
@@ -7530,7 +7590,7 @@
         <v>383</v>
       </c>
       <c r="L64" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="M64" t="s">
         <v>384</v>
@@ -7539,7 +7599,7 @@
         <v>385</v>
       </c>
       <c r="O64" t="s">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="P64" t="s">
         <v>386</v>
@@ -7553,10 +7613,10 @@
         <v>388</v>
       </c>
       <c r="B65" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C65" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="D65" t="s">
         <v>389</v>
@@ -7567,7 +7627,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="J65" t="s">
         <v>391</v>
@@ -7576,7 +7636,7 @@
         <v>392</v>
       </c>
       <c r="L65" t="s">
-        <v>955</v>
+        <v>971</v>
       </c>
       <c r="M65" t="s">
         <v>393</v>
@@ -7585,7 +7645,7 @@
         <v>394</v>
       </c>
       <c r="O65" t="s">
-        <v>1024</v>
+        <v>1040</v>
       </c>
       <c r="P65" t="s">
         <v>395</v>
@@ -7599,10 +7659,10 @@
         <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C66" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="D66" t="s">
         <v>398</v>
@@ -7613,7 +7673,7 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="J66" t="s">
         <v>400</v>
@@ -7622,7 +7682,7 @@
         <v>401</v>
       </c>
       <c r="L66" t="s">
-        <v>956</v>
+        <v>972</v>
       </c>
       <c r="M66" t="s">
         <v>402</v>
@@ -7631,7 +7691,7 @@
         <v>403</v>
       </c>
       <c r="O66" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="P66" t="s">
         <v>404</v>
@@ -7645,12 +7705,12 @@
         <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="G67" t="s">
         <v>407</v>
@@ -7670,12 +7730,12 @@
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="G68" t="s">
         <v>410</v>
@@ -7716,10 +7776,10 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="C69" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -7730,7 +7790,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="J69" t="s">
         <v>415</v>
@@ -7739,7 +7799,7 @@
         <v>416</v>
       </c>
       <c r="L69" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="M69" t="s">
         <v>417</v>
@@ -7748,7 +7808,7 @@
         <v>418</v>
       </c>
       <c r="O69" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
       <c r="P69" t="s">
         <v>419</v>
@@ -7762,10 +7822,10 @@
         <v>421</v>
       </c>
       <c r="B70" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C70" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="D70" t="s">
         <v>422</v>
@@ -7787,10 +7847,10 @@
         <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C71" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7812,10 +7872,10 @@
         <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C72" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="D72" t="s">
         <v>428</v>
@@ -7837,10 +7897,10 @@
         <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C73" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="D73" t="s">
         <v>431</v>
@@ -7862,10 +7922,10 @@
         <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C74" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -7874,7 +7934,7 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
@@ -7890,10 +7950,10 @@
         <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="C75" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="D75" t="s">
         <v>437</v>
@@ -7904,7 +7964,7 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="J75" t="s">
         <v>439</v>
@@ -7913,7 +7973,7 @@
         <v>440</v>
       </c>
       <c r="L75" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="M75" t="s">
         <v>441</v>
@@ -7922,7 +7982,7 @@
         <v>442</v>
       </c>
       <c r="O75" t="s">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="P75" t="s">
         <v>443</v>
@@ -7936,10 +7996,10 @@
         <v>445</v>
       </c>
       <c r="B76" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C76" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
@@ -7948,7 +8008,7 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
@@ -7964,10 +8024,10 @@
         <v>448</v>
       </c>
       <c r="B77" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C77" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
@@ -7976,21 +8036,21 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
         <v>450</v>
       </c>
       <c r="L77" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="s">
         <v>451</v>
       </c>
       <c r="O77" t="s">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="P77" t="s">
         <v>452</v>
@@ -8004,10 +8064,10 @@
         <v>454</v>
       </c>
       <c r="B78" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="C78" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D78" t="s">
         <v>455</v>
@@ -8018,21 +8078,21 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
         <v>450</v>
       </c>
       <c r="L78" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="s">
         <v>457</v>
       </c>
       <c r="O78" t="s">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="P78" t="s">
         <v>452</v>
@@ -8046,7 +8106,7 @@
         <v>459</v>
       </c>
       <c r="B79" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -8055,7 +8115,7 @@
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="M79" t="s">
         <v>460</v>
@@ -8071,10 +8131,10 @@
         <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="C80" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="D80" t="s">
         <v>167</v>
@@ -8085,7 +8145,7 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="J80" t="s">
         <v>463</v>
@@ -8094,7 +8154,7 @@
         <v>464</v>
       </c>
       <c r="L80" t="s">
-        <v>962</v>
+        <v>978</v>
       </c>
       <c r="M80" t="s">
         <v>465</v>
@@ -8103,7 +8163,7 @@
         <v>466</v>
       </c>
       <c r="O80" t="s">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="P80" t="s">
         <v>467</v>
@@ -8117,10 +8177,10 @@
         <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C81" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="D81" t="s">
         <v>470</v>
@@ -8142,10 +8202,10 @@
         <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C82" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D82" t="s">
         <v>473</v>
@@ -8167,10 +8227,10 @@
         <v>475</v>
       </c>
       <c r="B83" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="C83" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="D83" t="s">
         <v>476</v>
@@ -8183,7 +8243,7 @@
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83" t="s">
-        <v>963</v>
+        <v>979</v>
       </c>
       <c r="M83" t="s">
         <v>478</v>
@@ -8199,10 +8259,10 @@
         <v>480</v>
       </c>
       <c r="B84" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="C84" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="D84" t="s">
         <v>481</v>
@@ -8215,7 +8275,7 @@
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="s">
-        <v>964</v>
+        <v>980</v>
       </c>
       <c r="M84" t="s">
         <v>483</v>
@@ -8231,10 +8291,10 @@
         <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C85" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="D85"/>
       <c r="E85" t="s">
@@ -8254,10 +8314,10 @@
         <v>487</v>
       </c>
       <c r="B86" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C86" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="D86" t="s">
         <v>488</v>
@@ -8268,14 +8328,14 @@
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="J86"/>
       <c r="K86" t="s">
         <v>490</v>
       </c>
       <c r="L86" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="M86"/>
       <c r="N86" t="s">
@@ -8289,10 +8349,10 @@
         <v>491</v>
       </c>
       <c r="B87" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C87" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="D87" t="s">
         <v>492</v>
@@ -8303,7 +8363,7 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="J87" t="s">
         <v>494</v>
@@ -8312,7 +8372,7 @@
         <v>495</v>
       </c>
       <c r="L87" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
       <c r="M87" t="s">
         <v>496</v>
@@ -8321,7 +8381,7 @@
         <v>497</v>
       </c>
       <c r="O87" t="s">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="P87" t="s">
         <v>498</v>
@@ -8335,10 +8395,10 @@
         <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C88" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="D88" t="s">
         <v>501</v>
@@ -8360,10 +8420,10 @@
         <v>503</v>
       </c>
       <c r="B89" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="C89" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="D89" t="s">
         <v>504</v>
@@ -8376,7 +8436,7 @@
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="M89" t="s">
         <v>506</v>
@@ -8385,7 +8445,7 @@
         <v>507</v>
       </c>
       <c r="O89" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="P89" t="s">
         <v>508</v>
@@ -8399,7 +8459,7 @@
         <v>510</v>
       </c>
       <c r="B90" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -8408,7 +8468,7 @@
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="M90" t="s">
         <v>511</v>
@@ -8417,7 +8477,7 @@
         <v>286</v>
       </c>
       <c r="O90" t="s">
-        <v>1033</v>
+        <v>1049</v>
       </c>
       <c r="P90" t="s">
         <v>512</v>
@@ -8431,12 +8491,12 @@
         <v>514</v>
       </c>
       <c r="B91" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="G91" t="s">
         <v>515</v>
@@ -8477,10 +8537,10 @@
         <v>517</v>
       </c>
       <c r="B92" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C92" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="D92" t="s">
         <v>518</v>
@@ -8489,7 +8549,7 @@
         <v>519</v>
       </c>
       <c r="F92" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="G92" t="s">
         <v>520</v>
@@ -8509,10 +8569,10 @@
         <v>522</v>
       </c>
       <c r="B93" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C93" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="D93" t="s">
         <v>523</v>
@@ -8521,7 +8581,7 @@
         <v>519</v>
       </c>
       <c r="F93" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="G93" t="s">
         <v>524</v>
@@ -8541,10 +8601,10 @@
         <v>526</v>
       </c>
       <c r="B94" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C94" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="D94" t="s">
         <v>527</v>
@@ -8553,7 +8613,7 @@
         <v>528</v>
       </c>
       <c r="F94" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="G94" t="s">
         <v>529</v>
@@ -8573,14 +8633,14 @@
         <v>531</v>
       </c>
       <c r="B95" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="J95" t="s">
         <v>532</v>
@@ -8589,7 +8649,7 @@
         <v>533</v>
       </c>
       <c r="L95" t="s">
-        <v>968</v>
+        <v>984</v>
       </c>
       <c r="M95" t="s">
         <v>534</v>
@@ -8598,7 +8658,7 @@
         <v>535</v>
       </c>
       <c r="O95" t="s">
-        <v>1034</v>
+        <v>1050</v>
       </c>
       <c r="P95" t="s">
         <v>536</v>
@@ -8612,14 +8672,14 @@
         <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="J96" t="s">
         <v>539</v>
@@ -8628,7 +8688,7 @@
         <v>540</v>
       </c>
       <c r="L96" t="s">
-        <v>969</v>
+        <v>985</v>
       </c>
       <c r="M96" t="s">
         <v>541</v>
@@ -8644,14 +8704,14 @@
         <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="J97" t="s">
         <v>539</v>
@@ -8660,7 +8720,7 @@
         <v>540</v>
       </c>
       <c r="L97" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
       <c r="M97" t="s">
         <v>544</v>
@@ -8676,10 +8736,10 @@
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C98" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8701,10 +8761,10 @@
         <v>549</v>
       </c>
       <c r="B99" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C99" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="D99" t="s">
         <v>550</v>
@@ -8726,10 +8786,10 @@
         <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C100" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="D100" t="s">
         <v>553</v>
@@ -8738,7 +8798,7 @@
         <v>554</v>
       </c>
       <c r="F100" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="G100" t="s">
         <v>555</v>
@@ -8758,10 +8818,10 @@
         <v>557</v>
       </c>
       <c r="B101" t="s">
-        <v>725</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="D101" t="s">
         <v>558</v>
@@ -8772,7 +8832,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="J101" t="s">
         <v>560</v>
@@ -8781,7 +8841,7 @@
         <v>561</v>
       </c>
       <c r="L101" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="M101" t="s">
         <v>562</v>
@@ -8790,7 +8850,7 @@
         <v>563</v>
       </c>
       <c r="O101" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
       <c r="P101" t="s">
         <v>564</v>
@@ -8804,10 +8864,10 @@
         <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C102" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="D102" t="s">
         <v>567</v>
@@ -8829,10 +8889,10 @@
         <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="C103" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="D103" t="s">
         <v>570</v>
@@ -8854,10 +8914,10 @@
         <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="C104" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="D104" t="s">
         <v>573</v>
@@ -8879,7 +8939,7 @@
         <v>575</v>
       </c>
       <c r="B105" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
@@ -8897,7 +8957,7 @@
         <v>576</v>
       </c>
       <c r="B106" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
@@ -8906,7 +8966,7 @@
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106" t="s">
-        <v>972</v>
+        <v>988</v>
       </c>
       <c r="M106" t="s">
         <v>577</v>
@@ -8922,10 +8982,10 @@
         <v>579</v>
       </c>
       <c r="B107" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="C107" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="D107" t="s">
         <v>580</v>
@@ -8936,7 +8996,7 @@
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="J107" t="s">
         <v>582</v>
@@ -8945,7 +9005,7 @@
         <v>583</v>
       </c>
       <c r="L107" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="M107" t="s">
         <v>584</v>
@@ -8954,7 +9014,7 @@
         <v>585</v>
       </c>
       <c r="O107" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
       <c r="P107" t="s">
         <v>586</v>
@@ -8968,10 +9028,10 @@
         <v>588</v>
       </c>
       <c r="B108" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="C108" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="D108" t="s">
         <v>589</v>
@@ -8982,7 +9042,7 @@
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="J108" t="s">
         <v>591</v>
@@ -8991,7 +9051,7 @@
         <v>592</v>
       </c>
       <c r="L108" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="M108" t="s">
         <v>593</v>
@@ -9000,7 +9060,7 @@
         <v>594</v>
       </c>
       <c r="O108" t="s">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="P108" t="s">
         <v>595</v>
@@ -9014,10 +9074,10 @@
         <v>597</v>
       </c>
       <c r="B109" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C109" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="D109" t="s">
         <v>598</v>
@@ -9028,7 +9088,7 @@
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="J109" t="s">
         <v>600</v>
@@ -9037,7 +9097,7 @@
         <v>601</v>
       </c>
       <c r="L109" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="M109" t="s">
         <v>511</v>
@@ -9046,7 +9106,7 @@
         <v>286</v>
       </c>
       <c r="O109" t="s">
-        <v>1038</v>
+        <v>1054</v>
       </c>
       <c r="P109" t="s">
         <v>602</v>
@@ -9060,10 +9120,10 @@
         <v>604</v>
       </c>
       <c r="B110" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="C110" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="D110" t="s">
         <v>605</v>
@@ -9074,7 +9134,7 @@
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="J110" t="s">
         <v>607</v>
@@ -9083,7 +9143,7 @@
         <v>608</v>
       </c>
       <c r="L110" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
       <c r="M110" t="s">
         <v>609</v>
@@ -9092,7 +9152,7 @@
         <v>610</v>
       </c>
       <c r="O110" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
       <c r="P110" t="s">
         <v>611</v>
@@ -9106,10 +9166,7 @@
         <v>613</v>
       </c>
       <c r="B111" t="s">
-        <v>731</v>
-      </c>
-      <c r="C111" t="s">
-        <v>828</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
         <v>614</v>
@@ -9119,26 +9176,17 @@
       </c>
       <c r="G111"/>
       <c r="H111"/>
-      <c r="I111" t="s">
-        <v>904</v>
-      </c>
       <c r="J111" t="s">
         <v>616</v>
       </c>
       <c r="K111" t="s">
         <v>617</v>
       </c>
-      <c r="L111" t="s">
-        <v>976</v>
-      </c>
       <c r="M111" t="s">
         <v>618</v>
       </c>
       <c r="N111" t="s">
         <v>619</v>
-      </c>
-      <c r="O111" t="s">
-        <v>1040</v>
       </c>
       <c r="P111" t="s">
         <v>620</v>
@@ -9152,10 +9200,7 @@
         <v>622</v>
       </c>
       <c r="B112" t="s">
-        <v>731</v>
-      </c>
-      <c r="C112" t="s">
-        <v>829</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
         <v>623</v>
@@ -9165,26 +9210,17 @@
       </c>
       <c r="G112"/>
       <c r="H112"/>
-      <c r="I112" t="s">
-        <v>905</v>
-      </c>
       <c r="J112" t="s">
         <v>625</v>
       </c>
       <c r="K112" t="s">
         <v>626</v>
       </c>
-      <c r="L112" t="s">
-        <v>977</v>
-      </c>
       <c r="M112" t="s">
         <v>627</v>
       </c>
       <c r="N112" t="s">
         <v>628</v>
-      </c>
-      <c r="O112" t="s">
-        <v>1041</v>
       </c>
       <c r="P112" t="s">
         <v>629</v>
@@ -9198,10 +9234,10 @@
         <v>631</v>
       </c>
       <c r="B113" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="C113" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="D113" t="s">
         <v>632</v>
@@ -9212,7 +9248,7 @@
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="J113" t="s">
         <v>634</v>
@@ -9221,7 +9257,7 @@
         <v>635</v>
       </c>
       <c r="L113" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="M113" t="s">
         <v>636</v>
@@ -9230,324 +9266,331 @@
         <v>637</v>
       </c>
       <c r="O113" t="s">
-        <v>1042</v>
+        <v>1056</v>
       </c>
       <c r="P113" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="Q113" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>638</v>
+      </c>
+      <c r="B114" t="s">
+        <v>747</v>
+      </c>
+      <c r="C114" t="s">
+        <v>845</v>
+      </c>
+      <c r="D114" t="s">
+        <v>639</v>
+      </c>
+      <c r="E114" t="s">
         <v>640</v>
-      </c>
-      <c r="B114" t="s">
-        <v>748</v>
-      </c>
-      <c r="C114" t="s">
-        <v>831</v>
-      </c>
-      <c r="D114" t="s">
-        <v>641</v>
-      </c>
-      <c r="E114" t="s">
-        <v>642</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="J114" t="s">
+        <v>641</v>
+      </c>
+      <c r="K114" t="s">
+        <v>642</v>
+      </c>
+      <c r="L114" t="s">
+        <v>993</v>
+      </c>
+      <c r="M114" t="s">
         <v>643</v>
       </c>
-      <c r="K114" t="s">
+      <c r="N114" t="s">
         <v>644</v>
       </c>
-      <c r="L114" t="s">
-        <v>979</v>
-      </c>
-      <c r="M114" t="s">
+      <c r="O114" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P114" t="s">
         <v>645</v>
       </c>
-      <c r="N114" t="s">
+      <c r="Q114" t="s">
         <v>646</v>
-      </c>
-      <c r="O114" t="s">
-        <v>1043</v>
-      </c>
-      <c r="P114" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>647</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>846</v>
+      </c>
+      <c r="D115" t="s">
+        <v>648</v>
+      </c>
+      <c r="E115" t="s">
         <v>649</v>
-      </c>
-      <c r="B115" t="s">
-        <v>748</v>
-      </c>
-      <c r="C115" t="s">
-        <v>650</v>
-      </c>
-      <c r="D115" t="s">
-        <v>650</v>
-      </c>
-      <c r="E115" t="s">
-        <v>650</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
+      <c r="I115" t="s">
+        <v>922</v>
+      </c>
+      <c r="J115" t="s">
+        <v>650</v>
+      </c>
+      <c r="K115" t="s">
+        <v>651</v>
+      </c>
+      <c r="L115" t="s">
+        <v>994</v>
+      </c>
+      <c r="M115" t="s">
+        <v>652</v>
+      </c>
+      <c r="N115" t="s">
+        <v>653</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P115" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B116" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="C116" t="s">
-        <v>650</v>
+        <v>847</v>
       </c>
       <c r="D116" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="E116" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116" t="s">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="J116" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="K116" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="L116" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="M116" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="N116" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="O116" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="P116" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="Q116" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B117" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="C117" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="D117" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="E117" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
-      <c r="I117" t="s">
-        <v>909</v>
-      </c>
-      <c r="J117" t="s">
-        <v>659</v>
-      </c>
-      <c r="K117" t="s">
-        <v>660</v>
-      </c>
-      <c r="L117" t="s">
-        <v>981</v>
-      </c>
-      <c r="M117" t="s">
-        <v>661</v>
-      </c>
-      <c r="N117" t="s">
-        <v>662</v>
-      </c>
-      <c r="O117" t="s">
-        <v>1045</v>
-      </c>
-      <c r="P117" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>664</v>
-      </c>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B118" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="C118" t="s">
-        <v>832</v>
+        <v>666</v>
       </c>
       <c r="D118" t="s">
         <v>666</v>
       </c>
       <c r="E118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
-      <c r="J118"/>
-      <c r="K118"/>
+      <c r="I118" t="s">
+        <v>924</v>
+      </c>
+      <c r="J118" t="s">
+        <v>668</v>
+      </c>
+      <c r="K118" t="s">
+        <v>669</v>
+      </c>
       <c r="L118" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="M118" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="N118" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="O118" t="s">
-        <v>1046</v>
+        <v>1060</v>
       </c>
       <c r="P118" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="Q118" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B119" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="C119" t="s">
-        <v>833</v>
+        <v>666</v>
       </c>
       <c r="D119" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E119" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
-      <c r="J119"/>
-      <c r="K119"/>
+      <c r="I119" t="s">
+        <v>925</v>
+      </c>
+      <c r="J119" t="s">
+        <v>675</v>
+      </c>
+      <c r="K119" t="s">
+        <v>676</v>
+      </c>
       <c r="L119" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="M119" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="N119" t="s">
-        <v>676</v>
-      </c>
-      <c r="P119"/>
-      <c r="Q119"/>
+        <v>678</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P119" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B120" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C120" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="D120" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E120" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
-      <c r="I120" t="s">
-        <v>910</v>
-      </c>
-      <c r="J120" t="s">
-        <v>680</v>
-      </c>
-      <c r="K120" t="s">
-        <v>681</v>
-      </c>
+      <c r="J120"/>
+      <c r="K120"/>
       <c r="L120" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="M120" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="N120" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O120" t="s">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="P120" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="Q120" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B121" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C121" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="D121" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E121" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
-      <c r="I121" t="s">
-        <v>911</v>
-      </c>
-      <c r="J121" t="s">
-        <v>689</v>
-      </c>
-      <c r="K121" t="s">
-        <v>690</v>
-      </c>
+      <c r="J121"/>
+      <c r="K121"/>
       <c r="L121" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="M121" t="s">
         <v>691</v>
@@ -9555,170 +9598,255 @@
       <c r="N121" t="s">
         <v>692</v>
       </c>
-      <c r="O121" t="s">
-        <v>1048</v>
-      </c>
-      <c r="P121" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>694</v>
-      </c>
+      <c r="P121"/>
+      <c r="Q121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>693</v>
+      </c>
+      <c r="B122" t="s">
+        <v>765</v>
+      </c>
+      <c r="C122" t="s">
+        <v>850</v>
+      </c>
+      <c r="D122" t="s">
+        <v>694</v>
+      </c>
+      <c r="E122" t="s">
         <v>695</v>
-      </c>
-      <c r="B122" t="s">
-        <v>750</v>
-      </c>
-      <c r="C122" t="s">
-        <v>836</v>
-      </c>
-      <c r="D122" t="s">
-        <v>696</v>
-      </c>
-      <c r="E122" t="s">
-        <v>697</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
       <c r="J122" t="s">
+        <v>696</v>
+      </c>
+      <c r="K122" t="s">
+        <v>697</v>
+      </c>
+      <c r="L122" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M122" t="s">
         <v>698</v>
       </c>
-      <c r="K122" t="s">
+      <c r="N122" t="s">
         <v>699</v>
       </c>
-      <c r="L122" t="s">
-        <v>986</v>
-      </c>
-      <c r="M122" t="s">
+      <c r="O122" t="s">
+        <v>1063</v>
+      </c>
+      <c r="P122" t="s">
         <v>700</v>
       </c>
-      <c r="N122" t="s">
+      <c r="Q122" t="s">
         <v>701</v>
-      </c>
-      <c r="O122" t="s">
-        <v>1049</v>
-      </c>
-      <c r="P122" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>702</v>
+      </c>
+      <c r="B123" t="s">
+        <v>740</v>
+      </c>
+      <c r="C123" t="s">
+        <v>851</v>
+      </c>
+      <c r="D123" t="s">
+        <v>703</v>
+      </c>
+      <c r="E123" t="s">
         <v>704</v>
-      </c>
-      <c r="B123" t="s">
-        <v>751</v>
-      </c>
-      <c r="C123" t="s">
-        <v>837</v>
-      </c>
-      <c r="D123" t="s">
-        <v>705</v>
-      </c>
-      <c r="E123" t="s">
-        <v>706</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="J123" t="s">
+        <v>705</v>
+      </c>
+      <c r="K123" t="s">
+        <v>706</v>
+      </c>
+      <c r="L123" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M123" t="s">
         <v>707</v>
       </c>
-      <c r="K123" t="s">
+      <c r="N123" t="s">
         <v>708</v>
       </c>
-      <c r="L123" t="s">
-        <v>987</v>
-      </c>
-      <c r="M123" t="s">
+      <c r="O123" t="s">
+        <v>1064</v>
+      </c>
+      <c r="P123" t="s">
         <v>709</v>
       </c>
-      <c r="N123" t="s">
+      <c r="Q123" t="s">
         <v>710</v>
-      </c>
-      <c r="O123" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P123" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>711</v>
+      </c>
+      <c r="B124" t="s">
+        <v>766</v>
+      </c>
+      <c r="C124" t="s">
+        <v>852</v>
+      </c>
+      <c r="D124" t="s">
+        <v>712</v>
+      </c>
+      <c r="E124" t="s">
         <v>713</v>
-      </c>
-      <c r="B124" t="s">
-        <v>750</v>
-      </c>
-      <c r="C124" t="s">
-        <v>838</v>
-      </c>
-      <c r="D124" t="s">
-        <v>714</v>
-      </c>
-      <c r="E124" t="s">
-        <v>715</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="M124"/>
-      <c r="N124"/>
-      <c r="P124"/>
-      <c r="Q124"/>
+      <c r="I124" t="s">
+        <v>928</v>
+      </c>
+      <c r="J124" t="s">
+        <v>714</v>
+      </c>
+      <c r="K124" t="s">
+        <v>715</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M124" t="s">
+        <v>716</v>
+      </c>
+      <c r="N124" t="s">
+        <v>717</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1065</v>
+      </c>
+      <c r="P124" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B125" t="s">
-        <v>731</v>
-      </c>
-      <c r="D125"/>
-      <c r="E125"/>
+        <v>767</v>
+      </c>
+      <c r="C125" t="s">
+        <v>853</v>
+      </c>
+      <c r="D125" t="s">
+        <v>721</v>
+      </c>
+      <c r="E125" t="s">
+        <v>722</v>
+      </c>
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="J125" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="K125" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="L125" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="M125" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="N125" t="s">
+        <v>726</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P125" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>729</v>
+      </c>
+      <c r="B126" t="s">
+        <v>766</v>
+      </c>
+      <c r="C126" t="s">
+        <v>854</v>
+      </c>
+      <c r="D126" t="s">
+        <v>730</v>
+      </c>
+      <c r="E126" t="s">
+        <v>731</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>732</v>
+      </c>
+      <c r="B127" t="s">
+        <v>747</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127" t="s">
+        <v>930</v>
+      </c>
+      <c r="J127" t="s">
+        <v>733</v>
+      </c>
+      <c r="K127" t="s">
+        <v>734</v>
+      </c>
+      <c r="L127" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M127" t="s">
+        <v>735</v>
+      </c>
+      <c r="N127" t="s">
         <v>457</v>
       </c>
-      <c r="O125" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P125" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>721</v>
+      <c r="O127" t="s">
+        <v>1067</v>
+      </c>
+      <c r="P127" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
